--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1327">
   <si>
     <t>gid</t>
   </si>
@@ -2072,6 +2072,9 @@
   </si>
   <si>
     <t>เสียชีวิต</t>
+  </si>
+  <si>
+    <t>ไม่ระบุตำ</t>
   </si>
   <si>
     <t>ล่าสุดในพื้นที่กรุงเทพมหานครมีผู้ติดเชื้อรายใหม่เพิ่มขึ้น จำนวน 14 ราย ขณะนี้ กทม.อยู่ระหว่างสอบสวนโรค เบื้องต้นผู้ติดเชื้อดังกล่าว และผู้ติดเชื้อร้อยละ 98 เชื่อมโยงกับการแพร่ระบาดของโรคโควิด-19 จากตลาดใน จ.สมุทรสาคร ปัจจุบัน กทม.ได้ตรวจเชิงรุกในตลาดและโรงงานไปแล้ว 531 ราย พบว่ามีผู้ติดเชื้อบางส่วน ซึ่ง ศบค.จะแถลงต่อไป</t>
@@ -4454,16 +4457,16 @@
         <v>683</v>
       </c>
       <c r="I2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4492,31 +4495,31 @@
         <v>684</v>
       </c>
       <c r="I3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="P3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="R3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4545,25 +4548,25 @@
         <v>684</v>
       </c>
       <c r="I4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="O4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="P4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4592,31 +4595,31 @@
         <v>684</v>
       </c>
       <c r="I5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="N5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="P5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="Q5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4645,28 +4648,28 @@
         <v>684</v>
       </c>
       <c r="I6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N6" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="O6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="P6" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="Q6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="R6" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4695,31 +4698,31 @@
         <v>684</v>
       </c>
       <c r="I7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M7" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N7" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="O7" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="P7" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="Q7" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="R7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4748,31 +4751,31 @@
         <v>684</v>
       </c>
       <c r="I8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M8" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O8" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="P8" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="Q8" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="R8" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4801,31 +4804,31 @@
         <v>684</v>
       </c>
       <c r="I9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J9" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M9" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N9" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O9" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P9" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q9" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="R9" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4854,31 +4857,31 @@
         <v>684</v>
       </c>
       <c r="I10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J10" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N10" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P10" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="R10" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4907,31 +4910,31 @@
         <v>684</v>
       </c>
       <c r="I11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J11" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M11" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N11" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O11" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P11" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q11" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="R11" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4960,31 +4963,31 @@
         <v>684</v>
       </c>
       <c r="I12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N12" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O12" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="P12" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="Q12" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="R12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5013,31 +5016,31 @@
         <v>683</v>
       </c>
       <c r="I13" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P13" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q13" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="R13" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5066,31 +5069,31 @@
         <v>684</v>
       </c>
       <c r="I14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M14" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="R14" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5119,31 +5122,31 @@
         <v>684</v>
       </c>
       <c r="I15" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M15" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N15" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O15" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q15" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="R15" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5172,31 +5175,31 @@
         <v>684</v>
       </c>
       <c r="I16" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J16" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M16" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N16" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O16" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P16" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q16" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="R16" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5225,31 +5228,31 @@
         <v>684</v>
       </c>
       <c r="I17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M17" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N17" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O17" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P17" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q17" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="R17" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5278,31 +5281,31 @@
         <v>684</v>
       </c>
       <c r="I18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M18" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N18" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O18" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P18" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q18" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R18" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5331,28 +5334,28 @@
         <v>684</v>
       </c>
       <c r="I19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J19" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M19" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N19" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O19" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P19" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R19" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5381,28 +5384,28 @@
         <v>684</v>
       </c>
       <c r="I20" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J20" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M20" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N20" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O20" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P20" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R20" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5431,31 +5434,31 @@
         <v>684</v>
       </c>
       <c r="I21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J21" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M21" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N21" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O21" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P21" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q21" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="R21" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -5484,31 +5487,31 @@
         <v>684</v>
       </c>
       <c r="I22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M22" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N22" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O22" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P22" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q22" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R22" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5537,31 +5540,31 @@
         <v>684</v>
       </c>
       <c r="I23" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J23" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M23" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N23" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O23" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P23" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q23" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="R23" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5590,31 +5593,31 @@
         <v>684</v>
       </c>
       <c r="I24" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J24" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M24" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N24" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P24" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q24" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="R24" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -5643,31 +5646,31 @@
         <v>684</v>
       </c>
       <c r="I25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J25" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N25" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O25" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P25" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q25" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="R25" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5696,28 +5699,28 @@
         <v>684</v>
       </c>
       <c r="I26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J26" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M26" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N26" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O26" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P26" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R26" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -5746,31 +5749,31 @@
         <v>684</v>
       </c>
       <c r="I27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M27" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N27" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O27" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P27" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q27" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R27" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -5799,28 +5802,28 @@
         <v>684</v>
       </c>
       <c r="I28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N28" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O28" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="P28" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="Q28" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="R28" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -5849,31 +5852,31 @@
         <v>684</v>
       </c>
       <c r="I29" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J29" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M29" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N29" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="O29" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="P29" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="Q29" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="R29" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -5902,31 +5905,31 @@
         <v>683</v>
       </c>
       <c r="I30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J30" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M30" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N30" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O30" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P30" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q30" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="R30" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -5955,31 +5958,31 @@
         <v>683</v>
       </c>
       <c r="I31" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J31" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M31" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N31" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O31" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P31" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q31" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="R31" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -6008,28 +6011,28 @@
         <v>683</v>
       </c>
       <c r="I32" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J32" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N32" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="O32" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P32" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Q32" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R32" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -6058,31 +6061,31 @@
         <v>683</v>
       </c>
       <c r="I33" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J33" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M33" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N33" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="O33" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P33" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="Q33" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="R33" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -6111,25 +6114,25 @@
         <v>683</v>
       </c>
       <c r="I34" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J34" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O34" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P34" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="Q34" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R34" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -6158,31 +6161,31 @@
         <v>684</v>
       </c>
       <c r="I35" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J35" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M35" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N35" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O35" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="P35" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="Q35" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="R35" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -6211,31 +6214,31 @@
         <v>684</v>
       </c>
       <c r="I36" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M36" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N36" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O36" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P36" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="Q36" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="R36" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -6264,31 +6267,31 @@
         <v>684</v>
       </c>
       <c r="I37" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M37" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N37" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="O37" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="P37" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="Q37" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="R37" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6317,31 +6320,31 @@
         <v>684</v>
       </c>
       <c r="I38" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J38" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M38" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N38" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="O38" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="P38" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="Q38" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="R38" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -6370,25 +6373,25 @@
         <v>684</v>
       </c>
       <c r="I39" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J39" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O39" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="P39" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="Q39" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R39" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -6417,22 +6420,22 @@
         <v>683</v>
       </c>
       <c r="I40" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J40" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O40" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="Q40" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="R40" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -6461,31 +6464,31 @@
         <v>684</v>
       </c>
       <c r="I41" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J41" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M41" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N41" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="O41" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="P41" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="Q41" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="R41" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -6514,31 +6517,31 @@
         <v>684</v>
       </c>
       <c r="I42" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J42" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M42" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N42" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O42" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="P42" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Q42" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="R42" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6567,31 +6570,31 @@
         <v>684</v>
       </c>
       <c r="I43" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J43" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M43" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N43" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="O43" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="P43" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="Q43" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="R43" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -6620,31 +6623,31 @@
         <v>684</v>
       </c>
       <c r="I44" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J44" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M44" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N44" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O44" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="P44" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="Q44" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="R44" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -6673,31 +6676,31 @@
         <v>684</v>
       </c>
       <c r="I45" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J45" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M45" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N45" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="O45" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="P45" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="Q45" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="R45" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -6726,31 +6729,31 @@
         <v>684</v>
       </c>
       <c r="I46" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J46" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N46" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O46" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="P46" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Q46" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R46" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -6779,31 +6782,31 @@
         <v>684</v>
       </c>
       <c r="I47" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J47" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M47" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N47" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="O47" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="P47" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="Q47" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="R47" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -6832,31 +6835,31 @@
         <v>684</v>
       </c>
       <c r="I48" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J48" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M48" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N48" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O48" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P48" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q48" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="R48" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -6885,31 +6888,31 @@
         <v>684</v>
       </c>
       <c r="I49" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J49" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M49" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N49" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O49" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P49" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q49" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="R49" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -6938,31 +6941,31 @@
         <v>684</v>
       </c>
       <c r="I50" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J50" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M50" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N50" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O50" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P50" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q50" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="R50" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -6991,31 +6994,31 @@
         <v>684</v>
       </c>
       <c r="I51" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J51" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M51" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N51" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O51" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P51" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="Q51" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="R51" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -7044,31 +7047,31 @@
         <v>684</v>
       </c>
       <c r="I52" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J52" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M52" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N52" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O52" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P52" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="Q52" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="R52" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -7097,25 +7100,25 @@
         <v>684</v>
       </c>
       <c r="I53" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J53" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M53" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N53" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O53" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P53" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -7144,25 +7147,25 @@
         <v>684</v>
       </c>
       <c r="I54" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J54" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M54" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N54" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="O54" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P54" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -7191,31 +7194,31 @@
         <v>684</v>
       </c>
       <c r="I55" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J55" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M55" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N55" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O55" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P55" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q55" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="R55" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -7244,22 +7247,22 @@
         <v>684</v>
       </c>
       <c r="I56" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J56" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N56" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="O56" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P56" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -7288,31 +7291,31 @@
         <v>684</v>
       </c>
       <c r="I57" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J57" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M57" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N57" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="O57" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P57" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="Q57" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="R57" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -7341,31 +7344,31 @@
         <v>684</v>
       </c>
       <c r="I58" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J58" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M58" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N58" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="O58" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P58" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="Q58" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="R58" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -7394,31 +7397,31 @@
         <v>684</v>
       </c>
       <c r="I59" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J59" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M59" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N59" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="O59" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="P59" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="Q59" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="R59" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -7447,31 +7450,31 @@
         <v>684</v>
       </c>
       <c r="I60" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J60" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M60" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="N60" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="O60" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="P60" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="Q60" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="R60" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -7500,28 +7503,28 @@
         <v>684</v>
       </c>
       <c r="I61" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J61" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M61" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="N61" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="O61" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="P61" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R61" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -7550,31 +7553,31 @@
         <v>684</v>
       </c>
       <c r="I62" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J62" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M62" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="N62" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="O62" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="P62" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="Q62" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="R62" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -7603,31 +7606,31 @@
         <v>684</v>
       </c>
       <c r="I63" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J63" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M63" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N63" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="O63" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="P63" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="Q63" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="R63" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -7656,31 +7659,31 @@
         <v>684</v>
       </c>
       <c r="I64" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J64" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M64" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="N64" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O64" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="P64" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="Q64" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R64" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -7709,31 +7712,31 @@
         <v>684</v>
       </c>
       <c r="I65" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J65" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N65" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O65" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="P65" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q65" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R65" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -7762,31 +7765,31 @@
         <v>684</v>
       </c>
       <c r="I66" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J66" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M66" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N66" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="O66" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P66" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="Q66" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="R66" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -7815,31 +7818,31 @@
         <v>684</v>
       </c>
       <c r="I67" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J67" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M67" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N67" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="O67" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P67" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="Q67" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R67" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -7868,31 +7871,31 @@
         <v>684</v>
       </c>
       <c r="I68" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J68" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M68" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="N68" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="O68" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="P68" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="Q68" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="R68" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -7921,31 +7924,31 @@
         <v>684</v>
       </c>
       <c r="I69" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J69" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M69" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="N69" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O69" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="P69" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="Q69" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R69" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -7974,31 +7977,31 @@
         <v>684</v>
       </c>
       <c r="I70" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J70" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M70" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="N70" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O70" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="P70" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="Q70" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="R70" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -8027,31 +8030,31 @@
         <v>685</v>
       </c>
       <c r="I71" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J71" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M71" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="N71" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="O71" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P71" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q71" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="R71" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -8080,25 +8083,25 @@
         <v>684</v>
       </c>
       <c r="I72" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J72" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M72" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N72" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="O72" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="P72" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -8124,34 +8127,34 @@
         <v>682</v>
       </c>
       <c r="H73" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I73" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J73" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M73" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="N73" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="O73" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="P73" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="Q73" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R73" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -8180,31 +8183,31 @@
         <v>684</v>
       </c>
       <c r="I74" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J74" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M74" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="N74" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O74" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="P74" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="Q74" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R74" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -8233,31 +8236,31 @@
         <v>684</v>
       </c>
       <c r="I75" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J75" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M75" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N75" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O75" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="P75" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="Q75" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R75" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -8286,31 +8289,31 @@
         <v>684</v>
       </c>
       <c r="I76" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="J76" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M76" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N76" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O76" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="P76" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q76" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="R76" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -8339,31 +8342,31 @@
         <v>684</v>
       </c>
       <c r="I77" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J77" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M77" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N77" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O77" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="P77" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q77" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="R77" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -8392,31 +8395,31 @@
         <v>684</v>
       </c>
       <c r="I78" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J78" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M78" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N78" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O78" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="P78" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q78" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="R78" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -8445,31 +8448,31 @@
         <v>684</v>
       </c>
       <c r="I79" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J79" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M79" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N79" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O79" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="P79" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q79" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="R79" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -8498,31 +8501,31 @@
         <v>684</v>
       </c>
       <c r="I80" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J80" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M80" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N80" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O80" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="P80" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q80" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="R80" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -8551,31 +8554,31 @@
         <v>684</v>
       </c>
       <c r="I81" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M81" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N81" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="O81" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P81" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="Q81" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="R81" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -8604,31 +8607,31 @@
         <v>684</v>
       </c>
       <c r="I82" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J82" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M82" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N82" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="O82" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P82" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="Q82" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R82" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -8657,28 +8660,28 @@
         <v>684</v>
       </c>
       <c r="I83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J83" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M83" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="N83" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O83" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="P83" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="R83" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -8707,31 +8710,31 @@
         <v>684</v>
       </c>
       <c r="I84" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="J84" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M84" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="N84" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="O84" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="P84" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="Q84" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="R84" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -8760,31 +8763,31 @@
         <v>684</v>
       </c>
       <c r="I85" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J85" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M85" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="N85" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="O85" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="P85" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="Q85" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R85" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -8813,31 +8816,31 @@
         <v>684</v>
       </c>
       <c r="I86" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J86" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M86" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N86" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O86" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="P86" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Q86" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R86" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -8866,31 +8869,31 @@
         <v>684</v>
       </c>
       <c r="I87" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J87" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M87" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N87" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O87" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="P87" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Q87" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="R87" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -8919,31 +8922,31 @@
         <v>684</v>
       </c>
       <c r="I88" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J88" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M88" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="N88" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O88" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P88" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="Q88" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="R88" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -8972,31 +8975,31 @@
         <v>684</v>
       </c>
       <c r="I89" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J89" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M89" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N89" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O89" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P89" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="Q89" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="R89" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -9025,31 +9028,31 @@
         <v>684</v>
       </c>
       <c r="I90" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J90" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M90" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N90" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O90" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P90" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="Q90" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="R90" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -9078,31 +9081,31 @@
         <v>684</v>
       </c>
       <c r="I91" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J91" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M91" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N91" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O91" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P91" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="Q91" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="R91" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -9131,31 +9134,31 @@
         <v>684</v>
       </c>
       <c r="I92" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J92" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M92" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N92" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O92" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="P92" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="Q92" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="R92" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -9184,31 +9187,31 @@
         <v>684</v>
       </c>
       <c r="I93" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J93" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M93" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="N93" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O93" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="P93" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="Q93" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="R93" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -9237,19 +9240,19 @@
         <v>683</v>
       </c>
       <c r="I94" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="J94" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O94" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="R94" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -9278,28 +9281,28 @@
         <v>683</v>
       </c>
       <c r="I95" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J95" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M95" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="N95" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O95" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P95" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="R95" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -9328,28 +9331,28 @@
         <v>683</v>
       </c>
       <c r="I96" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J96" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M96" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N96" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="O96" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P96" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R96" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -9378,28 +9381,28 @@
         <v>683</v>
       </c>
       <c r="I97" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="J97" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M97" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N97" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O97" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P97" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R97" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -9428,28 +9431,28 @@
         <v>683</v>
       </c>
       <c r="I98" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J98" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M98" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N98" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="O98" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P98" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="R98" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -9478,28 +9481,28 @@
         <v>683</v>
       </c>
       <c r="I99" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J99" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M99" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="N99" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="O99" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="P99" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R99" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -9528,28 +9531,28 @@
         <v>683</v>
       </c>
       <c r="I100" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J100" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M100" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="N100" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O100" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P100" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="R100" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -9578,28 +9581,28 @@
         <v>683</v>
       </c>
       <c r="I101" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J101" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M101" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="N101" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="O101" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P101" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="R101" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -9628,28 +9631,28 @@
         <v>683</v>
       </c>
       <c r="I102" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="J102" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M102" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N102" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="O102" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P102" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="R102" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -9678,28 +9681,28 @@
         <v>683</v>
       </c>
       <c r="I103" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J103" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M103" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N103" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O103" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P103" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R103" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -9728,28 +9731,28 @@
         <v>683</v>
       </c>
       <c r="I104" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J104" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M104" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N104" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O104" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P104" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R104" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -9778,28 +9781,28 @@
         <v>683</v>
       </c>
       <c r="I105" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J105" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M105" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N105" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O105" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P105" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R105" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -9828,28 +9831,28 @@
         <v>683</v>
       </c>
       <c r="I106" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J106" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M106" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N106" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="O106" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P106" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="R106" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -9878,28 +9881,28 @@
         <v>683</v>
       </c>
       <c r="I107" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J107" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M107" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N107" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O107" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P107" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R107" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -9928,28 +9931,28 @@
         <v>683</v>
       </c>
       <c r="I108" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J108" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M108" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N108" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O108" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P108" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R108" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -9978,28 +9981,28 @@
         <v>683</v>
       </c>
       <c r="I109" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J109" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M109" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N109" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="O109" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P109" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R109" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -10028,31 +10031,31 @@
         <v>684</v>
       </c>
       <c r="I110" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J110" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M110" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N110" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="O110" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P110" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="Q110" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="R110" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -10081,31 +10084,31 @@
         <v>684</v>
       </c>
       <c r="I111" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J111" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M111" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N111" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O111" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P111" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q111" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="R111" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -10134,31 +10137,31 @@
         <v>684</v>
       </c>
       <c r="I112" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J112" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M112" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N112" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O112" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P112" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q112" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="R112" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -10187,31 +10190,31 @@
         <v>684</v>
       </c>
       <c r="I113" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J113" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M113" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N113" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O113" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P113" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q113" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="R113" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -10240,31 +10243,31 @@
         <v>684</v>
       </c>
       <c r="I114" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J114" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M114" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N114" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O114" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P114" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q114" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="R114" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -10293,31 +10296,31 @@
         <v>684</v>
       </c>
       <c r="I115" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J115" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M115" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N115" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O115" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P115" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q115" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R115" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -10346,31 +10349,31 @@
         <v>684</v>
       </c>
       <c r="I116" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="J116" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M116" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N116" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O116" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P116" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q116" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="R116" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -10399,28 +10402,28 @@
         <v>683</v>
       </c>
       <c r="I117" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J117" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M117" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N117" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O117" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q117" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="R117" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -10449,28 +10452,28 @@
         <v>683</v>
       </c>
       <c r="I118" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J118" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M118" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N118" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O118" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q118" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="R118" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -10499,28 +10502,28 @@
         <v>683</v>
       </c>
       <c r="I119" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J119" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M119" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N119" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O119" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q119" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="R119" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -10549,28 +10552,28 @@
         <v>683</v>
       </c>
       <c r="I120" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="J120" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M120" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N120" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O120" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q120" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="R120" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -10599,28 +10602,28 @@
         <v>683</v>
       </c>
       <c r="I121" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J121" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M121" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N121" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O121" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q121" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R121" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -10649,28 +10652,28 @@
         <v>683</v>
       </c>
       <c r="I122" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J122" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M122" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N122" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O122" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q122" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R122" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -10699,31 +10702,31 @@
         <v>684</v>
       </c>
       <c r="I123" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J123" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M123" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N123" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="O123" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="P123" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="Q123" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="R123" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -10752,31 +10755,31 @@
         <v>684</v>
       </c>
       <c r="I124" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J124" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M124" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N124" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="O124" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="P124" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="Q124" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="R124" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -10805,31 +10808,31 @@
         <v>684</v>
       </c>
       <c r="I125" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J125" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="M125" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N125" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="O125" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P125" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q125" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="R125" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -10858,31 +10861,31 @@
         <v>684</v>
       </c>
       <c r="I126" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J126" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M126" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N126" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O126" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P126" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="Q126" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="R126" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -10911,31 +10914,31 @@
         <v>684</v>
       </c>
       <c r="I127" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J127" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M127" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="N127" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="O127" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="P127" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="Q127" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="R127" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -10964,31 +10967,31 @@
         <v>684</v>
       </c>
       <c r="I128" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J128" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M128" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="N128" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="O128" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="P128" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="Q128" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="R128" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -11017,31 +11020,31 @@
         <v>684</v>
       </c>
       <c r="I129" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J129" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M129" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="N129" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="O129" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="P129" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="Q129" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="R129" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -11070,31 +11073,31 @@
         <v>684</v>
       </c>
       <c r="I130" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J130" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M130" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N130" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O130" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="P130" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q130" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="R130" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -11123,31 +11126,31 @@
         <v>684</v>
       </c>
       <c r="I131" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J131" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M131" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N131" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O131" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="P131" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q131" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="R131" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -11176,31 +11179,31 @@
         <v>684</v>
       </c>
       <c r="I132" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J132" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M132" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N132" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O132" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P132" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q132" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="R132" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -11229,31 +11232,31 @@
         <v>684</v>
       </c>
       <c r="I133" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J133" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M133" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N133" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O133" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P133" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q133" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="R133" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -11282,31 +11285,31 @@
         <v>684</v>
       </c>
       <c r="I134" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J134" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M134" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N134" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O134" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="P134" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="Q134" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="R134" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -11335,31 +11338,31 @@
         <v>684</v>
       </c>
       <c r="I135" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J135" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M135" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N135" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O135" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P135" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q135" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="R135" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -11388,31 +11391,31 @@
         <v>684</v>
       </c>
       <c r="I136" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="J136" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M136" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N136" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O136" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P136" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q136" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="R136" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -11441,31 +11444,31 @@
         <v>684</v>
       </c>
       <c r="I137" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J137" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M137" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="N137" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O137" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P137" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="Q137" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="R137" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -11494,31 +11497,31 @@
         <v>684</v>
       </c>
       <c r="I138" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J138" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M138" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N138" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O138" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P138" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q138" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="R138" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -11547,31 +11550,31 @@
         <v>683</v>
       </c>
       <c r="I139" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J139" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M139" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="N139" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O139" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P139" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="Q139" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R139" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -11600,31 +11603,31 @@
         <v>683</v>
       </c>
       <c r="I140" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J140" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M140" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N140" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O140" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P140" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="Q140" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="R140" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -11653,31 +11656,31 @@
         <v>683</v>
       </c>
       <c r="I141" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J141" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M141" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N141" t="s">
         <v>1101</v>
       </c>
-      <c r="N141" t="s">
-        <v>1100</v>
-      </c>
       <c r="O141" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P141" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="Q141" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="R141" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -11706,31 +11709,31 @@
         <v>683</v>
       </c>
       <c r="I142" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J142" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M142" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N142" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O142" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P142" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q142" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="R142" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -11759,31 +11762,31 @@
         <v>683</v>
       </c>
       <c r="I143" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J143" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M143" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N143" t="s">
         <v>1101</v>
       </c>
-      <c r="N143" t="s">
-        <v>1100</v>
-      </c>
       <c r="O143" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P143" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="Q143" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R143" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -11812,31 +11815,31 @@
         <v>683</v>
       </c>
       <c r="I144" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J144" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M144" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N144" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O144" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P144" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q144" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="R144" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -11865,31 +11868,31 @@
         <v>683</v>
       </c>
       <c r="I145" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J145" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M145" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N145" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O145" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P145" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="Q145" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R145" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -11918,31 +11921,31 @@
         <v>684</v>
       </c>
       <c r="I146" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J146" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M146" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N146" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O146" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P146" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q146" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="R146" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -11971,31 +11974,31 @@
         <v>684</v>
       </c>
       <c r="I147" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J147" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M147" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N147" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="O147" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="P147" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="Q147" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R147" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -12024,31 +12027,31 @@
         <v>684</v>
       </c>
       <c r="I148" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J148" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M148" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="N148" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O148" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="P148" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="Q148" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="R148" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -12077,31 +12080,31 @@
         <v>684</v>
       </c>
       <c r="I149" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J149" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M149" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N149" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O149" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="P149" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="Q149" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R149" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -12130,31 +12133,31 @@
         <v>684</v>
       </c>
       <c r="I150" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J150" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M150" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N150" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="O150" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="P150" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="Q150" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="R150" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -12183,31 +12186,31 @@
         <v>684</v>
       </c>
       <c r="I151" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J151" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M151" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N151" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="O151" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="P151" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="Q151" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="R151" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -12236,22 +12239,22 @@
         <v>683</v>
       </c>
       <c r="I152" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J152" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O152" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="Q152" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="R152" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -12280,25 +12283,25 @@
         <v>683</v>
       </c>
       <c r="I153" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J153" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N153" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O153" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="Q153" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="R153" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -12327,31 +12330,31 @@
         <v>683</v>
       </c>
       <c r="I154" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J154" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M154" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N154" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O154" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P154" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q154" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="R154" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -12380,31 +12383,31 @@
         <v>684</v>
       </c>
       <c r="I155" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J155" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M155" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N155" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O155" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P155" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="Q155" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="R155" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -12433,31 +12436,31 @@
         <v>684</v>
       </c>
       <c r="I156" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J156" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M156" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N156" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O156" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P156" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="Q156" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="R156" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -12486,31 +12489,31 @@
         <v>684</v>
       </c>
       <c r="I157" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J157" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M157" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N157" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O157" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P157" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="Q157" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="R157" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -12539,31 +12542,31 @@
         <v>684</v>
       </c>
       <c r="I158" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J158" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M158" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N158" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O158" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P158" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="Q158" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="R158" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -12592,31 +12595,31 @@
         <v>684</v>
       </c>
       <c r="I159" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J159" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M159" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N159" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O159" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="P159" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="Q159" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="R159" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -12645,31 +12648,31 @@
         <v>683</v>
       </c>
       <c r="I160" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J160" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M160" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N160" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O160" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P160" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q160" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="R160" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -12698,31 +12701,31 @@
         <v>683</v>
       </c>
       <c r="I161" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J161" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M161" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="N161" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O161" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P161" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q161" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="R161" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -12751,31 +12754,31 @@
         <v>683</v>
       </c>
       <c r="I162" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J162" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M162" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N162" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O162" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P162" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q162" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R162" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -12804,31 +12807,31 @@
         <v>683</v>
       </c>
       <c r="I163" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J163" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M163" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N163" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O163" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P163" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="Q163" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R163" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -12857,31 +12860,31 @@
         <v>684</v>
       </c>
       <c r="I164" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J164" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="M164" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N164" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O164" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P164" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q164" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="R164" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -12910,28 +12913,28 @@
         <v>683</v>
       </c>
       <c r="I165" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J165" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N165" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O165" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P165" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q165" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R165" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -12960,28 +12963,28 @@
         <v>683</v>
       </c>
       <c r="I166" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J166" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N166" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O166" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P166" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q166" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="R166" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -13010,31 +13013,31 @@
         <v>683</v>
       </c>
       <c r="I167" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J167" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M167" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N167" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O167" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P167" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q167" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="R167" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -13063,31 +13066,31 @@
         <v>683</v>
       </c>
       <c r="I168" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J168" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M168" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N168" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O168" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P168" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q168" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="R168" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -13116,31 +13119,31 @@
         <v>683</v>
       </c>
       <c r="I169" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J169" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M169" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N169" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O169" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="P169" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Q169" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R169" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1266">
   <si>
     <t>gid</t>
   </si>
@@ -2714,6 +2714,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/pr.chanthaburi/photos/pcb.2962084450738587/2962084277405271</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/808593319236400/photos/a.809202585842140/3562884563807248/</t>
   </si>
   <si>
     <t>https://www.facebook.com/ryinfo19/photos/pcb.232585638376429/232584398376553/</t>
@@ -4280,22 +4283,22 @@
         <v>862</v>
       </c>
       <c r="M2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Q2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="R2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4333,22 +4336,22 @@
         <v>863</v>
       </c>
       <c r="M3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="R3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4386,22 +4389,22 @@
         <v>864</v>
       </c>
       <c r="M4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="P4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="Q4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R4" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4439,22 +4442,22 @@
         <v>865</v>
       </c>
       <c r="M5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="P5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="Q5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4492,22 +4495,22 @@
         <v>866</v>
       </c>
       <c r="M6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O6" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P6" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Q6" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R6" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4545,22 +4548,22 @@
         <v>867</v>
       </c>
       <c r="M7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="O7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="P7" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Q7" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R7" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4598,22 +4601,22 @@
         <v>868</v>
       </c>
       <c r="M8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="Q8" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R8" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4651,22 +4654,22 @@
         <v>869</v>
       </c>
       <c r="M9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O9" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="P9" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="Q9" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="R9" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4704,19 +4707,19 @@
         <v>870</v>
       </c>
       <c r="M10" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N10" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O10" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P10" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="R10" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4754,22 +4757,22 @@
         <v>870</v>
       </c>
       <c r="M11" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N11" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O11" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P11" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q11" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="R11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4807,22 +4810,22 @@
         <v>870</v>
       </c>
       <c r="M12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N12" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O12" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P12" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q12" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="R12" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4860,22 +4863,22 @@
         <v>871</v>
       </c>
       <c r="M13" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N13" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q13" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R13" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4913,22 +4916,22 @@
         <v>870</v>
       </c>
       <c r="M14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N14" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O14" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="R14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4966,22 +4969,22 @@
         <v>870</v>
       </c>
       <c r="M15" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N15" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O15" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P15" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q15" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R15" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5019,22 +5022,22 @@
         <v>870</v>
       </c>
       <c r="M16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N16" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O16" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P16" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q16" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R16" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5072,19 +5075,19 @@
         <v>870</v>
       </c>
       <c r="M17" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N17" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O17" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P17" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="R17" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5122,22 +5125,22 @@
         <v>872</v>
       </c>
       <c r="M18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N18" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O18" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P18" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Q18" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="R18" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5175,22 +5178,22 @@
         <v>873</v>
       </c>
       <c r="M19" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N19" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O19" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P19" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="Q19" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R19" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5228,22 +5231,22 @@
         <v>864</v>
       </c>
       <c r="M20" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N20" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O20" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="P20" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="Q20" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="R20" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5281,22 +5284,22 @@
         <v>864</v>
       </c>
       <c r="M21" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N21" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O21" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="P21" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="Q21" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="R21" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -5334,22 +5337,22 @@
         <v>874</v>
       </c>
       <c r="M22" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N22" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O22" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="P22" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="Q22" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R22" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5387,22 +5390,22 @@
         <v>875</v>
       </c>
       <c r="M23" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N23" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O23" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P23" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Q23" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R23" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5440,19 +5443,19 @@
         <v>876</v>
       </c>
       <c r="N24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O24" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="Q24" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R24" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -5490,19 +5493,19 @@
         <v>870</v>
       </c>
       <c r="M25" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N25" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O25" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P25" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="R25" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5540,13 +5543,13 @@
         <v>877</v>
       </c>
       <c r="O26" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="Q26" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="R26" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -5584,22 +5587,22 @@
         <v>870</v>
       </c>
       <c r="M27" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N27" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O27" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P27" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q27" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R27" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -5637,22 +5640,22 @@
         <v>878</v>
       </c>
       <c r="M28" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N28" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O28" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="P28" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="Q28" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R28" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -5690,22 +5693,22 @@
         <v>879</v>
       </c>
       <c r="M29" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N29" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O29" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P29" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q29" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="R29" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -5743,22 +5746,22 @@
         <v>880</v>
       </c>
       <c r="M30" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N30" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O30" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P30" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q30" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="R30" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -5796,22 +5799,22 @@
         <v>881</v>
       </c>
       <c r="M31" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N31" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O31" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="P31" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="Q31" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="R31" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -5849,22 +5852,22 @@
         <v>882</v>
       </c>
       <c r="M32" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N32" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O32" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="P32" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="Q32" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R32" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -5902,22 +5905,22 @@
         <v>883</v>
       </c>
       <c r="M33" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N33" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O33" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P33" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q33" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="R33" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -5955,22 +5958,22 @@
         <v>884</v>
       </c>
       <c r="M34" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N34" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O34" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="P34" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="Q34" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="R34" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -6008,22 +6011,22 @@
         <v>870</v>
       </c>
       <c r="M35" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N35" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O35" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P35" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q35" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="R35" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -6061,22 +6064,22 @@
         <v>870</v>
       </c>
       <c r="M36" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N36" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O36" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P36" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q36" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="R36" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -6114,22 +6117,22 @@
         <v>870</v>
       </c>
       <c r="M37" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N37" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O37" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P37" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q37" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="R37" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6167,22 +6170,22 @@
         <v>870</v>
       </c>
       <c r="M38" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N38" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O38" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P38" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q38" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="R38" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -6220,22 +6223,22 @@
         <v>885</v>
       </c>
       <c r="M39" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N39" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O39" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="P39" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="Q39" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R39" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -6273,22 +6276,22 @@
         <v>886</v>
       </c>
       <c r="M40" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N40" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O40" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P40" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="Q40" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="R40" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -6326,22 +6329,22 @@
         <v>886</v>
       </c>
       <c r="M41" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N41" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O41" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P41" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q41" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R41" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -6379,22 +6382,22 @@
         <v>870</v>
       </c>
       <c r="M42" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N42" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O42" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P42" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q42" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R42" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6432,19 +6435,19 @@
         <v>887</v>
       </c>
       <c r="N43" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="O43" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="P43" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q43" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="R43" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -6482,22 +6485,22 @@
         <v>888</v>
       </c>
       <c r="M44" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N44" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O44" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P44" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q44" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="R44" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -6535,22 +6538,22 @@
         <v>889</v>
       </c>
       <c r="M45" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N45" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O45" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P45" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q45" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R45" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -6588,19 +6591,19 @@
         <v>890</v>
       </c>
       <c r="M46" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N46" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O46" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P46" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="R46" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -6638,22 +6641,22 @@
         <v>891</v>
       </c>
       <c r="M47" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N47" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O47" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P47" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q47" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R47" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -6691,22 +6694,22 @@
         <v>892</v>
       </c>
       <c r="M48" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N48" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O48" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="P48" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q48" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R48" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -6744,22 +6747,22 @@
         <v>893</v>
       </c>
       <c r="M49" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N49" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O49" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="P49" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="Q49" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R49" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -6797,22 +6800,22 @@
         <v>894</v>
       </c>
       <c r="M50" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N50" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O50" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P50" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="Q50" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="R50" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -6850,22 +6853,22 @@
         <v>895</v>
       </c>
       <c r="M51" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N51" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="O51" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="P51" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="Q51" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="R51" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -6903,22 +6906,22 @@
         <v>896</v>
       </c>
       <c r="M52" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N52" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O52" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P52" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="Q52" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="R52" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -6956,22 +6959,22 @@
         <v>885</v>
       </c>
       <c r="M53" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N53" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O53" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="P53" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="Q53" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="R53" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -7009,16 +7012,16 @@
         <v>897</v>
       </c>
       <c r="M54" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N54" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O54" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P54" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -7056,16 +7059,16 @@
         <v>898</v>
       </c>
       <c r="M55" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N55" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O55" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P55" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -7103,13 +7106,13 @@
         <v>899</v>
       </c>
       <c r="N56" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O56" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P56" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -7134,6 +7137,15 @@
       <c r="I57" t="s">
         <v>715</v>
       </c>
+      <c r="K57" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1238</v>
+      </c>
+      <c r="R57" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
@@ -7167,25 +7179,25 @@
         <v>832</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M58" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N58" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O58" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P58" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q58" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R58" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -7220,22 +7232,22 @@
         <v>826</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M59" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N59" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O59" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P59" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="R59" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -7270,22 +7282,22 @@
         <v>826</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M60" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="N60" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O60" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="P60" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="R60" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -7320,22 +7332,22 @@
         <v>826</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M61" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N61" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="O61" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P61" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="R61" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -7370,25 +7382,25 @@
         <v>833</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M62" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N62" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O62" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P62" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q62" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="R62" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -7423,25 +7435,25 @@
         <v>833</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M63" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N63" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O63" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P63" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="Q63" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R63" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -7476,25 +7488,25 @@
         <v>837</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M64" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N64" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O64" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="P64" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="Q64" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R64" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -7529,25 +7541,25 @@
         <v>822</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M65" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N65" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O65" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P65" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q65" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R65" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -7582,25 +7594,25 @@
         <v>838</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M66" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N66" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O66" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P66" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="Q66" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="R66" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -7635,22 +7647,22 @@
         <v>826</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M67" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N67" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O67" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P67" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R67" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -7685,25 +7697,25 @@
         <v>839</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M68" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N68" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O68" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="P68" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q68" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R68" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -7738,22 +7750,22 @@
         <v>826</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M69" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N69" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O69" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P69" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R69" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -7788,25 +7800,25 @@
         <v>833</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M70" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N70" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O70" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P70" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="Q70" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R70" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -7841,22 +7853,22 @@
         <v>826</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M71" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N71" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O71" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P71" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R71" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -7891,13 +7903,13 @@
         <v>826</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O72" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="R72" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -7932,22 +7944,22 @@
         <v>826</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M73" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N73" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O73" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P73" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R73" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -7982,22 +7994,22 @@
         <v>826</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M74" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N74" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O74" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P74" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R74" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -8032,22 +8044,22 @@
         <v>826</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M75" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N75" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O75" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P75" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R75" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -8082,22 +8094,22 @@
         <v>826</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M76" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N76" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O76" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P76" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="R76" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -8132,22 +8144,22 @@
         <v>826</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M77" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N77" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O77" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P77" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R77" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -8182,22 +8194,22 @@
         <v>826</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M78" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N78" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O78" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P78" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R78" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -8232,22 +8244,22 @@
         <v>826</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M79" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N79" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O79" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P79" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R79" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -8282,25 +8294,25 @@
         <v>829</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M80" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N80" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O80" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P80" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q80" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R80" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -8335,22 +8347,22 @@
         <v>826</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M81" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N81" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O81" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P81" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R81" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -8385,25 +8397,25 @@
         <v>832</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M82" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N82" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O82" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P82" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q82" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R82" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -8438,22 +8450,22 @@
         <v>832</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N83" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O83" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P83" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q83" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="R83" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -8488,22 +8500,22 @@
         <v>832</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N84" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O84" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P84" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q84" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R84" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -8538,22 +8550,22 @@
         <v>837</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M85" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N85" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="O85" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="P85" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="R85" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -8588,25 +8600,25 @@
         <v>840</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M86" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N86" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O86" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P86" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="Q86" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="R86" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -8641,25 +8653,25 @@
         <v>841</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M87" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N87" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O87" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="P87" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q87" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R87" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -8694,25 +8706,25 @@
         <v>842</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M88" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N88" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="O88" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P88" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="Q88" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="R88" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -8747,25 +8759,25 @@
         <v>843</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M89" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="N89" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="O89" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="P89" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="Q89" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="R89" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -8800,25 +8812,25 @@
         <v>844</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M90" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N90" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="O90" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="P90" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="Q90" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="R90" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -8853,25 +8865,25 @@
         <v>845</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M91" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N91" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="O91" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="P91" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="Q91" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R91" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -8906,22 +8918,22 @@
         <v>838</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M92" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N92" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O92" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q92" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="R92" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -8956,25 +8968,25 @@
         <v>843</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M93" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N93" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="O93" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="P93" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="Q93" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R93" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -9009,25 +9021,25 @@
         <v>846</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M94" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N94" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O94" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P94" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q94" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R94" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -9062,22 +9074,22 @@
         <v>838</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M95" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N95" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O95" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q95" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R95" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -9112,22 +9124,22 @@
         <v>838</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M96" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N96" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O96" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q96" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="R96" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -9162,25 +9174,25 @@
         <v>823</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M97" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N97" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O97" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="P97" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q97" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R97" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -9215,22 +9227,22 @@
         <v>838</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M98" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N98" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O98" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q98" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R98" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -9265,22 +9277,22 @@
         <v>838</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M99" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N99" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O99" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q99" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R99" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -9315,25 +9327,25 @@
         <v>840</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M100" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N100" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O100" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="P100" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q100" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R100" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -9368,25 +9380,25 @@
         <v>823</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M101" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="N101" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O101" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="P101" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q101" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="R101" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -9421,22 +9433,22 @@
         <v>838</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M102" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N102" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O102" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="Q102" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R102" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -9471,25 +9483,25 @@
         <v>823</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M103" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N103" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O103" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="P103" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q103" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="R103" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -9524,25 +9536,25 @@
         <v>847</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M104" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N104" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O104" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="P104" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="Q104" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="R104" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -9577,19 +9589,19 @@
         <v>829</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N105" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O105" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="Q105" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="R105" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -9624,19 +9636,19 @@
         <v>848</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M106" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N106" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="O106" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="P106" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -9671,25 +9683,25 @@
         <v>829</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M107" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N107" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O107" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P107" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q107" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="R107" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -9724,25 +9736,25 @@
         <v>829</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M108" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N108" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O108" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P108" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q108" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="R108" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -9777,25 +9789,25 @@
         <v>822</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M109" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N109" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O109" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P109" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q109" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R109" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -9830,25 +9842,25 @@
         <v>849</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M110" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N110" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O110" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="P110" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="Q110" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="R110" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -9883,25 +9895,25 @@
         <v>849</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M111" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N111" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O111" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="P111" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Q111" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="R111" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -9936,25 +9948,25 @@
         <v>829</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M112" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N112" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O112" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P112" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q112" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="R112" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -9989,25 +10001,25 @@
         <v>844</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M113" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N113" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O113" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P113" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="Q113" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R113" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -10042,25 +10054,25 @@
         <v>849</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M114" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N114" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O114" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="P114" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Q114" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R114" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -10095,25 +10107,25 @@
         <v>849</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M115" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N115" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O115" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="P115" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Q115" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="R115" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -10148,25 +10160,25 @@
         <v>849</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M116" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N116" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O116" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="P116" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Q116" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R116" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -10201,25 +10213,25 @@
         <v>844</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M117" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N117" t="s">
         <v>1045</v>
       </c>
-      <c r="N117" t="s">
-        <v>1044</v>
-      </c>
       <c r="O117" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P117" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="Q117" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R117" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -10254,25 +10266,25 @@
         <v>829</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M118" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N118" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O118" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P118" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q118" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R118" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -10307,25 +10319,25 @@
         <v>829</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M119" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N119" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O119" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P119" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q119" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R119" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -10360,25 +10372,25 @@
         <v>850</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M120" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N120" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O120" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="P120" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="Q120" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="R120" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -10413,25 +10425,25 @@
         <v>823</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M121" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N121" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O121" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P121" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="Q121" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="R121" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -10466,25 +10478,25 @@
         <v>851</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M122" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N122" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O122" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="P122" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q122" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="R122" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -10519,25 +10531,25 @@
         <v>829</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M123" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N123" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O123" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P123" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q123" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="R123" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -10572,25 +10584,25 @@
         <v>851</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M124" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N124" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O124" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="P124" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q124" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="R124" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -10625,25 +10637,25 @@
         <v>839</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M125" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N125" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O125" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="P125" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q125" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R125" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -10678,25 +10690,25 @@
         <v>846</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M126" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N126" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O126" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P126" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q126" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="R126" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -10731,25 +10743,25 @@
         <v>829</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M127" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N127" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O127" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P127" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q127" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R127" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -10784,22 +10796,22 @@
         <v>852</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M128" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N128" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="O128" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="P128" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="R128" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -10834,16 +10846,16 @@
         <v>829</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O129" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="Q129" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="R129" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -10878,25 +10890,25 @@
         <v>853</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M130" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N130" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O130" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="P130" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="Q130" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R130" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -10931,25 +10943,25 @@
         <v>850</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M131" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N131" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O131" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="P131" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="Q131" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R131" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -10984,25 +10996,25 @@
         <v>822</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M132" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N132" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O132" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P132" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q132" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="R132" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -11037,25 +11049,25 @@
         <v>829</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M133" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N133" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O133" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P133" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q133" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R133" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -11090,25 +11102,25 @@
         <v>854</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M134" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N134" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O134" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="P134" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="Q134" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R134" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -11143,25 +11155,25 @@
         <v>822</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M135" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N135" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O135" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P135" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q135" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="R135" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -11196,25 +11208,25 @@
         <v>855</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M136" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N136" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O136" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="P136" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="Q136" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R136" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -11249,25 +11261,25 @@
         <v>829</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M137" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N137" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O137" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P137" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q137" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="R137" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -11302,25 +11314,25 @@
         <v>829</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M138" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N138" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O138" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P138" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q138" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R138" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -11355,25 +11367,25 @@
         <v>823</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M139" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N139" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O139" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P139" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="Q139" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="R139" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -11408,25 +11420,25 @@
         <v>856</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M140" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N140" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="O140" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="P140" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Q140" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R140" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -11461,25 +11473,25 @@
         <v>857</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M141" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N141" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O141" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P141" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q141" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="R141" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -11514,25 +11526,25 @@
         <v>857</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M142" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N142" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O142" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P142" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="Q142" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R142" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -11567,25 +11579,25 @@
         <v>858</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M143" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N143" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O143" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="P143" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q143" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R143" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -11620,25 +11632,25 @@
         <v>856</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M144" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N144" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="O144" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="P144" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Q144" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R144" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -11673,25 +11685,25 @@
         <v>858</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M145" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N145" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O145" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="P145" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q145" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="R145" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -11726,25 +11738,25 @@
         <v>859</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M146" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N146" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="O146" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="P146" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="Q146" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="R146" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -11779,25 +11791,25 @@
         <v>858</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M147" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N147" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O147" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="P147" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q147" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R147" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -11832,25 +11844,25 @@
         <v>858</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M148" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N148" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O148" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="P148" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q148" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="R148" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -11885,25 +11897,25 @@
         <v>859</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M149" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N149" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="O149" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="P149" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="Q149" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="R149" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -11938,25 +11950,25 @@
         <v>857</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M150" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N150" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O150" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P150" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="Q150" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="R150" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -11991,25 +12003,25 @@
         <v>860</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M151" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N151" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O151" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="P151" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="Q151" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R151" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -12044,25 +12056,25 @@
         <v>852</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M152" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N152" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="O152" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="P152" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Q152" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="R152" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -12097,25 +12109,25 @@
         <v>858</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M153" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N153" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O153" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="P153" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q153" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="R153" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -12150,25 +12162,25 @@
         <v>857</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M154" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N154" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O154" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P154" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q154" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="R154" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -12203,25 +12215,25 @@
         <v>857</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M155" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N155" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O155" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P155" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="Q155" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="R155" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -12256,25 +12268,25 @@
         <v>859</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M156" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N156" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="O156" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="P156" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="Q156" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="R156" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -12309,25 +12321,25 @@
         <v>861</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M157" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N157" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O157" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P157" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q157" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="R157" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -12362,25 +12374,25 @@
         <v>825</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M158" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N158" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="O158" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="P158" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="Q158" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="R158" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -12415,25 +12427,25 @@
         <v>825</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M159" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N159" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="O159" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="P159" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="Q159" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R159" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -12468,25 +12480,25 @@
         <v>857</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M160" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N160" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O160" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P160" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="Q160" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="R160" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -12521,25 +12533,25 @@
         <v>861</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M161" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N161" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O161" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P161" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q161" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R161" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -12574,25 +12586,25 @@
         <v>861</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M162" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N162" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O162" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P162" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q162" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="R162" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -12627,25 +12639,25 @@
         <v>861</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M163" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N163" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O163" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P163" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q163" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="R163" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -12705,112 +12717,113 @@
     <hyperlink ref="K54" r:id="rId53"/>
     <hyperlink ref="K55" r:id="rId54"/>
     <hyperlink ref="K56" r:id="rId55"/>
-    <hyperlink ref="K58" r:id="rId56"/>
-    <hyperlink ref="K59" r:id="rId57"/>
-    <hyperlink ref="K60" r:id="rId58"/>
-    <hyperlink ref="K61" r:id="rId59"/>
-    <hyperlink ref="K62" r:id="rId60"/>
-    <hyperlink ref="K63" r:id="rId61"/>
-    <hyperlink ref="K64" r:id="rId62"/>
-    <hyperlink ref="K65" r:id="rId63"/>
-    <hyperlink ref="K66" r:id="rId64"/>
-    <hyperlink ref="K67" r:id="rId65"/>
-    <hyperlink ref="K68" r:id="rId66"/>
-    <hyperlink ref="K69" r:id="rId67"/>
-    <hyperlink ref="K70" r:id="rId68"/>
-    <hyperlink ref="K71" r:id="rId69"/>
-    <hyperlink ref="K72" r:id="rId70"/>
-    <hyperlink ref="K73" r:id="rId71"/>
-    <hyperlink ref="K74" r:id="rId72"/>
-    <hyperlink ref="K75" r:id="rId73"/>
-    <hyperlink ref="K76" r:id="rId74"/>
-    <hyperlink ref="K77" r:id="rId75"/>
-    <hyperlink ref="K78" r:id="rId76"/>
-    <hyperlink ref="K79" r:id="rId77"/>
-    <hyperlink ref="K80" r:id="rId78"/>
-    <hyperlink ref="K81" r:id="rId79"/>
-    <hyperlink ref="K82" r:id="rId80"/>
-    <hyperlink ref="K83" r:id="rId81"/>
-    <hyperlink ref="K84" r:id="rId82"/>
-    <hyperlink ref="K85" r:id="rId83"/>
-    <hyperlink ref="K86" r:id="rId84"/>
-    <hyperlink ref="K87" r:id="rId85"/>
-    <hyperlink ref="K88" r:id="rId86"/>
-    <hyperlink ref="K89" r:id="rId87"/>
-    <hyperlink ref="K90" r:id="rId88"/>
-    <hyperlink ref="K91" r:id="rId89"/>
-    <hyperlink ref="K92" r:id="rId90"/>
-    <hyperlink ref="K93" r:id="rId91"/>
-    <hyperlink ref="K94" r:id="rId92"/>
-    <hyperlink ref="K95" r:id="rId93"/>
-    <hyperlink ref="K96" r:id="rId94"/>
-    <hyperlink ref="K97" r:id="rId95"/>
-    <hyperlink ref="K98" r:id="rId96"/>
-    <hyperlink ref="K99" r:id="rId97"/>
-    <hyperlink ref="K100" r:id="rId98"/>
-    <hyperlink ref="K101" r:id="rId99"/>
-    <hyperlink ref="K102" r:id="rId100"/>
-    <hyperlink ref="K103" r:id="rId101"/>
-    <hyperlink ref="K104" r:id="rId102"/>
-    <hyperlink ref="K105" r:id="rId103"/>
-    <hyperlink ref="K106" r:id="rId104"/>
-    <hyperlink ref="K107" r:id="rId105"/>
-    <hyperlink ref="K108" r:id="rId106"/>
-    <hyperlink ref="K109" r:id="rId107"/>
-    <hyperlink ref="K110" r:id="rId108"/>
-    <hyperlink ref="K111" r:id="rId109"/>
-    <hyperlink ref="K112" r:id="rId110"/>
-    <hyperlink ref="K113" r:id="rId111"/>
-    <hyperlink ref="K114" r:id="rId112"/>
-    <hyperlink ref="K115" r:id="rId113"/>
-    <hyperlink ref="K116" r:id="rId114"/>
-    <hyperlink ref="K117" r:id="rId115"/>
-    <hyperlink ref="K118" r:id="rId116"/>
-    <hyperlink ref="K119" r:id="rId117"/>
-    <hyperlink ref="K120" r:id="rId118"/>
-    <hyperlink ref="K121" r:id="rId119"/>
-    <hyperlink ref="K122" r:id="rId120"/>
-    <hyperlink ref="K123" r:id="rId121"/>
-    <hyperlink ref="K124" r:id="rId122"/>
-    <hyperlink ref="K125" r:id="rId123"/>
-    <hyperlink ref="K126" r:id="rId124"/>
-    <hyperlink ref="K127" r:id="rId125"/>
-    <hyperlink ref="K128" r:id="rId126"/>
-    <hyperlink ref="K129" r:id="rId127"/>
-    <hyperlink ref="K130" r:id="rId128"/>
-    <hyperlink ref="K131" r:id="rId129"/>
-    <hyperlink ref="K132" r:id="rId130"/>
-    <hyperlink ref="K133" r:id="rId131"/>
-    <hyperlink ref="K134" r:id="rId132"/>
-    <hyperlink ref="K135" r:id="rId133"/>
-    <hyperlink ref="K136" r:id="rId134"/>
-    <hyperlink ref="K137" r:id="rId135"/>
-    <hyperlink ref="K138" r:id="rId136"/>
-    <hyperlink ref="K139" r:id="rId137"/>
-    <hyperlink ref="K140" r:id="rId138"/>
-    <hyperlink ref="K141" r:id="rId139"/>
-    <hyperlink ref="K142" r:id="rId140"/>
-    <hyperlink ref="K143" r:id="rId141"/>
-    <hyperlink ref="K144" r:id="rId142"/>
-    <hyperlink ref="K145" r:id="rId143"/>
-    <hyperlink ref="K146" r:id="rId144"/>
-    <hyperlink ref="K147" r:id="rId145"/>
-    <hyperlink ref="K148" r:id="rId146"/>
-    <hyperlink ref="K149" r:id="rId147"/>
-    <hyperlink ref="K150" r:id="rId148"/>
-    <hyperlink ref="K151" r:id="rId149"/>
-    <hyperlink ref="K152" r:id="rId150"/>
-    <hyperlink ref="K153" r:id="rId151"/>
-    <hyperlink ref="K154" r:id="rId152"/>
-    <hyperlink ref="K155" r:id="rId153"/>
-    <hyperlink ref="K156" r:id="rId154"/>
-    <hyperlink ref="K157" r:id="rId155"/>
-    <hyperlink ref="K158" r:id="rId156"/>
-    <hyperlink ref="K159" r:id="rId157"/>
-    <hyperlink ref="K160" r:id="rId158"/>
-    <hyperlink ref="K161" r:id="rId159"/>
-    <hyperlink ref="K162" r:id="rId160"/>
-    <hyperlink ref="K163" r:id="rId161"/>
+    <hyperlink ref="K57" r:id="rId56"/>
+    <hyperlink ref="K58" r:id="rId57"/>
+    <hyperlink ref="K59" r:id="rId58"/>
+    <hyperlink ref="K60" r:id="rId59"/>
+    <hyperlink ref="K61" r:id="rId60"/>
+    <hyperlink ref="K62" r:id="rId61"/>
+    <hyperlink ref="K63" r:id="rId62"/>
+    <hyperlink ref="K64" r:id="rId63"/>
+    <hyperlink ref="K65" r:id="rId64"/>
+    <hyperlink ref="K66" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="K68" r:id="rId67"/>
+    <hyperlink ref="K69" r:id="rId68"/>
+    <hyperlink ref="K70" r:id="rId69"/>
+    <hyperlink ref="K71" r:id="rId70"/>
+    <hyperlink ref="K72" r:id="rId71"/>
+    <hyperlink ref="K73" r:id="rId72"/>
+    <hyperlink ref="K74" r:id="rId73"/>
+    <hyperlink ref="K75" r:id="rId74"/>
+    <hyperlink ref="K76" r:id="rId75"/>
+    <hyperlink ref="K77" r:id="rId76"/>
+    <hyperlink ref="K78" r:id="rId77"/>
+    <hyperlink ref="K79" r:id="rId78"/>
+    <hyperlink ref="K80" r:id="rId79"/>
+    <hyperlink ref="K81" r:id="rId80"/>
+    <hyperlink ref="K82" r:id="rId81"/>
+    <hyperlink ref="K83" r:id="rId82"/>
+    <hyperlink ref="K84" r:id="rId83"/>
+    <hyperlink ref="K85" r:id="rId84"/>
+    <hyperlink ref="K86" r:id="rId85"/>
+    <hyperlink ref="K87" r:id="rId86"/>
+    <hyperlink ref="K88" r:id="rId87"/>
+    <hyperlink ref="K89" r:id="rId88"/>
+    <hyperlink ref="K90" r:id="rId89"/>
+    <hyperlink ref="K91" r:id="rId90"/>
+    <hyperlink ref="K92" r:id="rId91"/>
+    <hyperlink ref="K93" r:id="rId92"/>
+    <hyperlink ref="K94" r:id="rId93"/>
+    <hyperlink ref="K95" r:id="rId94"/>
+    <hyperlink ref="K96" r:id="rId95"/>
+    <hyperlink ref="K97" r:id="rId96"/>
+    <hyperlink ref="K98" r:id="rId97"/>
+    <hyperlink ref="K99" r:id="rId98"/>
+    <hyperlink ref="K100" r:id="rId99"/>
+    <hyperlink ref="K101" r:id="rId100"/>
+    <hyperlink ref="K102" r:id="rId101"/>
+    <hyperlink ref="K103" r:id="rId102"/>
+    <hyperlink ref="K104" r:id="rId103"/>
+    <hyperlink ref="K105" r:id="rId104"/>
+    <hyperlink ref="K106" r:id="rId105"/>
+    <hyperlink ref="K107" r:id="rId106"/>
+    <hyperlink ref="K108" r:id="rId107"/>
+    <hyperlink ref="K109" r:id="rId108"/>
+    <hyperlink ref="K110" r:id="rId109"/>
+    <hyperlink ref="K111" r:id="rId110"/>
+    <hyperlink ref="K112" r:id="rId111"/>
+    <hyperlink ref="K113" r:id="rId112"/>
+    <hyperlink ref="K114" r:id="rId113"/>
+    <hyperlink ref="K115" r:id="rId114"/>
+    <hyperlink ref="K116" r:id="rId115"/>
+    <hyperlink ref="K117" r:id="rId116"/>
+    <hyperlink ref="K118" r:id="rId117"/>
+    <hyperlink ref="K119" r:id="rId118"/>
+    <hyperlink ref="K120" r:id="rId119"/>
+    <hyperlink ref="K121" r:id="rId120"/>
+    <hyperlink ref="K122" r:id="rId121"/>
+    <hyperlink ref="K123" r:id="rId122"/>
+    <hyperlink ref="K124" r:id="rId123"/>
+    <hyperlink ref="K125" r:id="rId124"/>
+    <hyperlink ref="K126" r:id="rId125"/>
+    <hyperlink ref="K127" r:id="rId126"/>
+    <hyperlink ref="K128" r:id="rId127"/>
+    <hyperlink ref="K129" r:id="rId128"/>
+    <hyperlink ref="K130" r:id="rId129"/>
+    <hyperlink ref="K131" r:id="rId130"/>
+    <hyperlink ref="K132" r:id="rId131"/>
+    <hyperlink ref="K133" r:id="rId132"/>
+    <hyperlink ref="K134" r:id="rId133"/>
+    <hyperlink ref="K135" r:id="rId134"/>
+    <hyperlink ref="K136" r:id="rId135"/>
+    <hyperlink ref="K137" r:id="rId136"/>
+    <hyperlink ref="K138" r:id="rId137"/>
+    <hyperlink ref="K139" r:id="rId138"/>
+    <hyperlink ref="K140" r:id="rId139"/>
+    <hyperlink ref="K141" r:id="rId140"/>
+    <hyperlink ref="K142" r:id="rId141"/>
+    <hyperlink ref="K143" r:id="rId142"/>
+    <hyperlink ref="K144" r:id="rId143"/>
+    <hyperlink ref="K145" r:id="rId144"/>
+    <hyperlink ref="K146" r:id="rId145"/>
+    <hyperlink ref="K147" r:id="rId146"/>
+    <hyperlink ref="K148" r:id="rId147"/>
+    <hyperlink ref="K149" r:id="rId148"/>
+    <hyperlink ref="K150" r:id="rId149"/>
+    <hyperlink ref="K151" r:id="rId150"/>
+    <hyperlink ref="K152" r:id="rId151"/>
+    <hyperlink ref="K153" r:id="rId152"/>
+    <hyperlink ref="K154" r:id="rId153"/>
+    <hyperlink ref="K155" r:id="rId154"/>
+    <hyperlink ref="K156" r:id="rId155"/>
+    <hyperlink ref="K157" r:id="rId156"/>
+    <hyperlink ref="K158" r:id="rId157"/>
+    <hyperlink ref="K159" r:id="rId158"/>
+    <hyperlink ref="K160" r:id="rId159"/>
+    <hyperlink ref="K161" r:id="rId160"/>
+    <hyperlink ref="K162" r:id="rId161"/>
+    <hyperlink ref="K163" r:id="rId162"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="982">
   <si>
     <t>gid</t>
   </si>
@@ -334,18 +334,18 @@
     <t>740</t>
   </si>
   <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
     <t>739</t>
   </si>
   <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
     <t>686</t>
   </si>
   <si>
@@ -373,40 +373,58 @@
     <t>746</t>
   </si>
   <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
     <t>747</t>
   </si>
   <si>
     <t>761</t>
   </si>
   <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>748</t>
+    <t>745</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>753</t>
   </si>
   <si>
     <t>780</t>
   </si>
   <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
     <t>781</t>
   </si>
   <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>779</t>
+    <t>773</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>777</t>
   </si>
   <si>
     <t>771</t>
@@ -415,19 +433,7 @@
     <t>772</t>
   </si>
   <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>777</t>
+    <t>783</t>
   </si>
   <si>
     <t>770</t>
@@ -436,9 +442,6 @@
     <t>769</t>
   </si>
   <si>
-    <t>783</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อโคนนทบุรี รายที่ 149 ระบาดระลอกใหม่</t>
   </si>
   <si>
@@ -697,18 +700,18 @@
     <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
   </si>
   <si>
@@ -736,40 +739,58 @@
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
@@ -778,19 +799,7 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
@@ -799,9 +808,6 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
-  </si>
-  <si>
     <t>13.89825175</t>
   </si>
   <si>
@@ -1066,18 +1072,18 @@
     <t>14.03685952</t>
   </si>
   <si>
+    <t>13.90819848</t>
+  </si>
+  <si>
+    <t>13.61372722</t>
+  </si>
+  <si>
+    <t>19.90080363</t>
+  </si>
+  <si>
     <t>13.96330727</t>
   </si>
   <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>19.90080363</t>
-  </si>
-  <si>
-    <t>13.90819848</t>
-  </si>
-  <si>
     <t>16.93747723</t>
   </si>
   <si>
@@ -1105,40 +1111,58 @@
     <t>13.37239571</t>
   </si>
   <si>
+    <t>13.37240823</t>
+  </si>
+  <si>
+    <t>13.74871188</t>
+  </si>
+  <si>
     <t>13.37234365</t>
   </si>
   <si>
     <t>13.85519716</t>
   </si>
   <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>13.37240823</t>
+    <t>13.97565922</t>
+  </si>
+  <si>
+    <t>13.86503444</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>14.39857579</t>
   </si>
   <si>
     <t>13.40612011</t>
   </si>
   <si>
-    <t>13.86503444</t>
-  </si>
-  <si>
-    <t>13.40628035</t>
-  </si>
-  <si>
-    <t>13.97565922</t>
-  </si>
-  <si>
-    <t>14.39857579</t>
-  </si>
-  <si>
     <t>13.40598552</t>
   </si>
   <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
-    <t>13.40588499</t>
+    <t>13.40583946</t>
+  </si>
+  <si>
+    <t>13.40596242</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.40597333</t>
+  </si>
+  <si>
+    <t>13.40595472</t>
   </si>
   <si>
     <t>13.40650905</t>
@@ -1147,19 +1171,7 @@
     <t>13.40593161</t>
   </si>
   <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
-    <t>13.40596242</t>
-  </si>
-  <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.40597333</t>
-  </si>
-  <si>
-    <t>13.40595472</t>
+    <t>13.37258002</t>
   </si>
   <si>
     <t>13.40639916</t>
@@ -1168,9 +1180,6 @@
     <t>13.40621925</t>
   </si>
   <si>
-    <t>13.37258002</t>
-  </si>
-  <si>
     <t>100.5034469</t>
   </si>
   <si>
@@ -1435,18 +1444,18 @@
     <t>100.4157557</t>
   </si>
   <si>
+    <t>99.76743912</t>
+  </si>
+  <si>
+    <t>100.3825015</t>
+  </si>
+  <si>
+    <t>99.82912083</t>
+  </si>
+  <si>
     <t>100.6218198</t>
   </si>
   <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>99.82912083</t>
-  </si>
-  <si>
-    <t>99.76743912</t>
-  </si>
-  <si>
     <t>104.71144</t>
   </si>
   <si>
@@ -1474,40 +1483,58 @@
     <t>99.84065417</t>
   </si>
   <si>
+    <t>99.84044998</t>
+  </si>
+  <si>
+    <t>100.5832291</t>
+  </si>
+  <si>
     <t>99.84068885</t>
   </si>
   <si>
     <t>100.5422268</t>
   </si>
   <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>99.84044998</t>
+    <t>99.63108216</t>
+  </si>
+  <si>
+    <t>100.4814358</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.5929883</t>
   </si>
   <si>
     <t>99.99819431</t>
   </si>
   <si>
-    <t>100.4814358</t>
-  </si>
-  <si>
-    <t>99.99793397</t>
-  </si>
-  <si>
-    <t>99.63108216</t>
-  </si>
-  <si>
-    <t>100.5929883</t>
-  </si>
-  <si>
     <t>99.9981405</t>
   </si>
   <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
-    <t>99.99792781</t>
+    <t>99.99822947</t>
+  </si>
+  <si>
+    <t>99.99806255</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>99.99799763</t>
+  </si>
+  <si>
+    <t>99.99779066</t>
   </si>
   <si>
     <t>99.99794955</t>
@@ -1516,19 +1543,7 @@
     <t>99.99826105</t>
   </si>
   <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
-    <t>99.99806255</t>
-  </si>
-  <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>99.99799763</t>
-  </si>
-  <si>
-    <t>99.99779066</t>
+    <t>99.84082331</t>
   </si>
   <si>
     <t>99.99785987</t>
@@ -1537,9 +1552,6 @@
     <t>99.99800648</t>
   </si>
   <si>
-    <t>99.84082331</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1819,18 +1831,18 @@
     <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
+  </si>
+  <si>
+    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
+  </si>
+  <si>
     <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
   </si>
   <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
-  </si>
-  <si>
     <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
   </si>
   <si>
@@ -1858,40 +1870,58 @@
     <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
   </si>
   <si>
+    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+  </si>
+  <si>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
     <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
   </si>
   <si>
     <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
   </si>
   <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+  </si>
+  <si>
+    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
   </si>
   <si>
     <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
   </si>
   <si>
-    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
-  </si>
-  <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
-  </si>
-  <si>
-    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
-  </si>
-  <si>
     <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
   </si>
   <si>
     <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
@@ -1900,19 +1930,7 @@
     <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
     <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
@@ -1921,9 +1939,6 @@
     <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
-    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
-  </si>
-  <si>
     <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
   </si>
   <si>
@@ -1975,12 +1990,12 @@
     <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
   </si>
   <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
   </si>
   <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
     <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
   </si>
   <si>
@@ -2245,18 +2260,18 @@
     <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/PR.PH.NKP/</t>
   </si>
   <si>
@@ -2284,40 +2299,58 @@
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
@@ -2326,19 +2359,7 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
@@ -2347,9 +2368,6 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
-  </si>
-  <si>
     <t>บางตลาด</t>
   </si>
   <si>
@@ -2473,31 +2491,34 @@
     <t>ระแหง</t>
   </si>
   <si>
+    <t>ท่ามะกา</t>
+  </si>
+  <si>
+    <t>รอบเวียง</t>
+  </si>
+  <si>
     <t>คูคต</t>
   </si>
   <si>
-    <t>รอบเวียง</t>
-  </si>
-  <si>
-    <t>ท่ามะกา</t>
-  </si>
-  <si>
     <t>ธาตุพนม</t>
   </si>
   <si>
     <t>แขวงจอมทอง</t>
   </si>
   <si>
+    <t>แขวง บางกะปิ</t>
+  </si>
+  <si>
     <t>แขวง ทุ่งสองห้อง</t>
   </si>
   <si>
-    <t>แขวง บางกะปิ</t>
+    <t>ท่าม่วง</t>
   </si>
   <si>
     <t>แม่กลอง</t>
   </si>
   <si>
-    <t>ท่าม่วง</t>
+    <t>ปากท่อ</t>
   </si>
   <si>
     <t>ปากเกร็ด</t>
@@ -2599,18 +2620,15 @@
     <t>บางปะอิน</t>
   </si>
   <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
     <t>ลาดหลุมแก้ว</t>
   </si>
   <si>
+    <t>เมืองเชียงราย</t>
+  </si>
+  <si>
     <t>ลำลูกกา</t>
   </si>
   <si>
-    <t>เมืองเชียงราย</t>
-  </si>
-  <si>
     <t>เขต หลักสี่</t>
   </si>
   <si>
@@ -2665,12 +2683,12 @@
     <t>ราชบุรี</t>
   </si>
   <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
     <t>เชียงราย</t>
   </si>
   <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
     <t>นครพนม</t>
   </si>
   <si>
@@ -2785,27 +2803,27 @@
     <t>12140</t>
   </si>
   <si>
+    <t>71120</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
     <t>12130</t>
   </si>
   <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>71120</t>
-  </si>
-  <si>
     <t>48110</t>
   </si>
   <si>
     <t>10310</t>
   </si>
   <si>
+    <t>71110</t>
+  </si>
+  <si>
     <t>75000</t>
   </si>
   <si>
-    <t>71110</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -2908,12 +2926,12 @@
     <t>51</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2932,10 +2950,10 @@
     <t>44</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>หญิง</t>
@@ -3316,7 +3334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3383,52 +3401,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F2" s="2">
         <v>44208</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="M2" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="N2" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="O2" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P2" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="Q2" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="R2" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3436,52 +3454,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F3" s="2">
         <v>44208</v>
       </c>
       <c r="G3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="M3" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="N3" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="O3" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P3" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="Q3" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="R3" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3489,52 +3507,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F4" s="2">
         <v>44208</v>
       </c>
       <c r="G4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J4" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="M4" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N4" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O4" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P4" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q4" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="R4" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3542,52 +3560,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F5" s="2">
         <v>44208</v>
       </c>
       <c r="G5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J5" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="M5" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N5" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O5" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P5" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="R5" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3595,52 +3613,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F6" s="2">
         <v>44208</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H6" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I6" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J6" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="M6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N6" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O6" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P6" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q6" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="R6" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3648,49 +3666,49 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F7" s="2">
         <v>44208</v>
       </c>
       <c r="G7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M7" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="N7" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="O7" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P7" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="R7" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3698,49 +3716,49 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F8" s="2">
         <v>44208</v>
       </c>
       <c r="G8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J8" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="M8" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N8" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O8" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R8" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3748,49 +3766,49 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F9" s="2">
         <v>44208</v>
       </c>
       <c r="G9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H9" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M9" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="N9" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="O9" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P9" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="R9" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3798,49 +3816,49 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F10" s="2">
         <v>44208</v>
       </c>
       <c r="G10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J10" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="M10" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N10" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O10" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P10" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R10" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3848,49 +3866,49 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F11" s="2">
         <v>44208</v>
       </c>
       <c r="G11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J11" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="M11" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="N11" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="O11" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P11" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R11" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3898,49 +3916,49 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F12" s="2">
         <v>44208</v>
       </c>
       <c r="G12" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H12" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I12" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J12" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="M12" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N12" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O12" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P12" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R12" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3948,49 +3966,49 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F13" s="2">
         <v>44208</v>
       </c>
       <c r="G13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J13" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="M13" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="N13" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="O13" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P13" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R13" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3998,52 +4016,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E14" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F14" s="2">
         <v>44208</v>
       </c>
       <c r="G14" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J14" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M14" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="N14" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="O14" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="P14" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="Q14" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="R14" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4051,52 +4069,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E15" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F15" s="2">
         <v>44208</v>
       </c>
       <c r="G15" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I15" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J15" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M15" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="N15" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="O15" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="P15" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="Q15" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="R15" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4104,52 +4122,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E16" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F16" s="2">
         <v>44208</v>
       </c>
       <c r="G16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H16" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="J16" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="M16" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="N16" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="O16" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="P16" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="Q16" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="R16" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -4157,52 +4175,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E17" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F17" s="2">
         <v>44208</v>
       </c>
       <c r="G17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H17" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I17" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J17" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="M17" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="N17" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="O17" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="P17" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="Q17" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="R17" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -4210,49 +4228,49 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F18" s="2">
         <v>44208</v>
       </c>
       <c r="G18" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I18" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J18" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="M18" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="N18" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="O18" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P18" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="R18" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -4260,49 +4278,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E19" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F19" s="2">
         <v>44209</v>
       </c>
       <c r="G19" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H19" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J19" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="M19" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="N19" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="O19" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P19" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="R19" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -4310,52 +4328,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F20" s="2">
         <v>44209</v>
       </c>
       <c r="G20" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H20" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I20" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="J20" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="M20" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N20" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O20" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P20" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q20" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="R20" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -4363,52 +4381,52 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E21" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F21" s="2">
         <v>44209</v>
       </c>
       <c r="G21" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H21" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I21" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J21" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="M21" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="N21" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="O21" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="P21" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="Q21" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="R21" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4416,52 +4434,52 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F22" s="2">
         <v>44209</v>
       </c>
       <c r="G22" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H22" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I22" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J22" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="M22" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="N22" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="O22" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="P22" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="Q22" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="R22" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4469,49 +4487,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F23" s="2">
         <v>44209</v>
       </c>
       <c r="G23" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H23" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I23" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="J23" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M23" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N23" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O23" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P23" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R23" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4519,52 +4537,52 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E24" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F24" s="2">
         <v>44209</v>
       </c>
       <c r="G24" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H24" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I24" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="J24" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="M24" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="N24" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="O24" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="P24" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="Q24" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="R24" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4572,49 +4590,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F25" s="2">
         <v>44209</v>
       </c>
       <c r="G25" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H25" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I25" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="J25" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="M25" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="N25" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="O25" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P25" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="R25" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4622,52 +4640,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F26" s="2">
         <v>44209</v>
       </c>
       <c r="G26" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H26" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J26" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="M26" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="N26" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="O26" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P26" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="Q26" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="R26" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4675,52 +4693,52 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F27" s="2">
         <v>44210</v>
       </c>
       <c r="G27" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H27" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J27" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="M27" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N27" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O27" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P27" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q27" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="R27" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4728,52 +4746,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E28" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F28" s="2">
         <v>44210</v>
       </c>
       <c r="G28" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H28" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I28" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="J28" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="M28" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N28" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O28" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P28" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q28" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="R28" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4781,49 +4799,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D29" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F29" s="2">
         <v>44210</v>
       </c>
       <c r="G29" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H29" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I29" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="J29" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M29" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="N29" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="O29" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P29" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="R29" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4831,49 +4849,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E30" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F30" s="2">
         <v>44210</v>
       </c>
       <c r="G30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H30" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I30" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J30" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="M30" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="N30" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="O30" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P30" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="R30" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4881,52 +4899,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E31" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F31" s="2">
         <v>44210</v>
       </c>
       <c r="G31" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H31" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I31" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="J31" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="M31" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N31" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O31" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P31" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q31" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="R31" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4934,49 +4952,49 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D32" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E32" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F32" s="2">
         <v>44210</v>
       </c>
       <c r="G32" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H32" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I32" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="J32" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="M32" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N32" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="O32" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P32" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R32" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4984,49 +5002,49 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E33" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F33" s="2">
         <v>44210</v>
       </c>
       <c r="G33" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H33" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I33" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="J33" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="M33" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="N33" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="O33" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P33" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="R33" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -5034,52 +5052,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D34" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E34" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F34" s="2">
         <v>44210</v>
       </c>
       <c r="G34" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I34" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J34" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="M34" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N34" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O34" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P34" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q34" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="R34" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -5087,52 +5105,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E35" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F35" s="2">
         <v>44210</v>
       </c>
       <c r="G35" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H35" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J35" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="M35" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N35" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O35" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P35" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q35" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="R35" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -5140,52 +5158,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E36" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F36" s="2">
         <v>44210</v>
       </c>
       <c r="G36" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H36" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I36" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="J36" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="M36" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N36" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O36" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P36" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q36" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="R36" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -5193,49 +5211,49 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F37" s="2">
         <v>44210</v>
       </c>
       <c r="G37" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H37" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J37" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M37" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="N37" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="O37" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P37" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="R37" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5243,52 +5261,52 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D38" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E38" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F38" s="2">
         <v>44210</v>
       </c>
       <c r="G38" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H38" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I38" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J38" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M38" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="N38" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="O38" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="P38" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="Q38" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="R38" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -5296,49 +5314,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D39" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E39" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F39" s="2">
         <v>44210</v>
       </c>
       <c r="G39" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H39" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I39" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J39" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="M39" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="N39" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="O39" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P39" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="R39" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -5346,52 +5364,52 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E40" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F40" s="2">
         <v>44210</v>
       </c>
       <c r="G40" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H40" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I40" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="J40" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M40" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="N40" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="O40" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P40" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="Q40" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="R40" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5399,52 +5417,52 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E41" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F41" s="2">
         <v>44210</v>
       </c>
       <c r="G41" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H41" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I41" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="J41" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="M41" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N41" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O41" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P41" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q41" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="R41" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5452,52 +5470,52 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E42" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F42" s="2">
         <v>44210</v>
       </c>
       <c r="G42" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H42" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I42" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="J42" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="M42" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="N42" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="O42" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P42" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q42" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="R42" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5505,52 +5523,52 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D43" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E43" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F43" s="2">
         <v>44211</v>
       </c>
       <c r="G43" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H43" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I43" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="J43" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="M43" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="N43" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O43" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="P43" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q43" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="R43" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5558,49 +5576,49 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E44" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F44" s="2">
         <v>44211</v>
       </c>
       <c r="G44" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H44" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I44" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J44" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="M44" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N44" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O44" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P44" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R44" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -5608,49 +5626,49 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D45" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E45" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F45" s="2">
         <v>44211</v>
       </c>
       <c r="G45" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H45" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I45" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="J45" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M45" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N45" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O45" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P45" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R45" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5658,49 +5676,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D46" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E46" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F46" s="2">
         <v>44211</v>
       </c>
       <c r="G46" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H46" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I46" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="J46" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M46" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N46" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O46" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P46" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R46" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -5708,49 +5726,49 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E47" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F47" s="2">
         <v>44211</v>
       </c>
       <c r="G47" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H47" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I47" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J47" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M47" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="N47" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="O47" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P47" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="R47" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5758,49 +5776,49 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E48" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F48" s="2">
         <v>44211</v>
       </c>
       <c r="G48" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H48" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I48" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J48" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="M48" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="N48" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="O48" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P48" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R48" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5808,40 +5826,40 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E49" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F49" s="2">
         <v>44211</v>
       </c>
       <c r="G49" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H49" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I49" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J49" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="O49" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="R49" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5849,49 +5867,49 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D50" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E50" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F50" s="2">
         <v>44211</v>
       </c>
       <c r="G50" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H50" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I50" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J50" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M50" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="N50" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="O50" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P50" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="R50" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5899,49 +5917,49 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E51" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F51" s="2">
         <v>44211</v>
       </c>
       <c r="G51" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H51" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I51" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J51" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="M51" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N51" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="O51" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P51" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R51" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5949,49 +5967,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D52" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E52" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F52" s="2">
         <v>44211</v>
       </c>
       <c r="G52" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H52" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I52" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J52" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M52" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="N52" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="O52" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="P52" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="R52" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5999,52 +6017,52 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E53" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F53" s="2">
         <v>44211</v>
       </c>
       <c r="G53" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H53" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I53" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J53" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M53" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N53" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O53" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P53" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q53" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="R53" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -6052,52 +6070,52 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D54" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E54" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F54" s="2">
         <v>44211</v>
       </c>
       <c r="G54" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H54" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I54" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J54" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="M54" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N54" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O54" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P54" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q54" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="R54" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -6105,52 +6123,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D55" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E55" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F55" s="2">
         <v>44211</v>
       </c>
       <c r="G55" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H55" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I55" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J55" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M55" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N55" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O55" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P55" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q55" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="R55" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -6158,52 +6176,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E56" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F56" s="2">
         <v>44211</v>
       </c>
       <c r="G56" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H56" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I56" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J56" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="M56" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N56" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O56" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P56" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q56" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="R56" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -6211,49 +6229,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D57" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E57" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F57" s="2">
         <v>44211</v>
       </c>
       <c r="G57" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H57" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I57" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J57" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="M57" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="N57" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="O57" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P57" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="R57" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -6261,52 +6279,52 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D58" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E58" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F58" s="2">
         <v>44212</v>
       </c>
       <c r="G58" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H58" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="J58" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="M58" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="N58" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="O58" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="P58" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="Q58" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="R58" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -6314,52 +6332,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D59" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E59" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F59" s="2">
         <v>44212</v>
       </c>
       <c r="G59" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H59" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I59" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J59" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="M59" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="N59" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="O59" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="P59" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="Q59" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="R59" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -6367,49 +6385,49 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E60" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F60" s="2">
         <v>44212</v>
       </c>
       <c r="G60" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H60" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I60" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J60" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="N60" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="O60" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P60" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="Q60" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="R60" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -6417,49 +6435,49 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E61" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F61" s="2">
         <v>44212</v>
       </c>
       <c r="G61" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H61" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I61" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J61" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="N61" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="O61" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P61" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="Q61" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="R61" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -6467,52 +6485,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E62" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F62" s="2">
         <v>44212</v>
       </c>
       <c r="G62" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H62" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I62" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J62" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="M62" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N62" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O62" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P62" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q62" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="R62" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -6520,52 +6538,52 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D63" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E63" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F63" s="2">
         <v>44212</v>
       </c>
       <c r="G63" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H63" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I63" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="J63" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="M63" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N63" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O63" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P63" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q63" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="R63" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6573,52 +6591,52 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D64" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E64" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F64" s="2">
         <v>44212</v>
       </c>
       <c r="G64" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H64" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I64" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="J64" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="M64" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="N64" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="O64" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="P64" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="Q64" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="R64" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -6626,52 +6644,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E65" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F65" s="2">
         <v>44212</v>
       </c>
       <c r="G65" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H65" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I65" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J65" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="M65" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="N65" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="O65" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="P65" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="Q65" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="R65" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6679,52 +6697,52 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E66" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F66" s="2">
         <v>44212</v>
       </c>
       <c r="G66" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H66" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I66" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="J66" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="M66" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="N66" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="O66" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="P66" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="Q66" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="R66" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6732,52 +6750,52 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E67" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F67" s="2">
         <v>44212</v>
       </c>
       <c r="G67" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H67" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I67" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="J67" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="M67" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="N67" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="O67" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="P67" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="Q67" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="R67" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6785,52 +6803,52 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E68" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F68" s="2">
         <v>44212</v>
       </c>
       <c r="G68" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H68" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I68" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="J68" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="M68" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="N68" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="O68" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="P68" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="Q68" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="R68" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6838,52 +6856,52 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D69" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E69" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F69" s="2">
         <v>44212</v>
       </c>
       <c r="G69" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H69" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I69" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="J69" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="M69" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="N69" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="O69" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="P69" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="Q69" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="R69" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6891,52 +6909,52 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D70" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E70" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F70" s="2">
         <v>44212</v>
       </c>
       <c r="G70" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H70" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I70" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="J70" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M70" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="N70" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="O70" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="P70" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="Q70" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="R70" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6944,52 +6962,52 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E71" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F71" s="2">
         <v>44212</v>
       </c>
       <c r="G71" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H71" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="J71" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="M71" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N71" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O71" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P71" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q71" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="R71" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6997,52 +7015,52 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D72" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E72" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F72" s="2">
         <v>44212</v>
       </c>
       <c r="G72" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H72" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J72" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="M72" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="N72" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="O72" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P72" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="Q72" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="R72" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -7050,52 +7068,52 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D73" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E73" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F73" s="2">
         <v>44212</v>
       </c>
       <c r="G73" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H73" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I73" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J73" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="M73" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N73" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O73" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P73" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q73" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="R73" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -7103,49 +7121,49 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D74" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E74" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F74" s="2">
         <v>44212</v>
       </c>
       <c r="G74" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H74" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I74" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="J74" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="M74" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="N74" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="O74" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P74" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R74" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -7153,52 +7171,52 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D75" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E75" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F75" s="2">
         <v>44212</v>
       </c>
       <c r="G75" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H75" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I75" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="M75" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N75" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O75" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P75" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q75" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="R75" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -7206,49 +7224,49 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D76" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F76" s="2">
         <v>44212</v>
       </c>
       <c r="G76" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H76" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I76" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="J76" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="M76" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="N76" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="O76" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P76" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="R76" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -7256,49 +7274,49 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E77" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F77" s="2">
         <v>44213</v>
       </c>
       <c r="G77" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H77" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I77" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J77" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="M77" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N77" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O77" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P77" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R77" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -7306,49 +7324,49 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E78" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F78" s="2">
         <v>44213</v>
       </c>
       <c r="G78" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H78" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I78" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J78" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="N78" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="O78" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="P78" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="Q78" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="R78" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -7356,49 +7374,49 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D79" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F79" s="2">
         <v>44213</v>
       </c>
       <c r="G79" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H79" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I79" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="J79" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="M79" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N79" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O79" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P79" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R79" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -7406,49 +7424,49 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D80" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E80" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F80" s="2">
         <v>44213</v>
       </c>
       <c r="G80" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H80" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I80" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="J80" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="M80" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N80" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O80" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P80" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R80" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -7456,49 +7474,49 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D81" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E81" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F81" s="2">
         <v>44213</v>
       </c>
       <c r="G81" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H81" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I81" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="J81" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="M81" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N81" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O81" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P81" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R81" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -7506,52 +7524,52 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D82" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F82" s="2">
         <v>44213</v>
       </c>
       <c r="G82" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H82" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I82" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J82" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="M82" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="N82" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="O82" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P82" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="Q82" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="R82" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -7559,52 +7577,52 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E83" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F83" s="2">
         <v>44213</v>
       </c>
       <c r="G83" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H83" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I83" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J83" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="M83" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="N83" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="O83" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P83" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="Q83" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="R83" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7612,49 +7630,49 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D84" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E84" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F84" s="2">
         <v>44214</v>
       </c>
       <c r="G84" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H84" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I84" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J84" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="N84" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="O84" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P84" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="Q84" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="R84" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7662,52 +7680,52 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D85" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E85" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F85" s="2">
         <v>44214</v>
       </c>
       <c r="G85" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H85" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I85" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J85" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="M85" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="N85" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="O85" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="P85" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="Q85" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="R85" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7715,52 +7733,52 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D86" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E86" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F86" s="2">
         <v>44214</v>
       </c>
       <c r="G86" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H86" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="J86" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="M86" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N86" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="O86" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="P86" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="Q86" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="R86" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7768,52 +7786,52 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E87" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F87" s="2">
         <v>44215</v>
       </c>
       <c r="G87" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H87" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I87" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J87" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="M87" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N87" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="O87" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="P87" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="Q87" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="R87" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7821,52 +7839,52 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D88" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E88" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F88" s="2">
         <v>44215</v>
       </c>
       <c r="G88" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H88" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I88" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J88" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="M88" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="N88" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="O88" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="P88" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="Q88" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="R88" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7874,46 +7892,46 @@
         <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E89" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F89" s="2">
         <v>44215</v>
       </c>
       <c r="G89" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H89" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I89" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="J89" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="M89" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="N89" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="O89" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="P89" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7921,52 +7939,52 @@
         <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E90" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F90" s="2">
         <v>44215</v>
       </c>
       <c r="G90" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H90" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I90" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J90" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="M90" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="N90" t="s">
-        <v>863</v>
+        <v>825</v>
       </c>
       <c r="O90" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="P90" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="Q90" t="s">
-        <v>939</v>
+        <v>970</v>
       </c>
       <c r="R90" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7974,49 +7992,49 @@
         <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D91" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E91" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F91" s="2">
         <v>44215</v>
       </c>
       <c r="G91" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H91" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I91" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J91" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="M91" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="N91" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="O91" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P91" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R91" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -8024,52 +8042,52 @@
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E92" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F92" s="2">
         <v>44215</v>
       </c>
       <c r="G92" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H92" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I92" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J92" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="M92" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="N92" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="O92" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="P92" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="Q92" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="R92" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -8077,52 +8095,52 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C93" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D93" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E93" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F93" s="2">
         <v>44215</v>
       </c>
       <c r="G93" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H93" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I93" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J93" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="M93" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="N93" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="O93" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="P93" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="Q93" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="R93" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -8130,52 +8148,52 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D94" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E94" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F94" s="2">
         <v>44215</v>
       </c>
       <c r="G94" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H94" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I94" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J94" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="M94" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="N94" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="O94" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="P94" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="Q94" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="R94" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -8183,49 +8201,49 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D95" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E95" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F95" s="2">
         <v>44215</v>
       </c>
       <c r="G95" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H95" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I95" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J95" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="M95" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="N95" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="O95" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P95" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R95" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -8233,49 +8251,49 @@
         <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D96" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E96" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2">
         <v>44215</v>
       </c>
       <c r="G96" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H96" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I96" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J96" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="M96" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="N96" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="O96" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P96" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="R96" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -8283,52 +8301,52 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E97" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F97" s="2">
         <v>44215</v>
       </c>
       <c r="G97" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H97" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I97" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J97" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="M97" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N97" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O97" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P97" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q97" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="R97" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -8336,52 +8354,52 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D98" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E98" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F98" s="2">
         <v>44215</v>
       </c>
       <c r="G98" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H98" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I98" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J98" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="M98" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N98" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O98" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P98" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q98" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="R98" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -8389,52 +8407,52 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E99" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F99" s="2">
         <v>44215</v>
       </c>
       <c r="G99" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H99" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I99" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="J99" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="M99" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N99" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O99" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P99" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q99" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="R99" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -8442,52 +8460,52 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D100" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E100" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F100" s="2">
         <v>44215</v>
       </c>
       <c r="G100" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H100" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I100" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J100" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="M100" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="N100" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="O100" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="P100" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="Q100" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="R100" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -8495,52 +8513,52 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E101" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F101" s="2">
         <v>44216</v>
       </c>
       <c r="G101" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H101" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I101" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J101" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="M101" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N101" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="O101" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="P101" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="Q101" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="R101" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8548,52 +8566,52 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E102" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F102" s="2">
         <v>44216</v>
       </c>
       <c r="G102" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H102" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I102" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="J102" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="M102" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N102" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="O102" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="P102" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="Q102" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="R102" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8601,52 +8619,52 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D103" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E103" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F103" s="2">
         <v>44216</v>
       </c>
       <c r="G103" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H103" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I103" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="J103" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="M103" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N103" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="O103" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="P103" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="Q103" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="R103" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -8654,49 +8672,49 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D104" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E104" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F104" s="2">
         <v>44216</v>
       </c>
       <c r="G104" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H104" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I104" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="J104" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="M104" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="N104" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="O104" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="P104" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="R104" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -8704,49 +8722,52 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E105" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F105" s="2">
         <v>44216</v>
       </c>
       <c r="G105" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H105" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I105" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J105" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="M105" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N105" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="O105" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="P105" t="s">
         <v>927</v>
       </c>
+      <c r="Q105" t="s">
+        <v>961</v>
+      </c>
       <c r="R105" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -8754,52 +8775,49 @@
         <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D106" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E106" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F106" s="2">
         <v>44216</v>
       </c>
       <c r="G106" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H106" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="I106" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="J106" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="M106" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="N106" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="O106" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="P106" t="s">
-        <v>921</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="R106" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -8807,52 +8825,52 @@
         <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E107" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F107" s="2">
         <v>44217</v>
       </c>
       <c r="G107" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H107" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I107" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="J107" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="M107" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="N107" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="O107" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="P107" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="Q107" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="R107" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -8860,49 +8878,49 @@
         <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D108" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E108" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F108" s="2">
         <v>44217</v>
       </c>
       <c r="G108" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H108" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I108" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="J108" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="N108" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="O108" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="P108" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="Q108" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="R108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -8910,52 +8928,52 @@
         <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E109" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F109" s="2">
         <v>44217</v>
       </c>
       <c r="G109" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H109" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I109" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="J109" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="M109" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
       <c r="N109" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="O109" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="P109" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="Q109" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="R109" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -8963,52 +8981,52 @@
         <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E110" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F110" s="2">
         <v>44217</v>
       </c>
       <c r="G110" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H110" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I110" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="J110" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="M110" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="N110" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="O110" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="P110" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Q110" t="s">
-        <v>969</v>
+        <v>939</v>
       </c>
       <c r="R110" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -9016,52 +9034,52 @@
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E111" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F111" s="2">
         <v>44217</v>
       </c>
       <c r="G111" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H111" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I111" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J111" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="M111" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="N111" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="O111" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="P111" t="s">
-        <v>910</v>
+        <v>935</v>
       </c>
       <c r="Q111" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="R111" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -9069,52 +9087,52 @@
         <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D112" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E112" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F112" s="2">
         <v>44217</v>
       </c>
       <c r="G112" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H112" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I112" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="J112" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="M112" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N112" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O112" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P112" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q112" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="R112" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -9122,52 +9140,52 @@
         <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F113" s="2">
         <v>44217</v>
       </c>
       <c r="G113" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H113" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I113" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="J113" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="M113" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="N113" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="O113" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="P113" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="Q113" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="R113" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -9175,52 +9193,52 @@
         <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D114" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E114" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F114" s="2">
         <v>44217</v>
       </c>
       <c r="G114" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H114" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I114" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="J114" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="M114" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N114" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O114" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P114" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q114" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="R114" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -9228,52 +9246,52 @@
         <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D115" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E115" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F115" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="G115" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H115" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I115" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J115" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="M115" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N115" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O115" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P115" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q115" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="R115" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -9281,52 +9299,52 @@
         <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D116" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E116" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F116" s="2">
         <v>44218</v>
       </c>
       <c r="G116" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H116" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I116" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="J116" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="M116" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N116" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O116" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P116" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q116" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="R116" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -9334,52 +9352,52 @@
         <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D117" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E117" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F117" s="2">
         <v>44218</v>
       </c>
       <c r="G117" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H117" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I117" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="J117" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="M117" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N117" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O117" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P117" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q117" t="s">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="R117" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -9387,52 +9405,52 @@
         <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E118" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F118" s="2">
         <v>44218</v>
       </c>
       <c r="G118" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H118" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I118" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J118" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="M118" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N118" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O118" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P118" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q118" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="R118" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -9440,52 +9458,52 @@
         <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E119" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F119" s="2">
         <v>44218</v>
       </c>
       <c r="G119" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H119" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I119" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="J119" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="M119" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N119" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O119" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P119" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q119" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="R119" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -9493,52 +9511,52 @@
         <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D120" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E120" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F120" s="2">
         <v>44218</v>
       </c>
       <c r="G120" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H120" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I120" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J120" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="M120" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N120" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O120" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P120" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q120" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="R120" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -9546,52 +9564,52 @@
         <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D121" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E121" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F121" s="2">
         <v>44218</v>
       </c>
       <c r="G121" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H121" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I121" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="J121" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="M121" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N121" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O121" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P121" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q121" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="R121" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -9599,52 +9617,52 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C122" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D122" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E122" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F122" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G122" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H122" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I122" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="J122" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="M122" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="N122" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="O122" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P122" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Q122" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="R122" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -9652,52 +9670,52 @@
         <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D123" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F123" s="2">
         <v>44219</v>
       </c>
       <c r="G123" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H123" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I123" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J123" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="M123" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="N123" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="O123" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="P123" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q123" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="R123" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -9705,46 +9723,105 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D124" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E124" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F124" s="2">
         <v>44219</v>
       </c>
       <c r="G124" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H124" t="s">
+        <v>515</v>
+      </c>
+      <c r="I124" t="s">
+        <v>639</v>
+      </c>
+      <c r="J124" t="s">
+        <v>661</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="M124" t="s">
+        <v>833</v>
+      </c>
+      <c r="N124" t="s">
+        <v>872</v>
+      </c>
+      <c r="O124" t="s">
+        <v>892</v>
+      </c>
+      <c r="P124" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>979</v>
+      </c>
+      <c r="R124" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" t="s">
         <v>511</v>
       </c>
-      <c r="I124" t="s">
-        <v>635</v>
-      </c>
-      <c r="J124" t="s">
-        <v>652</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="O124" t="s">
-        <v>882</v>
-      </c>
-      <c r="P124" t="s">
-        <v>921</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>973</v>
-      </c>
-      <c r="R124" t="s">
-        <v>974</v>
+      <c r="E125" t="s">
+        <v>512</v>
+      </c>
+      <c r="F125" s="2">
+        <v>44219</v>
+      </c>
+      <c r="G125" t="s">
+        <v>513</v>
+      </c>
+      <c r="H125" t="s">
+        <v>515</v>
+      </c>
+      <c r="I125" t="s">
+        <v>640</v>
+      </c>
+      <c r="J125" t="s">
+        <v>661</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="M125" t="s">
+        <v>833</v>
+      </c>
+      <c r="N125" t="s">
+        <v>872</v>
+      </c>
+      <c r="O125" t="s">
+        <v>892</v>
+      </c>
+      <c r="P125" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>969</v>
+      </c>
+      <c r="R125" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -9872,6 +9949,7 @@
     <hyperlink ref="K122" r:id="rId121"/>
     <hyperlink ref="K123" r:id="rId122"/>
     <hyperlink ref="K124" r:id="rId123"/>
+    <hyperlink ref="K125" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="850">
   <si>
     <t>gid</t>
   </si>
@@ -70,28 +70,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>725</t>
+    <t>574</t>
   </si>
   <si>
     <t>715</t>
@@ -106,40 +85,40 @@
     <t>723</t>
   </si>
   <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
     <t>726</t>
   </si>
   <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>631</t>
+    <t>579</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>638</t>
   </si>
   <si>
     <t>581</t>
   </si>
   <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>574</t>
+    <t>711</t>
   </si>
   <si>
     <t>663</t>
@@ -160,33 +139,30 @@
     <t>684</t>
   </si>
   <si>
-    <t>711</t>
-  </si>
-  <si>
     <t>682</t>
   </si>
   <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
     <t>712</t>
   </si>
   <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
     <t>727</t>
   </si>
   <si>
@@ -202,30 +178,30 @@
     <t>720</t>
   </si>
   <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
     <t>718</t>
   </si>
   <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>716</t>
+    <t>668</t>
   </si>
   <si>
     <t>661</t>
   </si>
   <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
     <t>637</t>
   </si>
   <si>
@@ -238,21 +214,21 @@
     <t>659</t>
   </si>
   <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
     <t>791</t>
   </si>
   <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
     <t>636</t>
   </si>
   <si>
@@ -412,28 +388,7 @@
     <t>785</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสิงห์บุรี รายที่ 16</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 465</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 461</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อโคนนทบุรี รายที่ 152 ระบาดระลอกใหม่</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อโควิดนราธิวาส</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 19</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 66</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 522</t>
+    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 24</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 105</t>
@@ -448,40 +403,40 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 520</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 100</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 573</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 437</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 527</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 100</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 573</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 437</t>
+    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 21</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 23</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 26</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 20</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 25</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 154</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อโควิดนครสวรรค์ รายที่ 4</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 21</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 23</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 26</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 20</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 25</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 154</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อโควิดฉะเชิงเทรา รายที่ 24</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 101</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 462</t>
@@ -502,33 +457,30 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 509</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 101</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 507</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 521</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 572</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 104</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 630</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 590</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 588</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 102</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 572</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 104</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 521</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 630</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 590</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 588</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 531</t>
   </si>
   <si>
@@ -544,27 +496,27 @@
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 110</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 109</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดพัทลุง รายที่ 3</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 107</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 106</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 108</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดพัทลุง รายที่ 3</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 106</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดปราจีนบุรี รายที่ 9</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดเลย รายที่ 7</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 107</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปราจีนบุรี รายที่ 9</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 109</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 155</t>
   </si>
   <si>
@@ -577,21 +529,21 @@
     <t>ผู้ป่วยติดเชื้อ โควิดพัทลุง รายที่ 2</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดพัทลุง รายที่ 1</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสุพรรณบุรี รายที่ 17</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 595</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 589</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 639</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดพัทลุง รายที่ 1</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสุพรรณบุรี รายที่ 17</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 595</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 589</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 156</t>
   </si>
   <si>
@@ -751,28 +703,7 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
-    <t>14.89667258</t>
-  </si>
-  <si>
-    <t>13.65590933</t>
-  </si>
-  <si>
-    <t>13.69465061</t>
-  </si>
-  <si>
-    <t>13.9817163</t>
-  </si>
-  <si>
-    <t>6.414501159</t>
-  </si>
-  <si>
-    <t>13.68676079</t>
-  </si>
-  <si>
-    <t>14.07336867</t>
-  </si>
-  <si>
-    <t>13.75938834</t>
+    <t>13.69238393</t>
   </si>
   <si>
     <t>14.58492035</t>
@@ -787,40 +718,40 @@
     <t>13.76004758</t>
   </si>
   <si>
+    <t>14.5847393</t>
+  </si>
+  <si>
+    <t>13.79101396</t>
+  </si>
+  <si>
+    <t>13.85815187</t>
+  </si>
+  <si>
     <t>13.81884263</t>
   </si>
   <si>
-    <t>14.5847393</t>
-  </si>
-  <si>
-    <t>13.79101396</t>
-  </si>
-  <si>
-    <t>13.85815187</t>
+    <t>13.68777199</t>
+  </si>
+  <si>
+    <t>13.66776506</t>
+  </si>
+  <si>
+    <t>13.68594127</t>
+  </si>
+  <si>
+    <t>13.68297353</t>
+  </si>
+  <si>
+    <t>13.78975648</t>
+  </si>
+  <si>
+    <t>13.89822676</t>
   </si>
   <si>
     <t>15.70682712</t>
   </si>
   <si>
-    <t>13.68777199</t>
-  </si>
-  <si>
-    <t>13.66776506</t>
-  </si>
-  <si>
-    <t>13.68594127</t>
-  </si>
-  <si>
-    <t>13.68297353</t>
-  </si>
-  <si>
-    <t>13.78975648</t>
-  </si>
-  <si>
-    <t>13.89822676</t>
-  </si>
-  <si>
-    <t>13.69238393</t>
+    <t>14.59330507</t>
   </si>
   <si>
     <t>13.68152862</t>
@@ -841,33 +772,30 @@
     <t>13.61955346</t>
   </si>
   <si>
-    <t>14.59330507</t>
-  </si>
-  <si>
     <t>13.61828682</t>
   </si>
   <si>
+    <t>13.75945599</t>
+  </si>
+  <si>
+    <t>13.7586604</t>
+  </si>
+  <si>
+    <t>14.59356475</t>
+  </si>
+  <si>
+    <t>13.85539475</t>
+  </si>
+  <si>
+    <t>12.87143045</t>
+  </si>
+  <si>
+    <t>13.75863277</t>
+  </si>
+  <si>
     <t>14.58508707</t>
   </si>
   <si>
-    <t>13.7586604</t>
-  </si>
-  <si>
-    <t>14.59356475</t>
-  </si>
-  <si>
-    <t>13.75945599</t>
-  </si>
-  <si>
-    <t>13.85539475</t>
-  </si>
-  <si>
-    <t>12.87143045</t>
-  </si>
-  <si>
-    <t>13.75863277</t>
-  </si>
-  <si>
     <t>13.66185062</t>
   </si>
   <si>
@@ -883,30 +811,30 @@
     <t>14.5845878</t>
   </si>
   <si>
+    <t>14.59357159</t>
+  </si>
+  <si>
+    <t>7.423248341</t>
+  </si>
+  <si>
+    <t>14.59326909</t>
+  </si>
+  <si>
+    <t>14.59329934</t>
+  </si>
+  <si>
+    <t>6.027105821</t>
+  </si>
+  <si>
     <t>14.59349459</t>
   </si>
   <si>
-    <t>7.423248341</t>
-  </si>
-  <si>
-    <t>14.59329934</t>
+    <t>13.95752777</t>
   </si>
   <si>
     <t>16.88489971</t>
   </si>
   <si>
-    <t>6.027105821</t>
-  </si>
-  <si>
-    <t>14.59326909</t>
-  </si>
-  <si>
-    <t>13.95752777</t>
-  </si>
-  <si>
-    <t>14.59357159</t>
-  </si>
-  <si>
     <t>13.86504658</t>
   </si>
   <si>
@@ -919,21 +847,21 @@
     <t>7.422741228</t>
   </si>
   <si>
+    <t>7.422830792</t>
+  </si>
+  <si>
+    <t>14.46651329</t>
+  </si>
+  <si>
+    <t>13.92446433</t>
+  </si>
+  <si>
+    <t>13.67539057</t>
+  </si>
+  <si>
     <t>12.88458455</t>
   </si>
   <si>
-    <t>7.422830792</t>
-  </si>
-  <si>
-    <t>14.46651329</t>
-  </si>
-  <si>
-    <t>13.92446433</t>
-  </si>
-  <si>
-    <t>13.67539057</t>
-  </si>
-  <si>
     <t>13.94774559</t>
   </si>
   <si>
@@ -1093,28 +1021,7 @@
     <t>13.40627124</t>
   </si>
   <si>
-    <t>100.3976229</t>
-  </si>
-  <si>
-    <t>100.4237361</t>
-  </si>
-  <si>
-    <t>100.3918211</t>
-  </si>
-  <si>
-    <t>100.3257135</t>
-  </si>
-  <si>
-    <t>101.8236311</t>
-  </si>
-  <si>
-    <t>101.0678849</t>
-  </si>
-  <si>
-    <t>100.6149832</t>
-  </si>
-  <si>
-    <t>100.4864915</t>
+    <t>101.0805899</t>
   </si>
   <si>
     <t>100.4517891</t>
@@ -1129,40 +1036,40 @@
     <t>100.4852345</t>
   </si>
   <si>
+    <t>100.4521649</t>
+  </si>
+  <si>
+    <t>100.5473975</t>
+  </si>
+  <si>
+    <t>100.6435312</t>
+  </si>
+  <si>
     <t>100.5178598</t>
   </si>
   <si>
-    <t>100.4521649</t>
-  </si>
-  <si>
-    <t>100.5473975</t>
-  </si>
-  <si>
-    <t>100.6435312</t>
+    <t>101.0699037</t>
+  </si>
+  <si>
+    <t>101.0484665</t>
+  </si>
+  <si>
+    <t>101.0730674</t>
+  </si>
+  <si>
+    <t>101.0656488</t>
+  </si>
+  <si>
+    <t>101.1634796</t>
+  </si>
+  <si>
+    <t>100.5034757</t>
   </si>
   <si>
     <t>100.1384038</t>
   </si>
   <si>
-    <t>101.0699037</t>
-  </si>
-  <si>
-    <t>101.0484665</t>
-  </si>
-  <si>
-    <t>101.0730674</t>
-  </si>
-  <si>
-    <t>101.0656488</t>
-  </si>
-  <si>
-    <t>101.1634796</t>
-  </si>
-  <si>
-    <t>100.5034757</t>
-  </si>
-  <si>
-    <t>101.0805899</t>
+    <t>100.3463218</t>
   </si>
   <si>
     <t>100.4474132</t>
@@ -1183,33 +1090,30 @@
     <t>100.3799554</t>
   </si>
   <si>
-    <t>100.3463218</t>
-  </si>
-  <si>
     <t>100.3800084</t>
   </si>
   <si>
+    <t>100.4861804</t>
+  </si>
+  <si>
+    <t>100.5663246</t>
+  </si>
+  <si>
+    <t>100.3463703</t>
+  </si>
+  <si>
+    <t>100.5421215</t>
+  </si>
+  <si>
+    <t>101.5679463</t>
+  </si>
+  <si>
+    <t>100.5650481</t>
+  </si>
+  <si>
     <t>100.4522348</t>
   </si>
   <si>
-    <t>100.5663246</t>
-  </si>
-  <si>
-    <t>100.3463703</t>
-  </si>
-  <si>
-    <t>100.4861804</t>
-  </si>
-  <si>
-    <t>100.5421215</t>
-  </si>
-  <si>
-    <t>101.5679463</t>
-  </si>
-  <si>
-    <t>100.5650481</t>
-  </si>
-  <si>
     <t>100.4257021</t>
   </si>
   <si>
@@ -1225,30 +1129,30 @@
     <t>100.4523306</t>
   </si>
   <si>
+    <t>100.3462962</t>
+  </si>
+  <si>
+    <t>100.1762169</t>
+  </si>
+  <si>
+    <t>100.3461115</t>
+  </si>
+  <si>
+    <t>100.3463417</t>
+  </si>
+  <si>
+    <t>101.9707748</t>
+  </si>
+  <si>
     <t>100.3461058</t>
   </si>
   <si>
-    <t>100.1762169</t>
-  </si>
-  <si>
-    <t>100.3463417</t>
+    <t>101.7266276</t>
   </si>
   <si>
     <t>101.8830112</t>
   </si>
   <si>
-    <t>101.9707748</t>
-  </si>
-  <si>
-    <t>100.3461115</t>
-  </si>
-  <si>
-    <t>101.7266276</t>
-  </si>
-  <si>
-    <t>100.3462962</t>
-  </si>
-  <si>
     <t>100.481401</t>
   </si>
   <si>
@@ -1261,21 +1165,21 @@
     <t>100.1758061</t>
   </si>
   <si>
+    <t>100.176059</t>
+  </si>
+  <si>
+    <t>100.1160261</t>
+  </si>
+  <si>
+    <t>100.5990154</t>
+  </si>
+  <si>
+    <t>100.4266802</t>
+  </si>
+  <si>
     <t>99.63284027</t>
   </si>
   <si>
-    <t>100.176059</t>
-  </si>
-  <si>
-    <t>100.1160261</t>
-  </si>
-  <si>
-    <t>100.5990154</t>
-  </si>
-  <si>
-    <t>100.4266802</t>
-  </si>
-  <si>
     <t>100.5460782</t>
   </si>
   <si>
@@ -1438,40 +1342,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>ไม่ระบุพิกัด</t>
+  </si>
+  <si>
     <t>ข่าวสาร</t>
   </si>
   <si>
-    <t>ไม่ระบุพิกัด</t>
+    <t>Timeline ที่ผู้ป่วยเคยมา</t>
   </si>
   <si>
     <t>กำลังรักษา</t>
   </si>
   <si>
-    <t>Timeline ที่ผู้ป่วยเคยมา</t>
-  </si>
-  <si>
-    <t>รายที่ 16 ชายอายุ 38 ปี อาชีพรับจ้าง ต.โพทะเล อ.ค่ายบางระจัน</t>
-  </si>
-  <si>
-    <t>รายที่ 465 ชาย เจ้าหน้าที่รัฐ</t>
-  </si>
-  <si>
-    <t>รายที่ 461 ชาย พนักงานส่งพัสดุ</t>
-  </si>
-  <si>
-    <t>รายที่ 152 หญิง อายุ 36 ปี อ.ไทรน้อย จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 46 เพศหญิง อายุ 29 ปีกลับจากประเทศมาเลเซีย</t>
-  </si>
-  <si>
-    <t>รายที่ 19 ชายชาวกัมพูชา อายุ 30 ปี อาชีพรับจ้าง</t>
-  </si>
-  <si>
-    <t>รายที่ 109 (รายที่ 66 ของการระบาดรอบใหม่) เพศชาย อายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 522 หญิง พนักงานธุรการ รพ.ศิริราช มีประวัติสัมผัสกับผู้ป่วยยืนยันรายก่อนหน้า</t>
+    <t>รายที่ 24 ชายไทย อายุ 39 ปี อาชีพว่างงาน</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 105 เพศ : หญิง สัญชาติ : ไทย อายุ : 42 ปี ต.ศาลาแดง อ.เมืองอ่างทอง</t>
@@ -1486,40 +1369,40 @@
     <t>รายที่ 520 หญิง พนักงาน รพ.ศิริราช มีประวัติสัมผัสกับผู้ป่วยยืนยันรายก่อนหน้า</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ : 100 เพศ : ชาย สัญชาติ : ไทย อายุ : 47 ปี ต.ป่างิ้ว อ.เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>รายที่ 573 หญิง รับจ้างทั่วไป</t>
+  </si>
+  <si>
+    <t>รายที่ 437 ชายค้าขาย</t>
+  </si>
+  <si>
     <t>รายที่ 527 ชาย ขับรถรับจ้างทั่วไป</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 100 เพศ : ชาย สัญชาติ : ไทย อายุ : 47 ปี ต.ป่างิ้ว อ.เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 573 หญิง รับจ้างทั่วไป</t>
-  </si>
-  <si>
-    <t>รายที่ 437 ชายค้าขาย</t>
+    <t>รายที่ 21 หญิงไทย อายุ 49 ปี อาชีพพนักงานรัฐวิสาหกิจ</t>
+  </si>
+  <si>
+    <t>รายที่ 23 หญิงไทย อายุ 18 ปี อาชีพนักศึกษา</t>
+  </si>
+  <si>
+    <t>รายที่ 26 ชายไทย อายุ 26 ปี อาชีพรับจ้าง</t>
+  </si>
+  <si>
+    <t>รายที่ 20 ชายไทย อายุ 25 ปี อาชีพค้าขาย</t>
+  </si>
+  <si>
+    <t>รายที่ 25 ชายไทย อายุ 24 อาชีพ รับราชการ</t>
+  </si>
+  <si>
+    <t>รายที่ 154 ชาย อายุ 49 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
   </si>
   <si>
     <t>รายที่ 4 ของจังหวัดนครสวรรค์ ผู้ป่วยชายไทย อายุ 20 ปี อาชีพ นักศึกษา อ.เมือง จังหวัดนครสวรรค์</t>
   </si>
   <si>
-    <t>รายที่ 21 หญิงไทย อายุ 49 ปี อาชีพพนักงานรัฐวิสาหกิจ</t>
-  </si>
-  <si>
-    <t>รายที่ 23 หญิงไทย อายุ 18 ปี อาชีพนักศึกษา</t>
-  </si>
-  <si>
-    <t>รายที่ 26 ชายไทย อายุ 26 ปี อาชีพรับจ้าง</t>
-  </si>
-  <si>
-    <t>รายที่ 20 ชายไทย อายุ 25 ปี อาชีพค้าขาย</t>
-  </si>
-  <si>
-    <t>รายที่ 25 ชายไทย อายุ 24 อาชีพ รับราชการ</t>
-  </si>
-  <si>
-    <t>รายที่ 154 ชาย อายุ 49 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 24 ชายไทย อายุ 39 ปี อาชีพว่างงาน</t>
+    <t>ผู้ป่วยรายที่ : 101 เพศ : ชาย สัญชาติ : ไทย อายุ : 35 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
     <t>รายที่ 462 หญิง พนักงานทั่วไป (เดินเอกสาร)</t>
@@ -1540,33 +1423,30 @@
     <t>รายที่ 509 ชาย พนักงานโรงงาน มีประวัติเดินทางไปในพื้นที่เสี่ยง โรงงานในเขตบางขุนเทียน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 101 เพศ : ชาย สัญชาติ : ไทย อายุ : 35 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
     <t>รายที่ 507 ชาย พนักงานโรงงาน มีประวัติเดินทางไปในพื้นที่เสี่ยง โรงงานในเขตบางขุนเทียน</t>
   </si>
   <si>
+    <t>รายที่ 521 หญิง พนักงาน รพ.ศิริราช มีประวัติสัมผัสกับผู้ป่วยยืนยันรายก่อนหน้า</t>
+  </si>
+  <si>
+    <t>รายที่ 572 หญิง นิสิต ม.นครินทร์วิโรฒ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 104 เพศ : หญิง สัญชาติ : ไทย อายุ : 58 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 630 ชาย นักธุรกิจ</t>
+  </si>
+  <si>
+    <t>รายที่ 590 ชาย ช่างประตูม้วน</t>
+  </si>
+  <si>
+    <t>รายที่ 588 ชายนิสิต ม.ศรีนครินทรวิโรฒ</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ : 102 เพศ : ชาย สัญชาติ : ไทย อายุ : 63 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>รายที่ 572 หญิง นิสิต ม.นครินทร์วิโรฒ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 104 เพศ : หญิง สัญชาติ : ไทย อายุ : 58 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 521 หญิง พนักงาน รพ.ศิริราช มีประวัติสัมผัสกับผู้ป่วยยืนยันรายก่อนหน้า</t>
-  </si>
-  <si>
-    <t>รายที่ 630 ชาย นักธุรกิจ</t>
-  </si>
-  <si>
-    <t>รายที่ 590 ชาย ช่างประตูม้วน</t>
-  </si>
-  <si>
-    <t>รายที่ 588 ชายนิสิต ม.ศรีนครินทรวิโรฒ</t>
-  </si>
-  <si>
     <t>รายที่ 531 ชาย ว่างงาน</t>
   </si>
   <si>
@@ -1582,30 +1462,30 @@
     <t>ผู้ป่วยรายที่ : 110 เพศ : หญิง สัญชาติ : ไทย อายุ : 41 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ : 109 เพศ : หญิง สัญชาติ : ไทย อายุ : 47 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 3 เพศหญิง อายุ 40 ปี สัญชาติเมียนมา อาชีพรับจ้างก่อสร้าง มาทำงานที่สถานประกอบการก่อสร้าง (บริษัทรับจ้างก่อสร้าง) ในอำเภอบางแก้ว จังหวัดพัทลุง (ที่เดียวกันกับผู้ติดเชื้อรายที่ 2) เมื่อ พ.ศ.2562 พูดไทยและฟังภาษาไทยได้เล็กน้อย อาศัยอยู่ที่พักคนงานที่นายจ้างจัดให้ พื้นที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เป็นห้องพักติดกันหลายห้อง มีลูกจ้างคนงานต่างด้าวทุกคนพักอาศัยในสถานที่ดังกล่าว โดยผู้ติดเชื้อพักอาศัยในห้องพักกับสามี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 107 เพศ : หญิง สัญชาติ : ไทย อายุ : 62 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 106 เพศ : หญิง สัญชาติ : ไทย อายุ : 27 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 3 เป็นเพศหญิง อายุ 29 ปี จากการสอบสวนพบว่า ผู้ป่วยมีภูมิลำเนาเดิมจังหวัดเชียงราย ประกอบอาชีพ ณ กรุงกัวลาลัมเปอร์ ประเทศมาเลเซีย เดินทางเข้าประเทศไทย ในวันที่ 10 มกราคม 2564 ทางท่าเรือท่าทราย ม.7 ต.ปาเสมัส อ.สุไหงโก-ลก จ.นราธิวาส</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ : 108 เพศ : หญิง สัญชาติ : ไทย อายุ : 37 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>รายที่ 3 เพศหญิง อายุ 40 ปี สัญชาติเมียนมา อาชีพรับจ้างก่อสร้าง มาทำงานที่สถานประกอบการก่อสร้าง (บริษัทรับจ้างก่อสร้าง) ในอำเภอบางแก้ว จังหวัดพัทลุง (ที่เดียวกันกับผู้ติดเชื้อรายที่ 2) เมื่อ พ.ศ.2562 พูดไทยและฟังภาษาไทยได้เล็กน้อย อาศัยอยู่ที่พักคนงานที่นายจ้างจัดให้ พื้นที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เป็นห้องพักติดกันหลายห้อง มีลูกจ้างคนงานต่างด้าวทุกคนพักอาศัยในสถานที่ดังกล่าว โดยผู้ติดเชื้อพักอาศัยในห้องพักกับสามี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 106 เพศ : หญิง สัญชาติ : ไทย อายุ : 27 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+    <t>ผู้ป่วยรายที่ 9 (ระลอกใหม่) จังหวัดปราจีนบุรี ผู้ป่วยเพศชาย อายุ 13 ปี เกี่ยวข้องกับผู้ป่วยจังหวัดสมุทรสาคร ผู้สัมผัสใกล้ชิดเสี่ยงสูงจำนวน 31 คน ผลตรวจไม่พบเชื้อทั้งหมด</t>
   </si>
   <si>
     <t>ผู้ติดเชื้อรายที่ 7 ซึ่งเป็นรายใหม่ที่ยืนยันอยู่ในพื้นที่ตำบลห้วยส้ม อำเภอภูกระดึง เป็นผู้ป่วยเพศหญิงอายุ 36 ปี อาชีพรับจ้างเป็นแม่ครัวทำอาหารและเสิร์ฟอาหารที่ศูนย์ฝึกอบรมตำรวจภูธรภาค 4 จังหวัดเลย</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 3 เป็นเพศหญิง อายุ 29 ปี จากการสอบสวนพบว่า ผู้ป่วยมีภูมิลำเนาเดิมจังหวัดเชียงราย ประกอบอาชีพ ณ กรุงกัวลาลัมเปอร์ ประเทศมาเลเซีย เดินทางเข้าประเทศไทย ในวันที่ 10 มกราคม 2564 ทางท่าเรือท่าทราย ม.7 ต.ปาเสมัส อ.สุไหงโก-ลก จ.นราธิวาส</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 107 เพศ : หญิง สัญชาติ : ไทย อายุ : 62 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 9 (ระลอกใหม่) จังหวัดปราจีนบุรี ผู้ป่วยเพศชาย อายุ 13 ปี เกี่ยวข้องกับผู้ป่วยจังหวัดสมุทรสาคร ผู้สัมผัสใกล้ชิดเสี่ยงสูงจำนวน 31 คน ผลตรวจไม่พบเชื้อทั้งหมด</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 109 เพศ : หญิง สัญชาติ : ไทย อายุ : 47 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
     <t>รายที่ 155 หญิง อายุ 24 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
@@ -1618,21 +1498,21 @@
     <t>รายที่ 2 เพศชาย อายุ 41 ปี สัญชาติเมียนมา อาชีพรับจ้างก่อสร้าง มาทำงานที่สถานประกอบการก่อสร้าง (บริษัทรับจ้างก่อสร้าง) ในอำเภอบางแก้ว จังหวัดพัทลุง เมื่อ พ.ศ. 2556 ประวัติการป่วย พบว่า ไม่มีไข้ ไม่มีอาการไอ ไม่เจ็บคอ และไม่มีเหนื่อยหอบ สามารถรับรสและกลิ่นได้ตามปกติ</t>
   </si>
   <si>
+    <t>รายที่ 1 เพศหญิง สัญชาติลาว อายุ 27 ปี เป็นแรงานที่เข้าเมืองถูกต้องตามกฎหมาย อาชีพรับจ้าง (พนักงานบริการ) ร้านคาราโอเกะ พื้นที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เดินทางมาจากจังหวัดอยุธยา มาทำงานที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เมื่อประมาณ 6 เดือนที่ผ่านมา พักอาศัยที่ร้านคาราโอเกะ ไม่ได้เดินทางไปนอกจังหวัดพัทลุง ไม่มีไข้ ไม่มีอาการไอ ไม่เจ็บคอ และไม่มีเหนื่อยหอบ สามารถรับรส และกลิ่นได้ตามปกติ</t>
+  </si>
+  <si>
+    <t>รายที่ 17 ชาย อายุ 25 ปี อ.เมือง จ.สุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 595 พนักงานรัฐวิสากหิจ</t>
+  </si>
+  <si>
+    <t>รายที่ 589 ชาย พ่อบ้าน</t>
+  </si>
+  <si>
     <t>รายที่ 639 หญิงไม่ได้ประกอบอาชีพ</t>
   </si>
   <si>
-    <t>รายที่ 1 เพศหญิง สัญชาติลาว อายุ 27 ปี เป็นแรงานที่เข้าเมืองถูกต้องตามกฎหมาย อาชีพรับจ้าง (พนักงานบริการ) ร้านคาราโอเกะ พื้นที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เดินทางมาจากจังหวัดอยุธยา มาทำงานที่ตำบลโคกสัก อำเภอบางแก้ว จังหวัดพัทลุง เมื่อประมาณ 6 เดือนที่ผ่านมา พักอาศัยที่ร้านคาราโอเกะ ไม่ได้เดินทางไปนอกจังหวัดพัทลุง ไม่มีไข้ ไม่มีอาการไอ ไม่เจ็บคอ และไม่มีเหนื่อยหอบ สามารถรับรส และกลิ่นได้ตามปกติ</t>
-  </si>
-  <si>
-    <t>รายที่ 17 ชาย อายุ 25 ปี อ.เมือง จ.สุพรรณบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 595 พนักงานรัฐวิสากหิจ</t>
-  </si>
-  <si>
-    <t>รายที่ 589 ชาย พ่อบ้าน</t>
-  </si>
-  <si>
     <t>รายที่ 156 หญิง อายุ 35 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
   </si>
   <si>
@@ -1792,7 +1672,10 @@
     <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดสิงห์บุรี</t>
+    <t>สำนักงานสาธารณสุขจังหวัดฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
@@ -1801,42 +1684,33 @@
     <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดฉะเชิงเทรา</t>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดนครสวรรค์</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์ จ.นราธิวาส</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดพัทลุง</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดปราจีนบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดเลย กรมประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดสุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
   </si>
   <si>
     <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดนครสวรรค์</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์ จ.นราธิวาส</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดพัทลุง</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดเลย กรมประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปราจีนบุรี</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดสุพรรณบุรี</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
     <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
   </si>
   <si>
@@ -1849,28 +1723,7 @@
     <t>Covid-19 จังหวัดสมุทรสงคราม</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B8%87%E0%B8%AB%E0%B9%8C%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-797251443717354/photos/a.806466226129209/3336046633171143</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3172487649517501/3172486122850987</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3172487649517501/3172486279517638</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.235664628071785/235711778067070/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth/photos/a.620511384638225/3801683586520973/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551500731571317</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/pcb.718983142089711/718983088756383</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177455992354000</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/pcb.3553535054701218/3553534851367905/</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20105.jpg</t>
@@ -1885,40 +1738,40 @@
     <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177455849020681</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/Timeline100.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3180013688764897/3180010982098501</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3170211899745076/3170210486411884</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177456555687277</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/Timeline100.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3180013688764897/3180010982098501</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3170211899745076/3170210486411884</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551500781571312</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551500901571300</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551651171556273</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1069486233106125/photos/a.1080785151976233/3551759584878765/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/pcb.3553535054701218/3553534864701237</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.237415217896726/237415197896728</t>
   </si>
   <si>
     <t>https://www.facebook.com/239NSPRD/photos/a.158866404795562/711632856185578/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551500781571312</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551500901571300</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/a.1080785151976233/3551651171556273</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/1069486233106125/photos/a.1080785151976233/3551759584878765/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/pcb.3553535054701218/3553534864701237</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.237415217896726/237415197896728</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%89%E0%B8%B0%E0%B9%80%E0%B8%8A%E0%B8%B4%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%B2-1069486233106125/photos/pcb.3553535054701218/3553534851367905/</t>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20101_0.jpg</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3172487649517501/3172485342851065</t>
@@ -1939,33 +1792,30 @@
     <t>https://www.facebook.com/prbangkok/photos/pcb.3174961575936775/3174959162603683</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20101_0.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3174961575936775/3174959182603681</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177455925687340</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3180013688764897/3180010662098533</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20104.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782534254679/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256995207233</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256841873915</t>
+  </si>
+  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20102.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3180013688764897/3180010662098533</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20104.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177455925687340</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782534254679/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256995207233</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256841873915</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3177457319020534/3177456855687247</t>
   </si>
   <si>
@@ -1978,27 +1828,27 @@
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline%20111.jpg</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline%20109.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prphatlung/photos/pcb.1347097968974503/1347093632308270</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline107.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline106.jpg</t>
+  </si>
+  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline108.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prphatlung/photos/pcb.1347097968974503/1347093632308270</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline106.jpg</t>
+    <t>https://www.facebook.com/pho.prachin/photos/a.1064247093638880/3871254702938091/</t>
   </si>
   <si>
     <t>https://www.facebook.com/prdprloei/</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline107.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pho.prachin/photos/a.1064247093638880/3871254702938091/</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline%20109.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103022891335960/237443154560599/</t>
   </si>
   <si>
@@ -2011,21 +1861,21 @@
     <t>https://www.facebook.com/prphatlung/photos/pcb.1347097968974503/1347093635641603</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prphatlung/photos/pcb.1347097968974503/1347093622308271/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ssjsuphan/photos/a.1461426137439296/2798477903734106/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257278540538</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256931873906</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783517587914</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prphatlung/photos/pcb.1347097968974503/1347093622308271/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ssjsuphan/photos/a.1461426137439296/2798477903734106/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257278540538</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182256931873906</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.237530091218572/237530067885241</t>
   </si>
   <si>
@@ -2185,111 +2035,102 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
-    <t>บางพุทรา</t>
+    <t>หน้าเมือง</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
   </si>
   <si>
     <t>แขวง แสมดำ</t>
   </si>
   <si>
-    <t>แขวง หลักสอง</t>
-  </si>
-  <si>
-    <t>ไทรน้อย</t>
+    <t>แขวงศิริราช</t>
+  </si>
+  <si>
+    <t>แขวง สามเสนใน</t>
+  </si>
+  <si>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง วงศ์สว่าง</t>
+  </si>
+  <si>
+    <t>คลองเขื่อน</t>
+  </si>
+  <si>
+    <t>บางตลาด</t>
+  </si>
+  <si>
+    <t>ปากน้ำโพ</t>
+  </si>
+  <si>
+    <t>ศาลเจ้าโรงทอง</t>
+  </si>
+  <si>
+    <t>แขวง บางบอน</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
+  </si>
+  <si>
+    <t>วังจันทร์</t>
+  </si>
+  <si>
+    <t>แขวง ดินแดง</t>
+  </si>
+  <si>
+    <t>แขวงแสมดำ</t>
   </si>
   <si>
     <t>บางนาค</t>
   </si>
   <si>
-    <t>หน้าเมือง</t>
+    <t>ท่ามะเดื่อ</t>
+  </si>
+  <si>
+    <t>สุไหงโก-ลก</t>
+  </si>
+  <si>
+    <t>กบินทร์</t>
+  </si>
+  <si>
+    <t>ภูกระดึง</t>
+  </si>
+  <si>
+    <t>แขวง ลุมพินี</t>
+  </si>
+  <si>
+    <t>บ่อโพง</t>
+  </si>
+  <si>
+    <t>ท่าพี่เลี้ยง</t>
+  </si>
+  <si>
+    <t>แขวง สีกัน</t>
+  </si>
+  <si>
+    <t>สองพี่น้อง</t>
+  </si>
+  <si>
+    <t>บางกร่าง</t>
+  </si>
+  <si>
+    <t>บางขุนกอง</t>
+  </si>
+  <si>
+    <t>คลองจิก</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
   </si>
   <si>
     <t>คลองหนึ่ง</t>
   </si>
   <si>
-    <t>แขวงศิริราช</t>
-  </si>
-  <si>
-    <t>บางแก้ว</t>
-  </si>
-  <si>
-    <t>แขวง วงศ์สว่าง</t>
-  </si>
-  <si>
-    <t>แขวง สามเสนใน</t>
-  </si>
-  <si>
-    <t>แขวง ท่าแร้ง</t>
-  </si>
-  <si>
-    <t>ปากน้ำโพ</t>
-  </si>
-  <si>
-    <t>คลองเขื่อน</t>
-  </si>
-  <si>
-    <t>บางตลาด</t>
-  </si>
-  <si>
-    <t>แขวง บางบอน</t>
-  </si>
-  <si>
-    <t>ศาลเจ้าโรงทอง</t>
-  </si>
-  <si>
-    <t>แขวง ห้วยขวาง</t>
-  </si>
-  <si>
-    <t>บางเขน</t>
-  </si>
-  <si>
-    <t>วังจันทร์</t>
-  </si>
-  <si>
-    <t>แขวง ดินแดง</t>
-  </si>
-  <si>
-    <t>แขวงแสมดำ</t>
-  </si>
-  <si>
-    <t>ท่ามะเดื่อ</t>
-  </si>
-  <si>
-    <t>ภูกระดึง</t>
-  </si>
-  <si>
-    <t>สุไหงโก-ลก</t>
-  </si>
-  <si>
-    <t>กบินทร์</t>
-  </si>
-  <si>
-    <t>แขวง ลุมพินี</t>
-  </si>
-  <si>
-    <t>บ่อโพง</t>
-  </si>
-  <si>
-    <t>สองพี่น้อง</t>
-  </si>
-  <si>
-    <t>ท่าพี่เลี้ยง</t>
-  </si>
-  <si>
-    <t>แขวง สีกัน</t>
-  </si>
-  <si>
-    <t>บางกร่าง</t>
-  </si>
-  <si>
-    <t>บางขุนกอง</t>
-  </si>
-  <si>
-    <t>คลองจิก</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
     <t>ท่ามะกา</t>
   </si>
   <si>
@@ -2329,90 +2170,84 @@
     <t>ปากท่อ</t>
   </si>
   <si>
-    <t>เมืองสิงห์บุรี</t>
+    <t>เมืองฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>บางขุนเทียน</t>
+  </si>
+  <si>
+    <t>เขตบางกอกน้อย</t>
+  </si>
+  <si>
+    <t>เขตพญาไท</t>
+  </si>
+  <si>
+    <t>เขตบางเขน</t>
+  </si>
+  <si>
+    <t>เขตบางซื่อ</t>
+  </si>
+  <si>
+    <t>ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>เมืองนครสวรรค์</t>
+  </si>
+  <si>
+    <t>วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>เขตบางบอน</t>
   </si>
   <si>
     <t>เขตบางขุนเทียน</t>
   </si>
   <si>
-    <t>เขตบางแค</t>
+    <t>เขตห้วยขวาง</t>
+  </si>
+  <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
+    <t>เขตดินแดง</t>
   </si>
   <si>
     <t>เมืองนราธิวาส</t>
   </si>
   <si>
-    <t>เมืองฉะเชิงเทรา</t>
+    <t>กบินทร์บุรี</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
+  </si>
+  <si>
+    <t>นครหลวง</t>
+  </si>
+  <si>
+    <t>เมืองสุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>เขตดอนเมือง</t>
+  </si>
+  <si>
+    <t>แก่งกระจาน</t>
+  </si>
+  <si>
+    <t>พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>บางกรวย</t>
+  </si>
+  <si>
+    <t>บางปะอิน</t>
   </si>
   <si>
     <t>คลองหลวง</t>
   </si>
   <si>
-    <t>เขตบางกอกน้อย</t>
-  </si>
-  <si>
-    <t>เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>บางขุนเทียน</t>
-  </si>
-  <si>
-    <t>เขตบางซื่อ</t>
-  </si>
-  <si>
-    <t>เขตพญาไท</t>
-  </si>
-  <si>
-    <t>เขตบางเขน</t>
-  </si>
-  <si>
-    <t>เมืองนครสวรรค์</t>
-  </si>
-  <si>
-    <t>ปากเกร็ด</t>
-  </si>
-  <si>
-    <t>เขตบางบอน</t>
-  </si>
-  <si>
-    <t>วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
-    <t>เมืองนนทบุรี</t>
-  </si>
-  <si>
-    <t>เขตดินแดง</t>
-  </si>
-  <si>
-    <t>กบินทร์บุรี</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>นครหลวง</t>
-  </si>
-  <si>
-    <t>แก่งกระจาน</t>
-  </si>
-  <si>
-    <t>เมืองสุพรรณบุรี</t>
-  </si>
-  <si>
-    <t>เขตดอนเมือง</t>
-  </si>
-  <si>
-    <t>พระนครศรีอยุธยา</t>
-  </si>
-  <si>
-    <t>บางกรวย</t>
-  </si>
-  <si>
-    <t>บางปะอิน</t>
-  </si>
-  <si>
     <t>ลาดหลุมแก้ว</t>
   </si>
   <si>
@@ -2434,7 +2269,10 @@
     <t>เขตราชเทวี</t>
   </si>
   <si>
-    <t>สิงห์บุรี</t>
+    <t>ฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร</t>
@@ -2443,42 +2281,36 @@
     <t>นนทบุรี</t>
   </si>
   <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
     <t>นราธิวาส</t>
   </si>
   <si>
-    <t>ฉะเชิงเทรา</t>
+    <t>พัทลุง</t>
+  </si>
+  <si>
+    <t>ปราจีนบุรี</t>
+  </si>
+  <si>
+    <t>เลย</t>
+  </si>
+  <si>
+    <t>สุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>เพชรบุรี</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
   </si>
   <si>
     <t>ปทุมธานี</t>
   </si>
   <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
-    <t>นครสวรรค์</t>
-  </si>
-  <si>
-    <t>ระยอง</t>
-  </si>
-  <si>
-    <t>พัทลุง</t>
-  </si>
-  <si>
-    <t>เลย</t>
-  </si>
-  <si>
-    <t>ปราจีนบุรี</t>
-  </si>
-  <si>
-    <t>เพชรบุรี</t>
-  </si>
-  <si>
-    <t>สุพรรณบุรี</t>
-  </si>
-  <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
     <t>กาญจนบุรี</t>
   </si>
   <si>
@@ -2491,99 +2323,90 @@
     <t>สมุทรสงคราม</t>
   </si>
   <si>
-    <t>16000</t>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>14000</t>
   </si>
   <si>
     <t>10150</t>
   </si>
   <si>
-    <t>10160</t>
-  </si>
-  <si>
-    <t>11150</t>
+    <t>10700</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>10230</t>
+  </si>
+  <si>
+    <t>10800</t>
+  </si>
+  <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>14110</t>
+  </si>
+  <si>
+    <t>10320</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>21210</t>
   </si>
   <si>
     <t>96000</t>
   </si>
   <si>
-    <t>24000</t>
+    <t>93140</t>
+  </si>
+  <si>
+    <t>96120</t>
+  </si>
+  <si>
+    <t>25110</t>
+  </si>
+  <si>
+    <t>42180</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
+    <t>13260</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
+    <t>76170</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>13160</t>
+  </si>
+  <si>
+    <t>70140</t>
   </si>
   <si>
     <t>12120</t>
   </si>
   <si>
-    <t>10700</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>10800</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>10230</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>11120</t>
-  </si>
-  <si>
-    <t>14110</t>
-  </si>
-  <si>
-    <t>10320</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>21210</t>
-  </si>
-  <si>
-    <t>93140</t>
-  </si>
-  <si>
-    <t>42180</t>
-  </si>
-  <si>
-    <t>96120</t>
-  </si>
-  <si>
-    <t>25110</t>
-  </si>
-  <si>
-    <t>10330</t>
-  </si>
-  <si>
-    <t>13260</t>
-  </si>
-  <si>
-    <t>76170</t>
-  </si>
-  <si>
-    <t>72000</t>
-  </si>
-  <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>11130</t>
-  </si>
-  <si>
-    <t>13160</t>
-  </si>
-  <si>
-    <t>70140</t>
-  </si>
-  <si>
     <t>71120</t>
   </si>
   <si>
@@ -2608,109 +2431,109 @@
     <t>75000</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>33</t>
@@ -3115,7 +2938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3182,52 +3005,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F2" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H2" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I2" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="J2" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M2" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="N2" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="O2" t="s">
-        <v>806</v>
+        <v>751</v>
       </c>
       <c r="P2" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
       <c r="Q2" t="s">
-        <v>864</v>
+        <v>805</v>
       </c>
       <c r="R2" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3235,49 +3058,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F3" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I3" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="M3" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="N3" t="s">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="O3" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P3" t="s">
-        <v>826</v>
+        <v>770</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>806</v>
       </c>
       <c r="R3" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3285,49 +3111,49 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F4" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H4" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I4" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="J4" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="M4" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N4" t="s">
-        <v>773</v>
+        <v>720</v>
       </c>
       <c r="O4" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P4" t="s">
-        <v>827</v>
+        <v>771</v>
       </c>
       <c r="R4" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3335,52 +3161,49 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F5" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G5" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H5" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I5" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="J5" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="M5" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="N5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="O5" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="P5" t="s">
-        <v>828</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>865</v>
+        <v>772</v>
       </c>
       <c r="R5" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3388,52 +3211,49 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F6" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H6" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I6" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="J6" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M6" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="N6" t="s">
-        <v>774</v>
+        <v>721</v>
       </c>
       <c r="O6" t="s">
-        <v>809</v>
+        <v>753</v>
       </c>
       <c r="P6" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
       <c r="R6" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3441,52 +3261,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F7" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G7" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H7" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="J7" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="M7" t="s">
-        <v>728</v>
+        <v>674</v>
       </c>
       <c r="N7" t="s">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="O7" t="s">
-        <v>810</v>
+        <v>752</v>
       </c>
       <c r="P7" t="s">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="Q7" t="s">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="R7" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3494,52 +3314,49 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F8" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G8" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I8" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="M8" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="N8" t="s">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="O8" t="s">
-        <v>811</v>
+        <v>753</v>
       </c>
       <c r="P8" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>868</v>
+        <v>773</v>
       </c>
       <c r="R8" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3547,49 +3364,49 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F9" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="G9" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="J9" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="M9" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="N9" t="s">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P9" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="R9" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3597,52 +3414,49 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F10" s="2">
         <v>44210</v>
       </c>
       <c r="G10" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H10" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I10" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="M10" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="N10" t="s">
-        <v>778</v>
+        <v>724</v>
       </c>
       <c r="O10" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="P10" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="R10" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3650,49 +3464,52 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F11" s="2">
         <v>44210</v>
       </c>
       <c r="G11" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H11" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I11" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="J11" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="M11" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="N11" t="s">
-        <v>779</v>
+        <v>718</v>
       </c>
       <c r="O11" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="P11" t="s">
-        <v>826</v>
+        <v>769</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>808</v>
       </c>
       <c r="R11" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3700,49 +3517,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F12" s="2">
         <v>44210</v>
       </c>
       <c r="G12" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H12" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I12" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="J12" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="M12" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="N12" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="O12" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="P12" t="s">
-        <v>832</v>
+        <v>769</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>809</v>
       </c>
       <c r="R12" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3750,49 +3570,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F13" s="2">
         <v>44210</v>
       </c>
       <c r="G13" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H13" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I13" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="J13" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="M13" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="N13" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="O13" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="P13" t="s">
-        <v>832</v>
+        <v>769</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>810</v>
       </c>
       <c r="R13" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3800,49 +3623,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F14" s="2">
         <v>44210</v>
       </c>
       <c r="G14" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H14" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I14" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="J14" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="M14" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="N14" t="s">
-        <v>780</v>
+        <v>718</v>
       </c>
       <c r="O14" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="P14" t="s">
-        <v>834</v>
+        <v>769</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>811</v>
       </c>
       <c r="R14" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3850,52 +3676,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2">
         <v>44210</v>
       </c>
       <c r="G15" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H15" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I15" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="J15" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="M15" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="N15" t="s">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="O15" t="s">
+        <v>751</v>
+      </c>
+      <c r="P15" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q15" t="s">
         <v>812</v>
       </c>
-      <c r="P15" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>870</v>
-      </c>
       <c r="R15" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3903,49 +3729,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F16" s="2">
         <v>44210</v>
       </c>
       <c r="G16" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H16" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I16" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="J16" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="M16" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="N16" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
       <c r="O16" t="s">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="P16" t="s">
-        <v>835</v>
+        <v>776</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>808</v>
       </c>
       <c r="R16" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3953,49 +3782,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F17" s="2">
         <v>44210</v>
       </c>
       <c r="G17" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H17" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I17" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="J17" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="M17" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="N17" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
       <c r="O17" t="s">
-        <v>807</v>
+        <v>755</v>
       </c>
       <c r="P17" t="s">
-        <v>836</v>
+        <v>777</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>813</v>
       </c>
       <c r="R17" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -4003,52 +3835,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F18" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G18" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H18" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I18" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="J18" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="M18" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="N18" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
       <c r="O18" t="s">
-        <v>813</v>
+        <v>752</v>
       </c>
       <c r="P18" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="Q18" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="R18" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -4056,52 +3888,40 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="E19" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F19" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G19" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H19" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="J19" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="M19" t="s">
-        <v>728</v>
-      </c>
-      <c r="N19" t="s">
-        <v>775</v>
+        <v>586</v>
       </c>
       <c r="O19" t="s">
-        <v>810</v>
-      </c>
-      <c r="P19" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>872</v>
+        <v>753</v>
       </c>
       <c r="R19" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -4109,52 +3929,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F20" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G20" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H20" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I20" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="J20" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="M20" t="s">
-        <v>728</v>
+        <v>673</v>
       </c>
       <c r="N20" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
       <c r="O20" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
       <c r="P20" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="Q20" t="s">
-        <v>873</v>
+        <v>815</v>
       </c>
       <c r="R20" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -4162,52 +3982,49 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F21" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G21" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H21" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I21" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="J21" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="M21" t="s">
+        <v>684</v>
+      </c>
+      <c r="N21" t="s">
         <v>728</v>
       </c>
-      <c r="N21" t="s">
-        <v>775</v>
-      </c>
       <c r="O21" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="P21" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>874</v>
+        <v>771</v>
       </c>
       <c r="R21" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4215,52 +4032,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E22" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F22" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G22" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H22" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I22" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="J22" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="M22" t="s">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="N22" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="O22" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="P22" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>875</v>
+        <v>771</v>
       </c>
       <c r="R22" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4268,52 +4082,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F23" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G23" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H23" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I23" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="J23" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="M23" t="s">
-        <v>736</v>
+        <v>675</v>
       </c>
       <c r="N23" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O23" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="P23" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="R23" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4321,52 +4132,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F24" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G24" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H24" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I24" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="J24" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="M24" t="s">
-        <v>737</v>
+        <v>675</v>
       </c>
       <c r="N24" t="s">
-        <v>784</v>
+        <v>729</v>
       </c>
       <c r="O24" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="P24" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
       <c r="R24" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4374,52 +4182,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="E25" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F25" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="G25" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H25" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I25" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="J25" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="M25" t="s">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="N25" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="O25" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="P25" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>877</v>
+        <v>771</v>
       </c>
       <c r="R25" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4427,40 +4232,49 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E26" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F26" s="2">
         <v>44211</v>
       </c>
       <c r="G26" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H26" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I26" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
+        <v>554</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>635</v>
+      <c r="M26" t="s">
+        <v>676</v>
+      </c>
+      <c r="N26" t="s">
+        <v>721</v>
       </c>
       <c r="O26" t="s">
-        <v>807</v>
+        <v>753</v>
+      </c>
+      <c r="P26" t="s">
+        <v>772</v>
       </c>
       <c r="R26" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4468,52 +4282,49 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F27" s="2">
         <v>44211</v>
       </c>
       <c r="G27" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H27" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I27" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="J27" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="M27" t="s">
-        <v>728</v>
+        <v>685</v>
       </c>
       <c r="N27" t="s">
-        <v>775</v>
+        <v>730</v>
       </c>
       <c r="O27" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="P27" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>878</v>
+        <v>779</v>
       </c>
       <c r="R27" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4521,49 +4332,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F28" s="2">
         <v>44211</v>
       </c>
       <c r="G28" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H28" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I28" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="J28" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="M28" t="s">
-        <v>738</v>
+        <v>683</v>
       </c>
       <c r="N28" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="O28" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P28" t="s">
-        <v>826</v>
+        <v>778</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>816</v>
       </c>
       <c r="R28" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4571,49 +4385,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="E29" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2">
         <v>44211</v>
       </c>
       <c r="G29" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H29" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I29" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="J29" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="M29" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="N29" t="s">
-        <v>779</v>
+        <v>731</v>
       </c>
       <c r="O29" t="s">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="P29" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="R29" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4621,49 +4435,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E30" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F30" s="2">
         <v>44211</v>
       </c>
       <c r="G30" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H30" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I30" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="J30" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="M30" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="N30" t="s">
-        <v>772</v>
+        <v>687</v>
       </c>
       <c r="O30" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="P30" t="s">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="R30" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4671,49 +4485,49 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F31" s="2">
         <v>44211</v>
       </c>
       <c r="G31" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" t="s">
+        <v>444</v>
+      </c>
+      <c r="I31" t="s">
         <v>475</v>
       </c>
-      <c r="H31" t="s">
-        <v>477</v>
-      </c>
-      <c r="I31" t="s">
-        <v>507</v>
-      </c>
       <c r="J31" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="M31" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="N31" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="O31" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P31" t="s">
-        <v>826</v>
+        <v>773</v>
       </c>
       <c r="R31" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4721,52 +4535,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F32" s="2">
         <v>44211</v>
       </c>
       <c r="G32" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H32" t="s">
+        <v>445</v>
+      </c>
+      <c r="I32" t="s">
         <v>476</v>
       </c>
-      <c r="I32" t="s">
-        <v>508</v>
-      </c>
       <c r="J32" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="M32" t="s">
-        <v>739</v>
+        <v>674</v>
       </c>
       <c r="N32" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
       <c r="O32" t="s">
-        <v>812</v>
+        <v>752</v>
       </c>
       <c r="P32" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="Q32" t="s">
-        <v>879</v>
+        <v>817</v>
       </c>
       <c r="R32" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4774,49 +4588,49 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F33" s="2">
         <v>44211</v>
       </c>
       <c r="G33" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H33" t="s">
+        <v>444</v>
+      </c>
+      <c r="I33" t="s">
         <v>477</v>
       </c>
-      <c r="I33" t="s">
-        <v>509</v>
-      </c>
       <c r="J33" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="M33" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="N33" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="O33" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P33" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
       <c r="R33" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4824,52 +4638,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E34" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F34" s="2">
         <v>44211</v>
       </c>
       <c r="G34" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H34" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I34" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="J34" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="M34" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="N34" t="s">
+        <v>727</v>
+      </c>
+      <c r="O34" t="s">
+        <v>752</v>
+      </c>
+      <c r="P34" t="s">
         <v>778</v>
       </c>
-      <c r="O34" t="s">
-        <v>812</v>
-      </c>
-      <c r="P34" t="s">
-        <v>833</v>
-      </c>
       <c r="Q34" t="s">
-        <v>880</v>
+        <v>818</v>
       </c>
       <c r="R34" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4877,49 +4691,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E35" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F35" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G35" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H35" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I35" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="J35" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="M35" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="N35" t="s">
-        <v>787</v>
+        <v>733</v>
       </c>
       <c r="O35" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="P35" t="s">
-        <v>840</v>
+        <v>782</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>813</v>
       </c>
       <c r="R35" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4927,52 +4744,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E36" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F36" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G36" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H36" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I36" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="J36" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="M36" t="s">
-        <v>739</v>
+        <v>674</v>
       </c>
       <c r="N36" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
       <c r="O36" t="s">
-        <v>812</v>
+        <v>752</v>
       </c>
       <c r="P36" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="Q36" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="R36" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4980,49 +4797,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F37" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G37" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H37" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I37" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="J37" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="M37" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
       <c r="N37" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
       <c r="O37" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P37" t="s">
-        <v>832</v>
+        <v>770</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>820</v>
       </c>
       <c r="R37" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5030,49 +4850,52 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E38" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F38" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G38" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H38" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I38" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="J38" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>647</v>
+        <v>604</v>
       </c>
       <c r="M38" t="s">
-        <v>741</v>
+        <v>683</v>
       </c>
       <c r="N38" t="s">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="O38" t="s">
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="P38" t="s">
-        <v>841</v>
+        <v>778</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>807</v>
       </c>
       <c r="R38" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -5080,49 +4903,52 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="E39" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F39" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G39" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H39" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I39" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="J39" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>648</v>
+        <v>605</v>
       </c>
       <c r="M39" t="s">
-        <v>742</v>
+        <v>691</v>
       </c>
       <c r="N39" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="O39" t="s">
-        <v>814</v>
+        <v>758</v>
       </c>
       <c r="P39" t="s">
-        <v>842</v>
+        <v>783</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>821</v>
       </c>
       <c r="R39" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -5130,49 +4956,52 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F40" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G40" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H40" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I40" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="J40" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>649</v>
+        <v>606</v>
       </c>
       <c r="M40" t="s">
-        <v>743</v>
+        <v>683</v>
       </c>
       <c r="N40" t="s">
-        <v>789</v>
+        <v>727</v>
       </c>
       <c r="O40" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P40" t="s">
-        <v>835</v>
+        <v>778</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>822</v>
       </c>
       <c r="R40" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5180,49 +5009,52 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E41" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F41" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G41" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H41" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I41" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="J41" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>650</v>
+        <v>607</v>
       </c>
       <c r="M41" t="s">
-        <v>744</v>
+        <v>683</v>
       </c>
       <c r="N41" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="O41" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P41" t="s">
-        <v>826</v>
+        <v>778</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>823</v>
       </c>
       <c r="R41" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5230,52 +5062,52 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F42" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="G42" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H42" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I42" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="J42" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="M42" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
       <c r="N42" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="O42" t="s">
-        <v>812</v>
+        <v>757</v>
       </c>
       <c r="P42" t="s">
-        <v>839</v>
+        <v>784</v>
       </c>
       <c r="Q42" t="s">
-        <v>882</v>
+        <v>824</v>
       </c>
       <c r="R42" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5283,52 +5115,52 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F43" s="2">
         <v>44212</v>
       </c>
       <c r="G43" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H43" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I43" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="J43" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="M43" t="s">
+        <v>683</v>
+      </c>
+      <c r="N43" t="s">
         <v>727</v>
       </c>
-      <c r="N43" t="s">
-        <v>774</v>
-      </c>
       <c r="O43" t="s">
-        <v>809</v>
+        <v>752</v>
       </c>
       <c r="P43" t="s">
-        <v>829</v>
+        <v>778</v>
       </c>
       <c r="Q43" t="s">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="R43" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5336,52 +5168,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D44" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F44" s="2">
         <v>44212</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H44" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I44" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="J44" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="M44" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
       <c r="N44" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
       <c r="O44" t="s">
-        <v>812</v>
+        <v>759</v>
       </c>
       <c r="P44" t="s">
-        <v>833</v>
+        <v>785</v>
       </c>
       <c r="Q44" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="R44" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -5389,52 +5221,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="E45" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F45" s="2">
         <v>44212</v>
       </c>
       <c r="G45" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H45" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I45" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="J45" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>653</v>
+        <v>610</v>
       </c>
       <c r="M45" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="N45" t="s">
-        <v>778</v>
+        <v>694</v>
       </c>
       <c r="O45" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="P45" t="s">
-        <v>833</v>
+        <v>786</v>
       </c>
       <c r="Q45" t="s">
-        <v>868</v>
+        <v>827</v>
       </c>
       <c r="R45" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5442,52 +5274,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E46" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F46" s="2">
         <v>44212</v>
       </c>
       <c r="G46" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H46" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I46" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="J46" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="M46" t="s">
-        <v>739</v>
+        <v>611</v>
       </c>
       <c r="N46" t="s">
-        <v>786</v>
+        <v>731</v>
       </c>
       <c r="O46" t="s">
+        <v>754</v>
+      </c>
+      <c r="P46" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q46" t="s">
         <v>812</v>
       </c>
-      <c r="P46" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>884</v>
-      </c>
       <c r="R46" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -5495,52 +5324,49 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F47" s="2">
         <v>44212</v>
       </c>
       <c r="G47" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H47" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I47" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="J47" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>655</v>
+        <v>612</v>
       </c>
       <c r="M47" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="N47" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="O47" t="s">
-        <v>815</v>
+        <v>753</v>
       </c>
       <c r="P47" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>885</v>
+        <v>787</v>
       </c>
       <c r="R47" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5548,52 +5374,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E48" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F48" s="2">
         <v>44212</v>
       </c>
       <c r="G48" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H48" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I48" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="J48" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>656</v>
+        <v>613</v>
       </c>
       <c r="M48" t="s">
-        <v>739</v>
+        <v>696</v>
       </c>
       <c r="N48" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="O48" t="s">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="P48" t="s">
-        <v>839</v>
+        <v>788</v>
       </c>
       <c r="Q48" t="s">
-        <v>886</v>
+        <v>828</v>
       </c>
       <c r="R48" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5601,52 +5427,52 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E49" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F49" s="2">
         <v>44212</v>
       </c>
       <c r="G49" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H49" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I49" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="J49" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>657</v>
+        <v>614</v>
       </c>
       <c r="M49" t="s">
-        <v>746</v>
+        <v>691</v>
       </c>
       <c r="N49" t="s">
-        <v>746</v>
+        <v>674</v>
       </c>
       <c r="O49" t="s">
-        <v>816</v>
+        <v>758</v>
       </c>
       <c r="P49" t="s">
-        <v>844</v>
+        <v>783</v>
       </c>
       <c r="Q49" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
       <c r="R49" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5654,52 +5480,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="E50" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F50" s="2">
         <v>44212</v>
       </c>
       <c r="G50" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H50" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I50" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>652</v>
+        <v>615</v>
       </c>
       <c r="M50" t="s">
-        <v>747</v>
+        <v>691</v>
       </c>
       <c r="N50" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
       <c r="O50" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
       <c r="P50" t="s">
-        <v>845</v>
+        <v>783</v>
       </c>
       <c r="Q50" t="s">
-        <v>866</v>
+        <v>823</v>
       </c>
       <c r="R50" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5707,52 +5533,52 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E51" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F51" s="2">
         <v>44212</v>
       </c>
       <c r="G51" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H51" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I51" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="J51" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="M51" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="N51" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="O51" t="s">
-        <v>812</v>
+        <v>761</v>
       </c>
       <c r="P51" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="Q51" t="s">
-        <v>887</v>
+        <v>811</v>
       </c>
       <c r="R51" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5760,52 +5586,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="E52" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F52" s="2">
         <v>44212</v>
       </c>
       <c r="G52" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H52" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I52" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="J52" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="M52" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="N52" t="s">
+        <v>738</v>
+      </c>
+      <c r="O52" t="s">
+        <v>753</v>
+      </c>
+      <c r="P52" t="s">
         <v>790</v>
       </c>
-      <c r="O52" t="s">
-        <v>817</v>
-      </c>
-      <c r="P52" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>888</v>
-      </c>
       <c r="R52" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5813,52 +5636,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="E53" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F53" s="2">
         <v>44212</v>
       </c>
       <c r="G53" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H53" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I53" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="J53" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="M53" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="N53" t="s">
-        <v>786</v>
+        <v>728</v>
       </c>
       <c r="O53" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="P53" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>870</v>
+        <v>771</v>
       </c>
       <c r="R53" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5866,49 +5686,49 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D54" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="E54" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F54" s="2">
         <v>44212</v>
       </c>
       <c r="G54" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H54" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I54" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="J54" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>661</v>
+        <v>619</v>
+      </c>
+      <c r="M54" t="s">
+        <v>699</v>
       </c>
       <c r="N54" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="O54" t="s">
-        <v>808</v>
+        <v>762</v>
       </c>
       <c r="P54" t="s">
-        <v>841</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>876</v>
+        <v>791</v>
       </c>
       <c r="R54" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5916,49 +5736,49 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F55" s="2">
         <v>44212</v>
       </c>
       <c r="G55" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H55" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I55" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="J55" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="M55" t="s">
-        <v>749</v>
+        <v>620</v>
       </c>
       <c r="N55" t="s">
-        <v>791</v>
+        <v>725</v>
       </c>
       <c r="O55" t="s">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="P55" t="s">
-        <v>847</v>
+        <v>776</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>814</v>
       </c>
       <c r="R55" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5966,52 +5786,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="E56" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F56" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G56" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H56" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I56" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="J56" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="M56" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>792</v>
+        <v>731</v>
       </c>
       <c r="O56" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="P56" t="s">
-        <v>848</v>
+        <v>780</v>
       </c>
       <c r="Q56" t="s">
-        <v>889</v>
+        <v>812</v>
       </c>
       <c r="R56" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -6019,52 +5839,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E57" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F57" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G57" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H57" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I57" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="M57" t="s">
-        <v>745</v>
+        <v>622</v>
       </c>
       <c r="N57" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="O57" t="s">
-        <v>815</v>
+        <v>740</v>
       </c>
       <c r="P57" t="s">
-        <v>843</v>
+        <v>792</v>
       </c>
       <c r="Q57" t="s">
-        <v>868</v>
+        <v>829</v>
       </c>
       <c r="R57" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -6072,49 +5889,49 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="E58" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F58" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G58" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H58" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I58" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="J58" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="M58" t="s">
-        <v>751</v>
+        <v>675</v>
       </c>
       <c r="N58" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
       <c r="O58" t="s">
-        <v>818</v>
+        <v>753</v>
       </c>
       <c r="P58" t="s">
+        <v>771</v>
+      </c>
+      <c r="R58" t="s">
         <v>849</v>
-      </c>
-      <c r="R58" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -6122,52 +5939,49 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="E59" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F59" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G59" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H59" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I59" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="J59" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="M59" t="s">
-        <v>745</v>
+        <v>675</v>
       </c>
       <c r="N59" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="O59" t="s">
-        <v>815</v>
+        <v>753</v>
       </c>
       <c r="P59" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>886</v>
+        <v>771</v>
       </c>
       <c r="R59" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -6175,52 +5989,49 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F60" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G60" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H60" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I60" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="J60" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="M60" t="s">
-        <v>752</v>
+        <v>675</v>
       </c>
       <c r="N60" t="s">
-        <v>794</v>
+        <v>729</v>
       </c>
       <c r="O60" t="s">
-        <v>819</v>
+        <v>753</v>
       </c>
       <c r="P60" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>875</v>
+        <v>771</v>
       </c>
       <c r="R60" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -6228,49 +6039,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D61" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F61" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G61" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H61" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I61" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="J61" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="M61" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
       <c r="N61" t="s">
-        <v>795</v>
+        <v>741</v>
       </c>
       <c r="O61" t="s">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="P61" t="s">
-        <v>851</v>
+        <v>793</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>830</v>
       </c>
       <c r="R61" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -6278,49 +6092,49 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E62" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F62" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="G62" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H62" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I62" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="J62" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="M62" t="s">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="N62" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
       <c r="O62" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P62" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
       <c r="R62" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -6328,49 +6142,52 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="E63" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F63" s="2">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="G63" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H63" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I63" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="J63" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>670</v>
+        <v>628</v>
+      </c>
+      <c r="M63" t="s">
+        <v>702</v>
       </c>
       <c r="N63" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="O63" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="P63" t="s">
-        <v>838</v>
+        <v>794</v>
       </c>
       <c r="Q63" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="R63" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6378,52 +6195,49 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="E64" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F64" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G64" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H64" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I64" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="J64" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="M64" t="s">
+        <v>629</v>
+      </c>
+      <c r="N64" t="s">
+        <v>725</v>
+      </c>
+      <c r="O64" t="s">
         <v>754</v>
       </c>
-      <c r="N64" t="s">
-        <v>788</v>
-      </c>
-      <c r="O64" t="s">
-        <v>808</v>
-      </c>
       <c r="P64" t="s">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="Q64" t="s">
-        <v>876</v>
+        <v>831</v>
       </c>
       <c r="R64" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -6431,49 +6245,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F65" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G65" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H65" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I65" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>672</v>
+        <v>630</v>
+      </c>
+      <c r="M65" t="s">
+        <v>703</v>
       </c>
       <c r="N65" t="s">
-        <v>796</v>
+        <v>717</v>
       </c>
       <c r="O65" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="P65" t="s">
-        <v>852</v>
+        <v>795</v>
       </c>
       <c r="Q65" t="s">
-        <v>890</v>
+        <v>808</v>
       </c>
       <c r="R65" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6481,49 +6298,52 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E66" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F66" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G66" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H66" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="J66" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="M66" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="N66" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="O66" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="P66" t="s">
-        <v>826</v>
+        <v>796</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>824</v>
       </c>
       <c r="R66" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6531,49 +6351,49 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F67" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G67" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H67" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I67" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="J67" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="M67" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="N67" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="O67" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P67" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
       <c r="R67" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6581,49 +6401,52 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D68" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="E68" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F68" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G68" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H68" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I68" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="J68" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="M68" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="N68" t="s">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="O68" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
       <c r="P68" t="s">
-        <v>826</v>
+        <v>795</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>832</v>
       </c>
       <c r="R68" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6631,52 +6454,52 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D69" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="E69" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F69" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G69" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H69" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I69" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="J69" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="M69" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
       <c r="N69" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="O69" t="s">
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="P69" t="s">
-        <v>853</v>
+        <v>770</v>
       </c>
       <c r="Q69" t="s">
-        <v>891</v>
+        <v>833</v>
       </c>
       <c r="R69" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6684,49 +6507,52 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="E70" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F70" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G70" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H70" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I70" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="J70" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="M70" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="N70" t="s">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="O70" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P70" t="s">
-        <v>826</v>
+        <v>770</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>834</v>
       </c>
       <c r="R70" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6734,52 +6560,52 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F71" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G71" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H71" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I71" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="J71" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="M71" t="s">
-        <v>756</v>
+        <v>674</v>
       </c>
       <c r="N71" t="s">
-        <v>798</v>
+        <v>719</v>
       </c>
       <c r="O71" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="P71" t="s">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="Q71" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="R71" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6787,49 +6613,52 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="E72" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F72" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G72" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H72" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I72" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="J72" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>679</v>
+        <v>637</v>
+      </c>
+      <c r="M72" t="s">
+        <v>705</v>
       </c>
       <c r="N72" t="s">
-        <v>784</v>
+        <v>705</v>
       </c>
       <c r="O72" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="P72" t="s">
-        <v>838</v>
+        <v>797</v>
       </c>
       <c r="Q72" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="R72" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6837,52 +6666,46 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="E73" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F73" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G73" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H73" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I73" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="J73" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="M73" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
       <c r="N73" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="O73" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="P73" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>872</v>
-      </c>
-      <c r="R73" t="s">
-        <v>908</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6890,52 +6713,52 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="E74" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F74" s="2">
         <v>44215</v>
       </c>
       <c r="G74" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H74" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I74" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="M74" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="N74" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="O74" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
       <c r="P74" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="Q74" t="s">
-        <v>866</v>
+        <v>820</v>
       </c>
       <c r="R74" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6943,49 +6766,52 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="E75" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F75" s="2">
         <v>44215</v>
       </c>
       <c r="G75" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H75" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I75" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="J75" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="M75" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="N75" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="O75" t="s">
-        <v>807</v>
+        <v>766</v>
       </c>
       <c r="P75" t="s">
-        <v>826</v>
+        <v>800</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>836</v>
       </c>
       <c r="R75" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6993,52 +6819,49 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="E76" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F76" s="2">
         <v>44215</v>
       </c>
       <c r="G76" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H76" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I76" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="J76" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="M76" t="s">
-        <v>757</v>
+        <v>684</v>
       </c>
       <c r="N76" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="O76" t="s">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="P76" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>892</v>
+        <v>771</v>
       </c>
       <c r="R76" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -7046,52 +6869,49 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E77" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F77" s="2">
         <v>44215</v>
       </c>
       <c r="G77" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H77" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I77" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="J77" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="M77" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="N77" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="O77" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="P77" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>893</v>
+        <v>771</v>
       </c>
       <c r="R77" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -7099,52 +6919,52 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="E78" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F78" s="2">
         <v>44215</v>
       </c>
       <c r="G78" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H78" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I78" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="J78" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
       <c r="M78" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="N78" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
       <c r="O78" t="s">
-        <v>812</v>
+        <v>767</v>
       </c>
       <c r="P78" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="Q78" t="s">
-        <v>894</v>
+        <v>832</v>
       </c>
       <c r="R78" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -7152,52 +6972,52 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F79" s="2">
         <v>44215</v>
       </c>
       <c r="G79" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H79" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I79" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="J79" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="M79" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="N79" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="O79" t="s">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="P79" t="s">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="Q79" t="s">
-        <v>895</v>
+        <v>832</v>
       </c>
       <c r="R79" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -7205,52 +7025,52 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F80" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G80" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H80" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I80" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="J80" t="s">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="M80" t="s">
-        <v>758</v>
+        <v>674</v>
       </c>
       <c r="N80" t="s">
-        <v>758</v>
+        <v>719</v>
       </c>
       <c r="O80" t="s">
-        <v>821</v>
+        <v>752</v>
       </c>
       <c r="P80" t="s">
-        <v>856</v>
+        <v>770</v>
       </c>
       <c r="Q80" t="s">
-        <v>894</v>
+        <v>805</v>
       </c>
       <c r="R80" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -7258,46 +7078,52 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F81" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G81" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H81" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I81" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="J81" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="M81" t="s">
-        <v>759</v>
+        <v>703</v>
       </c>
       <c r="N81" t="s">
-        <v>799</v>
+        <v>717</v>
       </c>
       <c r="O81" t="s">
-        <v>811</v>
+        <v>763</v>
       </c>
       <c r="P81" t="s">
-        <v>857</v>
+        <v>795</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>837</v>
+      </c>
+      <c r="R81" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -7305,52 +7131,52 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="E82" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F82" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G82" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H82" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I82" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="J82" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="M82" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
       <c r="N82" t="s">
-        <v>800</v>
+        <v>717</v>
       </c>
       <c r="O82" t="s">
-        <v>811</v>
+        <v>763</v>
       </c>
       <c r="P82" t="s">
-        <v>858</v>
+        <v>795</v>
       </c>
       <c r="Q82" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="R82" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -7358,52 +7184,49 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="E83" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F83" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G83" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H83" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="I83" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="J83" t="s">
-        <v>608</v>
+        <v>554</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="M83" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="N83" t="s">
-        <v>801</v>
+        <v>748</v>
       </c>
       <c r="O83" t="s">
-        <v>822</v>
+        <v>753</v>
       </c>
       <c r="P83" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>896</v>
+        <v>790</v>
       </c>
       <c r="R83" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7411,49 +7234,52 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D84" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F84" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G84" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H84" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I84" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="J84" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="M84" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="N84" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="O84" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
       <c r="P84" t="s">
-        <v>826</v>
+        <v>795</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>838</v>
       </c>
       <c r="R84" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7461,49 +7287,49 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" t="s">
+        <v>441</v>
+      </c>
+      <c r="F85" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G85" t="s">
         <v>442</v>
       </c>
-      <c r="E85" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G85" t="s">
-        <v>475</v>
-      </c>
       <c r="H85" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I85" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="J85" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="M85" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="N85" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="O85" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="P85" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
       <c r="R85" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7511,52 +7337,49 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" t="s">
+        <v>441</v>
+      </c>
+      <c r="F86" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G86" t="s">
         <v>443</v>
       </c>
-      <c r="E86" t="s">
-        <v>473</v>
-      </c>
-      <c r="F86" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G86" t="s">
-        <v>474</v>
-      </c>
       <c r="H86" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I86" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="J86" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="M86" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="N86" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="O86" t="s">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="P86" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="R86" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7564,52 +7387,49 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" t="s">
+        <v>441</v>
+      </c>
+      <c r="F87" s="2">
+        <v>44217</v>
+      </c>
+      <c r="G87" t="s">
+        <v>442</v>
+      </c>
+      <c r="H87" t="s">
         <v>444</v>
       </c>
-      <c r="E87" t="s">
-        <v>473</v>
-      </c>
-      <c r="F87" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G87" t="s">
-        <v>474</v>
-      </c>
-      <c r="H87" t="s">
-        <v>476</v>
-      </c>
       <c r="I87" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="J87" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="M87" t="s">
-        <v>759</v>
+        <v>652</v>
       </c>
       <c r="N87" t="s">
-        <v>799</v>
+        <v>731</v>
       </c>
       <c r="O87" t="s">
-        <v>811</v>
+        <v>754</v>
       </c>
       <c r="P87" t="s">
-        <v>857</v>
+        <v>780</v>
       </c>
       <c r="Q87" t="s">
-        <v>892</v>
+        <v>839</v>
       </c>
       <c r="R87" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7617,52 +7437,52 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
+        <v>421</v>
+      </c>
+      <c r="E88" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88" s="2">
+        <v>44217</v>
+      </c>
+      <c r="G88" t="s">
+        <v>443</v>
+      </c>
+      <c r="H88" t="s">
         <v>445</v>
       </c>
-      <c r="E88" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="2">
-        <v>44216</v>
-      </c>
-      <c r="G88" t="s">
-        <v>474</v>
-      </c>
-      <c r="H88" t="s">
-        <v>476</v>
-      </c>
       <c r="I88" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="J88" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="M88" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="N88" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
       <c r="O88" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
       <c r="P88" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="Q88" t="s">
-        <v>877</v>
+        <v>840</v>
       </c>
       <c r="R88" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7670,52 +7490,52 @@
         <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="E89" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F89" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G89" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H89" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I89" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="J89" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="M89" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="N89" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="O89" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="P89" t="s">
-        <v>855</v>
+        <v>804</v>
       </c>
       <c r="Q89" t="s">
-        <v>897</v>
+        <v>841</v>
       </c>
       <c r="R89" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7723,52 +7543,52 @@
         <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F90" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G90" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H90" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I90" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="J90" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="M90" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="N90" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="O90" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="P90" t="s">
-        <v>855</v>
+        <v>804</v>
       </c>
       <c r="Q90" t="s">
-        <v>889</v>
+        <v>819</v>
       </c>
       <c r="R90" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7776,49 +7596,52 @@
         <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="E91" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F91" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G91" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H91" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I91" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="J91" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M91" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
       <c r="N91" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="O91" t="s">
-        <v>807</v>
+        <v>768</v>
       </c>
       <c r="P91" t="s">
-        <v>851</v>
+        <v>804</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>823</v>
       </c>
       <c r="R91" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7826,52 +7649,52 @@
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E92" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F92" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G92" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H92" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I92" t="s">
+        <v>536</v>
+      </c>
+      <c r="J92" t="s">
         <v>568</v>
       </c>
-      <c r="J92" t="s">
-        <v>606</v>
-      </c>
       <c r="K92" s="3" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="M92" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="N92" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="O92" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="P92" t="s">
-        <v>855</v>
+        <v>804</v>
       </c>
       <c r="Q92" t="s">
-        <v>898</v>
+        <v>806</v>
       </c>
       <c r="R92" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7879,49 +7702,52 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E93" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F93" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G93" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H93" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I93" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="J93" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="M93" t="s">
-        <v>765</v>
+        <v>674</v>
       </c>
       <c r="N93" t="s">
-        <v>791</v>
+        <v>719</v>
       </c>
       <c r="O93" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="P93" t="s">
-        <v>847</v>
+        <v>770</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>842</v>
       </c>
       <c r="R93" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7929,49 +7755,52 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="E94" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F94" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G94" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H94" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I94" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="J94" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="M94" t="s">
-        <v>766</v>
+        <v>696</v>
       </c>
       <c r="N94" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
       <c r="O94" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
       <c r="P94" t="s">
-        <v>861</v>
+        <v>788</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>805</v>
       </c>
       <c r="R94" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7979,49 +7808,49 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="E95" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F95" s="2">
         <v>44217</v>
       </c>
       <c r="G95" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H95" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="I95" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="J95" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>702</v>
+        <v>660</v>
+      </c>
+      <c r="M95" t="s">
+        <v>716</v>
       </c>
       <c r="N95" t="s">
-        <v>788</v>
+        <v>750</v>
       </c>
       <c r="O95" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="P95" t="s">
-        <v>841</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>867</v>
+        <v>773</v>
       </c>
       <c r="R95" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -8029,52 +7858,52 @@
         <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D96" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="E96" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F96" s="2">
         <v>44217</v>
       </c>
       <c r="G96" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H96" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I96" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="J96" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="M96" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="N96" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="O96" t="s">
-        <v>821</v>
+        <v>768</v>
       </c>
       <c r="P96" t="s">
-        <v>862</v>
+        <v>804</v>
       </c>
       <c r="Q96" t="s">
-        <v>899</v>
+        <v>806</v>
       </c>
       <c r="R96" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -8082,52 +7911,52 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="E97" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F97" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G97" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H97" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I97" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="J97" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="M97" t="s">
+        <v>715</v>
+      </c>
+      <c r="N97" t="s">
+        <v>749</v>
+      </c>
+      <c r="O97" t="s">
         <v>768</v>
       </c>
-      <c r="N97" t="s">
+      <c r="P97" t="s">
         <v>804</v>
       </c>
-      <c r="O97" t="s">
-        <v>824</v>
-      </c>
-      <c r="P97" t="s">
-        <v>863</v>
-      </c>
       <c r="Q97" t="s">
-        <v>900</v>
+        <v>816</v>
       </c>
       <c r="R97" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -8135,52 +7964,52 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="E98" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F98" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G98" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H98" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I98" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="J98" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="M98" t="s">
+        <v>715</v>
+      </c>
+      <c r="N98" t="s">
+        <v>749</v>
+      </c>
+      <c r="O98" t="s">
         <v>768</v>
       </c>
-      <c r="N98" t="s">
+      <c r="P98" t="s">
         <v>804</v>
       </c>
-      <c r="O98" t="s">
-        <v>824</v>
-      </c>
-      <c r="P98" t="s">
-        <v>863</v>
-      </c>
       <c r="Q98" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="R98" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -8188,52 +8017,52 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D99" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E99" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F99" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G99" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H99" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I99" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="J99" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="M99" t="s">
+        <v>715</v>
+      </c>
+      <c r="N99" t="s">
+        <v>749</v>
+      </c>
+      <c r="O99" t="s">
         <v>768</v>
       </c>
-      <c r="N99" t="s">
+      <c r="P99" t="s">
         <v>804</v>
       </c>
-      <c r="O99" t="s">
-        <v>824</v>
-      </c>
-      <c r="P99" t="s">
-        <v>863</v>
-      </c>
       <c r="Q99" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="R99" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -8241,52 +8070,52 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D100" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F100" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G100" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H100" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I100" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="J100" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="M100" t="s">
+        <v>715</v>
+      </c>
+      <c r="N100" t="s">
+        <v>749</v>
+      </c>
+      <c r="O100" t="s">
         <v>768</v>
       </c>
-      <c r="N100" t="s">
+      <c r="P100" t="s">
         <v>804</v>
       </c>
-      <c r="O100" t="s">
-        <v>824</v>
-      </c>
-      <c r="P100" t="s">
-        <v>863</v>
-      </c>
       <c r="Q100" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
       <c r="R100" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -8294,52 +8123,52 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D101" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="E101" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F101" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G101" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H101" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I101" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="J101" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="M101" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="N101" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="O101" t="s">
-        <v>812</v>
+        <v>768</v>
       </c>
       <c r="P101" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="Q101" t="s">
-        <v>901</v>
+        <v>827</v>
       </c>
       <c r="R101" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8347,52 +8176,52 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F102" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G102" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H102" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I102" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="J102" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="M102" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="N102" t="s">
-        <v>792</v>
+        <v>749</v>
       </c>
       <c r="O102" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="P102" t="s">
-        <v>848</v>
+        <v>804</v>
       </c>
       <c r="Q102" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="R102" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8400,49 +8229,52 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F103" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G103" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="I103" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="J103" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="M103" t="s">
-        <v>769</v>
+        <v>715</v>
       </c>
       <c r="N103" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="O103" t="s">
-        <v>807</v>
+        <v>768</v>
       </c>
       <c r="P103" t="s">
-        <v>835</v>
+        <v>804</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>828</v>
       </c>
       <c r="R103" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -8450,52 +8282,52 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D104" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F104" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="G104" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I104" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="J104" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="M104" t="s">
+        <v>715</v>
+      </c>
+      <c r="N104" t="s">
+        <v>749</v>
+      </c>
+      <c r="O104" t="s">
         <v>768</v>
       </c>
-      <c r="N104" t="s">
+      <c r="P104" t="s">
         <v>804</v>
       </c>
-      <c r="O104" t="s">
-        <v>824</v>
-      </c>
-      <c r="P104" t="s">
-        <v>863</v>
-      </c>
       <c r="Q104" t="s">
-        <v>869</v>
+        <v>832</v>
       </c>
       <c r="R104" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -8503,52 +8335,52 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E105" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F105" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G105" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H105" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I105" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="J105" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="M105" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="N105" t="s">
-        <v>804</v>
+        <v>717</v>
       </c>
       <c r="O105" t="s">
-        <v>824</v>
+        <v>763</v>
       </c>
       <c r="P105" t="s">
-        <v>863</v>
+        <v>795</v>
       </c>
       <c r="Q105" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="R105" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -8556,52 +8388,52 @@
         <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="E106" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F106" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G106" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H106" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I106" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="J106" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="M106" t="s">
+        <v>715</v>
+      </c>
+      <c r="N106" t="s">
+        <v>749</v>
+      </c>
+      <c r="O106" t="s">
         <v>768</v>
       </c>
-      <c r="N106" t="s">
+      <c r="P106" t="s">
         <v>804</v>
       </c>
-      <c r="O106" t="s">
-        <v>824</v>
-      </c>
-      <c r="P106" t="s">
-        <v>863</v>
-      </c>
       <c r="Q106" t="s">
-        <v>902</v>
+        <v>846</v>
       </c>
       <c r="R106" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -8609,476 +8441,52 @@
         <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D107" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="E107" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F107" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="G107" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="H107" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="I107" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="J107" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="M107" t="s">
+        <v>715</v>
+      </c>
+      <c r="N107" t="s">
+        <v>749</v>
+      </c>
+      <c r="O107" t="s">
         <v>768</v>
       </c>
-      <c r="N107" t="s">
+      <c r="P107" t="s">
         <v>804</v>
       </c>
-      <c r="O107" t="s">
-        <v>824</v>
-      </c>
-      <c r="P107" t="s">
-        <v>863</v>
-      </c>
       <c r="Q107" t="s">
-        <v>903</v>
+        <v>847</v>
       </c>
       <c r="R107" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="A108" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" t="s">
-        <v>351</v>
-      </c>
-      <c r="D108" t="s">
-        <v>465</v>
-      </c>
-      <c r="E108" t="s">
-        <v>473</v>
-      </c>
-      <c r="F108" s="2">
-        <v>44218</v>
-      </c>
-      <c r="G108" t="s">
-        <v>474</v>
-      </c>
-      <c r="H108" t="s">
-        <v>476</v>
-      </c>
-      <c r="I108" t="s">
-        <v>584</v>
-      </c>
-      <c r="J108" t="s">
-        <v>610</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="M108" t="s">
-        <v>768</v>
-      </c>
-      <c r="N108" t="s">
-        <v>804</v>
-      </c>
-      <c r="O108" t="s">
-        <v>824</v>
-      </c>
-      <c r="P108" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>864</v>
-      </c>
-      <c r="R108" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="A109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" t="s">
-        <v>352</v>
-      </c>
-      <c r="D109" t="s">
-        <v>466</v>
-      </c>
-      <c r="E109" t="s">
-        <v>473</v>
-      </c>
-      <c r="F109" s="2">
-        <v>44218</v>
-      </c>
-      <c r="G109" t="s">
-        <v>474</v>
-      </c>
-      <c r="H109" t="s">
-        <v>476</v>
-      </c>
-      <c r="I109" t="s">
-        <v>585</v>
-      </c>
-      <c r="J109" t="s">
-        <v>610</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="M109" t="s">
-        <v>768</v>
-      </c>
-      <c r="N109" t="s">
-        <v>804</v>
-      </c>
-      <c r="O109" t="s">
-        <v>824</v>
-      </c>
-      <c r="P109" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>865</v>
-      </c>
-      <c r="R109" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="A110" t="s">
-        <v>126</v>
-      </c>
-      <c r="B110" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" t="s">
-        <v>353</v>
-      </c>
-      <c r="D110" t="s">
-        <v>467</v>
-      </c>
-      <c r="E110" t="s">
-        <v>473</v>
-      </c>
-      <c r="F110" s="2">
-        <v>44218</v>
-      </c>
-      <c r="G110" t="s">
-        <v>474</v>
-      </c>
-      <c r="H110" t="s">
-        <v>476</v>
-      </c>
-      <c r="I110" t="s">
-        <v>586</v>
-      </c>
-      <c r="J110" t="s">
-        <v>610</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="M110" t="s">
-        <v>768</v>
-      </c>
-      <c r="N110" t="s">
-        <v>804</v>
-      </c>
-      <c r="O110" t="s">
-        <v>824</v>
-      </c>
-      <c r="P110" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>897</v>
-      </c>
-      <c r="R110" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="A111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B111" t="s">
-        <v>240</v>
-      </c>
-      <c r="C111" t="s">
-        <v>354</v>
-      </c>
-      <c r="D111" t="s">
-        <v>468</v>
-      </c>
-      <c r="E111" t="s">
-        <v>473</v>
-      </c>
-      <c r="F111" s="2">
-        <v>44218</v>
-      </c>
-      <c r="G111" t="s">
-        <v>474</v>
-      </c>
-      <c r="H111" t="s">
-        <v>476</v>
-      </c>
-      <c r="I111" t="s">
-        <v>587</v>
-      </c>
-      <c r="J111" t="s">
-        <v>610</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="M111" t="s">
-        <v>768</v>
-      </c>
-      <c r="N111" t="s">
-        <v>804</v>
-      </c>
-      <c r="O111" t="s">
-        <v>824</v>
-      </c>
-      <c r="P111" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>889</v>
-      </c>
-      <c r="R111" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="A112" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" t="s">
-        <v>241</v>
-      </c>
-      <c r="C112" t="s">
-        <v>355</v>
-      </c>
-      <c r="D112" t="s">
-        <v>469</v>
-      </c>
-      <c r="E112" t="s">
-        <v>473</v>
-      </c>
-      <c r="F112" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G112" t="s">
-        <v>474</v>
-      </c>
-      <c r="H112" t="s">
-        <v>476</v>
-      </c>
-      <c r="I112" t="s">
-        <v>588</v>
-      </c>
-      <c r="J112" t="s">
-        <v>610</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="M112" t="s">
-        <v>768</v>
-      </c>
-      <c r="N112" t="s">
-        <v>804</v>
-      </c>
-      <c r="O112" t="s">
-        <v>824</v>
-      </c>
-      <c r="P112" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>892</v>
-      </c>
-      <c r="R112" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="A113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" t="s">
-        <v>470</v>
-      </c>
-      <c r="E113" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G113" t="s">
-        <v>474</v>
-      </c>
-      <c r="H113" t="s">
-        <v>476</v>
-      </c>
-      <c r="I113" t="s">
-        <v>589</v>
-      </c>
-      <c r="J113" t="s">
-        <v>606</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="M113" t="s">
-        <v>770</v>
-      </c>
-      <c r="N113" t="s">
-        <v>770</v>
-      </c>
-      <c r="O113" t="s">
-        <v>820</v>
-      </c>
-      <c r="P113" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>904</v>
-      </c>
-      <c r="R113" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="A114" t="s">
-        <v>130</v>
-      </c>
-      <c r="B114" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" t="s">
-        <v>357</v>
-      </c>
-      <c r="D114" t="s">
-        <v>471</v>
-      </c>
-      <c r="E114" t="s">
-        <v>473</v>
-      </c>
-      <c r="F114" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G114" t="s">
-        <v>474</v>
-      </c>
-      <c r="H114" t="s">
-        <v>476</v>
-      </c>
-      <c r="I114" t="s">
-        <v>590</v>
-      </c>
-      <c r="J114" t="s">
-        <v>610</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="M114" t="s">
-        <v>768</v>
-      </c>
-      <c r="N114" t="s">
-        <v>804</v>
-      </c>
-      <c r="O114" t="s">
-        <v>824</v>
-      </c>
-      <c r="P114" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>905</v>
-      </c>
-      <c r="R114" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-      <c r="B115" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" t="s">
-        <v>472</v>
-      </c>
-      <c r="E115" t="s">
-        <v>473</v>
-      </c>
-      <c r="F115" s="2">
-        <v>44220</v>
-      </c>
-      <c r="G115" t="s">
-        <v>474</v>
-      </c>
-      <c r="H115" t="s">
-        <v>476</v>
-      </c>
-      <c r="I115" t="s">
-        <v>591</v>
-      </c>
-      <c r="J115" t="s">
-        <v>610</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="M115" t="s">
-        <v>768</v>
-      </c>
-      <c r="N115" t="s">
-        <v>804</v>
-      </c>
-      <c r="O115" t="s">
-        <v>824</v>
-      </c>
-      <c r="P115" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>906</v>
-      </c>
-      <c r="R115" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -9189,14 +8597,6 @@
     <hyperlink ref="K105" r:id="rId104"/>
     <hyperlink ref="K106" r:id="rId105"/>
     <hyperlink ref="K107" r:id="rId106"/>
-    <hyperlink ref="K108" r:id="rId107"/>
-    <hyperlink ref="K109" r:id="rId108"/>
-    <hyperlink ref="K110" r:id="rId109"/>
-    <hyperlink ref="K111" r:id="rId110"/>
-    <hyperlink ref="K112" r:id="rId111"/>
-    <hyperlink ref="K113" r:id="rId112"/>
-    <hyperlink ref="K114" r:id="rId113"/>
-    <hyperlink ref="K115" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="879">
   <si>
     <t>gid</t>
   </si>
@@ -1039,6 +1039,9 @@
     <t>13.23939231</t>
   </si>
   <si>
+    <t>14.07331044</t>
+  </si>
+  <si>
     <t>14.53781454</t>
   </si>
   <si>
@@ -1363,6 +1366,9 @@
     <t>99.8256538</t>
   </si>
   <si>
+    <t>100.6149782</t>
+  </si>
+  <si>
     <t>100.5283131</t>
   </si>
   <si>
@@ -1702,6 +1708,9 @@
     <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
   </si>
   <si>
+    <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
+  </si>
+  <si>
     <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
   </si>
   <si>
@@ -2074,6 +2083,9 @@
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
   </si>
   <si>
@@ -2627,6 +2639,9 @@
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>45</t>
@@ -3083,43 +3098,43 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F2" s="2">
         <v>44211</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="N2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="O2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="R2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3133,43 +3148,43 @@
         <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F3" s="2">
         <v>44211</v>
       </c>
       <c r="G3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M3" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N3" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R3" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3183,43 +3198,43 @@
         <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F4" s="2">
         <v>44211</v>
       </c>
       <c r="G4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M4" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O4" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P4" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R4" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3233,43 +3248,43 @@
         <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F5" s="2">
         <v>44211</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N5" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R5" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3283,34 +3298,34 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F6" s="2">
         <v>44211</v>
       </c>
       <c r="G6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J6" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O6" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="R6" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3324,43 +3339,43 @@
         <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F7" s="2">
         <v>44211</v>
       </c>
       <c r="G7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="N7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="O7" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="P7" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="R7" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3374,43 +3389,43 @@
         <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F8" s="2">
         <v>44211</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M8" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="N8" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="O8" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P8" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="R8" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3424,43 +3439,43 @@
         <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F9" s="2">
         <v>44211</v>
       </c>
       <c r="G9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M9" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="N9" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="O9" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="R9" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3474,46 +3489,46 @@
         <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F10" s="2">
         <v>44211</v>
       </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="N10" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="O10" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="P10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="Q10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="R10" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3527,43 +3542,43 @@
         <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F11" s="2">
         <v>44211</v>
       </c>
       <c r="G11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J11" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M11" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="N11" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="O11" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P11" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="R11" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3577,43 +3592,43 @@
         <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F12" s="2">
         <v>44211</v>
       </c>
       <c r="G12" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M12" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N12" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="O12" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P12" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R12" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3627,46 +3642,46 @@
         <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F13" s="2">
         <v>44211</v>
       </c>
       <c r="G13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J13" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M13" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N13" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O13" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P13" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q13" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="R13" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3680,46 +3695,46 @@
         <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F14" s="2">
         <v>44211</v>
       </c>
       <c r="G14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H14" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M14" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N14" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O14" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P14" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q14" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="R14" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3733,43 +3748,43 @@
         <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F15" s="2">
         <v>44211</v>
       </c>
       <c r="G15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M15" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="N15" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="O15" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P15" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R15" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3783,46 +3798,46 @@
         <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F16" s="2">
         <v>44211</v>
       </c>
       <c r="G16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I16" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J16" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M16" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N16" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O16" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P16" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q16" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="R16" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3836,46 +3851,46 @@
         <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F17" s="2">
         <v>44211</v>
       </c>
       <c r="G17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="M17" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N17" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O17" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P17" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q17" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="R17" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3889,43 +3904,43 @@
         <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F18" s="2">
         <v>44211</v>
       </c>
       <c r="G18" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I18" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J18" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M18" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="N18" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="O18" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P18" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R18" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3939,46 +3954,46 @@
         <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F19" s="2">
         <v>44212</v>
       </c>
       <c r="G19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I19" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M19" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="N19" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="O19" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="P19" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="Q19" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="R19" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3992,46 +4007,46 @@
         <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F20" s="2">
         <v>44212</v>
       </c>
       <c r="G20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I20" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J20" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M20" t="s">
+        <v>704</v>
+      </c>
+      <c r="N20" t="s">
         <v>700</v>
       </c>
-      <c r="N20" t="s">
-        <v>696</v>
-      </c>
       <c r="O20" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="P20" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="Q20" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="R20" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -4045,46 +4060,46 @@
         <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F21" s="2">
         <v>44212</v>
       </c>
       <c r="G21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J21" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M21" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="N21" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="O21" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P21" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="Q21" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="R21" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4098,46 +4113,46 @@
         <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F22" s="2">
         <v>44212</v>
       </c>
       <c r="G22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J22" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M22" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="N22" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="O22" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P22" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="Q22" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="R22" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4151,46 +4166,46 @@
         <v>256</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F23" s="2">
         <v>44212</v>
       </c>
       <c r="G23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I23" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J23" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M23" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N23" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O23" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P23" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q23" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="R23" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4204,46 +4219,46 @@
         <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F24" s="2">
         <v>44212</v>
       </c>
       <c r="G24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I24" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J24" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M24" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N24" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O24" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P24" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q24" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="R24" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4257,46 +4272,46 @@
         <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F25" s="2">
         <v>44212</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H25" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J25" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M25" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N25" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O25" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P25" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q25" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="R25" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4310,46 +4325,46 @@
         <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F26" s="2">
         <v>44212</v>
       </c>
       <c r="G26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H26" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J26" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M26" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N26" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O26" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P26" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q26" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="R26" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4363,46 +4378,46 @@
         <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F27" s="2">
         <v>44212</v>
       </c>
       <c r="G27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H27" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J27" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M27" t="s">
+        <v>704</v>
+      </c>
+      <c r="N27" t="s">
         <v>700</v>
       </c>
-      <c r="N27" t="s">
-        <v>696</v>
-      </c>
       <c r="O27" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="P27" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="Q27" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="R27" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4416,46 +4431,46 @@
         <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F28" s="2">
         <v>44212</v>
       </c>
       <c r="G28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I28" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J28" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M28" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="N28" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="O28" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="P28" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="Q28" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="R28" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4469,46 +4484,46 @@
         <v>262</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F29" s="2">
         <v>44212</v>
       </c>
       <c r="G29" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I29" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J29" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M29" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N29" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O29" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P29" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q29" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="R29" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4522,46 +4537,46 @@
         <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F30" s="2">
         <v>44212</v>
       </c>
       <c r="G30" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I30" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J30" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="M30" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="N30" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O30" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P30" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="Q30" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="R30" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4575,43 +4590,43 @@
         <v>264</v>
       </c>
       <c r="D31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F31" s="2">
         <v>44212</v>
       </c>
       <c r="G31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I31" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J31" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="N31" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="O31" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P31" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="Q31" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="R31" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4625,46 +4640,46 @@
         <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F32" s="2">
         <v>44212</v>
       </c>
       <c r="G32" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H32" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I32" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J32" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M32" t="s">
+        <v>704</v>
+      </c>
+      <c r="N32" t="s">
         <v>700</v>
       </c>
-      <c r="N32" t="s">
-        <v>696</v>
-      </c>
       <c r="O32" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="P32" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="Q32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="R32" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4678,46 +4693,46 @@
         <v>266</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F33" s="2">
         <v>44212</v>
       </c>
       <c r="G33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J33" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M33" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N33" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O33" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P33" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q33" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="R33" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4731,46 +4746,46 @@
         <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F34" s="2">
         <v>44212</v>
       </c>
       <c r="G34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I34" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J34" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M34" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="N34" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="O34" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="P34" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="Q34" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="R34" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4784,43 +4799,43 @@
         <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F35" s="2">
         <v>44212</v>
       </c>
       <c r="G35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I35" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J35" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M35" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="N35" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="O35" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P35" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R35" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4834,43 +4849,43 @@
         <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F36" s="2">
         <v>44212</v>
       </c>
       <c r="G36" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H36" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I36" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J36" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M36" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="N36" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O36" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P36" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="R36" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4884,43 +4899,43 @@
         <v>270</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F37" s="2">
         <v>44212</v>
       </c>
       <c r="G37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I37" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J37" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M37" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="N37" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="O37" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P37" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="R37" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4934,43 +4949,43 @@
         <v>271</v>
       </c>
       <c r="D38" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F38" s="2">
         <v>44212</v>
       </c>
       <c r="G38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H38" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I38" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J38" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="M38" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="N38" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="O38" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P38" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="R38" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4984,43 +4999,43 @@
         <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F39" s="2">
         <v>44212</v>
       </c>
       <c r="G39" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H39" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I39" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J39" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M39" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="N39" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="O39" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P39" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="R39" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -5034,43 +5049,43 @@
         <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E40" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F40" s="2">
         <v>44212</v>
       </c>
       <c r="G40" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H40" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I40" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M40" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N40" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="O40" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="P40" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="R40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5084,43 +5099,43 @@
         <v>274</v>
       </c>
       <c r="D41" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E41" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F41" s="2">
         <v>44212</v>
       </c>
       <c r="G41" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H41" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I41" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J41" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M41" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="N41" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="O41" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P41" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="R41" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5134,43 +5149,43 @@
         <v>275</v>
       </c>
       <c r="D42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F42" s="2">
         <v>44212</v>
       </c>
       <c r="G42" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H42" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I42" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J42" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N42" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="O42" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P42" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="Q42" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="R42" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5184,43 +5199,43 @@
         <v>276</v>
       </c>
       <c r="D43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F43" s="2">
         <v>44213</v>
       </c>
       <c r="G43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H43" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I43" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J43" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M43" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N43" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O43" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P43" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R43" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5234,43 +5249,43 @@
         <v>277</v>
       </c>
       <c r="D44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E44" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F44" s="2">
         <v>44213</v>
       </c>
       <c r="G44" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H44" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I44" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J44" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="N44" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="O44" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P44" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="Q44" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="R44" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -5284,46 +5299,46 @@
         <v>278</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E45" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F45" s="2">
         <v>44213</v>
       </c>
       <c r="G45" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H45" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I45" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J45" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M45" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="N45" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="O45" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P45" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="Q45" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="R45" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5337,43 +5352,43 @@
         <v>279</v>
       </c>
       <c r="D46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E46" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F46" s="2">
         <v>44213</v>
       </c>
       <c r="G46" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H46" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I46" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J46" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M46" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N46" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O46" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P46" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R46" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -5387,46 +5402,46 @@
         <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E47" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F47" s="2">
         <v>44213</v>
       </c>
       <c r="G47" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H47" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I47" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J47" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M47" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="N47" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="O47" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P47" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="Q47" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="R47" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5440,43 +5455,43 @@
         <v>281</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F48" s="2">
         <v>44213</v>
       </c>
       <c r="G48" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H48" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I48" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M48" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N48" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O48" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P48" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R48" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5490,43 +5505,43 @@
         <v>282</v>
       </c>
       <c r="D49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E49" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F49" s="2">
         <v>44213</v>
       </c>
       <c r="G49" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H49" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J49" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M49" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N49" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O49" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P49" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R49" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5540,46 +5555,46 @@
         <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E50" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F50" s="2">
         <v>44214</v>
       </c>
       <c r="G50" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H50" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J50" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="M50" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="N50" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O50" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P50" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q50" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="R50" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5593,43 +5608,43 @@
         <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E51" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F51" s="2">
         <v>44214</v>
       </c>
       <c r="G51" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H51" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I51" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J51" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N51" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="O51" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P51" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="Q51" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="R51" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5643,43 +5658,43 @@
         <v>285</v>
       </c>
       <c r="D52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F52" s="2">
         <v>44214</v>
       </c>
       <c r="G52" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H52" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I52" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J52" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M52" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="N52" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="O52" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P52" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="R52" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5693,46 +5708,46 @@
         <v>286</v>
       </c>
       <c r="D53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E53" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F53" s="2">
         <v>44214</v>
       </c>
       <c r="G53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H53" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J53" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M53" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="N53" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="O53" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P53" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Q53" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="R53" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5746,46 +5761,46 @@
         <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E54" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F54" s="2">
         <v>44215</v>
       </c>
       <c r="G54" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H54" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I54" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J54" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M54" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="N54" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="O54" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="P54" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="Q54" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="R54" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5799,46 +5814,46 @@
         <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E55" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F55" s="2">
         <v>44215</v>
       </c>
       <c r="G55" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I55" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="M55" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="N55" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="O55" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="P55" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Q55" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="R55" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5852,46 +5867,46 @@
         <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E56" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F56" s="2">
         <v>44215</v>
       </c>
       <c r="G56" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H56" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I56" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J56" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M56" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O56" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P56" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q56" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="R56" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5905,43 +5920,43 @@
         <v>290</v>
       </c>
       <c r="D57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E57" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F57" s="2">
         <v>44215</v>
       </c>
       <c r="G57" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H57" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I57" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J57" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M57" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="N57" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="O57" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P57" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R57" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5955,46 +5970,46 @@
         <v>291</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E58" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F58" s="2">
         <v>44215</v>
       </c>
       <c r="G58" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H58" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I58" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J58" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M58" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="N58" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="O58" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="P58" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="Q58" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="R58" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -6008,46 +6023,46 @@
         <v>292</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E59" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F59" s="2">
         <v>44215</v>
       </c>
       <c r="G59" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H59" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I59" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J59" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M59" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="N59" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="O59" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="P59" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Q59" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="R59" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -6061,43 +6076,43 @@
         <v>293</v>
       </c>
       <c r="D60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F60" s="2">
         <v>44215</v>
       </c>
       <c r="G60" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H60" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J60" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M60" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="N60" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="O60" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P60" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="R60" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -6111,46 +6126,46 @@
         <v>294</v>
       </c>
       <c r="D61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F61" s="2">
         <v>44215</v>
       </c>
       <c r="G61" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H61" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I61" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J61" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="M61" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="N61" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="O61" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="P61" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="Q61" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="R61" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -6164,40 +6179,40 @@
         <v>295</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E62" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F62" s="2">
         <v>44215</v>
       </c>
       <c r="G62" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H62" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I62" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M62" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="N62" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="O62" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="P62" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -6211,43 +6226,43 @@
         <v>296</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E63" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F63" s="2">
         <v>44215</v>
       </c>
       <c r="G63" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H63" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I63" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J63" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M63" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N63" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O63" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P63" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R63" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6261,46 +6276,46 @@
         <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F64" s="2">
         <v>44215</v>
       </c>
       <c r="G64" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I64" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J64" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M64" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="N64" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O64" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P64" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q64" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="R64" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -6314,46 +6329,46 @@
         <v>298</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E65" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F65" s="2">
         <v>44215</v>
       </c>
       <c r="G65" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H65" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I65" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J65" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="M65" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="N65" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="O65" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P65" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="Q65" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="R65" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6367,43 +6382,43 @@
         <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E66" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F66" s="2">
         <v>44215</v>
       </c>
       <c r="G66" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H66" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I66" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J66" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="M66" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="N66" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="O66" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P66" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="R66" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6417,46 +6432,46 @@
         <v>300</v>
       </c>
       <c r="D67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F67" s="2">
         <v>44215</v>
       </c>
       <c r="G67" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H67" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I67" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J67" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M67" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N67" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O67" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P67" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q67" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="R67" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6470,46 +6485,46 @@
         <v>301</v>
       </c>
       <c r="D68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E68" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F68" s="2">
         <v>44215</v>
       </c>
       <c r="G68" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H68" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I68" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J68" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="M68" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N68" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O68" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P68" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q68" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="R68" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6523,46 +6538,46 @@
         <v>302</v>
       </c>
       <c r="D69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F69" s="2">
         <v>44215</v>
       </c>
       <c r="G69" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H69" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J69" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="M69" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="N69" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="O69" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="P69" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="Q69" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="R69" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6576,46 +6591,46 @@
         <v>303</v>
       </c>
       <c r="D70" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E70" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F70" s="2">
         <v>44216</v>
       </c>
       <c r="G70" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H70" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I70" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J70" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M70" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="N70" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O70" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P70" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q70" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="R70" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6629,46 +6644,46 @@
         <v>304</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F71" s="2">
         <v>44216</v>
       </c>
       <c r="G71" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H71" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I71" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J71" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M71" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="N71" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O71" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P71" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q71" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="R71" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6682,46 +6697,46 @@
         <v>305</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F72" s="2">
         <v>44216</v>
       </c>
       <c r="G72" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H72" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I72" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J72" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="M72" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="N72" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O72" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P72" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q72" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="R72" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6735,46 +6750,46 @@
         <v>306</v>
       </c>
       <c r="D73" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E73" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F73" s="2">
         <v>44216</v>
       </c>
       <c r="G73" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H73" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I73" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J73" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M73" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="N73" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O73" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P73" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q73" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="R73" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6788,46 +6803,46 @@
         <v>307</v>
       </c>
       <c r="D74" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E74" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F74" s="2">
         <v>44216</v>
       </c>
       <c r="G74" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H74" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I74" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J74" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M74" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="N74" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O74" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P74" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q74" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="R74" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6841,43 +6856,43 @@
         <v>308</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E75" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F75" s="2">
         <v>44216</v>
       </c>
       <c r="G75" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H75" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I75" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J75" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M75" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="N75" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="O75" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P75" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="R75" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6891,43 +6906,43 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E76" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F76" s="2">
         <v>44216</v>
       </c>
       <c r="G76" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H76" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I76" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J76" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M76" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="N76" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="O76" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P76" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="R76" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6941,43 +6956,43 @@
         <v>310</v>
       </c>
       <c r="D77" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E77" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F77" s="2">
         <v>44216</v>
       </c>
       <c r="G77" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H77" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I77" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J77" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="M77" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="N77" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="O77" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P77" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="R77" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6991,43 +7006,43 @@
         <v>311</v>
       </c>
       <c r="D78" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E78" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F78" s="2">
         <v>44216</v>
       </c>
       <c r="G78" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I78" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J78" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="M78" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="N78" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="O78" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P78" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="R78" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -7041,46 +7056,46 @@
         <v>312</v>
       </c>
       <c r="D79" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E79" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F79" s="2">
         <v>44216</v>
       </c>
       <c r="G79" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H79" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I79" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J79" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M79" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N79" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O79" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P79" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q79" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="R79" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -7094,46 +7109,46 @@
         <v>313</v>
       </c>
       <c r="D80" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F80" s="2">
         <v>44217</v>
       </c>
       <c r="G80" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H80" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I80" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J80" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="M80" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N80" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O80" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P80" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q80" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="R80" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -7147,46 +7162,46 @@
         <v>314</v>
       </c>
       <c r="D81" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E81" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F81" s="2">
         <v>44217</v>
       </c>
       <c r="G81" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H81" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I81" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J81" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="M81" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="N81" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="O81" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="P81" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="Q81" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="R81" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -7200,46 +7215,46 @@
         <v>315</v>
       </c>
       <c r="D82" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F82" s="2">
         <v>44217</v>
       </c>
       <c r="G82" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H82" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I82" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J82" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M82" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N82" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O82" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P82" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q82" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="R82" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -7253,46 +7268,46 @@
         <v>316</v>
       </c>
       <c r="D83" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E83" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F83" s="2">
         <v>44217</v>
       </c>
       <c r="G83" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H83" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I83" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J83" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="M83" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N83" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O83" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P83" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q83" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="R83" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7306,46 +7321,46 @@
         <v>317</v>
       </c>
       <c r="D84" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E84" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F84" s="2">
         <v>44217</v>
       </c>
       <c r="G84" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H84" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I84" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J84" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M84" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="N84" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O84" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P84" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="Q84" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="R84" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7359,46 +7374,46 @@
         <v>318</v>
       </c>
       <c r="D85" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E85" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F85" s="2">
         <v>44217</v>
       </c>
       <c r="G85" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H85" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I85" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J85" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M85" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N85" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O85" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P85" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q85" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="R85" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7412,43 +7427,43 @@
         <v>319</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E86" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F86" s="2">
         <v>44217</v>
       </c>
       <c r="G86" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H86" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I86" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J86" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N86" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="O86" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="P86" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="Q86" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="R86" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7462,46 +7477,46 @@
         <v>320</v>
       </c>
       <c r="D87" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E87" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F87" s="2">
         <v>44217</v>
       </c>
       <c r="G87" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H87" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I87" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J87" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M87" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N87" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="O87" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P87" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q87" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="R87" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7515,43 +7530,43 @@
         <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E88" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F88" s="2">
         <v>44217</v>
       </c>
       <c r="G88" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H88" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I88" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J88" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M88" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="N88" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="O88" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P88" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="R88" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7565,43 +7580,43 @@
         <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E89" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F89" s="2">
         <v>44217</v>
       </c>
       <c r="G89" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H89" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I89" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J89" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="M89" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N89" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="O89" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P89" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="R89" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7615,43 +7630,43 @@
         <v>323</v>
       </c>
       <c r="D90" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E90" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F90" s="2">
         <v>44217</v>
       </c>
       <c r="G90" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H90" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I90" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J90" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M90" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N90" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="O90" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P90" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="R90" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7665,46 +7680,46 @@
         <v>324</v>
       </c>
       <c r="D91" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E91" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F91" s="2">
         <v>44217</v>
       </c>
       <c r="G91" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H91" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I91" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J91" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="M91" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N91" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O91" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P91" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q91" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="R91" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7718,46 +7733,46 @@
         <v>325</v>
       </c>
       <c r="D92" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E92" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F92" s="2">
         <v>44218</v>
       </c>
       <c r="G92" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I92" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J92" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M92" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N92" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O92" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P92" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q92" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="R92" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7771,46 +7786,46 @@
         <v>326</v>
       </c>
       <c r="D93" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E93" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F93" s="2">
         <v>44218</v>
       </c>
       <c r="G93" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H93" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I93" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J93" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="M93" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N93" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O93" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P93" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q93" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="R93" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7824,46 +7839,46 @@
         <v>327</v>
       </c>
       <c r="D94" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E94" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F94" s="2">
         <v>44218</v>
       </c>
       <c r="G94" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H94" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I94" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J94" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M94" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N94" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O94" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P94" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q94" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="R94" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7877,46 +7892,46 @@
         <v>328</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E95" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F95" s="2">
         <v>44218</v>
       </c>
       <c r="G95" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H95" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I95" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J95" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M95" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N95" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O95" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P95" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q95" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="R95" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -7930,46 +7945,46 @@
         <v>329</v>
       </c>
       <c r="D96" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E96" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F96" s="2">
         <v>44218</v>
       </c>
       <c r="G96" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H96" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I96" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J96" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="M96" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N96" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O96" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P96" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q96" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="R96" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -7983,46 +7998,46 @@
         <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E97" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F97" s="2">
         <v>44218</v>
       </c>
       <c r="G97" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H97" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I97" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J97" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="M97" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N97" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O97" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P97" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q97" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="R97" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -8036,46 +8051,46 @@
         <v>331</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E98" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F98" s="2">
         <v>44218</v>
       </c>
       <c r="G98" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H98" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I98" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J98" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M98" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="N98" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="O98" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="P98" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Q98" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="R98" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -8089,46 +8104,46 @@
         <v>332</v>
       </c>
       <c r="D99" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E99" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F99" s="2">
         <v>44218</v>
       </c>
       <c r="G99" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I99" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J99" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M99" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N99" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O99" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P99" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q99" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="R99" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -8142,43 +8157,43 @@
         <v>333</v>
       </c>
       <c r="D100" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E100" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F100" s="2">
         <v>44218</v>
       </c>
       <c r="G100" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H100" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I100" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J100" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M100" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="N100" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="O100" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="P100" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="R100" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -8192,46 +8207,46 @@
         <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E101" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F101" s="2">
         <v>44219</v>
       </c>
       <c r="G101" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H101" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I101" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J101" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M101" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="N101" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O101" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P101" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="Q101" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="R101" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8245,46 +8260,46 @@
         <v>335</v>
       </c>
       <c r="D102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E102" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F102" s="2">
         <v>44219</v>
       </c>
       <c r="G102" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H102" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I102" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J102" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="M102" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N102" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O102" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P102" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q102" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="R102" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8298,46 +8313,46 @@
         <v>336</v>
       </c>
       <c r="D103" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E103" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F103" s="2">
         <v>44219</v>
       </c>
       <c r="G103" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H103" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I103" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J103" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="M103" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N103" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O103" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P103" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q103" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="R103" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -8351,46 +8366,46 @@
         <v>337</v>
       </c>
       <c r="D104" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E104" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F104" s="2">
         <v>44220</v>
       </c>
       <c r="G104" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H104" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I104" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J104" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M104" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N104" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O104" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P104" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q104" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="R104" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -8404,46 +8419,46 @@
         <v>338</v>
       </c>
       <c r="D105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E105" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F105" s="2">
         <v>44221</v>
       </c>
       <c r="G105" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H105" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I105" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J105" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M105" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="N105" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="O105" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P105" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="Q105" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="R105" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -8457,46 +8472,46 @@
         <v>339</v>
       </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E106" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F106" s="2">
         <v>44221</v>
       </c>
       <c r="G106" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H106" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I106" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J106" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="M106" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N106" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O106" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="P106" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q106" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="R106" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -8510,46 +8525,46 @@
         <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E107" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F107" s="2">
         <v>44221</v>
       </c>
       <c r="G107" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H107" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J107" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M107" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="N107" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="O107" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="P107" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="Q107" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="R107" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -8559,17 +8574,50 @@
       <c r="B108" t="s">
         <v>232</v>
       </c>
+      <c r="C108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108" t="s">
+        <v>450</v>
+      </c>
       <c r="E108" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F108" s="2">
         <v>44221</v>
       </c>
       <c r="G108" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H108" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="I108" t="s">
+        <v>564</v>
+      </c>
+      <c r="J108" t="s">
+        <v>574</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="M108" t="s">
+        <v>721</v>
+      </c>
+      <c r="N108" t="s">
+        <v>764</v>
+      </c>
+      <c r="O108" t="s">
+        <v>789</v>
+      </c>
+      <c r="P108" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>875</v>
+      </c>
+      <c r="R108" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -8580,49 +8628,49 @@
         <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D109" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E109" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F109" s="2">
         <v>44222</v>
       </c>
       <c r="G109" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H109" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I109" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J109" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M109" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="N109" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="O109" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P109" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="Q109" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="R109" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -8633,49 +8681,49 @@
         <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D110" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E110" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F110" s="2">
         <v>44222</v>
       </c>
       <c r="G110" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H110" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I110" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J110" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="M110" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N110" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="O110" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="P110" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="Q110" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="R110" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -8786,8 +8834,9 @@
     <hyperlink ref="K105" r:id="rId104"/>
     <hyperlink ref="K106" r:id="rId105"/>
     <hyperlink ref="K107" r:id="rId106"/>
-    <hyperlink ref="K109" r:id="rId107"/>
-    <hyperlink ref="K110" r:id="rId108"/>
+    <hyperlink ref="K108" r:id="rId107"/>
+    <hyperlink ref="K109" r:id="rId108"/>
+    <hyperlink ref="K110" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -712,7 +712,7 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="800">
   <si>
     <t>gid</t>
   </si>
@@ -175,147 +175,147 @@
     <t>800</t>
   </si>
   <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
     <t>738</t>
   </si>
   <si>
-    <t>759</t>
+    <t>749</t>
+  </si>
+  <si>
+    <t>741</t>
   </si>
   <si>
     <t>744</t>
   </si>
   <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>742</t>
+    <t>686</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>792</t>
   </si>
   <si>
     <t>730</t>
   </si>
   <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
     <t>746</t>
   </si>
   <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
     <t>761</t>
   </si>
   <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>747</t>
+    <t>760</t>
   </si>
   <si>
     <t>787</t>
   </si>
   <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
     <t>794</t>
   </si>
   <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>733</t>
+    <t>811</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>745</t>
   </si>
   <si>
     <t>768</t>
   </si>
   <si>
-    <t>745</t>
+    <t>780</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>779</t>
   </si>
   <si>
     <t>778</t>
   </si>
   <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
+    <t>795</t>
+  </si>
+  <si>
+    <t>799</t>
   </si>
   <si>
     <t>781</t>
   </si>
   <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
     <t>753</t>
   </si>
   <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>811</t>
+    <t>775</t>
   </si>
   <si>
     <t>774</t>
   </si>
   <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
     <t>773</t>
   </si>
   <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
     <t>796</t>
   </si>
   <si>
@@ -331,34 +331,37 @@
     <t>771</t>
   </si>
   <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
     <t>783</t>
   </si>
   <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
     <t>785</t>
   </si>
   <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
     <t>810</t>
   </si>
   <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>807</t>
+    <t>809</t>
   </si>
   <si>
     <t>808</t>
   </si>
   <si>
-    <t>809</t>
+    <t>816</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 653</t>
@@ -463,147 +466,147 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 658</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
   </si>
   <si>
@@ -619,34 +622,37 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 117</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
   </si>
   <si>
     <t>13.7262123</t>
@@ -754,144 +760,147 @@
     <t>13.82996272</t>
   </si>
   <si>
+    <t>14.58486773</t>
+  </si>
+  <si>
+    <t>13.68348436</t>
+  </si>
+  <si>
+    <t>14.58468626</t>
+  </si>
+  <si>
+    <t>14.58480753</t>
+  </si>
+  <si>
+    <t>14.03685952</t>
+  </si>
+  <si>
+    <t>13.96330727</t>
+  </si>
+  <si>
     <t>19.90080363</t>
   </si>
   <si>
-    <t>13.68348436</t>
+    <t>13.37241071</t>
+  </si>
+  <si>
+    <t>14.0366129</t>
   </si>
   <si>
     <t>13.90819848</t>
   </si>
   <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>14.58486773</t>
-  </si>
-  <si>
-    <t>14.58480753</t>
+    <t>16.93747723</t>
+  </si>
+  <si>
+    <t>6.240396923</t>
+  </si>
+  <si>
+    <t>13.6909991</t>
+  </si>
+  <si>
+    <t>13.85512417</t>
+  </si>
+  <si>
+    <t>13.61372722</t>
+  </si>
+  <si>
+    <t>13.73167329</t>
   </si>
   <si>
     <t>14.07328955</t>
   </si>
   <si>
-    <t>16.93747723</t>
-  </si>
-  <si>
-    <t>6.240396923</t>
-  </si>
-  <si>
-    <t>13.6909991</t>
-  </si>
-  <si>
-    <t>13.85512417</t>
-  </si>
-  <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>13.37241071</t>
-  </si>
-  <si>
     <t>13.37239571</t>
   </si>
   <si>
+    <t>13.37240823</t>
+  </si>
+  <si>
+    <t>13.37234365</t>
+  </si>
+  <si>
     <t>13.85519716</t>
   </si>
   <si>
-    <t>13.37240823</t>
-  </si>
-  <si>
-    <t>13.37234365</t>
+    <t>13.74871188</t>
   </si>
   <si>
     <t>13.74048254</t>
   </si>
   <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
+    <t>13.37266492</t>
+  </si>
+  <si>
+    <t>13.37240194</t>
+  </si>
+  <si>
     <t>13.81611195</t>
   </si>
   <si>
-    <t>13.37266492</t>
-  </si>
-  <si>
-    <t>13.37240194</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
+    <t>13.73793165</t>
+  </si>
+  <si>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.97565922</t>
   </si>
   <si>
     <t>13.86503444</t>
   </si>
   <si>
-    <t>13.97565922</t>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
   </si>
   <si>
     <t>13.4057825</t>
   </si>
   <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
+    <t>13.75814784</t>
+  </si>
+  <si>
+    <t>13.7584487</t>
   </si>
   <si>
     <t>13.40598552</t>
   </si>
   <si>
-    <t>14.58472864</t>
-  </si>
-  <si>
-    <t>13.40628035</t>
-  </si>
-  <si>
     <t>14.39857579</t>
   </si>
   <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
+    <t>13.40613236</t>
   </si>
   <si>
     <t>13.40596242</t>
   </si>
   <si>
+    <t>13.40597333</t>
+  </si>
+  <si>
+    <t>13.40593161</t>
+  </si>
+  <si>
     <t>13.40583946</t>
   </si>
   <si>
-    <t>13.40597333</t>
-  </si>
-  <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.40593161</t>
-  </si>
-  <si>
     <t>13.82875611</t>
   </si>
   <si>
@@ -907,34 +916,37 @@
     <t>13.40650905</t>
   </si>
   <si>
+    <t>13.40621925</t>
+  </si>
+  <si>
+    <t>13.40639916</t>
+  </si>
+  <si>
     <t>13.37258002</t>
   </si>
   <si>
-    <t>13.40621925</t>
-  </si>
-  <si>
-    <t>13.40639916</t>
-  </si>
-  <si>
     <t>13.40627124</t>
   </si>
   <si>
+    <t>6.414712255</t>
+  </si>
+  <si>
+    <t>13.23939231</t>
+  </si>
+  <si>
+    <t>13.40609899</t>
+  </si>
+  <si>
     <t>14.07331044</t>
   </si>
   <si>
-    <t>6.414712255</t>
-  </si>
-  <si>
-    <t>13.23939231</t>
-  </si>
-  <si>
-    <t>13.40609899</t>
+    <t>14.53781454</t>
   </si>
   <si>
     <t>14.5932932</t>
   </si>
   <si>
-    <t>14.53781454</t>
+    <t>14.58474281</t>
   </si>
   <si>
     <t>100.5109986</t>
@@ -1042,144 +1054,147 @@
     <t>100.5704599</t>
   </si>
   <si>
+    <t>100.4523471</t>
+  </si>
+  <si>
+    <t>100.4403143</t>
+  </si>
+  <si>
+    <t>100.4524316</t>
+  </si>
+  <si>
+    <t>100.4519125</t>
+  </si>
+  <si>
+    <t>100.4157557</t>
+  </si>
+  <si>
+    <t>100.6218198</t>
+  </si>
+  <si>
     <t>99.82912083</t>
   </si>
   <si>
-    <t>100.4403143</t>
+    <t>99.84045185</t>
+  </si>
+  <si>
+    <t>100.4156136</t>
   </si>
   <si>
     <t>99.76743912</t>
   </si>
   <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>100.4523471</t>
-  </si>
-  <si>
-    <t>100.4519125</t>
+    <t>104.71144</t>
+  </si>
+  <si>
+    <t>101.4988291</t>
+  </si>
+  <si>
+    <t>100.4802327</t>
+  </si>
+  <si>
+    <t>100.5421273</t>
+  </si>
+  <si>
+    <t>100.3825015</t>
+  </si>
+  <si>
+    <t>100.5424867</t>
   </si>
   <si>
     <t>100.6151396</t>
   </si>
   <si>
-    <t>104.71144</t>
-  </si>
-  <si>
-    <t>101.4988291</t>
-  </si>
-  <si>
-    <t>100.4802327</t>
-  </si>
-  <si>
-    <t>100.5421273</t>
-  </si>
-  <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>99.84045185</t>
-  </si>
-  <si>
     <t>99.84065417</t>
   </si>
   <si>
+    <t>99.84044998</t>
+  </si>
+  <si>
+    <t>99.84068885</t>
+  </si>
+  <si>
     <t>100.5422268</t>
   </si>
   <si>
-    <t>99.84044998</t>
-  </si>
-  <si>
-    <t>99.84068885</t>
+    <t>100.5832291</t>
   </si>
   <si>
     <t>100.522356</t>
   </si>
   <si>
+    <t>100.452165</t>
+  </si>
+  <si>
+    <t>99.84102394</t>
+  </si>
+  <si>
+    <t>99.84054831</t>
+  </si>
+  <si>
     <t>100.5611614</t>
   </si>
   <si>
-    <t>99.84102394</t>
-  </si>
-  <si>
-    <t>99.84054831</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.452165</t>
+    <t>100.5595182</t>
+  </si>
+  <si>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>99.63108216</t>
   </si>
   <si>
     <t>100.4814358</t>
   </si>
   <si>
-    <t>99.63108216</t>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
   </si>
   <si>
     <t>99.9982253</t>
   </si>
   <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
+    <t>100.5350653</t>
+  </si>
+  <si>
+    <t>100.5659092</t>
   </si>
   <si>
     <t>99.9981405</t>
   </si>
   <si>
-    <t>100.4521962</t>
-  </si>
-  <si>
-    <t>99.99793397</t>
-  </si>
-  <si>
     <t>100.5929883</t>
   </si>
   <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
+    <t>99.99799241</t>
   </si>
   <si>
     <t>99.99806255</t>
   </si>
   <si>
+    <t>99.99799763</t>
+  </si>
+  <si>
+    <t>99.99826105</t>
+  </si>
+  <si>
     <t>99.99822947</t>
   </si>
   <si>
-    <t>99.99799763</t>
-  </si>
-  <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>99.99826105</t>
-  </si>
-  <si>
     <t>100.5687203</t>
   </si>
   <si>
@@ -1195,34 +1210,37 @@
     <t>99.99794955</t>
   </si>
   <si>
+    <t>99.99800648</t>
+  </si>
+  <si>
+    <t>99.99785987</t>
+  </si>
+  <si>
     <t>99.84082331</t>
   </si>
   <si>
-    <t>99.99800648</t>
-  </si>
-  <si>
-    <t>99.99785987</t>
-  </si>
-  <si>
     <t>99.99796867</t>
   </si>
   <si>
+    <t>101.8237514</t>
+  </si>
+  <si>
+    <t>99.8256538</t>
+  </si>
+  <si>
+    <t>99.99810731</t>
+  </si>
+  <si>
     <t>100.6149782</t>
   </si>
   <si>
-    <t>101.8237514</t>
-  </si>
-  <si>
-    <t>99.8256538</t>
-  </si>
-  <si>
-    <t>99.99810731</t>
+    <t>100.5283131</t>
   </si>
   <si>
     <t>100.3463765</t>
   </si>
   <si>
-    <t>100.5283131</t>
+    <t>100.4522083</t>
   </si>
   <si>
     <t>1</t>
@@ -1345,147 +1363,147 @@
     <t>รายที่ 658 ชาย เจ้าหน้าที่รัฐ</t>
   </si>
   <si>
+    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>รายที่ 596 หญิง แม่บ้าน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
     <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
   </si>
   <si>
-    <t>รายที่ 596 หญิง แม่บ้าน</t>
+    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
+  </si>
+  <si>
+    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
+  </si>
+  <si>
+    <t>รายที่ 615 ชายว่างวาน</t>
+  </si>
+  <si>
+    <t>รายที่ 660 ชายอาชีพอิสระ</t>
+  </si>
+  <si>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
   </si>
   <si>
-    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
-  </si>
-  <si>
-    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
-  </si>
-  <si>
-    <t>รายที่ 615 ชายว่างวาน</t>
-  </si>
-  <si>
-    <t>รายที่ 660 ชายอาชีพอิสระ</t>
-  </si>
-  <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
-  </si>
-  <si>
     <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
   </si>
   <si>
+    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+  </si>
+  <si>
+    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
+  </si>
+  <si>
     <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
   </si>
   <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
-  </si>
-  <si>
-    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
   </si>
   <si>
     <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
   </si>
   <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+  </si>
+  <si>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
   </si>
   <si>
     <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
+  </si>
+  <si>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
   </si>
   <si>
     <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
-  </si>
-  <si>
     <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
   </si>
   <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
   </si>
   <si>
     <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
   </si>
   <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
-  </si>
-  <si>
     <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
   </si>
   <si>
@@ -1501,34 +1519,37 @@
     <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
+    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
+    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
     <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
-    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
     <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
+    <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
+  </si>
+  <si>
+    <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
+  </si>
+  <si>
+    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
+  </si>
+  <si>
     <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
   </si>
   <si>
-    <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
-  </si>
-  <si>
-    <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
-  </si>
-  <si>
-    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
+    <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 117 เพศ : ชาย สัญชาติ : ไทย อายุ : 45 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
+    <t>ผู้ป่วยรายที่ : 118 เพศ : หญิง สัญชาติ : ไทย อายุ : 25 ปี ต.ไผ่ดำพัฒนา อ.วิเศษชัยชาญ</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
@@ -1561,15 +1582,15 @@
     <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
   </si>
   <si>
+    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
   </si>
   <si>
     <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
-  </si>
-  <si>
     <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
   </si>
   <si>
@@ -1681,147 +1702,147 @@
     <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399723892960</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
+    <t>https://www.facebook.com/PR.PH.NKP/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NaraPublicHealth</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
   </si>
   <si>
     <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
   </si>
   <si>
-    <t>https://www.facebook.com/PR.PH.NKP/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
   </si>
   <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
   </si>
   <si>
@@ -1837,34 +1858,37 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
   </si>
   <si>
-    <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
+    <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20117.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
   </si>
   <si>
     <t>แขวง คลองต้นไทร</t>
@@ -1930,63 +1954,63 @@
     <t>แขวง จันทรเกษม</t>
   </si>
   <si>
+    <t>ระแหง</t>
+  </si>
+  <si>
+    <t>คูคต</t>
+  </si>
+  <si>
     <t>รอบเวียง</t>
   </si>
   <si>
     <t>ท่ามะกา</t>
   </si>
   <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>คูคต</t>
+    <t>ธาตุพนม</t>
+  </si>
+  <si>
+    <t>ซากอ</t>
+  </si>
+  <si>
+    <t>แขวงจอมทอง</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
   </si>
   <si>
     <t>คลองหนึ่ง</t>
   </si>
   <si>
-    <t>ธาตุพนม</t>
-  </si>
-  <si>
-    <t>ซากอ</t>
-  </si>
-  <si>
-    <t>แขวงจอมทอง</t>
-  </si>
-  <si>
-    <t>บางเขน</t>
-  </si>
-  <si>
     <t>แขวง ทุ่งสองห้อง</t>
   </si>
   <si>
+    <t>แขวง บางกะปิ</t>
+  </si>
+  <si>
     <t>แขวง รองเมือง</t>
   </si>
   <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
     <t>แขวง จตุจักร</t>
   </si>
   <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
-    <t>แขวง บางกะปิ</t>
+    <t>แขวง คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>แม่กลอง</t>
   </si>
   <si>
     <t>ท่าม่วง</t>
   </si>
   <si>
-    <t>แม่กลอง</t>
-  </si>
-  <si>
     <t>แขวง ถนนพญาไท</t>
   </si>
   <si>
     <t>แขวง ห้วยขวาง</t>
   </si>
   <si>
-    <t>แขวง คลองเตยเหนือ</t>
-  </si>
-  <si>
     <t>แขวง ลาดยาว</t>
   </si>
   <si>
@@ -2059,30 +2083,33 @@
     <t>เขตจตุจักร</t>
   </si>
   <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
     <t>เมืองเชียงราย</t>
   </si>
   <si>
-    <t>ลาดหลุมแก้ว</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
+    <t>ศรีสาคร</t>
+  </si>
+  <si>
+    <t>เขตจอมทอง</t>
   </si>
   <si>
     <t>คลองหลวง</t>
   </si>
   <si>
-    <t>ศรีสาคร</t>
-  </si>
-  <si>
-    <t>เขตจอมทอง</t>
-  </si>
-  <si>
     <t>เขต หลักสี่</t>
   </si>
   <si>
     <t>เขตห้วยขวาง</t>
   </si>
   <si>
+    <t>เขตวัฒนา</t>
+  </si>
+  <si>
     <t>เมืองสมุทรสงคราม</t>
   </si>
   <si>
@@ -2092,9 +2119,6 @@
     <t>เขตดินแดง</t>
   </si>
   <si>
-    <t>เขตวัฒนา</t>
-  </si>
-  <si>
     <t>สามพราน</t>
   </si>
   <si>
@@ -2137,15 +2161,15 @@
     <t>ราชบุรี</t>
   </si>
   <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
     <t>เชียงราย</t>
   </si>
   <si>
     <t>กาญจนบุรี</t>
   </si>
   <si>
-    <t>ปทุมธานี</t>
-  </si>
-  <si>
     <t>นครพนม</t>
   </si>
   <si>
@@ -2221,42 +2245,42 @@
     <t>10900</t>
   </si>
   <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
     <t>57000</t>
   </si>
   <si>
     <t>71120</t>
   </si>
   <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>12130</t>
+    <t>48110</t>
+  </si>
+  <si>
+    <t>96210</t>
   </si>
   <si>
     <t>12120</t>
   </si>
   <si>
-    <t>48110</t>
-  </si>
-  <si>
-    <t>96210</t>
-  </si>
-  <si>
     <t>10310</t>
   </si>
   <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
     <t>71110</t>
   </si>
   <si>
-    <t>75000</t>
-  </si>
-  <si>
     <t>10400</t>
   </si>
   <si>
-    <t>10110</t>
-  </si>
-  <si>
     <t>73210</t>
   </si>
   <si>
@@ -2323,55 +2347,55 @@
     <t>38</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>39</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>44</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>19</t>
@@ -2764,7 +2788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2831,49 +2855,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F2" s="2">
         <v>44212</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="J2" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="N2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="O2" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P2" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="R2" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2881,52 +2905,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F3" s="2">
         <v>44212</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M3" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="N3" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="O3" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P3" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="Q3" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="R3" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2934,52 +2958,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F4" s="2">
         <v>44212</v>
       </c>
       <c r="G4" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J4" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M4" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="N4" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="O4" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P4" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="Q4" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="R4" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2987,52 +3011,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F5" s="2">
         <v>44212</v>
       </c>
       <c r="G5" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I5" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J5" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M5" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="N5" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="O5" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="P5" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="Q5" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="R5" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3040,52 +3064,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F6" s="2">
         <v>44212</v>
       </c>
       <c r="G6" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J6" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="N6" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="O6" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="P6" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="Q6" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="R6" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3093,52 +3117,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F7" s="2">
         <v>44212</v>
       </c>
       <c r="G7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="N7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="O7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q7" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="R7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3146,52 +3170,52 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F8" s="2">
         <v>44212</v>
       </c>
       <c r="G8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="J8" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M8" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="N8" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="O8" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P8" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q8" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="R8" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3199,52 +3223,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F9" s="2">
         <v>44212</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M9" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="N9" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="O9" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P9" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q9" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="R9" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3252,52 +3276,52 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F10" s="2">
         <v>44212</v>
       </c>
       <c r="G10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J10" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="M10" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="N10" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="O10" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P10" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q10" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="R10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3305,49 +3329,49 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F11" s="2">
         <v>44212</v>
       </c>
       <c r="G11" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H11" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I11" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="J11" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M11" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="N11" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="O11" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P11" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="R11" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3355,52 +3379,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F12" s="2">
         <v>44212</v>
       </c>
       <c r="G12" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H12" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I12" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="J12" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="M12" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="N12" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="O12" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="P12" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="Q12" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="R12" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3408,52 +3432,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F13" s="2">
         <v>44212</v>
       </c>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="J13" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M13" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="N13" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="O13" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="P13" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="Q13" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="R13" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3461,52 +3485,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F14" s="2">
         <v>44212</v>
       </c>
       <c r="G14" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H14" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I14" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M14" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="N14" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="O14" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="P14" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="Q14" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="R14" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3514,49 +3538,49 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F15" s="2">
         <v>44212</v>
       </c>
       <c r="G15" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="J15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="M15" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="N15" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="O15" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P15" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R15" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3564,52 +3588,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F16" s="2">
         <v>44212</v>
       </c>
       <c r="G16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I16" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J16" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M16" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="N16" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="O16" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P16" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="Q16" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="R16" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3617,52 +3641,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F17" s="2">
         <v>44212</v>
       </c>
       <c r="G17" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H17" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J17" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="M17" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="N17" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="O17" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="P17" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="Q17" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="R17" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3670,49 +3694,49 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F18" s="2">
         <v>44212</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I18" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="J18" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="N18" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="O18" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P18" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="Q18" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="R18" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3720,49 +3744,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F19" s="2">
         <v>44212</v>
       </c>
       <c r="G19" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="J19" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M19" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="N19" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="O19" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P19" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="R19" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3770,52 +3794,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F20" s="2">
         <v>44212</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H20" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J20" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M20" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="N20" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="O20" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="P20" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="Q20" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="R20" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3823,52 +3847,52 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F21" s="2">
         <v>44212</v>
       </c>
       <c r="G21" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H21" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I21" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="J21" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M21" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="N21" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="O21" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="P21" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="Q21" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="R21" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3876,49 +3900,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F22" s="2">
         <v>44212</v>
       </c>
       <c r="G22" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H22" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I22" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="M22" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="N22" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="O22" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="P22" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="R22" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3926,49 +3950,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F23" s="2">
         <v>44212</v>
       </c>
       <c r="G23" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H23" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I23" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="M23" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="N23" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="O23" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P23" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="R23" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3976,49 +4000,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E24" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F24" s="2">
         <v>44212</v>
       </c>
       <c r="G24" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H24" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="J24" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M24" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="N24" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="O24" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P24" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="R24" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4026,49 +4050,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E25" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F25" s="2">
         <v>44212</v>
       </c>
       <c r="G25" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I25" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="J25" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="N25" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="O25" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P25" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="Q25" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="R25" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4076,49 +4100,49 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E26" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F26" s="2">
         <v>44213</v>
       </c>
       <c r="G26" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H26" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I26" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J26" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="M26" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="N26" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="O26" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P26" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R26" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4126,52 +4150,52 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F27" s="2">
         <v>44213</v>
       </c>
       <c r="G27" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H27" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I27" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J27" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M27" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="N27" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="O27" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P27" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="Q27" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="R27" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4179,49 +4203,49 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F28" s="2">
         <v>44213</v>
       </c>
       <c r="G28" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H28" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I28" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J28" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M28" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="N28" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="O28" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P28" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R28" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4229,49 +4253,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E29" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F29" s="2">
         <v>44213</v>
       </c>
       <c r="G29" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H29" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J29" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M29" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="N29" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="O29" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P29" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R29" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4279,49 +4303,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F30" s="2">
         <v>44213</v>
       </c>
       <c r="G30" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I30" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="J30" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="N30" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="O30" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="P30" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="Q30" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="R30" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4329,52 +4353,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F31" s="2">
         <v>44213</v>
       </c>
       <c r="G31" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H31" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I31" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J31" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="M31" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="N31" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="O31" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P31" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="Q31" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="R31" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4382,49 +4406,49 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E32" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F32" s="2">
         <v>44213</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H32" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I32" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J32" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="M32" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="N32" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="O32" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P32" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R32" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4432,52 +4456,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E33" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F33" s="2">
         <v>44214</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H33" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I33" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J33" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M33" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="N33" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="O33" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="P33" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="Q33" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="R33" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4485,52 +4509,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E34" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F34" s="2">
         <v>44214</v>
       </c>
       <c r="G34" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H34" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I34" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J34" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M34" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="N34" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="O34" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="P34" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="Q34" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="R34" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4538,49 +4562,49 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E35" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F35" s="2">
         <v>44214</v>
       </c>
       <c r="G35" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H35" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I35" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J35" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="N35" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="O35" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P35" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="Q35" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="R35" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4588,49 +4612,49 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F36" s="2">
         <v>44214</v>
       </c>
       <c r="G36" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H36" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I36" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J36" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="M36" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="N36" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="O36" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P36" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="R36" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4638,52 +4662,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E37" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F37" s="2">
         <v>44215</v>
       </c>
       <c r="G37" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I37" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="J37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M37" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="N37" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="O37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P37" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="Q37" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="R37" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4691,49 +4715,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E38" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F38" s="2">
         <v>44215</v>
       </c>
       <c r="G38" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H38" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I38" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="J38" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="M38" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="N38" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="O38" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P38" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R38" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4741,52 +4765,52 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F39" s="2">
         <v>44215</v>
       </c>
       <c r="G39" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I39" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="J39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M39" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="N39" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="O39" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="P39" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="Q39" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="R39" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4794,52 +4818,52 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E40" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F40" s="2">
         <v>44215</v>
       </c>
       <c r="G40" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H40" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I40" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J40" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="M40" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="N40" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="O40" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="P40" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="Q40" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="R40" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4847,52 +4871,46 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E41" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F41" s="2">
         <v>44215</v>
       </c>
       <c r="G41" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H41" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I41" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="J41" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M41" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="N41" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="O41" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="P41" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>771</v>
-      </c>
-      <c r="R41" t="s">
-        <v>790</v>
+        <v>743</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4900,46 +4918,52 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E42" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F42" s="2">
         <v>44215</v>
       </c>
       <c r="G42" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H42" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I42" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="J42" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M42" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="N42" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="O42" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="P42" t="s">
-        <v>737</v>
+        <v>744</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>758</v>
+      </c>
+      <c r="R42" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4947,52 +4971,52 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F43" s="2">
         <v>44215</v>
       </c>
       <c r="G43" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H43" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I43" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J43" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M43" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="N43" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="O43" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="P43" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="Q43" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="R43" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5000,52 +5024,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F44" s="2">
         <v>44215</v>
       </c>
       <c r="G44" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H44" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I44" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J44" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M44" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="N44" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O44" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="P44" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="Q44" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="R44" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -5053,52 +5077,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E45" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F45" s="2">
         <v>44215</v>
       </c>
       <c r="G45" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I45" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M45" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="N45" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="O45" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="P45" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="Q45" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="R45" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5106,52 +5130,52 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E46" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F46" s="2">
         <v>44215</v>
       </c>
       <c r="G46" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H46" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I46" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J46" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="M46" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="N46" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="O46" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="P46" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="Q46" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="R46" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -5159,52 +5183,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F47" s="2">
         <v>44215</v>
       </c>
       <c r="G47" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H47" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I47" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J47" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="M47" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="N47" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="O47" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="P47" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="Q47" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="R47" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5212,52 +5236,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F48" s="2">
         <v>44215</v>
       </c>
       <c r="G48" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H48" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I48" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J48" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="M48" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="N48" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="O48" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="P48" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="Q48" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="R48" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5265,49 +5289,49 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E49" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F49" s="2">
         <v>44215</v>
       </c>
       <c r="G49" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H49" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I49" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="J49" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M49" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="N49" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="O49" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P49" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R49" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5315,49 +5339,49 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F50" s="2">
         <v>44215</v>
       </c>
       <c r="G50" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H50" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I50" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J50" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M50" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="N50" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="O50" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P50" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="R50" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5365,49 +5389,49 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E51" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F51" s="2">
         <v>44215</v>
       </c>
       <c r="G51" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H51" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I51" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="J51" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="M51" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="N51" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="O51" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P51" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="R51" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5415,49 +5439,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E52" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F52" s="2">
         <v>44215</v>
       </c>
       <c r="G52" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H52" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M52" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="N52" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="O52" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P52" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="R52" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5465,52 +5489,52 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E53" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F53" s="2">
         <v>44215</v>
       </c>
       <c r="G53" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H53" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I53" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="J53" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M53" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="N53" t="s">
-        <v>650</v>
+        <v>694</v>
       </c>
       <c r="O53" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="P53" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="Q53" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="R53" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5518,52 +5542,52 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F54" s="2">
         <v>44216</v>
       </c>
       <c r="G54" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H54" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M54" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="N54" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="O54" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="P54" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="Q54" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="R54" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5571,49 +5595,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F55" s="2">
         <v>44216</v>
       </c>
       <c r="G55" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H55" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I55" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J55" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M55" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N55" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="O55" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="P55" t="s">
-        <v>718</v>
+        <v>740</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>783</v>
       </c>
       <c r="R55" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5621,52 +5648,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E56" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F56" s="2">
         <v>44216</v>
       </c>
       <c r="G56" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H56" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J56" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M56" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="N56" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="O56" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="P56" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="Q56" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="R56" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5674,52 +5701,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F57" s="2">
         <v>44216</v>
       </c>
       <c r="G57" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H57" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="J57" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="M57" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="N57" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="O57" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P57" t="s">
-        <v>732</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>763</v>
+        <v>726</v>
       </c>
       <c r="R57" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5727,49 +5751,49 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F58" s="2">
         <v>44216</v>
       </c>
       <c r="G58" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H58" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J58" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="M58" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="N58" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="O58" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P58" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="R58" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5777,49 +5801,49 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F59" s="2">
         <v>44216</v>
       </c>
       <c r="G59" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H59" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J59" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M59" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="N59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O59" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P59" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="R59" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5827,52 +5851,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E60" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F60" s="2">
         <v>44216</v>
       </c>
       <c r="G60" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H60" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I60" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J60" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M60" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="N60" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="O60" t="s">
         <v>706</v>
       </c>
       <c r="P60" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="Q60" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="R60" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5880,52 +5904,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E61" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F61" s="2">
         <v>44216</v>
       </c>
       <c r="G61" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H61" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I61" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="J61" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M61" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="N61" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="O61" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="P61" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="Q61" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="R61" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5933,49 +5957,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E62" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F62" s="2">
         <v>44216</v>
       </c>
       <c r="G62" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H62" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I62" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J62" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M62" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="N62" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="O62" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="P62" t="s">
-        <v>742</v>
+        <v>740</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>782</v>
       </c>
       <c r="R62" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5983,52 +6010,49 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E63" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F63" s="2">
         <v>44216</v>
       </c>
       <c r="G63" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H63" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I63" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J63" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M63" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="N63" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="O63" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="P63" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="R63" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6036,49 +6060,49 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F64" s="2">
         <v>44217</v>
       </c>
       <c r="G64" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H64" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>582</v>
+        <v>589</v>
+      </c>
+      <c r="M64" t="s">
+        <v>660</v>
       </c>
       <c r="N64" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="O64" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P64" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
       <c r="R64" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -6086,52 +6110,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E65" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F65" s="2">
         <v>44217</v>
       </c>
       <c r="G65" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H65" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I65" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="M65" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="N65" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="O65" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="P65" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="Q65" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="R65" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6139,52 +6163,49 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F66" s="2">
         <v>44217</v>
       </c>
       <c r="G66" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J66" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M66" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="N66" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="O66" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="P66" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
       <c r="R66" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6192,52 +6213,52 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F67" s="2">
         <v>44217</v>
       </c>
       <c r="G67" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H67" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I67" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="J67" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M67" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="N67" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="O67" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="P67" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="Q67" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="R67" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6245,52 +6266,52 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E68" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F68" s="2">
         <v>44217</v>
       </c>
       <c r="G68" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I68" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J68" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M68" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="N68" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="O68" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="P68" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="Q68" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="R68" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6298,52 +6319,49 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E69" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F69" s="2">
         <v>44217</v>
       </c>
       <c r="G69" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H69" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I69" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="J69" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="M69" t="s">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="N69" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="O69" t="s">
         <v>711</v>
       </c>
       <c r="P69" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="Q69" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="R69" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6351,52 +6369,52 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E70" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F70" s="2">
         <v>44217</v>
       </c>
       <c r="G70" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H70" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I70" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J70" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M70" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="N70" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="O70" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="P70" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="Q70" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="R70" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6404,52 +6422,49 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F71" s="2">
         <v>44217</v>
       </c>
       <c r="G71" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H71" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I71" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="J71" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M71" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="N71" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="O71" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="P71" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>781</v>
+        <v>754</v>
       </c>
       <c r="R71" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6457,52 +6472,49 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E72" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F72" s="2">
         <v>44217</v>
       </c>
       <c r="G72" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H72" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I72" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="J72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M72" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="N72" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O72" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="P72" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
       <c r="R72" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6510,49 +6522,52 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E73" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F73" s="2">
         <v>44217</v>
       </c>
       <c r="G73" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H73" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I73" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="J73" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M73" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="N73" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="O73" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="P73" t="s">
-        <v>745</v>
+        <v>752</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>759</v>
       </c>
       <c r="R73" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6560,49 +6575,52 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E74" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F74" s="2">
         <v>44217</v>
       </c>
       <c r="G74" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H74" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I74" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="J74" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M74" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="N74" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="O74" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="P74" t="s">
-        <v>713</v>
+        <v>752</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>790</v>
       </c>
       <c r="R74" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6610,49 +6628,49 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F75" s="2">
         <v>44217</v>
       </c>
       <c r="G75" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H75" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I75" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J75" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M75" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="N75" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="O75" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P75" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="R75" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6660,49 +6678,49 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F76" s="2">
         <v>44217</v>
       </c>
       <c r="G76" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H76" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I76" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="J76" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="M76" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="N76" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="O76" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P76" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="R76" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6710,31 +6728,52 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" t="s">
+        <v>386</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F77" s="2">
         <v>44217</v>
       </c>
       <c r="G77" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H77" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I77" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J77" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>595</v>
+        <v>602</v>
+      </c>
+      <c r="M77" t="s">
+        <v>661</v>
+      </c>
+      <c r="N77" t="s">
+        <v>698</v>
+      </c>
+      <c r="O77" t="s">
+        <v>719</v>
+      </c>
+      <c r="P77" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>786</v>
       </c>
       <c r="R77" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6742,49 +6781,52 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E78" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F78" s="2">
         <v>44217</v>
       </c>
       <c r="G78" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H78" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I78" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="J78" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="M78" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="N78" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="O78" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="P78" t="s">
-        <v>746</v>
+        <v>734</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>784</v>
       </c>
       <c r="R78" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -6792,52 +6834,52 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E79" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F79" s="2">
         <v>44218</v>
       </c>
       <c r="G79" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H79" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I79" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J79" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="M79" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N79" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O79" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P79" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q79" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="R79" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6845,52 +6887,52 @@
         <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F80" s="2">
         <v>44218</v>
       </c>
       <c r="G80" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H80" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I80" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="J80" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M80" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N80" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P80" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q80" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="R80" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -6898,52 +6940,52 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F81" s="2">
         <v>44218</v>
       </c>
       <c r="G81" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H81" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I81" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J81" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="M81" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N81" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O81" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P81" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q81" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="R81" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -6951,52 +6993,52 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E82" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F82" s="2">
         <v>44218</v>
       </c>
       <c r="G82" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H82" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I82" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="J82" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="M82" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N82" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O82" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P82" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q82" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="R82" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -7004,52 +7046,52 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E83" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F83" s="2">
         <v>44218</v>
       </c>
       <c r="G83" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H83" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I83" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="J83" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M83" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N83" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O83" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P83" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q83" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="R83" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7057,49 +7099,49 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E84" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F84" s="2">
         <v>44218</v>
       </c>
       <c r="G84" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H84" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I84" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J84" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="M84" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="N84" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="O84" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P84" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="R84" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7107,52 +7149,52 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E85" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F85" s="2">
         <v>44218</v>
       </c>
       <c r="G85" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H85" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I85" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="J85" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M85" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N85" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O85" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P85" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q85" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="R85" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7160,52 +7202,52 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E86" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F86" s="2">
         <v>44218</v>
       </c>
       <c r="G86" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H86" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="J86" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M86" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="N86" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="O86" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="P86" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="Q86" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="R86" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7213,49 +7255,49 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E87" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F87" s="2">
         <v>44218</v>
       </c>
       <c r="G87" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H87" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I87" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="J87" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="M87" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="N87" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="O87" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="P87" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="R87" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7263,52 +7305,52 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F88" s="2">
         <v>44218</v>
       </c>
       <c r="G88" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H88" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I88" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="J88" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N88" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O88" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P88" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q88" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="R88" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7316,52 +7358,52 @@
         <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E89" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F89" s="2">
         <v>44219</v>
       </c>
       <c r="G89" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H89" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I89" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="J89" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M89" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="N89" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="O89" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="P89" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="Q89" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="R89" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7369,52 +7411,52 @@
         <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D90" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F90" s="2">
         <v>44219</v>
       </c>
       <c r="G90" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H90" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I90" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="J90" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M90" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N90" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O90" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P90" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q90" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="R90" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7422,52 +7464,52 @@
         <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E91" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F91" s="2">
         <v>44219</v>
       </c>
       <c r="G91" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H91" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I91" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="J91" t="s">
         <v>521</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="M91" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N91" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="O91" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="P91" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="Q91" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R91" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7475,52 +7517,52 @@
         <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F92" s="2">
         <v>44220</v>
       </c>
       <c r="G92" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H92" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I92" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="J92" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="M92" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="N92" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="O92" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P92" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="Q92" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="R92" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7528,52 +7570,52 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E93" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F93" s="2">
         <v>44221</v>
       </c>
       <c r="G93" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I93" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="J93" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M93" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="N93" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="O93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="P93" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="Q93" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="R93" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7581,52 +7623,52 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E94" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F94" s="2">
         <v>44221</v>
       </c>
       <c r="G94" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H94" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I94" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J94" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="M94" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="N94" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="O94" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="P94" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="Q94" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="R94" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7634,52 +7676,52 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E95" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F95" s="2">
         <v>44221</v>
       </c>
       <c r="G95" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H95" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I95" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="J95" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="M95" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N95" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="O95" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="P95" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="Q95" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="R95" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -7687,52 +7729,52 @@
         <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E96" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F96" s="2">
         <v>44221</v>
       </c>
       <c r="G96" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H96" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I96" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="J96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="M96" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N96" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="O96" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="P96" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="Q96" t="s">
-        <v>757</v>
+        <v>796</v>
       </c>
       <c r="R96" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -7740,52 +7782,52 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E97" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F97" s="2">
         <v>44222</v>
       </c>
       <c r="G97" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H97" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I97" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="J97" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M97" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="N97" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="O97" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="P97" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="Q97" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="R97" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -7793,52 +7835,102 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E98" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F98" s="2">
         <v>44222</v>
       </c>
       <c r="G98" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H98" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I98" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="J98" t="s">
         <v>513</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M98" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="N98" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="O98" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="P98" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="Q98" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="R98" t="s">
-        <v>791</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" t="s">
+        <v>408</v>
+      </c>
+      <c r="E99" t="s">
+        <v>409</v>
+      </c>
+      <c r="F99" s="2">
+        <v>44224</v>
+      </c>
+      <c r="G99" t="s">
+        <v>411</v>
+      </c>
+      <c r="H99" t="s">
+        <v>413</v>
+      </c>
+      <c r="I99" t="s">
+        <v>511</v>
+      </c>
+      <c r="J99" t="s">
+        <v>513</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="M99" t="s">
+        <v>626</v>
+      </c>
+      <c r="N99" t="s">
+        <v>671</v>
+      </c>
+      <c r="O99" t="s">
+        <v>706</v>
+      </c>
+      <c r="P99" t="s">
+        <v>722</v>
+      </c>
+      <c r="R99" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -7940,6 +8032,7 @@
     <hyperlink ref="K96" r:id="rId95"/>
     <hyperlink ref="K97" r:id="rId96"/>
     <hyperlink ref="K98" r:id="rId97"/>
+    <hyperlink ref="K99" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="587">
   <si>
     <t>gid</t>
   </si>
@@ -70,118 +70,100 @@
     <t>gender</t>
   </si>
   <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>767</t>
+    <t>732</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>750</t>
   </si>
   <si>
     <t>729</t>
   </si>
   <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>744</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>740</t>
   </si>
   <si>
     <t>749</t>
   </si>
   <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>734</t>
+    <t>741</t>
+  </si>
+  <si>
+    <t>742</t>
   </si>
   <si>
     <t>738</t>
   </si>
   <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>741</t>
+    <t>730</t>
+  </si>
+  <si>
+    <t>743</t>
   </si>
   <si>
     <t>812</t>
   </si>
   <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
     <t>759</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>742</t>
+    <t>787</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>761</t>
   </si>
   <si>
     <t>748</t>
   </si>
   <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
     <t>747</t>
   </si>
   <si>
-    <t>787</t>
+    <t>746</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>794</t>
   </si>
   <si>
     <t>806</t>
   </si>
   <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>746</t>
+    <t>781</t>
   </si>
   <si>
     <t>768</t>
@@ -199,78 +181,75 @@
     <t>780</t>
   </si>
   <si>
-    <t>781</t>
-  </si>
-  <si>
     <t>782</t>
   </si>
   <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
     <t>753</t>
   </si>
   <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>799</t>
+    <t>774</t>
   </si>
   <si>
     <t>813</t>
   </si>
   <si>
-    <t>774</t>
+    <t>771</t>
+  </si>
+  <si>
+    <t>776</t>
   </si>
   <si>
     <t>777</t>
   </si>
   <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>776</t>
+    <t>773</t>
+  </si>
+  <si>
+    <t>801</t>
   </si>
   <si>
     <t>772</t>
   </si>
   <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
     <t>775</t>
   </si>
   <si>
     <t>796</t>
   </si>
   <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
     <t>817</t>
   </si>
   <si>
     <t>769</t>
   </si>
   <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
     <t>785</t>
   </si>
   <si>
@@ -298,118 +277,100 @@
     <t>818</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 593</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 624</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 629</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 628</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 159</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 39</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 161</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 158</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 658</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 23</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 40</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 23</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 158</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 658</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
@@ -427,78 +388,75 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
@@ -526,118 +484,100 @@
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
   </si>
   <si>
-    <t>13.65256119</t>
-  </si>
-  <si>
-    <t>13.61379481</t>
-  </si>
-  <si>
-    <t>13.61372219</t>
-  </si>
-  <si>
-    <t>13.61375903</t>
-  </si>
-  <si>
-    <t>13.8441265</t>
-  </si>
-  <si>
-    <t>14.34377296</t>
-  </si>
-  <si>
-    <t>13.82389339</t>
+    <t>13.94749268</t>
+  </si>
+  <si>
+    <t>13.82996272</t>
+  </si>
+  <si>
+    <t>13.37235439</t>
   </si>
   <si>
     <t>14.21130729</t>
   </si>
   <si>
-    <t>13.37235439</t>
-  </si>
-  <si>
-    <t>13.94749268</t>
-  </si>
-  <si>
-    <t>13.82996272</t>
+    <t>13.90819848</t>
+  </si>
+  <si>
+    <t>14.58486773</t>
+  </si>
+  <si>
+    <t>16.93747723</t>
+  </si>
+  <si>
+    <t>13.96330727</t>
+  </si>
+  <si>
+    <t>14.03685952</t>
   </si>
   <si>
     <t>13.37241071</t>
   </si>
   <si>
-    <t>13.90819848</t>
-  </si>
-  <si>
-    <t>14.58486773</t>
+    <t>14.0366129</t>
+  </si>
+  <si>
+    <t>14.58480753</t>
   </si>
   <si>
     <t>19.90080363</t>
   </si>
   <si>
-    <t>16.93747723</t>
-  </si>
-  <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
+    <t>14.07328955</t>
+  </si>
+  <si>
+    <t>14.58468626</t>
   </si>
   <si>
     <t>13.85512417</t>
   </si>
   <si>
+    <t>13.73167329</t>
+  </si>
+  <si>
+    <t>13.6909991</t>
+  </si>
+  <si>
+    <t>13.61372722</t>
+  </si>
+  <si>
+    <t>6.240396923</t>
+  </si>
+  <si>
     <t>13.68348436</t>
   </si>
   <si>
-    <t>14.07328955</t>
-  </si>
-  <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>13.6909991</t>
-  </si>
-  <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>6.240396923</t>
-  </si>
-  <si>
-    <t>14.58480753</t>
+    <t>13.74048254</t>
+  </si>
+  <si>
+    <t>13.37266492</t>
+  </si>
+  <si>
+    <t>13.85519716</t>
   </si>
   <si>
     <t>13.37240823</t>
   </si>
   <si>
-    <t>13.37266492</t>
-  </si>
-  <si>
-    <t>13.85519716</t>
-  </si>
-  <si>
     <t>13.37234365</t>
   </si>
   <si>
-    <t>13.74048254</t>
+    <t>13.37239571</t>
+  </si>
+  <si>
+    <t>13.74871188</t>
+  </si>
+  <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
+    <t>13.81611195</t>
   </si>
   <si>
     <t>13.37240194</t>
   </si>
   <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.81611195</t>
-  </si>
-  <si>
-    <t>13.37239571</t>
+    <t>13.40598552</t>
   </si>
   <si>
     <t>13.86503444</t>
@@ -655,78 +595,75 @@
     <t>13.40612011</t>
   </si>
   <si>
-    <t>13.40598552</t>
-  </si>
-  <si>
     <t>13.40628035</t>
   </si>
   <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>13.75814784</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
+  </si>
+  <si>
+    <t>13.7584487</t>
+  </si>
+  <si>
     <t>14.39857579</t>
   </si>
   <si>
-    <t>14.58472864</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
+    <t>13.40596242</t>
   </si>
   <si>
     <t>13.72037624</t>
   </si>
   <si>
-    <t>13.40596242</t>
+    <t>13.40650905</t>
+  </si>
+  <si>
+    <t>13.40597333</t>
   </si>
   <si>
     <t>13.40595472</t>
   </si>
   <si>
-    <t>13.40650905</t>
-  </si>
-  <si>
-    <t>13.40597333</t>
+    <t>13.40583946</t>
+  </si>
+  <si>
+    <t>13.73936751</t>
   </si>
   <si>
     <t>13.40593161</t>
   </si>
   <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
-    <t>13.73936751</t>
-  </si>
-  <si>
     <t>13.40613236</t>
   </si>
   <si>
     <t>13.82875611</t>
   </si>
   <si>
+    <t>13.37258002</t>
+  </si>
+  <si>
+    <t>13.40639916</t>
+  </si>
+  <si>
     <t>13.73937398</t>
   </si>
   <si>
     <t>13.40621925</t>
   </si>
   <si>
-    <t>13.37258002</t>
-  </si>
-  <si>
-    <t>13.40639916</t>
-  </si>
-  <si>
     <t>13.40627124</t>
   </si>
   <si>
@@ -754,118 +691,100 @@
     <t>14.34377313</t>
   </si>
   <si>
-    <t>100.4447858</t>
-  </si>
-  <si>
-    <t>100.3824243</t>
-  </si>
-  <si>
-    <t>100.3825188</t>
-  </si>
-  <si>
-    <t>100.3824173</t>
-  </si>
-  <si>
-    <t>100.4411667</t>
-  </si>
-  <si>
-    <t>100.5600263</t>
-  </si>
-  <si>
-    <t>100.4357106</t>
+    <t>100.5463574</t>
+  </si>
+  <si>
+    <t>100.5704599</t>
+  </si>
+  <si>
+    <t>99.84044659</t>
   </si>
   <si>
     <t>100.6080371</t>
   </si>
   <si>
-    <t>99.84044659</t>
-  </si>
-  <si>
-    <t>100.5463574</t>
-  </si>
-  <si>
-    <t>100.5704599</t>
+    <t>99.76743912</t>
+  </si>
+  <si>
+    <t>100.4523471</t>
+  </si>
+  <si>
+    <t>104.71144</t>
+  </si>
+  <si>
+    <t>100.6218198</t>
+  </si>
+  <si>
+    <t>100.4157557</t>
   </si>
   <si>
     <t>99.84045185</t>
   </si>
   <si>
-    <t>99.76743912</t>
-  </si>
-  <si>
-    <t>100.4523471</t>
+    <t>100.4156136</t>
+  </si>
+  <si>
+    <t>100.4519125</t>
   </si>
   <si>
     <t>99.82912083</t>
   </si>
   <si>
-    <t>104.71144</t>
-  </si>
-  <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
+    <t>100.6151396</t>
+  </si>
+  <si>
+    <t>100.4524316</t>
   </si>
   <si>
     <t>100.5421273</t>
   </si>
   <si>
+    <t>100.5424867</t>
+  </si>
+  <si>
+    <t>100.4802327</t>
+  </si>
+  <si>
+    <t>100.3825015</t>
+  </si>
+  <si>
+    <t>101.4988291</t>
+  </si>
+  <si>
     <t>100.4403143</t>
   </si>
   <si>
-    <t>100.6151396</t>
-  </si>
-  <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>100.4802327</t>
-  </si>
-  <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>101.4988291</t>
-  </si>
-  <si>
-    <t>100.4519125</t>
+    <t>100.522356</t>
+  </si>
+  <si>
+    <t>99.84102394</t>
+  </si>
+  <si>
+    <t>100.5422268</t>
   </si>
   <si>
     <t>99.84044998</t>
   </si>
   <si>
-    <t>99.84102394</t>
-  </si>
-  <si>
-    <t>100.5422268</t>
-  </si>
-  <si>
     <t>99.84068885</t>
   </si>
   <si>
-    <t>100.522356</t>
+    <t>99.84065417</t>
+  </si>
+  <si>
+    <t>100.5832291</t>
+  </si>
+  <si>
+    <t>100.452165</t>
+  </si>
+  <si>
+    <t>100.5611614</t>
   </si>
   <si>
     <t>99.84054831</t>
   </si>
   <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>100.5611614</t>
-  </si>
-  <si>
-    <t>99.84065417</t>
+    <t>99.9981405</t>
   </si>
   <si>
     <t>100.4814358</t>
@@ -883,78 +802,75 @@
     <t>99.99819431</t>
   </si>
   <si>
-    <t>99.9981405</t>
-  </si>
-  <si>
     <t>99.99793397</t>
   </si>
   <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>100.5350653</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
+  </si>
+  <si>
+    <t>100.5659092</t>
+  </si>
+  <si>
     <t>100.5929883</t>
   </si>
   <si>
-    <t>100.4521962</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
+    <t>99.99806255</t>
   </si>
   <si>
     <t>100.5600709</t>
   </si>
   <si>
-    <t>99.99806255</t>
+    <t>99.99794955</t>
+  </si>
+  <si>
+    <t>99.99799763</t>
   </si>
   <si>
     <t>99.99779066</t>
   </si>
   <si>
-    <t>99.99794955</t>
-  </si>
-  <si>
-    <t>99.99799763</t>
+    <t>99.99822947</t>
+  </si>
+  <si>
+    <t>100.2556886</t>
   </si>
   <si>
     <t>99.99826105</t>
   </si>
   <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
-    <t>100.2556886</t>
-  </si>
-  <si>
     <t>99.99799241</t>
   </si>
   <si>
     <t>100.5687203</t>
   </si>
   <si>
+    <t>99.84082331</t>
+  </si>
+  <si>
+    <t>99.99785987</t>
+  </si>
+  <si>
     <t>100.2556031</t>
   </si>
   <si>
     <t>99.99800648</t>
   </si>
   <si>
-    <t>99.84082331</t>
-  </si>
-  <si>
-    <t>99.99785987</t>
-  </si>
-  <si>
     <t>99.99796867</t>
   </si>
   <si>
@@ -997,118 +913,100 @@
     <t>กำลังรักษา</t>
   </si>
   <si>
-    <t>รายที่ 593 หญิง พนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 624 ชายพนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 629 ชายพนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 628 ชายพนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 159 หญิง อายุ 24 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 39 หญิง อายุ 67 ปี อยู่กับสามีที่บ้านพักของโรงงาน ในหมู่ 11 ต.บ้านเลน อ.บางปะอิน อาชีพ ขายผลไม้และกับข้าวแกงถุง</t>
-  </si>
-  <si>
-    <t>รายที่ 161 หญิง อายุ 31 ปี อ.เมือง จ.นนทบุรี เป็นผู้สัมผัส ผู้ป่วยยืนยันรายที่ 160</t>
+    <t>รายที่ 158 ชาย อายุ 38 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 658 ชาย เจ้าหน้าที่รัฐ</t>
+  </si>
+  <si>
+    <t>รายที่ 23 เพศหญิง อายุ 49 ปี เริ่มป่วย 17 ม.ค. รักษาที่รพ. ปากท่อ เมื่อวันที่ 18 ม.ค. 64 ด้วยอาการ ไอ มีน้ำมูก ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน</t>
   </si>
   <si>
     <t>รายที่ 40 ชาย อายุ 67 ปี อยู่กับภรรยา(รายที่ 39) อยู่บ้านพักของโรงงานในหมู่ 11 ต.บ้านเลน อ.บางปะอิน จ.อยุธยา</t>
   </si>
   <si>
-    <t>รายที่ 23 เพศหญิง อายุ 49 ปี เริ่มป่วย 17 ม.ค. รักษาที่รพ. ปากท่อ เมื่อวันที่ 18 ม.ค. 64 ด้วยอาการ ไอ มีน้ำมูก ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 158 ชาย อายุ 38 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 658 ชาย เจ้าหน้าที่รัฐ</t>
+    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
   </si>
   <si>
     <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
   </si>
   <si>
     <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
   </si>
   <si>
-    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
+    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
   </si>
   <si>
     <t>รายที่ 660 ชายอาชีพอิสระ</t>
   </si>
   <si>
+    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
+  </si>
+  <si>
+    <t>รายที่ 615 ชายว่างวาน</t>
+  </si>
+  <si>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
+  </si>
+  <si>
     <t>รายที่ 596 หญิง แม่บ้าน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 615 ชายว่างวาน</t>
-  </si>
-  <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
   </si>
   <si>
     <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
   </si>
   <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
-  </si>
-  <si>
     <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
   </si>
   <si>
-    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
+    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
     <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
-  </si>
-  <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
@@ -1126,78 +1024,75 @@
     <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
   </si>
   <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
     <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
   </si>
   <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+  </si>
+  <si>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
+  </si>
+  <si>
     <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
   </si>
   <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
   </si>
   <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
     <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
     <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
   </si>
   <si>
     <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
   </si>
   <si>
+    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
+  </si>
+  <si>
+    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
     <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
-    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
-  </si>
-  <si>
-    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
     <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
@@ -1225,154 +1120,136 @@
     <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
   </si>
   <si>
+    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+  </si>
+  <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
-    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
+  </si>
+  <si>
+    <t>ข่าวเด็ดเพชรบุรี</t>
+  </si>
+  <si>
+    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
   </si>
   <si>
     <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
-  </si>
-  <si>
-    <t>ข่าวเด็ดเพชรบุรี</t>
-  </si>
-  <si>
-    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257161873883</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187576024675330</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187576874675245</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187576764675256</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.239273011044280/239272961044285</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1980767202065917&amp;set=a.118999604909362</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241659174138997/241658704139044</t>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.239223587715889/239223554382559</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399723892960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5662586817100869/5662546353771582/</t>
   </si>
   <si>
     <t>https://www.facebook.com/photo?fbid=1982116605264310&amp;set=ecnf.100003979705194</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5662586817100869/5662546353771582/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.239223587715889/239223554382559</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399723892960</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PR.PH.NKP/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
   </si>
   <si>
     <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
   </si>
   <si>
-    <t>https://www.facebook.com/PR.PH.NKP/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
+    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NaraPublicHealth</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
   </si>
   <si>
-    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
   </si>
   <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
@@ -1390,75 +1267,72 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
   </si>
   <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
@@ -1486,58 +1360,55 @@
     <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
   </si>
   <si>
+    <t>แขวง จันทรเกษม</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
+  </si>
+  <si>
+    <t>คลองจิก</t>
+  </si>
+  <si>
+    <t>ท่ามะกา</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
+  </si>
+  <si>
+    <t>ธาตุพนม</t>
+  </si>
+  <si>
+    <t>คูคต</t>
+  </si>
+  <si>
+    <t>ระแหง</t>
+  </si>
+  <si>
+    <t>รอบเวียง</t>
+  </si>
+  <si>
+    <t>คลองหนึ่ง</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
+  </si>
+  <si>
+    <t>แขวง ลุมพินี</t>
+  </si>
+  <si>
+    <t>แขวงจอมทอง</t>
+  </si>
+  <si>
     <t>แขวง แสมดำ</t>
   </si>
   <si>
-    <t>บางกร่าง</t>
-  </si>
-  <si>
-    <t>บางขุนกอง</t>
-  </si>
-  <si>
-    <t>คลองจิก</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
-    <t>แขวง จันทรเกษม</t>
-  </si>
-  <si>
-    <t>ท่ามะกา</t>
-  </si>
-  <si>
-    <t>บางแก้ว</t>
-  </si>
-  <si>
-    <t>รอบเวียง</t>
-  </si>
-  <si>
-    <t>ธาตุพนม</t>
-  </si>
-  <si>
-    <t>คูคต</t>
-  </si>
-  <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>บางเขน</t>
+    <t>ซากอ</t>
   </si>
   <si>
     <t>แขวง บางบอน</t>
   </si>
   <si>
-    <t>คลองหนึ่ง</t>
-  </si>
-  <si>
-    <t>แขวง ลุมพินี</t>
-  </si>
-  <si>
-    <t>แขวงจอมทอง</t>
-  </si>
-  <si>
-    <t>ซากอ</t>
+    <t>แขวง รองเมือง</t>
   </si>
   <si>
     <t>ปากท่อ</t>
@@ -1546,36 +1417,33 @@
     <t>แขวง ทุ่งสองห้อง</t>
   </si>
   <si>
-    <t>แขวง รองเมือง</t>
-  </si>
-  <si>
     <t>แขวง บางกะปิ</t>
   </si>
   <si>
     <t>แขวง จตุจักร</t>
   </si>
   <si>
+    <t>แม่กลอง</t>
+  </si>
+  <si>
     <t>ท่าม่วง</t>
   </si>
   <si>
-    <t>แม่กลอง</t>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
   </si>
   <si>
     <t>บ่อโพง</t>
   </si>
   <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
-    <t>แขวง คลองต้นไทร</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตยเหนือ</t>
-  </si>
-  <si>
-    <t>แขวง ห้วยขวาง</t>
-  </si>
-  <si>
     <t>แขวง คลองเตย</t>
   </si>
   <si>
@@ -1597,102 +1465,99 @@
     <t>ศาลเจ้าโรงทอง</t>
   </si>
   <si>
+    <t>ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>เขตจตุจักร</t>
+  </si>
+  <si>
+    <t>บางปะอิน</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
+    <t>เมืองเชียงราย</t>
+  </si>
+  <si>
+    <t>คลองหลวง</t>
+  </si>
+  <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
+  </si>
+  <si>
+    <t>เขตจอมทอง</t>
+  </si>
+  <si>
     <t>เขตบางขุนเทียน</t>
   </si>
   <si>
-    <t>เมืองนนทบุรี</t>
+    <t>ศรีสาคร</t>
+  </si>
+  <si>
+    <t>เขตบางบอน</t>
+  </si>
+  <si>
+    <t>เขต หลักสี่</t>
+  </si>
+  <si>
+    <t>เขตห้วยขวาง</t>
+  </si>
+  <si>
+    <t>เมืองสมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>เขตคลองสาน</t>
+  </si>
+  <si>
+    <t>เขตราชเทวี</t>
+  </si>
+  <si>
+    <t>เขตวัฒนา</t>
+  </si>
+  <si>
+    <t>เขตดินแดง</t>
+  </si>
+  <si>
+    <t>นครหลวง</t>
+  </si>
+  <si>
+    <t>เขตคลองเตย</t>
+  </si>
+  <si>
+    <t>สามพราน</t>
+  </si>
+  <si>
+    <t>เมืองนราธิวาส</t>
+  </si>
+  <si>
+    <t>เขาย้อย</t>
+  </si>
+  <si>
+    <t>มหาราช จังหวัด</t>
+  </si>
+  <si>
+    <t>วิเศษชัยชาญ</t>
   </si>
   <si>
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
-    <t>บางกรวย</t>
-  </si>
-  <si>
-    <t>บางปะอิน</t>
-  </si>
-  <si>
-    <t>ปากเกร็ด</t>
-  </si>
-  <si>
-    <t>เขตจตุจักร</t>
-  </si>
-  <si>
-    <t>เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>เมืองเชียงราย</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
-  </si>
-  <si>
-    <t>ลาดหลุมแก้ว</t>
-  </si>
-  <si>
-    <t>เขตบางบอน</t>
-  </si>
-  <si>
-    <t>คลองหลวง</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>เขตจอมทอง</t>
-  </si>
-  <si>
-    <t>ศรีสาคร</t>
-  </si>
-  <si>
-    <t>เขต หลักสี่</t>
-  </si>
-  <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
-    <t>เมืองสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>นครหลวง</t>
-  </si>
-  <si>
-    <t>เขตราชเทวี</t>
-  </si>
-  <si>
-    <t>เขตคลองสาน</t>
-  </si>
-  <si>
-    <t>เขตวัฒนา</t>
-  </si>
-  <si>
-    <t>เขตดินแดง</t>
-  </si>
-  <si>
-    <t>เขตคลองเตย</t>
-  </si>
-  <si>
-    <t>สามพราน</t>
-  </si>
-  <si>
-    <t>เมืองนราธิวาส</t>
-  </si>
-  <si>
-    <t>เขาย้อย</t>
-  </si>
-  <si>
-    <t>มหาราช จังหวัด</t>
-  </si>
-  <si>
-    <t>วิเศษชัยชาญ</t>
+    <t>นนทบุรี</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>นนทบุรี</t>
-  </si>
-  <si>
     <t>ราชบุรี</t>
   </si>
   <si>
@@ -1702,15 +1567,15 @@
     <t>อ่างทอง</t>
   </si>
   <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
     <t>เชียงราย</t>
   </si>
   <si>
-    <t>นครพนม</t>
-  </si>
-  <si>
-    <t>ปทุมธานี</t>
-  </si>
-  <si>
     <t>นราธิวาส</t>
   </si>
   <si>
@@ -1723,147 +1588,141 @@
     <t>เพชรบุรี</t>
   </si>
   <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>10900</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>13160</t>
+  </si>
+  <si>
+    <t>71120</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>48110</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>12120</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
     <t>10150</t>
   </si>
   <si>
-    <t>11000</t>
+    <t>96210</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
+    <t>10310</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>71110</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>13260</t>
+  </si>
+  <si>
+    <t>73210</t>
+  </si>
+  <si>
+    <t>96000</t>
+  </si>
+  <si>
+    <t>76140</t>
+  </si>
+  <si>
+    <t>13150</t>
+  </si>
+  <si>
+    <t>14110</t>
   </si>
   <si>
     <t>13000</t>
   </si>
   <si>
-    <t>11130</t>
-  </si>
-  <si>
-    <t>13160</t>
-  </si>
-  <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>11120</t>
-  </si>
-  <si>
-    <t>10900</t>
-  </si>
-  <si>
-    <t>71120</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>48110</t>
-  </si>
-  <si>
-    <t>12130</t>
-  </si>
-  <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>12120</t>
-  </si>
-  <si>
-    <t>10330</t>
-  </si>
-  <si>
-    <t>96210</t>
-  </si>
-  <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
-    <t>71110</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>13260</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>73210</t>
-  </si>
-  <si>
-    <t>96000</t>
-  </si>
-  <si>
-    <t>76140</t>
-  </si>
-  <si>
-    <t>13150</t>
-  </si>
-  <si>
-    <t>14110</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>10</t>
+    <t>43</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -1879,9 +1738,6 @@
     <t>27</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -1915,10 +1771,10 @@
     <t>86</t>
   </si>
   <si>
+    <t>ชาย</t>
+  </si>
+  <si>
     <t>หญิง</t>
-  </si>
-  <si>
-    <t>ชาย</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2360,49 +2216,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F2" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="J2" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="M2" t="s">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="N2" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="O2" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="P2" t="s">
-        <v>569</v>
+        <v>524</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>553</v>
       </c>
       <c r="R2" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2410,49 +2266,49 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F3" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="M3" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="N3" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="O3" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="P3" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="R3" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2460,49 +2316,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="J4" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="M4" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="N4" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="O4" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="P4" t="s">
-        <v>569</v>
+        <v>526</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>554</v>
       </c>
       <c r="R4" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2510,49 +2369,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="J5" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="M5" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="N5" t="s">
+        <v>485</v>
+      </c>
+      <c r="O5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P5" t="s">
         <v>527</v>
       </c>
-      <c r="O5" t="s">
-        <v>557</v>
-      </c>
-      <c r="P5" t="s">
-        <v>569</v>
+      <c r="Q5" t="s">
+        <v>555</v>
       </c>
       <c r="R5" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2560,52 +2422,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F6" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="J6" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="M6" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="N6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O6" t="s">
+        <v>515</v>
+      </c>
+      <c r="P6" t="s">
         <v>528</v>
       </c>
-      <c r="O6" t="s">
-        <v>558</v>
-      </c>
-      <c r="P6" t="s">
-        <v>570</v>
-      </c>
       <c r="Q6" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="R6" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2613,49 +2475,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F7" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="J7" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>420</v>
+        <v>385</v>
+      </c>
+      <c r="M7" t="s">
+        <v>452</v>
       </c>
       <c r="N7" t="s">
+        <v>486</v>
+      </c>
+      <c r="O7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P7" t="s">
         <v>529</v>
       </c>
-      <c r="O7" t="s">
-        <v>529</v>
-      </c>
-      <c r="P7" t="s">
-        <v>571</v>
-      </c>
       <c r="Q7" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="R7" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2663,52 +2528,52 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F8" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="J8" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="M8" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="N8" t="s">
+        <v>453</v>
+      </c>
+      <c r="O8" t="s">
+        <v>517</v>
+      </c>
+      <c r="P8" t="s">
         <v>530</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>558</v>
       </c>
-      <c r="P8" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>601</v>
-      </c>
       <c r="R8" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2716,52 +2581,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F9" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="M9" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="N9" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" t="s">
+        <v>518</v>
+      </c>
+      <c r="P9" t="s">
         <v>531</v>
       </c>
-      <c r="O9" t="s">
-        <v>529</v>
-      </c>
-      <c r="P9" t="s">
-        <v>573</v>
-      </c>
       <c r="Q9" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="R9" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2769,52 +2634,46 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F10" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G10" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="M10" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="N10" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="O10" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="P10" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>602</v>
-      </c>
-      <c r="R10" t="s">
-        <v>633</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2822,49 +2681,52 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F11" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>424</v>
+        <v>389</v>
+      </c>
+      <c r="M11" t="s">
+        <v>449</v>
       </c>
       <c r="N11" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="O11" t="s">
+        <v>514</v>
+      </c>
+      <c r="P11" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q11" t="s">
         <v>558</v>
       </c>
-      <c r="P11" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>603</v>
-      </c>
       <c r="R11" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2872,49 +2734,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F12" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="J12" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="M12" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="N12" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="O12" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="P12" t="s">
-        <v>576</v>
+        <v>532</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>558</v>
       </c>
       <c r="R12" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2922,52 +2787,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F13" s="2">
         <v>44215</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="M13" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="N13" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="O13" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="P13" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="Q13" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="R13" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2975,52 +2840,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F14" s="2">
         <v>44215</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="J14" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="M14" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="N14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="O14" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="P14" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="Q14" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="R14" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3028,52 +2893,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F15" s="2">
         <v>44215</v>
       </c>
       <c r="G15" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="M15" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="N15" t="s">
+        <v>490</v>
+      </c>
+      <c r="O15" t="s">
+        <v>518</v>
+      </c>
+      <c r="P15" t="s">
         <v>534</v>
       </c>
-      <c r="O15" t="s">
-        <v>561</v>
-      </c>
-      <c r="P15" t="s">
-        <v>578</v>
-      </c>
       <c r="Q15" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="R15" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3081,52 +2946,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F16" s="2">
         <v>44215</v>
       </c>
       <c r="G16" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="J16" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="M16" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="N16" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="O16" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="P16" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="Q16" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="R16" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3134,52 +2999,49 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F17" s="2">
         <v>44215</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H17" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I17" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="J17" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="M17" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="N17" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O17" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="P17" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="R17" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3187,52 +3049,49 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F18" s="2">
         <v>44215</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="J18" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="M18" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="N18" t="s">
+        <v>492</v>
+      </c>
+      <c r="O18" t="s">
+        <v>513</v>
+      </c>
+      <c r="P18" t="s">
         <v>536</v>
       </c>
-      <c r="O18" t="s">
-        <v>564</v>
-      </c>
-      <c r="P18" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>608</v>
-      </c>
       <c r="R18" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3240,46 +3099,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F19" s="2">
         <v>44215</v>
       </c>
       <c r="G19" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="J19" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="M19" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="N19" t="s">
+        <v>493</v>
+      </c>
+      <c r="O19" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" t="s">
         <v>537</v>
       </c>
-      <c r="O19" t="s">
-        <v>564</v>
-      </c>
-      <c r="P19" t="s">
-        <v>582</v>
+      <c r="R19" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3287,52 +3149,49 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F20" s="2">
         <v>44215</v>
       </c>
       <c r="G20" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="J20" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="M20" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="N20" t="s">
+        <v>494</v>
+      </c>
+      <c r="O20" t="s">
+        <v>513</v>
+      </c>
+      <c r="P20" t="s">
         <v>537</v>
       </c>
-      <c r="O20" t="s">
-        <v>564</v>
-      </c>
-      <c r="P20" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>604</v>
-      </c>
       <c r="R20" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3340,49 +3199,52 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F21" s="2">
         <v>44215</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="M21" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="N21" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="O21" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="P21" t="s">
-        <v>570</v>
+        <v>538</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>563</v>
       </c>
       <c r="R21" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3390,49 +3252,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F22" s="2">
         <v>44215</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I22" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="J22" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="M22" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="N22" t="s">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="O22" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="P22" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="R22" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3440,52 +3302,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F23" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G23" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H23" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I23" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="M23" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="N23" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="O23" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="P23" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>609</v>
+        <v>536</v>
       </c>
       <c r="R23" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3493,52 +3352,52 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F24" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G24" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="J24" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="M24" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="N24" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="O24" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="P24" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="Q24" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="R24" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3546,49 +3405,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G25" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" t="s">
-        <v>350</v>
-      </c>
       <c r="J25" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="M25" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="N25" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="O25" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="P25" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="R25" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3596,49 +3455,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F26" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" t="s">
+        <v>298</v>
+      </c>
+      <c r="I26" t="s">
         <v>323</v>
       </c>
-      <c r="H26" t="s">
-        <v>325</v>
-      </c>
-      <c r="I26" t="s">
-        <v>351</v>
-      </c>
       <c r="J26" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="M26" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="N26" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="O26" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="P26" t="s">
-        <v>569</v>
+        <v>526</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>565</v>
       </c>
       <c r="R26" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3646,49 +3508,52 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F27" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H27" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I27" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="J27" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="M27" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="N27" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="O27" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="P27" t="s">
-        <v>569</v>
+        <v>526</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>566</v>
       </c>
       <c r="R27" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3696,52 +3561,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F28" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G28" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="J28" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="M28" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="N28" t="s">
-        <v>542</v>
+        <v>465</v>
       </c>
       <c r="O28" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="P28" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="Q28" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="R28" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3749,52 +3614,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F29" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G29" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" t="s">
         <v>326</v>
       </c>
-      <c r="I29" t="s">
-        <v>354</v>
-      </c>
       <c r="J29" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="M29" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="N29" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="O29" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="P29" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="R29" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3802,52 +3664,52 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F30" s="2">
         <v>44216</v>
       </c>
       <c r="G30" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H30" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I30" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="J30" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="M30" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="N30" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="O30" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="P30" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="Q30" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="R30" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3855,52 +3717,49 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F31" s="2">
         <v>44216</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H31" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I31" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="J31" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="M31" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="N31" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="O31" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
       <c r="P31" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>613</v>
+        <v>525</v>
       </c>
       <c r="R31" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3908,49 +3767,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E32" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F32" s="2">
         <v>44216</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H32" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I32" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="M32" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="N32" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="O32" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="P32" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>563</v>
+      </c>
+      <c r="R32" t="s">
         <v>586</v>
-      </c>
-      <c r="R32" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3958,52 +3820,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F33" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G33" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="J33" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="M33" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="N33" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O33" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="P33" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="Q33" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="R33" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4011,49 +3873,49 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F34" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H34" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I34" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="M34" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="N34" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="O34" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="P34" t="s">
-        <v>584</v>
+        <v>535</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>569</v>
       </c>
       <c r="R34" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4061,52 +3923,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F35" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I35" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
+        <v>371</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="M35" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="N35" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="O35" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="P35" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="Q35" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="R35" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4114,49 +3976,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F36" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G36" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="M36" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="N36" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="O36" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P36" t="s">
-        <v>587</v>
+        <v>541</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>571</v>
       </c>
       <c r="R36" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4164,52 +4029,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E37" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F37" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G37" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="M37" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="N37" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="O37" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="P37" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="Q37" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="R37" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4217,49 +4082,52 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F38" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H38" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="M38" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="N38" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="O38" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P38" t="s">
-        <v>576</v>
+        <v>541</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>573</v>
       </c>
       <c r="R38" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4267,52 +4135,52 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F39" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G39" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="M39" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="N39" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O39" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="P39" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="Q39" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="R39" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4320,49 +4188,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F40" s="2">
         <v>44217</v>
       </c>
       <c r="G40" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H40" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>453</v>
+        <v>418</v>
+      </c>
+      <c r="M40" t="s">
+        <v>471</v>
       </c>
       <c r="N40" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="O40" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="P40" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>616</v>
+        <v>543</v>
       </c>
       <c r="R40" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4370,52 +4238,52 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F41" s="2">
         <v>44217</v>
       </c>
       <c r="G41" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H41" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="M41" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="N41" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="O41" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="P41" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="Q41" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="R41" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4423,52 +4291,49 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F42" s="2">
         <v>44217</v>
       </c>
       <c r="G42" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H42" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="J42" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="M42" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="N42" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="O42" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="P42" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="R42" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4476,52 +4341,49 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F43" s="2">
         <v>44217</v>
       </c>
       <c r="G43" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="J43" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="N43" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="O43" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="P43" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>619</v>
+        <v>543</v>
       </c>
       <c r="R43" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4529,52 +4391,49 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F44" s="2">
         <v>44217</v>
       </c>
       <c r="G44" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
         <v>369</v>
       </c>
-      <c r="J44" t="s">
-        <v>414</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="M44" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="N44" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="O44" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="P44" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>620</v>
+        <v>544</v>
       </c>
       <c r="R44" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4582,52 +4441,49 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F45" s="2">
         <v>44217</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H45" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="M45" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="N45" t="s">
+        <v>502</v>
+      </c>
+      <c r="O45" t="s">
+        <v>513</v>
+      </c>
+      <c r="P45" t="s">
         <v>545</v>
       </c>
-      <c r="O45" t="s">
-        <v>566</v>
-      </c>
-      <c r="P45" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>621</v>
-      </c>
       <c r="R45" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4635,52 +4491,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F46" s="2">
         <v>44217</v>
       </c>
       <c r="G46" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="N46" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="O46" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="P46" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="R46" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4688,52 +4541,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F47" s="2">
         <v>44217</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="M47" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="N47" t="s">
+        <v>504</v>
+      </c>
+      <c r="O47" t="s">
+        <v>511</v>
+      </c>
+      <c r="P47" t="s">
         <v>546</v>
       </c>
-      <c r="O47" t="s">
-        <v>529</v>
-      </c>
-      <c r="P47" t="s">
-        <v>590</v>
-      </c>
       <c r="Q47" t="s">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="R47" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4741,52 +4594,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F48" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G48" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H48" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="M48" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="N48" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="O48" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="P48" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="Q48" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="R48" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4794,49 +4647,49 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F49" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H49" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="M49" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="N49" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="O49" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="P49" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
       <c r="R49" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4844,49 +4697,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F50" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="N50" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="O50" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P50" t="s">
-        <v>592</v>
+        <v>541</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>565</v>
       </c>
       <c r="R50" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4894,49 +4750,52 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F51" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G51" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s">
-        <v>517</v>
+        <v>469</v>
       </c>
       <c r="N51" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="O51" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P51" t="s">
-        <v>592</v>
+        <v>541</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>576</v>
       </c>
       <c r="R51" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4944,49 +4803,52 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" s="2">
+        <v>44218</v>
+      </c>
+      <c r="G52" t="s">
         <v>296</v>
       </c>
-      <c r="E52" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="2">
-        <v>44217</v>
-      </c>
-      <c r="G52" t="s">
-        <v>323</v>
-      </c>
       <c r="H52" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="N52" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="O52" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P52" t="s">
-        <v>591</v>
+        <v>541</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>566</v>
       </c>
       <c r="R52" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4994,49 +4856,52 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F53" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G53" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I53" t="s">
+        <v>350</v>
+      </c>
+      <c r="J53" t="s">
         <v>378</v>
       </c>
-      <c r="J53" t="s">
-        <v>403</v>
-      </c>
       <c r="K53" s="3" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="N53" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="O53" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P53" t="s">
-        <v>593</v>
+        <v>541</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>553</v>
       </c>
       <c r="R53" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5044,49 +4909,52 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F54" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H54" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I54" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="J54" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="M54" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="N54" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="O54" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="P54" t="s">
-        <v>591</v>
+        <v>547</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>566</v>
       </c>
       <c r="R54" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5094,49 +4962,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F55" s="2">
         <v>44218</v>
       </c>
       <c r="G55" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="J55" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="N55" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="O55" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P55" t="s">
-        <v>593</v>
+        <v>541</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>577</v>
       </c>
       <c r="R55" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5144,52 +5015,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F56" s="2">
         <v>44218</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H56" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="K56" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="s">
         <v>469</v>
       </c>
-      <c r="M56" t="s">
-        <v>514</v>
-      </c>
       <c r="N56" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="O56" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="P56" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="Q56" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
       <c r="R56" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5197,52 +5068,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F57" s="2">
         <v>44218</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="J57" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="N57" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="P57" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>614</v>
+        <v>525</v>
       </c>
       <c r="R57" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5250,52 +5118,52 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F58" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G58" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="J58" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s">
+        <v>465</v>
+      </c>
+      <c r="N58" t="s">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s">
         <v>514</v>
       </c>
-      <c r="N58" t="s">
-        <v>545</v>
-      </c>
-      <c r="O58" t="s">
-        <v>566</v>
-      </c>
       <c r="P58" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="Q58" t="s">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="R58" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5303,52 +5171,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E59" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F59" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G59" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I59" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="J59" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="N59" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="P59" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="Q59" t="s">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="R59" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5356,52 +5224,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F60" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="J60" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="N60" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="O60" t="s">
+        <v>522</v>
+      </c>
+      <c r="P60" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q60" t="s">
         <v>566</v>
       </c>
-      <c r="P60" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>625</v>
-      </c>
       <c r="R60" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5409,52 +5277,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E61" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F61" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G61" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H61" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="J61" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="N61" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="O61" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="P61" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="Q61" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
       <c r="R61" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5462,52 +5330,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F62" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H62" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I62" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="J62" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="M62" t="s">
+        <v>469</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
         <v>521</v>
       </c>
-      <c r="N62" t="s">
-        <v>552</v>
-      </c>
-      <c r="O62" t="s">
-        <v>567</v>
-      </c>
       <c r="P62" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
       <c r="Q62" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="R62" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5515,52 +5383,52 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F63" s="2">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="G63" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H63" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="N63" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="O63" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="P63" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="Q63" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="R63" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5568,49 +5436,52 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E64" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F64" s="2">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="G64" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H64" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="J64" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="M64" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="N64" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="O64" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="P64" t="s">
-        <v>576</v>
+        <v>541</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>573</v>
       </c>
       <c r="R64" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5618,52 +5489,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F65" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="G65" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H65" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I65" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="J65" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="M65" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="N65" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="O65" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="P65" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="Q65" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="R65" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5671,52 +5542,52 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F66" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="G66" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I66" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="J66" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="O66" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="P66" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="Q66" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="R66" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5724,52 +5595,52 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E67" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F67" s="2">
-        <v>44219</v>
+        <v>44222</v>
       </c>
       <c r="G67" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H67" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I67" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="J67" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="M67" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="N67" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O67" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="P67" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="Q67" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="R67" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5777,52 +5648,52 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F68" s="2">
-        <v>44219</v>
+        <v>44222</v>
       </c>
       <c r="G68" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H68" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="J68" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="N68" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="O68" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="P68" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="Q68" t="s">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="R68" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5830,52 +5701,52 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F69" s="2">
-        <v>44220</v>
+        <v>44224</v>
       </c>
       <c r="G69" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H69" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I69" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="J69" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="N69" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="P69" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="Q69" t="s">
-        <v>628</v>
+        <v>583</v>
       </c>
       <c r="R69" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5883,420 +5754,49 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E70" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F70" s="2">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="G70" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H70" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="I70" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="J70" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="M70" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="N70" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
       <c r="O70" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="P70" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="Q70" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="R70" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" t="s">
-        <v>315</v>
-      </c>
-      <c r="E71" t="s">
-        <v>322</v>
-      </c>
-      <c r="F71" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G71" t="s">
-        <v>324</v>
-      </c>
-      <c r="H71" t="s">
-        <v>326</v>
-      </c>
-      <c r="I71" t="s">
-        <v>396</v>
-      </c>
-      <c r="J71" t="s">
-        <v>414</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="M71" t="s">
-        <v>514</v>
-      </c>
-      <c r="N71" t="s">
-        <v>545</v>
-      </c>
-      <c r="O71" t="s">
-        <v>566</v>
-      </c>
-      <c r="P71" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>620</v>
-      </c>
-      <c r="R71" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" t="s">
-        <v>240</v>
-      </c>
-      <c r="D72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E72" t="s">
-        <v>322</v>
-      </c>
-      <c r="F72" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G72" t="s">
-        <v>323</v>
-      </c>
-      <c r="H72" t="s">
-        <v>325</v>
-      </c>
-      <c r="I72" t="s">
-        <v>397</v>
-      </c>
-      <c r="J72" t="s">
-        <v>413</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M72" t="s">
-        <v>524</v>
-      </c>
-      <c r="N72" t="s">
-        <v>554</v>
-      </c>
-      <c r="O72" t="s">
-        <v>568</v>
-      </c>
-      <c r="P72" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>608</v>
-      </c>
-      <c r="R72" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73" t="s">
-        <v>317</v>
-      </c>
-      <c r="E73" t="s">
-        <v>322</v>
-      </c>
-      <c r="F73" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G73" t="s">
-        <v>324</v>
-      </c>
-      <c r="H73" t="s">
-        <v>326</v>
-      </c>
-      <c r="I73" t="s">
-        <v>398</v>
-      </c>
-      <c r="J73" t="s">
-        <v>405</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="M73" t="s">
-        <v>504</v>
-      </c>
-      <c r="N73" t="s">
-        <v>539</v>
-      </c>
-      <c r="O73" t="s">
-        <v>564</v>
-      </c>
-      <c r="P73" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>629</v>
-      </c>
-      <c r="R73" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" t="s">
-        <v>242</v>
-      </c>
-      <c r="D74" t="s">
-        <v>318</v>
-      </c>
-      <c r="E74" t="s">
-        <v>322</v>
-      </c>
-      <c r="F74" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G74" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74" t="s">
-        <v>399</v>
-      </c>
-      <c r="J74" t="s">
-        <v>405</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="M74" t="s">
-        <v>525</v>
-      </c>
-      <c r="N74" t="s">
-        <v>555</v>
-      </c>
-      <c r="O74" t="s">
-        <v>529</v>
-      </c>
-      <c r="P74" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>624</v>
-      </c>
-      <c r="R74" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" t="s">
-        <v>319</v>
-      </c>
-      <c r="E75" t="s">
-        <v>322</v>
-      </c>
-      <c r="F75" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G75" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" t="s">
-        <v>326</v>
-      </c>
-      <c r="I75" t="s">
-        <v>400</v>
-      </c>
-      <c r="J75" t="s">
-        <v>408</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M75" t="s">
-        <v>526</v>
-      </c>
-      <c r="N75" t="s">
-        <v>556</v>
-      </c>
-      <c r="O75" t="s">
-        <v>561</v>
-      </c>
-      <c r="P75" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>630</v>
-      </c>
-      <c r="R75" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" t="s">
-        <v>320</v>
-      </c>
-      <c r="E76" t="s">
-        <v>322</v>
-      </c>
-      <c r="F76" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G76" t="s">
-        <v>324</v>
-      </c>
-      <c r="H76" t="s">
-        <v>326</v>
-      </c>
-      <c r="I76" t="s">
-        <v>401</v>
-      </c>
-      <c r="J76" t="s">
-        <v>408</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M76" t="s">
-        <v>497</v>
-      </c>
-      <c r="N76" t="s">
-        <v>534</v>
-      </c>
-      <c r="O76" t="s">
-        <v>561</v>
-      </c>
-      <c r="P76" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>631</v>
-      </c>
-      <c r="R76" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" t="s">
-        <v>321</v>
-      </c>
-      <c r="E77" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G77" t="s">
-        <v>324</v>
-      </c>
-      <c r="H77" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" t="s">
-        <v>402</v>
-      </c>
-      <c r="J77" t="s">
-        <v>405</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="N77" t="s">
-        <v>529</v>
-      </c>
-      <c r="O77" t="s">
-        <v>529</v>
-      </c>
-      <c r="P77" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>632</v>
-      </c>
-      <c r="R77" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6370,13 +5870,6 @@
     <hyperlink ref="K68" r:id="rId67"/>
     <hyperlink ref="K69" r:id="rId68"/>
     <hyperlink ref="K70" r:id="rId69"/>
-    <hyperlink ref="K71" r:id="rId70"/>
-    <hyperlink ref="K72" r:id="rId71"/>
-    <hyperlink ref="K73" r:id="rId72"/>
-    <hyperlink ref="K74" r:id="rId73"/>
-    <hyperlink ref="K75" r:id="rId74"/>
-    <hyperlink ref="K76" r:id="rId75"/>
-    <hyperlink ref="K77" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="555">
   <si>
     <t>gid</t>
   </si>
@@ -70,69 +70,57 @@
     <t>gender</t>
   </si>
   <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>729</t>
+    <t>803</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>741</t>
   </si>
   <si>
     <t>744</t>
   </si>
   <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>741</t>
+    <t>759</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>763</t>
   </si>
   <si>
     <t>742</t>
   </si>
   <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
     <t>787</t>
   </si>
   <si>
@@ -184,18 +172,18 @@
     <t>782</t>
   </si>
   <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
     <t>814</t>
   </si>
   <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
     <t>795</t>
   </si>
   <si>
@@ -277,69 +265,57 @@
     <t>818</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 158</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 658</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 23</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 40</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
   </si>
   <si>
@@ -391,18 +367,18 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
   </si>
   <si>
@@ -484,69 +460,57 @@
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
   </si>
   <si>
-    <t>13.94749268</t>
-  </si>
-  <si>
-    <t>13.82996272</t>
-  </si>
-  <si>
-    <t>13.37235439</t>
-  </si>
-  <si>
-    <t>14.21130729</t>
+    <t>6.240396923</t>
+  </si>
+  <si>
+    <t>14.58486773</t>
+  </si>
+  <si>
+    <t>19.90080363</t>
+  </si>
+  <si>
+    <t>16.93747723</t>
+  </si>
+  <si>
+    <t>13.96330727</t>
+  </si>
+  <si>
+    <t>14.03685952</t>
+  </si>
+  <si>
+    <t>13.37241071</t>
+  </si>
+  <si>
+    <t>14.0366129</t>
   </si>
   <si>
     <t>13.90819848</t>
   </si>
   <si>
-    <t>14.58486773</t>
-  </si>
-  <si>
-    <t>16.93747723</t>
-  </si>
-  <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>13.37241071</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
+    <t>13.68348436</t>
+  </si>
+  <si>
+    <t>14.07328955</t>
+  </si>
+  <si>
+    <t>14.58468626</t>
+  </si>
+  <si>
+    <t>13.85512417</t>
+  </si>
+  <si>
+    <t>13.73167329</t>
+  </si>
+  <si>
+    <t>13.6909991</t>
+  </si>
+  <si>
+    <t>13.61372722</t>
   </si>
   <si>
     <t>14.58480753</t>
   </si>
   <si>
-    <t>19.90080363</t>
-  </si>
-  <si>
-    <t>14.07328955</t>
-  </si>
-  <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>13.85512417</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>13.6909991</t>
-  </si>
-  <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>6.240396923</t>
-  </si>
-  <si>
-    <t>13.68348436</t>
-  </si>
-  <si>
     <t>13.74048254</t>
   </si>
   <si>
@@ -598,18 +562,18 @@
     <t>13.40628035</t>
   </si>
   <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
     <t>13.72653746</t>
   </si>
   <si>
-    <t>14.58472864</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
     <t>13.75814784</t>
   </si>
   <si>
@@ -691,69 +655,57 @@
     <t>14.34377313</t>
   </si>
   <si>
-    <t>100.5463574</t>
-  </si>
-  <si>
-    <t>100.5704599</t>
-  </si>
-  <si>
-    <t>99.84044659</t>
-  </si>
-  <si>
-    <t>100.6080371</t>
+    <t>101.4988291</t>
+  </si>
+  <si>
+    <t>100.4523471</t>
+  </si>
+  <si>
+    <t>99.82912083</t>
+  </si>
+  <si>
+    <t>104.71144</t>
+  </si>
+  <si>
+    <t>100.6218198</t>
+  </si>
+  <si>
+    <t>100.4157557</t>
+  </si>
+  <si>
+    <t>99.84045185</t>
+  </si>
+  <si>
+    <t>100.4156136</t>
   </si>
   <si>
     <t>99.76743912</t>
   </si>
   <si>
-    <t>100.4523471</t>
-  </si>
-  <si>
-    <t>104.71144</t>
-  </si>
-  <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>99.84045185</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
+    <t>100.4403143</t>
+  </si>
+  <si>
+    <t>100.6151396</t>
+  </si>
+  <si>
+    <t>100.4524316</t>
+  </si>
+  <si>
+    <t>100.5421273</t>
+  </si>
+  <si>
+    <t>100.5424867</t>
+  </si>
+  <si>
+    <t>100.4802327</t>
+  </si>
+  <si>
+    <t>100.3825015</t>
   </si>
   <si>
     <t>100.4519125</t>
   </si>
   <si>
-    <t>99.82912083</t>
-  </si>
-  <si>
-    <t>100.6151396</t>
-  </si>
-  <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>100.5421273</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>100.4802327</t>
-  </si>
-  <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>101.4988291</t>
-  </si>
-  <si>
-    <t>100.4403143</t>
-  </si>
-  <si>
     <t>100.522356</t>
   </si>
   <si>
@@ -805,18 +757,18 @@
     <t>99.99793397</t>
   </si>
   <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
     <t>100.5098666</t>
   </si>
   <si>
-    <t>100.4521962</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
     <t>100.5350653</t>
   </si>
   <si>
@@ -901,81 +853,69 @@
     <t>1</t>
   </si>
   <si>
+    <t>ข่าวสาร</t>
+  </si>
+  <si>
     <t>ไม่ระบุพิกัด</t>
   </si>
   <si>
-    <t>ข่าวสาร</t>
+    <t>กำลังรักษา</t>
   </si>
   <si>
     <t>Timeline ที่ผู้ป่วยเคยมา</t>
   </si>
   <si>
-    <t>กำลังรักษา</t>
-  </si>
-  <si>
-    <t>รายที่ 158 ชาย อายุ 38 ปี อ.ปากเกร็ด จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 658 ชาย เจ้าหน้าที่รัฐ</t>
-  </si>
-  <si>
-    <t>รายที่ 23 เพศหญิง อายุ 49 ปี เริ่มป่วย 17 ม.ค. รักษาที่รพ. ปากท่อ เมื่อวันที่ 18 ม.ค. 64 ด้วยอาการ ไอ มีน้ำมูก ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ชาย อายุ 67 ปี อยู่กับภรรยา(รายที่ 39) อยู่บ้านพักของโรงงานในหมู่ 11 ต.บ้านเลน อ.บางปะอิน จ.อยุธยา</t>
+    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
+  </si>
+  <si>
+    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
+  </si>
+  <si>
+    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
   </si>
   <si>
-    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
+    <t>รายที่ 596 หญิง แม่บ้าน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>รายที่ 660 ชายอาชีพอิสระ</t>
+  </si>
+  <si>
+    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
+  </si>
+  <si>
+    <t>รายที่ 615 ชายว่างวาน</t>
+  </si>
+  <si>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
   </si>
   <si>
-    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 660 ชายอาชีพอิสระ</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 615 ชายว่างวาน</t>
-  </si>
-  <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
-  </si>
-  <si>
-    <t>รายที่ 596 หญิง แม่บ้าน</t>
-  </si>
-  <si>
     <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
   </si>
   <si>
@@ -1027,18 +967,18 @@
     <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
   </si>
   <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
     <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
     <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
   </si>
   <si>
@@ -1120,105 +1060,93 @@
     <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
   </si>
   <si>
+    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>ข่าวเด็ดเพชรบุรี</t>
+  </si>
+  <si>
+    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
+  </si>
+  <si>
     <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
   </si>
   <si>
-    <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
-  </si>
-  <si>
-    <t>ข่าวเด็ดเพชรบุรี</t>
-  </si>
-  <si>
-    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
-  </si>
-  <si>
     <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.239223587715889/239223554382559</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399723892960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5662586817100869/5662546353771582/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1982116605264310&amp;set=ecnf.100003979705194</t>
+    <t>https://www.facebook.com/NaraPublicHealth</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PR.PH.NKP/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PR.PH.NKP/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
   </si>
   <si>
@@ -1270,18 +1198,18 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
   </si>
   <si>
@@ -1360,31 +1288,31 @@
     <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
   </si>
   <si>
-    <t>แขวง จันทรเกษม</t>
+    <t>ซากอ</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
+  </si>
+  <si>
+    <t>รอบเวียง</t>
+  </si>
+  <si>
+    <t>ธาตุพนม</t>
+  </si>
+  <si>
+    <t>คูคต</t>
+  </si>
+  <si>
+    <t>ระแหง</t>
   </si>
   <si>
     <t>ยางหัก</t>
   </si>
   <si>
-    <t>คลองจิก</t>
-  </si>
-  <si>
     <t>ท่ามะกา</t>
   </si>
   <si>
-    <t>บางแก้ว</t>
-  </si>
-  <si>
-    <t>ธาตุพนม</t>
-  </si>
-  <si>
-    <t>คูคต</t>
-  </si>
-  <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>รอบเวียง</t>
+    <t>แขวง บางบอน</t>
   </si>
   <si>
     <t>คลองหนึ่ง</t>
@@ -1402,12 +1330,6 @@
     <t>แขวง แสมดำ</t>
   </si>
   <si>
-    <t>ซากอ</t>
-  </si>
-  <si>
-    <t>แขวง บางบอน</t>
-  </si>
-  <si>
     <t>แขวง รองเมือง</t>
   </si>
   <si>
@@ -1429,12 +1351,12 @@
     <t>ท่าม่วง</t>
   </si>
   <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
     <t>แขวง คลองต้นไทร</t>
   </si>
   <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
     <t>แขวง คลองเตยเหนือ</t>
   </si>
   <si>
@@ -1465,63 +1387,57 @@
     <t>ศาลเจ้าโรงทอง</t>
   </si>
   <si>
-    <t>ปากเกร็ด</t>
+    <t>ศรีสาคร</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>เมืองเชียงราย</t>
+  </si>
+  <si>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
+    <t>เขตบางบอน</t>
+  </si>
+  <si>
+    <t>คลองหลวง</t>
+  </si>
+  <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
+  </si>
+  <si>
+    <t>เขตจอมทอง</t>
+  </si>
+  <si>
+    <t>เขตบางขุนเทียน</t>
+  </si>
+  <si>
+    <t>เขต หลักสี่</t>
+  </si>
+  <si>
+    <t>เขตห้วยขวาง</t>
   </si>
   <si>
     <t>เขตจตุจักร</t>
   </si>
   <si>
-    <t>บางปะอิน</t>
-  </si>
-  <si>
-    <t>เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
-  </si>
-  <si>
-    <t>ลาดหลุมแก้ว</t>
-  </si>
-  <si>
-    <t>เมืองเชียงราย</t>
-  </si>
-  <si>
-    <t>คลองหลวง</t>
-  </si>
-  <si>
-    <t>เมืองนนทบุรี</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>เขตจอมทอง</t>
-  </si>
-  <si>
-    <t>เขตบางขุนเทียน</t>
-  </si>
-  <si>
-    <t>ศรีสาคร</t>
-  </si>
-  <si>
-    <t>เขตบางบอน</t>
-  </si>
-  <si>
-    <t>เขต หลักสี่</t>
-  </si>
-  <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
     <t>เมืองสมุทรสงคราม</t>
   </si>
   <si>
+    <t>เขตราชเทวี</t>
+  </si>
+  <si>
     <t>เขตคลองสาน</t>
   </si>
   <si>
-    <t>เขตราชเทวี</t>
-  </si>
-  <si>
     <t>เขตวัฒนา</t>
   </si>
   <si>
@@ -1552,33 +1468,33 @@
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
+    <t>นราธิวาส</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
-    <t>นครพนม</t>
-  </si>
-  <si>
-    <t>ปทุมธานี</t>
-  </si>
-  <si>
-    <t>เชียงราย</t>
-  </si>
-  <si>
-    <t>นราธิวาส</t>
-  </si>
-  <si>
     <t>สมุทรสงคราม</t>
   </si>
   <si>
@@ -1588,69 +1504,63 @@
     <t>เพชรบุรี</t>
   </si>
   <si>
-    <t>11120</t>
+    <t>96210</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>48110</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>71120</t>
+  </si>
+  <si>
+    <t>10150</t>
+  </si>
+  <si>
+    <t>12120</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
+    <t>10310</t>
   </si>
   <si>
     <t>10900</t>
   </si>
   <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>13160</t>
-  </si>
-  <si>
-    <t>71120</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>48110</t>
-  </si>
-  <si>
-    <t>12130</t>
-  </si>
-  <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>12120</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>10330</t>
-  </si>
-  <si>
-    <t>10150</t>
-  </si>
-  <si>
-    <t>96210</t>
-  </si>
-  <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
     <t>75000</t>
   </si>
   <si>
     <t>71110</t>
   </si>
   <si>
+    <t>10400</t>
+  </si>
+  <si>
     <t>10600</t>
   </si>
   <si>
-    <t>10400</t>
-  </si>
-  <si>
     <t>10110</t>
   </si>
   <si>
@@ -1675,76 +1585,70 @@
     <t>13000</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>58</t>
   </si>
   <si>
     <t>36</t>
@@ -2149,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2216,49 +2120,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="J2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>380</v>
+        <v>360</v>
+      </c>
+      <c r="M2" t="s">
+        <v>424</v>
       </c>
       <c r="N2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="O2" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="P2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="Q2" t="s">
+        <v>523</v>
+      </c>
+      <c r="R2" t="s">
         <v>553</v>
-      </c>
-      <c r="R2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2266,49 +2173,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F3" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="M3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="N3" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="O3" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="P3" t="s">
-        <v>525</v>
+        <v>497</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>524</v>
       </c>
       <c r="R3" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2316,52 +2226,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F4" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="M4" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="O4" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="P4" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="Q4" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="R4" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2369,52 +2279,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I5" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="M5" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="N5" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="O5" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="P5" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="Q5" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="R5" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2422,52 +2332,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F6" s="2">
         <v>44215</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="J6" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M6" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="N6" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="O6" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="P6" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="Q6" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="R6" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2475,52 +2385,46 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F7" s="2">
         <v>44215</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J7" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="M7" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="N7" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="O7" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="P7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>557</v>
-      </c>
-      <c r="R7" t="s">
-        <v>586</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2528,52 +2432,52 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F8" s="2">
         <v>44215</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="M8" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="N8" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="O8" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="P8" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="Q8" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="R8" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2581,52 +2485,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F9" s="2">
         <v>44215</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="J9" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="M9" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="N9" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="O9" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="P9" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="Q9" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="R9" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2634,46 +2538,52 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F10" s="2">
         <v>44215</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="J10" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="M10" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="N10" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="O10" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="P10" t="s">
-        <v>532</v>
+        <v>503</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>528</v>
+      </c>
+      <c r="R10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2681,52 +2591,49 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F11" s="2">
         <v>44215</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J11" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="M11" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="N11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O11" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="P11" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="R11" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2734,52 +2641,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F12" s="2">
         <v>44215</v>
       </c>
       <c r="G12" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H12" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J12" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="M12" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="N12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O12" t="s">
         <v>488</v>
       </c>
-      <c r="O12" t="s">
-        <v>518</v>
-      </c>
       <c r="P12" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="Q12" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="R12" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2787,52 +2694,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F13" s="2">
         <v>44215</v>
       </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="J13" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="M13" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="N13" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="O13" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="P13" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="Q13" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="R13" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2840,52 +2747,49 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F14" s="2">
         <v>44215</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H14" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="M14" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="N14" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="O14" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="P14" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="R14" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2893,52 +2797,49 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F15" s="2">
         <v>44215</v>
       </c>
       <c r="G15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" t="s">
         <v>296</v>
       </c>
-      <c r="H15" t="s">
-        <v>298</v>
-      </c>
-      <c r="I15" t="s">
-        <v>312</v>
-      </c>
       <c r="J15" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="M15" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="N15" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="O15" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="P15" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="R15" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2946,52 +2847,49 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F16" s="2">
         <v>44215</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I16" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J16" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="M16" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="N16" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="O16" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="P16" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="R16" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2999,49 +2897,49 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2">
         <v>44215</v>
       </c>
       <c r="G17" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I17" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="M17" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="N17" t="s">
+        <v>467</v>
+      </c>
+      <c r="O17" t="s">
         <v>491</v>
       </c>
-      <c r="O17" t="s">
-        <v>512</v>
-      </c>
       <c r="P17" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="R17" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3049,49 +2947,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F18" s="2">
         <v>44215</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I18" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J18" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="M18" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="N18" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="O18" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="P18" t="s">
-        <v>536</v>
+        <v>497</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>530</v>
       </c>
       <c r="R18" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3099,49 +3000,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F19" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I19" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J19" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="M19" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="N19" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="O19" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="P19" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="R19" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3149,49 +3050,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F20" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I20" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="J20" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="M20" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="N20" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="O20" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="P20" t="s">
-        <v>537</v>
+        <v>502</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>531</v>
       </c>
       <c r="R20" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3199,52 +3103,49 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F21" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H21" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I21" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="J21" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M21" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="N21" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="O21" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="P21" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="R21" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3252,49 +3153,52 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F22" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I22" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="J22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="M22" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="N22" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="O22" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="P22" t="s">
-        <v>537</v>
+        <v>502</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>532</v>
       </c>
       <c r="R22" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3302,49 +3206,52 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F23" s="2">
         <v>44216</v>
       </c>
       <c r="G23" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="J23" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="M23" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="N23" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="O23" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="P23" t="s">
-        <v>536</v>
+        <v>502</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>533</v>
       </c>
       <c r="R23" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3352,52 +3259,52 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F24" s="2">
         <v>44216</v>
       </c>
       <c r="G24" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I24" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="J24" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="M24" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="N24" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="O24" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="P24" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="Q24" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="R24" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3405,49 +3312,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F25" s="2">
         <v>44216</v>
       </c>
       <c r="G25" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I25" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="J25" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="M25" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="N25" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="O25" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="P25" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="R25" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3455,52 +3362,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F26" s="2">
         <v>44216</v>
       </c>
       <c r="G26" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H26" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I26" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="J26" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="M26" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="N26" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O26" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="P26" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="Q26" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="R26" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3508,52 +3415,49 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F27" s="2">
         <v>44216</v>
       </c>
       <c r="G27" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I27" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="J27" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="M27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N27" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="O27" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="P27" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="R27" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3561,52 +3465,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F28" s="2">
         <v>44216</v>
       </c>
       <c r="G28" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H28" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I28" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="J28" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="M28" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N28" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="O28" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="P28" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="Q28" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="R28" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3614,49 +3518,52 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F29" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G29" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H29" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J29" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="M29" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="N29" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="O29" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P29" t="s">
-        <v>540</v>
+        <v>511</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>535</v>
       </c>
       <c r="R29" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3664,52 +3571,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F30" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M30" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="N30" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="O30" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="P30" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="Q30" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="R30" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3717,49 +3621,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F31" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="M31" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="N31" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="O31" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="P31" t="s">
-        <v>525</v>
+        <v>512</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>537</v>
       </c>
       <c r="R31" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3767,52 +3674,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F32" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="M32" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="N32" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="O32" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="P32" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="Q32" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="R32" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3820,52 +3727,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F33" s="2">
         <v>44217</v>
       </c>
       <c r="G33" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H33" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I33" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="M33" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="N33" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="O33" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="P33" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="Q33" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="R33" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3873,49 +3780,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F34" s="2">
         <v>44217</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H34" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>412</v>
+        <v>392</v>
+      </c>
+      <c r="M34" t="s">
+        <v>443</v>
       </c>
       <c r="N34" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O34" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="P34" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="Q34" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="R34" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3923,52 +3833,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F35" s="2">
         <v>44217</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="M35" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="N35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O35" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="P35" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="Q35" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="R35" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3976,52 +3886,49 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F36" s="2">
         <v>44217</v>
       </c>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H36" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="M36" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="N36" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="O36" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="P36" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
       <c r="R36" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4029,52 +3936,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F37" s="2">
         <v>44217</v>
       </c>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="M37" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="N37" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="O37" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="P37" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q37" t="s">
         <v>541</v>
       </c>
-      <c r="Q37" t="s">
-        <v>572</v>
-      </c>
       <c r="R37" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4082,52 +3989,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F38" s="2">
         <v>44217</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H38" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="M38" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="N38" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="O38" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="P38" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="R38" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4135,52 +4039,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F39" s="2">
         <v>44217</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M39" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="N39" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="O39" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="P39" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="R39" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4188,49 +4089,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F40" s="2">
         <v>44217</v>
       </c>
       <c r="G40" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H40" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="N40" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="O40" t="s">
+        <v>491</v>
+      </c>
+      <c r="P40" t="s">
         <v>513</v>
       </c>
-      <c r="P40" t="s">
-        <v>543</v>
-      </c>
       <c r="R40" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4238,52 +4139,49 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F41" s="2">
         <v>44217</v>
       </c>
       <c r="G41" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I41" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="M41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N41" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="O41" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="P41" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="R41" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4291,49 +4189,49 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F42" s="2">
         <v>44217</v>
       </c>
       <c r="G42" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H42" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="M42" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="N42" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="O42" t="s">
+        <v>491</v>
+      </c>
+      <c r="P42" t="s">
         <v>513</v>
       </c>
-      <c r="P42" t="s">
-        <v>544</v>
-      </c>
       <c r="R42" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4341,49 +4239,52 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2">
         <v>44217</v>
       </c>
       <c r="G43" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="N43" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="O43" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="P43" t="s">
-        <v>543</v>
+        <v>516</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>534</v>
       </c>
       <c r="R43" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4391,49 +4292,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F44" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J44" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="N44" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="O44" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P44" t="s">
-        <v>544</v>
+        <v>511</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>542</v>
       </c>
       <c r="R44" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4441,49 +4345,49 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F45" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G45" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="M45" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="N45" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="O45" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="P45" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="R45" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4491,49 +4395,52 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F46" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H46" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="M46" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="N46" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="O46" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P46" t="s">
-        <v>544</v>
+        <v>511</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>532</v>
       </c>
       <c r="R46" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4541,52 +4448,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F47" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G47" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I47" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="N47" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="O47" t="s">
+        <v>493</v>
+      </c>
+      <c r="P47" t="s">
         <v>511</v>
       </c>
-      <c r="P47" t="s">
-        <v>546</v>
-      </c>
       <c r="Q47" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="R47" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4594,52 +4501,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F48" s="2">
         <v>44218</v>
       </c>
       <c r="G48" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="N48" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="O48" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="P48" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="Q48" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="R48" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4647,49 +4554,52 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F49" s="2">
         <v>44218</v>
       </c>
       <c r="G49" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H49" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I49" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="J49" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="O49" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P49" t="s">
-        <v>545</v>
+        <v>511</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>544</v>
       </c>
       <c r="R49" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4697,52 +4607,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F50" s="2">
         <v>44218</v>
       </c>
       <c r="G50" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I50" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="J50" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="O50" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="P50" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="Q50" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="R50" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4750,52 +4660,52 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F51" s="2">
         <v>44218</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H51" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J51" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="N51" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="O51" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="P51" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="Q51" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="R51" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4803,52 +4713,52 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F52" s="2">
         <v>44218</v>
       </c>
       <c r="G52" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H52" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I52" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="J52" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="N52" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="O52" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="P52" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="Q52" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="R52" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4856,52 +4766,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F53" s="2">
         <v>44218</v>
       </c>
       <c r="G53" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I53" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J53" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="N53" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="O53" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="P53" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q53" t="s">
+        <v>510</v>
+      </c>
+      <c r="R53" t="s">
         <v>553</v>
-      </c>
-      <c r="R53" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4909,52 +4816,52 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F54" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G54" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J54" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="N54" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="O54" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="P54" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="Q54" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="R54" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4962,52 +4869,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F55" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H55" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I55" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="N55" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="O55" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="P55" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="Q55" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="R55" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5015,52 +4922,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F56" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I56" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J56" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="N56" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="P56" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="Q56" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="R56" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5068,49 +4975,52 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F57" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G57" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I57" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="J57" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="O57" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="P57" t="s">
-        <v>525</v>
+        <v>511</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>526</v>
       </c>
       <c r="R57" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5118,52 +5028,52 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44220</v>
+      </c>
+      <c r="G58" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" t="s">
         <v>281</v>
       </c>
-      <c r="E58" t="s">
-        <v>294</v>
-      </c>
-      <c r="F58" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G58" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" t="s">
-        <v>298</v>
-      </c>
       <c r="I58" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="J58" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="N58" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="O58" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="P58" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="Q58" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="R58" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5171,52 +5081,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F59" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="G59" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H59" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I59" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="J59" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="M59" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="O59" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="P59" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="Q59" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="R59" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5224,52 +5134,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F60" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H60" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="s">
         <v>357</v>
       </c>
-      <c r="J60" t="s">
-        <v>368</v>
-      </c>
       <c r="K60" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="M60" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="N60" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="O60" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="P60" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="Q60" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="R60" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5277,52 +5187,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F61" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="G61" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I61" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="J61" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N61" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="O61" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="P61" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="Q61" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="R61" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5330,52 +5240,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F62" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="G62" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I62" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" t="s">
         <v>359</v>
       </c>
-      <c r="J62" t="s">
-        <v>378</v>
-      </c>
       <c r="K62" s="3" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="O62" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="P62" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="Q62" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="R62" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5383,52 +5293,52 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F63" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="G63" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H63" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I63" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="J63" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="N63" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="O63" t="s">
+        <v>483</v>
+      </c>
+      <c r="P63" t="s">
         <v>520</v>
       </c>
-      <c r="P63" t="s">
-        <v>548</v>
-      </c>
       <c r="Q63" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="R63" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5436,52 +5346,52 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F64" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H64" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I64" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="J64" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s">
+        <v>485</v>
+      </c>
+      <c r="P64" t="s">
         <v>521</v>
       </c>
-      <c r="P64" t="s">
-        <v>541</v>
-      </c>
       <c r="Q64" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="R64" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5489,52 +5399,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F65" s="2">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="G65" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H65" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I65" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="J65" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="N65" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="O65" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="P65" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="Q65" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="R65" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5542,261 +5452,49 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F66" s="2">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="G66" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H66" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I66" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J66" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="M66" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="N66" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="O66" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="P66" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="Q66" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="R66" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" t="s">
-        <v>290</v>
-      </c>
-      <c r="E67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F67" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G67" t="s">
-        <v>296</v>
-      </c>
-      <c r="H67" t="s">
-        <v>298</v>
-      </c>
-      <c r="I67" t="s">
-        <v>364</v>
-      </c>
-      <c r="J67" t="s">
-        <v>379</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="M67" t="s">
-        <v>481</v>
-      </c>
-      <c r="N67" t="s">
-        <v>509</v>
-      </c>
-      <c r="O67" t="s">
-        <v>511</v>
-      </c>
-      <c r="P67" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>576</v>
-      </c>
-      <c r="R67" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" t="s">
-        <v>291</v>
-      </c>
-      <c r="E68" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G68" t="s">
-        <v>296</v>
-      </c>
-      <c r="H68" t="s">
-        <v>298</v>
-      </c>
-      <c r="I68" t="s">
-        <v>365</v>
-      </c>
-      <c r="J68" t="s">
-        <v>372</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="M68" t="s">
-        <v>482</v>
-      </c>
-      <c r="N68" t="s">
-        <v>510</v>
-      </c>
-      <c r="O68" t="s">
-        <v>516</v>
-      </c>
-      <c r="P68" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>582</v>
-      </c>
-      <c r="R68" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" t="s">
-        <v>292</v>
-      </c>
-      <c r="E69" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H69" t="s">
-        <v>298</v>
-      </c>
-      <c r="I69" t="s">
-        <v>366</v>
-      </c>
-      <c r="J69" t="s">
-        <v>372</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="M69" t="s">
-        <v>452</v>
-      </c>
-      <c r="N69" t="s">
-        <v>486</v>
-      </c>
-      <c r="O69" t="s">
-        <v>516</v>
-      </c>
-      <c r="P69" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>583</v>
-      </c>
-      <c r="R69" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" t="s">
-        <v>293</v>
-      </c>
-      <c r="E70" t="s">
-        <v>294</v>
-      </c>
-      <c r="F70" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G70" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70" t="s">
-        <v>298</v>
-      </c>
-      <c r="I70" t="s">
-        <v>367</v>
-      </c>
-      <c r="J70" t="s">
-        <v>379</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="N70" t="s">
-        <v>511</v>
-      </c>
-      <c r="O70" t="s">
-        <v>511</v>
-      </c>
-      <c r="P70" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>584</v>
-      </c>
-      <c r="R70" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -5866,10 +5564,6 @@
     <hyperlink ref="K64" r:id="rId63"/>
     <hyperlink ref="K65" r:id="rId64"/>
     <hyperlink ref="K66" r:id="rId65"/>
-    <hyperlink ref="K67" r:id="rId66"/>
-    <hyperlink ref="K68" r:id="rId67"/>
-    <hyperlink ref="K69" r:id="rId68"/>
-    <hyperlink ref="K70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="621">
   <si>
     <t>gid</t>
   </si>
@@ -70,189 +70,216 @@
     <t>gender</t>
   </si>
   <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
     <t>803</t>
   </si>
   <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>738</t>
+    <t>743</t>
   </si>
   <si>
     <t>686</t>
   </si>
   <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>744</t>
+    <t>763</t>
+  </si>
+  <si>
+    <t>792</t>
   </si>
   <si>
     <t>759</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
     <t>742</t>
   </si>
   <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
     <t>787</t>
   </si>
   <si>
     <t>805</t>
   </si>
   <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
     <t>794</t>
   </si>
   <si>
     <t>806</t>
   </si>
   <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
     <t>781</t>
   </si>
   <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
     <t>768</t>
   </si>
   <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>753</t>
+    <t>772</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>796</t>
   </si>
   <si>
     <t>774</t>
   </si>
   <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
     <t>813</t>
   </si>
   <si>
-    <t>771</t>
+    <t>825</t>
+  </si>
+  <si>
+    <t>822</t>
   </si>
   <si>
     <t>776</t>
   </si>
   <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
     <t>801</t>
   </si>
   <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>796</t>
+    <t>769</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>770</t>
   </si>
   <si>
     <t>783</t>
   </si>
   <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>769</t>
+    <t>823</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>820</t>
   </si>
   <si>
     <t>785</t>
   </si>
   <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
     <t>802</t>
   </si>
   <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
     <t>809</t>
   </si>
   <si>
@@ -265,189 +292,216 @@
     <t>818</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 687</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 680</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
   </si>
   <si>
@@ -460,189 +514,216 @@
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
   </si>
   <si>
+    <t>13.6909991</t>
+  </si>
+  <si>
+    <t>13.85512417</t>
+  </si>
+  <si>
+    <t>14.07328955</t>
+  </si>
+  <si>
+    <t>14.58486773</t>
+  </si>
+  <si>
+    <t>19.90080363</t>
+  </si>
+  <si>
+    <t>13.96330727</t>
+  </si>
+  <si>
+    <t>14.03685952</t>
+  </si>
+  <si>
+    <t>14.0366129</t>
+  </si>
+  <si>
+    <t>13.37241071</t>
+  </si>
+  <si>
+    <t>13.90819848</t>
+  </si>
+  <si>
     <t>6.240396923</t>
   </si>
   <si>
-    <t>14.58486773</t>
-  </si>
-  <si>
-    <t>19.90080363</t>
+    <t>14.58468626</t>
   </si>
   <si>
     <t>16.93747723</t>
   </si>
   <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>13.37241071</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
-  </si>
-  <si>
-    <t>13.90819848</t>
+    <t>13.61372722</t>
+  </si>
+  <si>
+    <t>13.73167329</t>
   </si>
   <si>
     <t>13.68348436</t>
   </si>
   <si>
-    <t>14.07328955</t>
-  </si>
-  <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>13.85512417</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>13.6909991</t>
-  </si>
-  <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
     <t>14.58480753</t>
   </si>
   <si>
+    <t>13.85519716</t>
+  </si>
+  <si>
+    <t>13.37239571</t>
+  </si>
+  <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
+    <t>13.37240823</t>
+  </si>
+  <si>
+    <t>13.37234365</t>
+  </si>
+  <si>
+    <t>13.74871188</t>
+  </si>
+  <si>
     <t>13.74048254</t>
   </si>
   <si>
     <t>13.37266492</t>
   </si>
   <si>
-    <t>13.85519716</t>
-  </si>
-  <si>
-    <t>13.37240823</t>
-  </si>
-  <si>
-    <t>13.37234365</t>
-  </si>
-  <si>
-    <t>13.37239571</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
     <t>13.81611195</t>
   </si>
   <si>
     <t>13.37240194</t>
   </si>
   <si>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>13.75814784</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>14.39857579</t>
+  </si>
+  <si>
     <t>13.40598552</t>
   </si>
   <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.7584487</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
+  </si>
+  <si>
+    <t>13.97565922</t>
+  </si>
+  <si>
     <t>13.86503444</t>
   </si>
   <si>
-    <t>13.97565922</t>
-  </si>
-  <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>13.40628035</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>14.58472864</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
-  </si>
-  <si>
-    <t>14.39857579</t>
+    <t>13.40593161</t>
+  </si>
+  <si>
+    <t>13.40650905</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.40595472</t>
+  </si>
+  <si>
+    <t>13.82875611</t>
   </si>
   <si>
     <t>13.40596242</t>
   </si>
   <si>
+    <t>13.40583946</t>
+  </si>
+  <si>
+    <t>13.72604683</t>
+  </si>
+  <si>
     <t>13.72037624</t>
   </si>
   <si>
-    <t>13.40650905</t>
+    <t>13.72666176</t>
+  </si>
+  <si>
+    <t>13.71349454</t>
   </si>
   <si>
     <t>13.40597333</t>
   </si>
   <si>
-    <t>13.40595472</t>
-  </si>
-  <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
     <t>13.73936751</t>
   </si>
   <si>
-    <t>13.40593161</t>
-  </si>
-  <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.82875611</t>
+    <t>13.40621925</t>
+  </si>
+  <si>
+    <t>13.72667218</t>
+  </si>
+  <si>
+    <t>13.73937398</t>
+  </si>
+  <si>
+    <t>13.40639916</t>
   </si>
   <si>
     <t>13.37258002</t>
   </si>
   <si>
-    <t>13.40639916</t>
-  </si>
-  <si>
-    <t>13.73937398</t>
-  </si>
-  <si>
-    <t>13.40621925</t>
+    <t>13.87076462</t>
+  </si>
+  <si>
+    <t>13.72650241</t>
+  </si>
+  <si>
+    <t>13.6940188</t>
   </si>
   <si>
     <t>13.40627124</t>
   </si>
   <si>
+    <t>13.86745361</t>
+  </si>
+  <si>
+    <t>13.82627701</t>
+  </si>
+  <si>
+    <t>13.40609899</t>
+  </si>
+  <si>
+    <t>13.23939231</t>
+  </si>
+  <si>
+    <t>14.07331044</t>
+  </si>
+  <si>
     <t>6.414712255</t>
   </si>
   <si>
-    <t>13.40609899</t>
-  </si>
-  <si>
-    <t>13.23939231</t>
-  </si>
-  <si>
-    <t>14.07331044</t>
-  </si>
-  <si>
     <t>14.53781454</t>
   </si>
   <si>
@@ -655,189 +736,216 @@
     <t>14.34377313</t>
   </si>
   <si>
+    <t>100.4802327</t>
+  </si>
+  <si>
+    <t>100.5421273</t>
+  </si>
+  <si>
+    <t>100.6151396</t>
+  </si>
+  <si>
+    <t>100.4523471</t>
+  </si>
+  <si>
+    <t>99.82912083</t>
+  </si>
+  <si>
+    <t>100.6218198</t>
+  </si>
+  <si>
+    <t>100.4157557</t>
+  </si>
+  <si>
+    <t>100.4156136</t>
+  </si>
+  <si>
+    <t>99.84045185</t>
+  </si>
+  <si>
+    <t>99.76743912</t>
+  </si>
+  <si>
     <t>101.4988291</t>
   </si>
   <si>
-    <t>100.4523471</t>
-  </si>
-  <si>
-    <t>99.82912083</t>
+    <t>100.4524316</t>
   </si>
   <si>
     <t>104.71144</t>
   </si>
   <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>99.84045185</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
-  </si>
-  <si>
-    <t>99.76743912</t>
+    <t>100.3825015</t>
+  </si>
+  <si>
+    <t>100.5424867</t>
   </si>
   <si>
     <t>100.4403143</t>
   </si>
   <si>
-    <t>100.6151396</t>
-  </si>
-  <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>100.5421273</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>100.4802327</t>
-  </si>
-  <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
     <t>100.4519125</t>
   </si>
   <si>
+    <t>100.5422268</t>
+  </si>
+  <si>
+    <t>99.84065417</t>
+  </si>
+  <si>
+    <t>100.452165</t>
+  </si>
+  <si>
+    <t>99.84044998</t>
+  </si>
+  <si>
+    <t>99.84068885</t>
+  </si>
+  <si>
+    <t>100.5832291</t>
+  </si>
+  <si>
     <t>100.522356</t>
   </si>
   <si>
     <t>99.84102394</t>
   </si>
   <si>
-    <t>100.5422268</t>
-  </si>
-  <si>
-    <t>99.84044998</t>
-  </si>
-  <si>
-    <t>99.84068885</t>
-  </si>
-  <si>
-    <t>99.84065417</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.452165</t>
-  </si>
-  <si>
     <t>100.5611614</t>
   </si>
   <si>
     <t>99.84054831</t>
   </si>
   <si>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.5350653</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>100.5929883</t>
+  </si>
+  <si>
     <t>99.9981405</t>
   </si>
   <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>100.5659092</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
+  </si>
+  <si>
+    <t>99.63108216</t>
+  </si>
+  <si>
     <t>100.4814358</t>
   </si>
   <si>
-    <t>99.63108216</t>
-  </si>
-  <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>99.99793397</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.4521962</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
-  </si>
-  <si>
-    <t>100.5929883</t>
+    <t>99.99826105</t>
+  </si>
+  <si>
+    <t>99.99794955</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>99.99779066</t>
+  </si>
+  <si>
+    <t>100.5687203</t>
   </si>
   <si>
     <t>99.99806255</t>
   </si>
   <si>
+    <t>99.99822947</t>
+  </si>
+  <si>
+    <t>100.5098724</t>
+  </si>
+  <si>
     <t>100.5600709</t>
   </si>
   <si>
-    <t>99.99794955</t>
+    <t>100.5093037</t>
+  </si>
+  <si>
+    <t>100.4800501</t>
   </si>
   <si>
     <t>99.99799763</t>
   </si>
   <si>
-    <t>99.99779066</t>
-  </si>
-  <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
     <t>100.2556886</t>
   </si>
   <si>
-    <t>99.99826105</t>
-  </si>
-  <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>100.5687203</t>
+    <t>99.99800648</t>
+  </si>
+  <si>
+    <t>100.5096041</t>
+  </si>
+  <si>
+    <t>100.2556031</t>
+  </si>
+  <si>
+    <t>99.99785987</t>
   </si>
   <si>
     <t>99.84082331</t>
   </si>
   <si>
-    <t>99.99785987</t>
-  </si>
-  <si>
-    <t>100.2556031</t>
-  </si>
-  <si>
-    <t>99.99800648</t>
+    <t>100.6678623</t>
+  </si>
+  <si>
+    <t>100.5096835</t>
+  </si>
+  <si>
+    <t>100.4952169</t>
   </si>
   <si>
     <t>99.99796867</t>
   </si>
   <si>
+    <t>100.4526926</t>
+  </si>
+  <si>
+    <t>100.6790148</t>
+  </si>
+  <si>
+    <t>99.99810731</t>
+  </si>
+  <si>
+    <t>99.8256538</t>
+  </si>
+  <si>
+    <t>100.6149782</t>
+  </si>
+  <si>
     <t>101.8237514</t>
   </si>
   <si>
-    <t>99.99810731</t>
-  </si>
-  <si>
-    <t>99.8256538</t>
-  </si>
-  <si>
-    <t>100.6149782</t>
-  </si>
-  <si>
     <t>100.5283131</t>
   </si>
   <si>
@@ -853,201 +961,228 @@
     <t>1</t>
   </si>
   <si>
+    <t>ไม่ระบุพิกัด</t>
+  </si>
+  <si>
     <t>ข่าวสาร</t>
   </si>
   <si>
-    <t>ไม่ระบุพิกัด</t>
+    <t>Timeline ที่ผู้ป่วยเคยมา</t>
   </si>
   <si>
     <t>กำลังรักษา</t>
   </si>
   <si>
-    <t>Timeline ที่ผู้ป่วยเคยมา</t>
+    <t>รายที่ 615 ชายว่างวาน</t>
+  </si>
+  <si>
+    <t>รายที่ 660 ชายอาชีพอิสระ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
   </si>
   <si>
     <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
   </si>
   <si>
-    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
+    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
   </si>
   <si>
     <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
   </si>
   <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
   </si>
   <si>
     <t>รายที่ 596 หญิง แม่บ้าน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 660 ชายอาชีพอิสระ</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 615 ชายว่างวาน</t>
-  </si>
-  <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
   </si>
   <si>
+    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
+  </si>
+  <si>
+    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+  </si>
+  <si>
+    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
     <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
   </si>
   <si>
     <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
-  </si>
-  <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
-  </si>
-  <si>
-    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
     <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
     <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
+  </si>
+  <si>
     <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+  </si>
+  <si>
     <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
+    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
   </si>
   <si>
     <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
   </si>
   <si>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
     <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
   </si>
   <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
     <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
     <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
-    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
+    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 687 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
     <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
-    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
   </si>
   <si>
     <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 680 ชาย อาชีพทนาย</t>
+  </si>
+  <si>
+    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
+  </si>
+  <si>
+    <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
+  </si>
+  <si>
     <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
   </si>
   <si>
-    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
-  </si>
-  <si>
-    <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
-  </si>
-  <si>
     <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
   </si>
   <si>
@@ -1060,222 +1195,249 @@
     <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
   </si>
   <si>
+    <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
-  </si>
-  <si>
     <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
-    <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
-  </si>
-  <si>
     <t>ข่าวเด็ดเพชรบุรี</t>
   </si>
   <si>
     <t>Covid-19 จังหวัดสมุทรสงคราม</t>
   </si>
   <si>
+    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+  </si>
+  <si>
     <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
   </si>
   <si>
-    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
   </si>
   <si>
     <t>https://www.facebook.com/NaraPublicHealth</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
   </si>
   <si>
     <t>https://www.facebook.com/PR.PH.NKP/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
   </si>
   <si>
-    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
   </si>
   <si>
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619293271003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618683271064</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
   </si>
   <si>
@@ -1288,46 +1450,52 @@
     <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
   </si>
   <si>
+    <t>แขวงจอมทอง</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
+  </si>
+  <si>
+    <t>คลองหนึ่ง</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
+  </si>
+  <si>
+    <t>รอบเวียง</t>
+  </si>
+  <si>
+    <t>คูคต</t>
+  </si>
+  <si>
+    <t>ระแหง</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
+  </si>
+  <si>
+    <t>ท่ามะกา</t>
+  </si>
+  <si>
     <t>ซากอ</t>
   </si>
   <si>
-    <t>บางแก้ว</t>
-  </si>
-  <si>
-    <t>รอบเวียง</t>
-  </si>
-  <si>
     <t>ธาตุพนม</t>
   </si>
   <si>
-    <t>คูคต</t>
-  </si>
-  <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
-    <t>ท่ามะกา</t>
+    <t>แขวง แสมดำ</t>
+  </si>
+  <si>
+    <t>แขวง ลุมพินี</t>
   </si>
   <si>
     <t>แขวง บางบอน</t>
   </si>
   <si>
-    <t>คลองหนึ่ง</t>
-  </si>
-  <si>
-    <t>บางเขน</t>
-  </si>
-  <si>
-    <t>แขวง ลุมพินี</t>
-  </si>
-  <si>
-    <t>แขวงจอมทอง</t>
-  </si>
-  <si>
-    <t>แขวง แสมดำ</t>
+    <t>แขวง ทุ่งสองห้อง</t>
+  </si>
+  <si>
+    <t>แขวง บางกะปิ</t>
   </si>
   <si>
     <t>แขวง รองเมือง</t>
@@ -1336,90 +1504,99 @@
     <t>ปากท่อ</t>
   </si>
   <si>
-    <t>แขวง ทุ่งสองห้อง</t>
-  </si>
-  <si>
-    <t>แขวง บางกะปิ</t>
-  </si>
-  <si>
     <t>แขวง จตุจักร</t>
   </si>
   <si>
     <t>แม่กลอง</t>
   </si>
   <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>บ่อโพง</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตยเหนือ</t>
+  </si>
+  <si>
     <t>ท่าม่วง</t>
   </si>
   <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
-    <t>แขวง คลองต้นไทร</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตยเหนือ</t>
-  </si>
-  <si>
-    <t>แขวง ห้วยขวาง</t>
-  </si>
-  <si>
-    <t>บ่อโพง</t>
+    <t>แขวง ลาดยาว</t>
   </si>
   <si>
     <t>แขวง คลองเตย</t>
   </si>
   <si>
+    <t>แขวง บุคคโล</t>
+  </si>
+  <si>
     <t>ไร่ขิง</t>
   </si>
   <si>
-    <t>แขวง ลาดยาว</t>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง บางคอแหลม</t>
+  </si>
+  <si>
+    <t>บางรักน้อย</t>
+  </si>
+  <si>
+    <t>แขวง คันนายาว</t>
+  </si>
+  <si>
+    <t>ขาย้อย</t>
   </si>
   <si>
     <t>บางนาค</t>
   </si>
   <si>
-    <t>ขาย้อย</t>
-  </si>
-  <si>
     <t>หัวไผ่</t>
   </si>
   <si>
     <t>ศาลเจ้าโรงทอง</t>
   </si>
   <si>
+    <t>เขตจอมทอง</t>
+  </si>
+  <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
+    <t>คลองหลวง</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>เมืองเชียงราย</t>
+  </si>
+  <si>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
     <t>ศรีสาคร</t>
   </si>
   <si>
-    <t>เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>เมืองเชียงราย</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
-  </si>
-  <si>
-    <t>ลาดหลุมแก้ว</t>
+    <t>เขตบางขุนเทียน</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
   </si>
   <si>
     <t>เขตบางบอน</t>
   </si>
   <si>
-    <t>คลองหลวง</t>
-  </si>
-  <si>
-    <t>เมืองนนทบุรี</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>เขตจอมทอง</t>
-  </si>
-  <si>
-    <t>เขตบางขุนเทียน</t>
-  </si>
-  <si>
     <t>เขต หลักสี่</t>
   </si>
   <si>
@@ -1438,27 +1615,39 @@
     <t>เขตคลองสาน</t>
   </si>
   <si>
+    <t>นครหลวง</t>
+  </si>
+  <si>
+    <t>เขตดินแดง</t>
+  </si>
+  <si>
     <t>เขตวัฒนา</t>
   </si>
   <si>
-    <t>เขตดินแดง</t>
-  </si>
-  <si>
-    <t>นครหลวง</t>
-  </si>
-  <si>
     <t>เขตคลองเตย</t>
   </si>
   <si>
+    <t>เขตธนบุรี</t>
+  </si>
+  <si>
     <t>สามพราน</t>
   </si>
   <si>
+    <t>เขตบางเขน</t>
+  </si>
+  <si>
+    <t>เขตบางคอแหลม</t>
+  </si>
+  <si>
+    <t>เขตคันนายาว</t>
+  </si>
+  <si>
+    <t>เขาย้อย</t>
+  </si>
+  <si>
     <t>เมืองนราธิวาส</t>
   </si>
   <si>
-    <t>เขาย้อย</t>
-  </si>
-  <si>
     <t>มหาราช จังหวัด</t>
   </si>
   <si>
@@ -1468,33 +1657,33 @@
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
     <t>นราธิวาส</t>
   </si>
   <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
-    <t>เชียงราย</t>
-  </si>
-  <si>
     <t>นครพนม</t>
   </si>
   <si>
-    <t>ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
-    <t>กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>นนทบุรี</t>
-  </si>
-  <si>
     <t>สมุทรสงคราม</t>
   </si>
   <si>
@@ -1504,39 +1693,39 @@
     <t>เพชรบุรี</t>
   </si>
   <si>
+    <t>10150</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>12120</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>71120</t>
+  </si>
+  <si>
     <t>96210</t>
   </si>
   <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
     <t>48110</t>
   </si>
   <si>
-    <t>12130</t>
-  </si>
-  <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>71120</t>
-  </si>
-  <si>
-    <t>10150</t>
-  </si>
-  <si>
-    <t>12120</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>10330</t>
   </si>
   <si>
@@ -1552,30 +1741,39 @@
     <t>75000</t>
   </si>
   <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>13260</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
     <t>71110</t>
   </si>
   <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>13260</t>
-  </si>
-  <si>
     <t>73210</t>
   </si>
   <si>
+    <t>10220</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>10230</t>
+  </si>
+  <si>
+    <t>76140</t>
+  </si>
+  <si>
     <t>96000</t>
   </si>
   <si>
-    <t>76140</t>
-  </si>
-  <si>
     <t>13150</t>
   </si>
   <si>
@@ -1585,76 +1783,76 @@
     <t>13000</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>19</t>
@@ -2053,7 +2251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2120,52 +2318,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F2" s="2">
         <v>44215</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="M2" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="N2" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="O2" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="P2" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="R2" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2173,52 +2368,49 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F3" s="2">
         <v>44215</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J3" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M3" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="N3" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="O3" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="P3" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="R3" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2226,52 +2418,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F4" s="2">
         <v>44215</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="M4" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="N4" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="O4" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="P4" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Q4" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="R4" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2279,52 +2471,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F5" s="2">
         <v>44215</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J5" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="M5" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="N5" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="O5" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="P5" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="Q5" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="R5" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2332,52 +2524,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F6" s="2">
         <v>44215</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I6" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="J6" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="M6" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="N6" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="O6" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="P6" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="Q6" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="R6" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2385,46 +2577,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F7" s="2">
         <v>44215</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="M7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="N7" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="O7" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="P7" t="s">
-        <v>501</v>
+        <v>564</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>592</v>
+      </c>
+      <c r="R7" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2432,52 +2630,46 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F8" s="2">
         <v>44215</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M8" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="N8" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="O8" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="P8" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>526</v>
-      </c>
-      <c r="R8" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2485,52 +2677,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F9" s="2">
         <v>44215</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="M9" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="N9" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="O9" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="P9" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="Q9" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="R9" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2538,52 +2730,52 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F10" s="2">
         <v>44215</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I10" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="M10" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="N10" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="O10" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="P10" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="Q10" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="R10" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2591,49 +2783,52 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F11" s="2">
         <v>44215</v>
       </c>
       <c r="G11" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M11" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="N11" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="O11" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="P11" t="s">
-        <v>504</v>
+        <v>567</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>594</v>
       </c>
       <c r="R11" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2641,52 +2836,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F12" s="2">
         <v>44215</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J12" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="M12" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="N12" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="O12" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="P12" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="Q12" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="R12" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2694,52 +2889,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F13" s="2">
         <v>44215</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I13" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M13" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="N13" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="O13" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
       <c r="P13" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="Q13" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="R13" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2747,49 +2942,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F14" s="2">
         <v>44215</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="J14" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="M14" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="N14" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="O14" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="P14" t="s">
-        <v>506</v>
+        <v>569</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>593</v>
       </c>
       <c r="R14" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2797,49 +2995,49 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F15" s="2">
         <v>44215</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I15" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M15" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="N15" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="O15" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P15" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="R15" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2847,49 +3045,49 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F16" s="2">
         <v>44215</v>
       </c>
       <c r="G16" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J16" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="M16" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="N16" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="O16" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P16" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="R16" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2897,49 +3095,49 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F17" s="2">
         <v>44215</v>
       </c>
       <c r="G17" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I17" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M17" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="N17" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="O17" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P17" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="R17" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2947,52 +3145,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F18" s="2">
         <v>44215</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H18" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J18" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="M18" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="N18" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="O18" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
       <c r="P18" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="Q18" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="R18" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3000,49 +3198,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F19" s="2">
         <v>44216</v>
       </c>
       <c r="G19" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J19" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M19" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="N19" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="O19" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P19" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="R19" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3050,52 +3248,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F20" s="2">
         <v>44216</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="J20" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="M20" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="N20" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="O20" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="P20" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="Q20" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="R20" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3103,49 +3301,52 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F21" s="2">
         <v>44216</v>
       </c>
       <c r="G21" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J21" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M21" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="N21" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="O21" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="P21" t="s">
-        <v>508</v>
+        <v>562</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>597</v>
       </c>
       <c r="R21" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3153,52 +3354,52 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F22" s="2">
         <v>44216</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M22" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="N22" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="O22" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="P22" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="Q22" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="R22" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3206,52 +3407,52 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F23" s="2">
         <v>44216</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H23" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I23" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J23" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="M23" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="N23" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="O23" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="P23" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="Q23" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="R23" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3259,52 +3460,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F24" s="2">
         <v>44216</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="J24" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="M24" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="N24" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="O24" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="P24" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="R24" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3312,49 +3510,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F25" s="2">
         <v>44216</v>
       </c>
       <c r="G25" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="J25" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="M25" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="N25" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="O25" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P25" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="R25" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3362,52 +3560,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F26" s="2">
         <v>44216</v>
       </c>
       <c r="G26" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H26" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J26" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="M26" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="N26" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="O26" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="P26" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="Q26" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="R26" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3415,49 +3613,49 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F27" s="2">
         <v>44216</v>
       </c>
       <c r="G27" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="J27" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="M27" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="N27" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="O27" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P27" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="R27" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3465,52 +3663,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F28" s="2">
         <v>44216</v>
       </c>
       <c r="G28" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="J28" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="M28" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="N28" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="O28" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="P28" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="Q28" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="R28" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3518,52 +3716,52 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F29" s="2">
         <v>44217</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="J29" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="M29" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N29" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O29" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P29" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q29" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="R29" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3571,49 +3769,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F30" s="2">
         <v>44217</v>
       </c>
       <c r="G30" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J30" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>388</v>
+        <v>433</v>
+      </c>
+      <c r="M30" t="s">
+        <v>498</v>
       </c>
       <c r="N30" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O30" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="P30" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="R30" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3621,52 +3819,49 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F31" s="2">
         <v>44217</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="J31" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M31" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="N31" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
       <c r="O31" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="P31" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="R31" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3674,52 +3869,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F32" s="2">
         <v>44217</v>
       </c>
       <c r="G32" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J32" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="M32" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N32" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O32" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P32" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q32" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="R32" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3727,52 +3922,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F33" s="2">
         <v>44217</v>
       </c>
       <c r="G33" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H33" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J33" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M33" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N33" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O33" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P33" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q33" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="R33" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3780,52 +3975,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F34" s="2">
         <v>44217</v>
       </c>
       <c r="G34" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H34" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J34" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="M34" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N34" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O34" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P34" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q34" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="R34" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3833,52 +4028,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F35" s="2">
         <v>44217</v>
       </c>
       <c r="G35" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M35" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="N35" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="O35" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="P35" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="Q35" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="R35" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3886,49 +4081,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F36" s="2">
         <v>44217</v>
       </c>
       <c r="G36" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J36" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="M36" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="N36" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="O36" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="P36" t="s">
-        <v>513</v>
+        <v>574</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>601</v>
       </c>
       <c r="R36" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3936,52 +4134,49 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F37" s="2">
         <v>44217</v>
       </c>
       <c r="G37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="M37" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="N37" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="O37" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="P37" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="R37" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3989,49 +4184,52 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F38" s="2">
         <v>44217</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M38" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="N38" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O38" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="P38" t="s">
-        <v>514</v>
+        <v>562</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>605</v>
       </c>
       <c r="R38" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4039,49 +4237,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F39" s="2">
         <v>44217</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M39" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="N39" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="O39" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P39" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="R39" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4089,49 +4287,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F40" s="2">
         <v>44217</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="M40" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="N40" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="O40" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P40" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="R40" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4139,49 +4337,49 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F41" s="2">
         <v>44217</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H41" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="M41" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="N41" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="O41" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P41" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="R41" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4189,49 +4387,52 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F42" s="2">
         <v>44217</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M42" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="N42" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="O42" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="P42" t="s">
-        <v>513</v>
+        <v>579</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>606</v>
       </c>
       <c r="R42" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4239,52 +4440,49 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F43" s="2">
         <v>44217</v>
       </c>
       <c r="G43" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I43" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N43" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="O43" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="P43" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="Q43" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="R43" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4292,52 +4490,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F44" s="2">
         <v>44218</v>
       </c>
       <c r="G44" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H44" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="M44" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N44" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O44" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P44" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q44" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="R44" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4345,49 +4543,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F45" s="2">
         <v>44218</v>
       </c>
       <c r="G45" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="M45" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="N45" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="O45" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="P45" t="s">
-        <v>515</v>
+        <v>574</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>598</v>
       </c>
       <c r="R45" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4395,52 +4596,52 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F46" s="2">
         <v>44218</v>
       </c>
       <c r="G46" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H46" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="M46" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N46" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O46" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P46" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q46" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="R46" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4448,52 +4649,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F47" s="2">
         <v>44218</v>
       </c>
       <c r="G47" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H47" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="M47" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N47" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O47" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P47" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q47" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="R47" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4501,52 +4702,49 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F48" s="2">
         <v>44218</v>
       </c>
       <c r="G48" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="J48" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M48" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="N48" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="O48" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="P48" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="R48" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4554,52 +4752,52 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F49" s="2">
         <v>44218</v>
       </c>
       <c r="G49" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I49" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="M49" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N49" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O49" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P49" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q49" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="R49" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4607,52 +4805,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F50" s="2">
         <v>44218</v>
       </c>
       <c r="G50" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="N50" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="O50" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="P50" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="Q50" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="R50" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4660,52 +4858,49 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F51" s="2">
         <v>44218</v>
       </c>
       <c r="G51" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J51" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="N51" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="O51" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="P51" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="R51" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4713,52 +4908,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F52" s="2">
         <v>44218</v>
       </c>
       <c r="G52" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H52" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="J52" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="N52" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="O52" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="P52" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="R52" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4766,49 +4958,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F53" s="2">
         <v>44218</v>
       </c>
       <c r="G53" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I53" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="M53" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="N53" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="O53" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="P53" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="R53" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4816,52 +5008,49 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F54" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G54" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H54" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="J54" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="M54" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="N54" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="O54" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="P54" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="R54" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4869,52 +5058,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F55" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G55" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H55" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I55" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J55" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="M55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O55" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P55" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q55" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="R55" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4922,52 +5111,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F56" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G56" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H56" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I56" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="O56" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="P56" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="Q56" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="R56" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4975,52 +5164,52 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F57" s="2">
         <v>44219</v>
       </c>
       <c r="G57" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H57" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J57" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N57" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O57" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P57" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q57" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="R57" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5028,52 +5217,49 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F58" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G58" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H58" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="J58" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="N58" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="O58" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="P58" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="R58" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5081,52 +5267,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F59" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="G59" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I59" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="J59" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="O59" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="P59" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Q59" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="R59" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5134,52 +5320,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F60" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="G60" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H60" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J60" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="N60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O60" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="P60" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="Q60" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="R60" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5187,52 +5373,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F61" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H61" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I61" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="J61" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="N61" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="O61" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="P61" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="Q61" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="R61" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5240,52 +5426,49 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F62" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H62" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="O62" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="P62" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="R62" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5293,52 +5476,49 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F63" s="2">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="G63" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H63" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I63" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="J63" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="N63" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="O63" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="P63" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="R63" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5346,52 +5526,49 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F64" s="2">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="G64" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H64" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I64" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J64" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="M64" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="N64" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="O64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="P64" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="R64" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5399,52 +5576,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F65" s="2">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H65" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="I65" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="J65" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s">
-        <v>425</v>
+        <v>497</v>
       </c>
       <c r="N65" t="s">
-        <v>458</v>
+        <v>530</v>
       </c>
       <c r="O65" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="P65" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="Q65" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="R65" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5452,49 +5629,520 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="F66" s="2">
+        <v>44220</v>
+      </c>
+      <c r="G66" t="s">
+        <v>315</v>
+      </c>
+      <c r="H66" t="s">
+        <v>317</v>
+      </c>
+      <c r="I66" t="s">
+        <v>383</v>
+      </c>
+      <c r="J66" t="s">
+        <v>393</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="M66" t="s">
+        <v>510</v>
+      </c>
+      <c r="N66" t="s">
+        <v>517</v>
+      </c>
+      <c r="O66" t="s">
+        <v>548</v>
+      </c>
+      <c r="P66" t="s">
+        <v>560</v>
+      </c>
+      <c r="R66" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>305</v>
+      </c>
+      <c r="E67" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="2">
+        <v>44220</v>
+      </c>
+      <c r="G67" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="M67" t="s">
+        <v>511</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>547</v>
+      </c>
+      <c r="P67" t="s">
+        <v>583</v>
+      </c>
+      <c r="R67" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G68" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68" t="s">
+        <v>318</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="M68" t="s">
+        <v>497</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>556</v>
+      </c>
+      <c r="P68" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>604</v>
+      </c>
+      <c r="R68" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G69" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J69" t="s">
+        <v>401</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="M69" t="s">
+        <v>512</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>558</v>
+      </c>
+      <c r="P69" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>592</v>
+      </c>
+      <c r="R69" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G70" t="s">
+        <v>316</v>
+      </c>
+      <c r="H70" t="s">
+        <v>318</v>
+      </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70" t="s">
+        <v>403</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M70" t="s">
+        <v>480</v>
+      </c>
+      <c r="N70" t="s">
+        <v>518</v>
+      </c>
+      <c r="O70" t="s">
+        <v>549</v>
+      </c>
+      <c r="P70" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>615</v>
+      </c>
+      <c r="R70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" t="s">
+        <v>309</v>
+      </c>
+      <c r="E71" t="s">
+        <v>314</v>
+      </c>
+      <c r="F71" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>316</v>
+      </c>
+      <c r="H71" t="s">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>388</v>
+      </c>
+      <c r="J71" t="s">
+        <v>399</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="s">
+        <v>513</v>
+      </c>
+      <c r="N71" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" t="s">
+        <v>554</v>
+      </c>
+      <c r="P71" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>610</v>
+      </c>
+      <c r="R71" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G72" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" t="s">
+        <v>318</v>
+      </c>
+      <c r="I72" t="s">
+        <v>389</v>
+      </c>
+      <c r="J72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="M72" t="s">
+        <v>514</v>
+      </c>
+      <c r="N72" t="s">
+        <v>544</v>
+      </c>
+      <c r="O72" t="s">
+        <v>546</v>
+      </c>
+      <c r="P72" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>612</v>
+      </c>
+      <c r="R72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" t="s">
+        <v>311</v>
+      </c>
+      <c r="E73" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G73" t="s">
+        <v>316</v>
+      </c>
+      <c r="H73" t="s">
+        <v>318</v>
+      </c>
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="s">
+        <v>395</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M73" t="s">
+        <v>515</v>
+      </c>
+      <c r="N73" t="s">
+        <v>545</v>
+      </c>
+      <c r="O73" t="s">
+        <v>550</v>
+      </c>
+      <c r="P73" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>616</v>
+      </c>
+      <c r="R73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" s="2">
         <v>44224</v>
       </c>
-      <c r="G66" t="s">
-        <v>279</v>
-      </c>
-      <c r="H66" t="s">
-        <v>281</v>
-      </c>
-      <c r="I66" t="s">
-        <v>347</v>
-      </c>
-      <c r="J66" t="s">
-        <v>359</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="N66" t="s">
-        <v>483</v>
-      </c>
-      <c r="O66" t="s">
-        <v>483</v>
-      </c>
-      <c r="P66" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>552</v>
-      </c>
-      <c r="R66" t="s">
-        <v>554</v>
+      <c r="G74" t="s">
+        <v>316</v>
+      </c>
+      <c r="H74" t="s">
+        <v>318</v>
+      </c>
+      <c r="I74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" t="s">
+        <v>395</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="M74" t="s">
+        <v>481</v>
+      </c>
+      <c r="N74" t="s">
+        <v>519</v>
+      </c>
+      <c r="O74" t="s">
+        <v>550</v>
+      </c>
+      <c r="P74" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>617</v>
+      </c>
+      <c r="R74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" s="2">
+        <v>44224</v>
+      </c>
+      <c r="G75" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" t="s">
+        <v>318</v>
+      </c>
+      <c r="I75" t="s">
+        <v>392</v>
+      </c>
+      <c r="J75" t="s">
+        <v>403</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="N75" t="s">
+        <v>546</v>
+      </c>
+      <c r="O75" t="s">
+        <v>546</v>
+      </c>
+      <c r="P75" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>618</v>
+      </c>
+      <c r="R75" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5564,6 +6212,15 @@
     <hyperlink ref="K64" r:id="rId63"/>
     <hyperlink ref="K65" r:id="rId64"/>
     <hyperlink ref="K66" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="K68" r:id="rId67"/>
+    <hyperlink ref="K69" r:id="rId68"/>
+    <hyperlink ref="K70" r:id="rId69"/>
+    <hyperlink ref="K71" r:id="rId70"/>
+    <hyperlink ref="K72" r:id="rId71"/>
+    <hyperlink ref="K73" r:id="rId72"/>
+    <hyperlink ref="K74" r:id="rId73"/>
+    <hyperlink ref="K75" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="648">
   <si>
     <t>gid</t>
   </si>
@@ -70,202 +70,217 @@
     <t>gender</t>
   </si>
   <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>762</t>
   </si>
   <si>
-    <t>812</t>
+    <t>739</t>
+  </si>
+  <si>
+    <t>738</t>
   </si>
   <si>
     <t>730</t>
   </si>
   <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
     <t>734</t>
   </si>
   <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>742</t>
+    <t>747</t>
   </si>
   <si>
     <t>761</t>
   </si>
   <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
     <t>746</t>
   </si>
   <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>747</t>
+    <t>794</t>
   </si>
   <si>
     <t>760</t>
   </si>
   <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>806</t>
+    <t>745</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>781</t>
   </si>
   <si>
     <t>782</t>
   </si>
   <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
     <t>795</t>
   </si>
   <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>768</t>
+    <t>777</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>773</t>
   </si>
   <si>
     <t>772</t>
   </si>
   <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
     <t>771</t>
   </si>
   <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
     <t>826</t>
   </si>
   <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
     <t>813</t>
   </si>
   <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>801</t>
+    <t>828</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>770</t>
   </si>
   <si>
     <t>769</t>
   </si>
   <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
     <t>827</t>
   </si>
   <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>820</t>
+    <t>829</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>821</t>
   </si>
   <si>
     <t>785</t>
   </si>
   <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>821</t>
+    <t>810</t>
   </si>
   <si>
     <t>807</t>
@@ -274,220 +289,232 @@
     <t>804</t>
   </si>
   <si>
-    <t>810</t>
-  </si>
-  <si>
     <t>802</t>
   </si>
   <si>
+    <t>808</t>
+  </si>
+  <si>
     <t>809</t>
   </si>
   <si>
-    <t>808</t>
+    <t>818</t>
   </si>
   <si>
     <t>816</t>
   </si>
   <si>
-    <t>818</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 694</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 687</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 688</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 680</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 680</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
@@ -496,220 +523,232 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 117</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 117</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
+    <t>13.61372722</t>
+  </si>
+  <si>
+    <t>13.90819848</t>
+  </si>
+  <si>
+    <t>14.58468626</t>
+  </si>
+  <si>
+    <t>13.37241071</t>
+  </si>
+  <si>
+    <t>16.93747723</t>
+  </si>
+  <si>
+    <t>14.58480753</t>
+  </si>
+  <si>
+    <t>13.85512417</t>
+  </si>
+  <si>
+    <t>14.0366129</t>
+  </si>
+  <si>
+    <t>13.68348436</t>
+  </si>
+  <si>
+    <t>14.03685952</t>
   </si>
   <si>
     <t>13.6909991</t>
   </si>
   <si>
-    <t>13.85512417</t>
+    <t>13.96330727</t>
+  </si>
+  <si>
+    <t>19.90080363</t>
   </si>
   <si>
     <t>14.07328955</t>
   </si>
   <si>
+    <t>13.73167329</t>
+  </si>
+  <si>
+    <t>6.240396923</t>
+  </si>
+  <si>
     <t>14.58486773</t>
   </si>
   <si>
-    <t>19.90080363</t>
-  </si>
-  <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
-  </si>
-  <si>
-    <t>13.37241071</t>
-  </si>
-  <si>
-    <t>13.90819848</t>
-  </si>
-  <si>
-    <t>6.240396923</t>
-  </si>
-  <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>16.93747723</t>
-  </si>
-  <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>13.68348436</t>
-  </si>
-  <si>
-    <t>14.58480753</t>
+    <t>13.37234365</t>
   </si>
   <si>
     <t>13.85519716</t>
   </si>
   <si>
+    <t>13.74048254</t>
+  </si>
+  <si>
+    <t>13.37240194</t>
+  </si>
+  <si>
+    <t>13.37266492</t>
+  </si>
+  <si>
+    <t>13.37240823</t>
+  </si>
+  <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
     <t>13.37239571</t>
   </si>
   <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.37240823</t>
-  </si>
-  <si>
-    <t>13.37234365</t>
+    <t>13.81611195</t>
   </si>
   <si>
     <t>13.74871188</t>
   </si>
   <si>
-    <t>13.74048254</t>
-  </si>
-  <si>
-    <t>13.37266492</t>
-  </si>
-  <si>
-    <t>13.81611195</t>
-  </si>
-  <si>
-    <t>13.37240194</t>
+    <t>13.97565922</t>
+  </si>
+  <si>
+    <t>13.86503444</t>
+  </si>
+  <si>
+    <t>14.39857579</t>
+  </si>
+  <si>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.40598552</t>
   </si>
   <si>
     <t>13.40628035</t>
   </si>
   <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.7584487</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
     <t>13.75814784</t>
   </si>
   <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>14.39857579</t>
-  </si>
-  <si>
-    <t>13.40598552</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
-    <t>14.58472864</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.97565922</t>
-  </si>
-  <si>
-    <t>13.86503444</t>
+    <t>13.40595472</t>
+  </si>
+  <si>
+    <t>13.40597333</t>
+  </si>
+  <si>
+    <t>13.82875611</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.40596242</t>
+  </si>
+  <si>
+    <t>13.40583946</t>
   </si>
   <si>
     <t>13.40593161</t>
   </si>
   <si>
+    <t>13.73936751</t>
+  </si>
+  <si>
+    <t>13.86278523</t>
+  </si>
+  <si>
     <t>13.40650905</t>
   </si>
   <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.40595472</t>
-  </si>
-  <si>
-    <t>13.82875611</t>
-  </si>
-  <si>
-    <t>13.40596242</t>
-  </si>
-  <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
     <t>13.72604683</t>
   </si>
   <si>
+    <t>13.72666176</t>
+  </si>
+  <si>
+    <t>13.71349454</t>
+  </si>
+  <si>
     <t>13.72037624</t>
   </si>
   <si>
-    <t>13.72666176</t>
-  </si>
-  <si>
-    <t>13.71349454</t>
-  </si>
-  <si>
-    <t>13.40597333</t>
-  </si>
-  <si>
-    <t>13.73936751</t>
+    <t>13.86203428</t>
+  </si>
+  <si>
+    <t>13.37258002</t>
+  </si>
+  <si>
+    <t>13.40639916</t>
   </si>
   <si>
     <t>13.40621925</t>
   </si>
   <si>
+    <t>13.73937398</t>
+  </si>
+  <si>
+    <t>13.69777073</t>
+  </si>
+  <si>
+    <t>13.6940188</t>
+  </si>
+  <si>
+    <t>13.87076462</t>
+  </si>
+  <si>
+    <t>13.72650241</t>
+  </si>
+  <si>
     <t>13.72667218</t>
   </si>
   <si>
-    <t>13.73937398</t>
-  </si>
-  <si>
-    <t>13.40639916</t>
-  </si>
-  <si>
-    <t>13.37258002</t>
-  </si>
-  <si>
-    <t>13.87076462</t>
-  </si>
-  <si>
-    <t>13.72650241</t>
-  </si>
-  <si>
-    <t>13.6940188</t>
+    <t>13.86278896</t>
+  </si>
+  <si>
+    <t>13.86745361</t>
+  </si>
+  <si>
+    <t>13.82627701</t>
   </si>
   <si>
     <t>13.40627124</t>
   </si>
   <si>
-    <t>13.86745361</t>
-  </si>
-  <si>
-    <t>13.82627701</t>
+    <t>14.07331044</t>
   </si>
   <si>
     <t>13.40609899</t>
@@ -718,220 +757,232 @@
     <t>13.23939231</t>
   </si>
   <si>
-    <t>14.07331044</t>
-  </si>
-  <si>
     <t>6.414712255</t>
   </si>
   <si>
+    <t>14.5932932</t>
+  </si>
+  <si>
     <t>14.53781454</t>
   </si>
   <si>
-    <t>14.5932932</t>
+    <t>14.34377313</t>
   </si>
   <si>
     <t>14.58474281</t>
   </si>
   <si>
-    <t>14.34377313</t>
+    <t>100.3825015</t>
+  </si>
+  <si>
+    <t>99.76743912</t>
+  </si>
+  <si>
+    <t>100.4524316</t>
+  </si>
+  <si>
+    <t>99.84045185</t>
+  </si>
+  <si>
+    <t>104.71144</t>
+  </si>
+  <si>
+    <t>100.4519125</t>
+  </si>
+  <si>
+    <t>100.5421273</t>
+  </si>
+  <si>
+    <t>100.4156136</t>
+  </si>
+  <si>
+    <t>100.4403143</t>
+  </si>
+  <si>
+    <t>100.4157557</t>
   </si>
   <si>
     <t>100.4802327</t>
   </si>
   <si>
-    <t>100.5421273</t>
+    <t>100.6218198</t>
+  </si>
+  <si>
+    <t>99.82912083</t>
   </si>
   <si>
     <t>100.6151396</t>
   </si>
   <si>
+    <t>100.5424867</t>
+  </si>
+  <si>
+    <t>101.4988291</t>
+  </si>
+  <si>
     <t>100.4523471</t>
   </si>
   <si>
-    <t>99.82912083</t>
-  </si>
-  <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
-  </si>
-  <si>
-    <t>99.84045185</t>
-  </si>
-  <si>
-    <t>99.76743912</t>
-  </si>
-  <si>
-    <t>101.4988291</t>
-  </si>
-  <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>104.71144</t>
-  </si>
-  <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>100.4403143</t>
-  </si>
-  <si>
-    <t>100.4519125</t>
+    <t>99.84068885</t>
   </si>
   <si>
     <t>100.5422268</t>
   </si>
   <si>
+    <t>100.522356</t>
+  </si>
+  <si>
+    <t>99.84054831</t>
+  </si>
+  <si>
+    <t>99.84102394</t>
+  </si>
+  <si>
+    <t>99.84044998</t>
+  </si>
+  <si>
+    <t>100.452165</t>
+  </si>
+  <si>
     <t>99.84065417</t>
   </si>
   <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>99.84044998</t>
-  </si>
-  <si>
-    <t>99.84068885</t>
+    <t>100.5611614</t>
   </si>
   <si>
     <t>100.5832291</t>
   </si>
   <si>
-    <t>100.522356</t>
-  </si>
-  <si>
-    <t>99.84102394</t>
-  </si>
-  <si>
-    <t>100.5611614</t>
-  </si>
-  <si>
-    <t>99.84054831</t>
+    <t>99.63108216</t>
+  </si>
+  <si>
+    <t>100.4814358</t>
+  </si>
+  <si>
+    <t>100.5929883</t>
+  </si>
+  <si>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.9981405</t>
   </si>
   <si>
     <t>99.99793397</t>
   </si>
   <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>100.5659092</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
     <t>100.5350653</t>
   </si>
   <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>100.5929883</t>
-  </si>
-  <si>
-    <t>99.9981405</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
-    <t>100.4521962</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>99.63108216</t>
-  </si>
-  <si>
-    <t>100.4814358</t>
+    <t>99.99779066</t>
+  </si>
+  <si>
+    <t>99.99799763</t>
+  </si>
+  <si>
+    <t>100.5687203</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>99.99806255</t>
+  </si>
+  <si>
+    <t>99.99822947</t>
   </si>
   <si>
     <t>99.99826105</t>
   </si>
   <si>
+    <t>100.2556886</t>
+  </si>
+  <si>
+    <t>100.6667972</t>
+  </si>
+  <si>
     <t>99.99794955</t>
   </si>
   <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>99.99779066</t>
-  </si>
-  <si>
-    <t>100.5687203</t>
-  </si>
-  <si>
-    <t>99.99806255</t>
-  </si>
-  <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
     <t>100.5098724</t>
   </si>
   <si>
+    <t>100.5093037</t>
+  </si>
+  <si>
+    <t>100.4800501</t>
+  </si>
+  <si>
     <t>100.5600709</t>
   </si>
   <si>
-    <t>100.5093037</t>
-  </si>
-  <si>
-    <t>100.4800501</t>
-  </si>
-  <si>
-    <t>99.99799763</t>
-  </si>
-  <si>
-    <t>100.2556886</t>
+    <t>100.6124718</t>
+  </si>
+  <si>
+    <t>99.84082331</t>
+  </si>
+  <si>
+    <t>99.99785987</t>
   </si>
   <si>
     <t>99.99800648</t>
   </si>
   <si>
+    <t>100.2556031</t>
+  </si>
+  <si>
+    <t>100.5376964</t>
+  </si>
+  <si>
+    <t>100.4952169</t>
+  </si>
+  <si>
+    <t>100.6678623</t>
+  </si>
+  <si>
+    <t>100.5096835</t>
+  </si>
+  <si>
     <t>100.5096041</t>
   </si>
   <si>
-    <t>100.2556031</t>
-  </si>
-  <si>
-    <t>99.99785987</t>
-  </si>
-  <si>
-    <t>99.84082331</t>
-  </si>
-  <si>
-    <t>100.6678623</t>
-  </si>
-  <si>
-    <t>100.5096835</t>
-  </si>
-  <si>
-    <t>100.4952169</t>
+    <t>100.6667595</t>
+  </si>
+  <si>
+    <t>100.4526926</t>
+  </si>
+  <si>
+    <t>100.6790148</t>
   </si>
   <si>
     <t>99.99796867</t>
   </si>
   <si>
-    <t>100.4526926</t>
-  </si>
-  <si>
-    <t>100.6790148</t>
+    <t>100.6149782</t>
   </si>
   <si>
     <t>99.99810731</t>
@@ -940,24 +991,21 @@
     <t>99.8256538</t>
   </si>
   <si>
-    <t>100.6149782</t>
-  </si>
-  <si>
     <t>101.8237514</t>
   </si>
   <si>
+    <t>100.3463765</t>
+  </si>
+  <si>
     <t>100.5283131</t>
   </si>
   <si>
-    <t>100.3463765</t>
+    <t>100.5601081</t>
   </si>
   <si>
     <t>100.4522083</t>
   </si>
   <si>
-    <t>100.5601081</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -973,202 +1021,217 @@
     <t>กำลังรักษา</t>
   </si>
   <si>
+    <t>รายที่ 623 พนักงานโรงงาน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
+  </si>
+  <si>
+    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+  </si>
+  <si>
+    <t>รายที่ 660 ชายอาชีพอิสระ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>รายที่ 596 หญิง แม่บ้าน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
+  </si>
+  <si>
     <t>รายที่ 615 ชายว่างวาน</t>
   </si>
   <si>
-    <t>รายที่ 660 ชายอาชีพอิสระ</t>
+    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
   </si>
   <si>
+    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
+  </si>
+  <si>
+    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
+  </si>
+  <si>
     <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
   </si>
   <si>
-    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
-  </si>
-  <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 596 หญิง แม่บ้าน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
+    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
   </si>
   <si>
     <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
   </si>
   <si>
+    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+  </si>
+  <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
     <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
   </si>
   <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
-  </si>
-  <si>
-    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
+    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
     <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
   </si>
   <si>
-    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+  </si>
+  <si>
+    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+  </si>
+  <si>
+    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
     <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
   </si>
   <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
-  </si>
-  <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
-  </si>
-  <si>
-    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
   </si>
   <si>
     <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
+  </si>
+  <si>
     <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
-  </si>
-  <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
     <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
+  </si>
+  <si>
+    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
     <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 694 ชาย พนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ 687 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
+    <t>ผู้ป่วยรายที่ 688 ชาย ค้าขาย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 680 ชาย อาชีพทนาย</t>
   </si>
   <si>
     <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 680 ชาย อาชีพทนาย</t>
+    <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
   </si>
   <si>
     <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
@@ -1177,253 +1240,265 @@
     <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
   </si>
   <si>
-    <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
-  </si>
-  <si>
     <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ : 117 เพศ : ชาย สัญชาติ : ไทย อายุ : 45 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
     <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 117 เพศ : ชาย สัญชาติ : ไทย อายุ : 45 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+    <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 118 เพศ : หญิง สัญชาติ : ไทย อายุ : 25 ปี ต.ไผ่ดำพัฒนา อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
-  </si>
-  <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
   </si>
   <si>
-    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
-  </si>
-  <si>
     <t>ข่าวเด็ดเพชรบุรี</t>
   </si>
   <si>
+    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+  </si>
+  <si>
     <t>Covid-19 จังหวัดสมุทรสงคราม</t>
   </si>
   <si>
-    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
-  </si>
-  <si>
-    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PR.PH.NKP/</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
+    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
   </si>
   <si>
     <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NaraPublicHealth</t>
+  </si>
+  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PR.PH.NKP/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
   </si>
   <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619876604278</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619293271003</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619343270998</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618683271064</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618683271064</t>
+    <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
@@ -1432,115 +1507,118 @@
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20117.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20117.jpg</t>
+    <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
+    <t>แขวง แสมดำ</t>
+  </si>
+  <si>
+    <t>ท่ามะกา</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
+  </si>
+  <si>
+    <t>ธาตุพนม</t>
+  </si>
+  <si>
+    <t>บางเขน</t>
+  </si>
+  <si>
+    <t>ระแหง</t>
+  </si>
+  <si>
+    <t>แขวง บางบอน</t>
   </si>
   <si>
     <t>แขวงจอมทอง</t>
   </si>
   <si>
-    <t>บางเขน</t>
+    <t>คูคต</t>
+  </si>
+  <si>
+    <t>รอบเวียง</t>
   </si>
   <si>
     <t>คลองหนึ่ง</t>
   </si>
   <si>
-    <t>บางแก้ว</t>
-  </si>
-  <si>
-    <t>รอบเวียง</t>
-  </si>
-  <si>
-    <t>คูคต</t>
-  </si>
-  <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
-    <t>ท่ามะกา</t>
+    <t>แขวง ลุมพินี</t>
   </si>
   <si>
     <t>ซากอ</t>
   </si>
   <si>
-    <t>ธาตุพนม</t>
-  </si>
-  <si>
-    <t>แขวง แสมดำ</t>
-  </si>
-  <si>
-    <t>แขวง ลุมพินี</t>
-  </si>
-  <si>
-    <t>แขวง บางบอน</t>
-  </si>
-  <si>
     <t>แขวง ทุ่งสองห้อง</t>
   </si>
   <si>
+    <t>แขวง รองเมือง</t>
+  </si>
+  <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
+    <t>แขวง จตุจักร</t>
+  </si>
+  <si>
     <t>แขวง บางกะปิ</t>
   </si>
   <si>
-    <t>แขวง รองเมือง</t>
-  </si>
-  <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
-    <t>แขวง จตุจักร</t>
+    <t>ท่าม่วง</t>
+  </si>
+  <si>
+    <t>บ่อโพง</t>
   </si>
   <si>
     <t>แม่กลอง</t>
   </si>
   <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
     <t>แขวง ถนนพญาไท</t>
   </si>
   <si>
     <t>แขวง คลองต้นไทร</t>
   </si>
   <si>
-    <t>บ่อโพง</t>
-  </si>
-  <si>
-    <t>แขวง ห้วยขวาง</t>
-  </si>
-  <si>
     <t>แขวง คลองเตยเหนือ</t>
   </si>
   <si>
-    <t>ท่าม่วง</t>
-  </si>
-  <si>
     <t>แขวง ลาดยาว</t>
   </si>
   <si>
+    <t>ไร่ขิง</t>
+  </si>
+  <si>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง บุคคโล</t>
+  </si>
+  <si>
     <t>แขวง คลองเตย</t>
   </si>
   <si>
-    <t>แขวง บุคคโล</t>
-  </si>
-  <si>
-    <t>ไร่ขิง</t>
-  </si>
-  <si>
-    <t>แขวง ท่าแร้ง</t>
+    <t>แขวง อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>แขวง ช่องนนทรี</t>
   </si>
   <si>
     <t>แขวง บางคอแหลม</t>
@@ -1558,82 +1636,85 @@
     <t>บางนาค</t>
   </si>
   <si>
+    <t>ศาลเจ้าโรงทอง</t>
+  </si>
+  <si>
     <t>หัวไผ่</t>
   </si>
   <si>
-    <t>ศาลเจ้าโรงทอง</t>
+    <t>เขตบางขุนเทียน</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
+    <t>เขตบางบอน</t>
   </si>
   <si>
     <t>เขตจอมทอง</t>
   </si>
   <si>
-    <t>เมืองนนทบุรี</t>
+    <t>ลำลูกกา</t>
+  </si>
+  <si>
+    <t>เมืองเชียงราย</t>
   </si>
   <si>
     <t>คลองหลวง</t>
   </si>
   <si>
-    <t>เมืองอ่างทอง</t>
-  </si>
-  <si>
-    <t>เมืองเชียงราย</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
-  </si>
-  <si>
-    <t>ลาดหลุมแก้ว</t>
+    <t>เขตปทุมวัน</t>
   </si>
   <si>
     <t>ศรีสาคร</t>
   </si>
   <si>
-    <t>เขตบางขุนเทียน</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>เขตบางบอน</t>
-  </si>
-  <si>
     <t>เขต หลักสี่</t>
   </si>
   <si>
+    <t>เขตจตุจักร</t>
+  </si>
+  <si>
     <t>เขตห้วยขวาง</t>
   </si>
   <si>
-    <t>เขตจตุจักร</t>
+    <t>นครหลวง</t>
   </si>
   <si>
     <t>เมืองสมุทรสงคราม</t>
   </si>
   <si>
+    <t>เขตดินแดง</t>
+  </si>
+  <si>
     <t>เขตราชเทวี</t>
   </si>
   <si>
     <t>เขตคลองสาน</t>
   </si>
   <si>
-    <t>นครหลวง</t>
-  </si>
-  <si>
-    <t>เขตดินแดง</t>
-  </si>
-  <si>
     <t>เขตวัฒนา</t>
   </si>
   <si>
+    <t>สามพราน</t>
+  </si>
+  <si>
+    <t>เขตบางเขน</t>
+  </si>
+  <si>
+    <t>เขตธนบุรี</t>
+  </si>
+  <si>
     <t>เขตคลองเตย</t>
   </si>
   <si>
-    <t>เขตธนบุรี</t>
-  </si>
-  <si>
-    <t>สามพราน</t>
-  </si>
-  <si>
-    <t>เขตบางเขน</t>
+    <t>เขต ยานนาวา</t>
   </si>
   <si>
     <t>เขตบางคอแหลม</t>
@@ -1648,42 +1729,42 @@
     <t>เมืองนราธิวาส</t>
   </si>
   <si>
+    <t>วิเศษชัยชาญ</t>
+  </si>
+  <si>
     <t>มหาราช จังหวัด</t>
   </si>
   <si>
-    <t>วิเศษชัยชาญ</t>
-  </si>
-  <si>
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
     <t>ปทุมธานี</t>
   </si>
   <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
     <t>เชียงราย</t>
   </si>
   <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
     <t>นราธิวาส</t>
   </si>
   <si>
-    <t>นครพนม</t>
-  </si>
-  <si>
     <t>สมุทรสงคราม</t>
   </si>
   <si>
@@ -1696,46 +1777,52 @@
     <t>10150</t>
   </si>
   <si>
+    <t>71120</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>48110</t>
+  </si>
+  <si>
     <t>11000</t>
   </si>
   <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
     <t>12120</t>
   </si>
   <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>12130</t>
-  </si>
-  <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>71120</t>
+    <t>10330</t>
   </si>
   <si>
     <t>96210</t>
   </si>
   <si>
-    <t>48110</t>
-  </si>
-  <si>
-    <t>10330</t>
-  </si>
-  <si>
     <t>10210</t>
   </si>
   <si>
+    <t>10900</t>
+  </si>
+  <si>
     <t>10310</t>
   </si>
   <si>
-    <t>10900</t>
+    <t>71110</t>
+  </si>
+  <si>
+    <t>13260</t>
   </si>
   <si>
     <t>75000</t>
@@ -1747,15 +1834,9 @@
     <t>10600</t>
   </si>
   <si>
-    <t>13260</t>
-  </si>
-  <si>
     <t>10110</t>
   </si>
   <si>
-    <t>71110</t>
-  </si>
-  <si>
     <t>73210</t>
   </si>
   <si>
@@ -1774,87 +1855,87 @@
     <t>96000</t>
   </si>
   <si>
+    <t>14110</t>
+  </si>
+  <si>
     <t>13150</t>
   </si>
   <si>
-    <t>14110</t>
-  </si>
-  <si>
     <t>13000</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>57</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -1867,16 +1948,16 @@
     <t>45</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>86</t>
+    <t>หญิง</t>
   </si>
   <si>
     <t>ชาย</t>
-  </si>
-  <si>
-    <t>หญิง</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,49 +2399,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F2" s="2">
         <v>44215</v>
       </c>
       <c r="G2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="J2" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="M2" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="N2" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="O2" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P2" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="R2" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2368,49 +2449,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F3" s="2">
         <v>44215</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I3" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="J3" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="M3" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="N3" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="O3" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="P3" t="s">
-        <v>560</v>
+        <v>587</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>616</v>
       </c>
       <c r="R3" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2418,52 +2502,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F4" s="2">
         <v>44215</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="J4" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M4" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="N4" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="O4" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="P4" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="Q4" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="R4" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2471,52 +2555,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F5" s="2">
         <v>44215</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="M5" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="N5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O5" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="P5" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="Q5" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="R5" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2524,52 +2608,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F6" s="2">
         <v>44215</v>
       </c>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="M6" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="N6" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="O6" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="P6" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="Q6" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="R6" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2577,52 +2661,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F7" s="2">
         <v>44215</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="J7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="M7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="N7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="O7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="P7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="Q7" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="R7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2630,46 +2714,49 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F8" s="2">
         <v>44215</v>
       </c>
       <c r="G8" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H8" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="M8" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="N8" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="O8" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="P8" t="s">
-        <v>565</v>
+        <v>591</v>
+      </c>
+      <c r="R8" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2677,52 +2764,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F9" s="2">
         <v>44215</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="J9" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="M9" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="N9" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="O9" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="P9" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="Q9" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="R9" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2730,52 +2817,49 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F10" s="2">
         <v>44215</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="M10" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="N10" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="O10" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="P10" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="R10" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2783,52 +2867,46 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F11" s="2">
         <v>44215</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H11" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J11" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="M11" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="N11" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="O11" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="P11" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>594</v>
-      </c>
-      <c r="R11" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2836,52 +2914,49 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F12" s="2">
         <v>44215</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="J12" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="M12" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="N12" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="O12" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="P12" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="R12" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2889,52 +2964,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F13" s="2">
         <v>44215</v>
       </c>
       <c r="G13" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H13" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I13" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="J13" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="M13" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="N13" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="O13" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="P13" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="Q13" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="R13" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2942,52 +3017,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F14" s="2">
         <v>44215</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I14" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="M14" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="N14" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="O14" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="P14" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="Q14" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="R14" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2995,49 +3070,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F15" s="2">
         <v>44215</v>
       </c>
       <c r="G15" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="J15" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="M15" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="N15" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="O15" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="P15" t="s">
-        <v>559</v>
+        <v>595</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>621</v>
       </c>
       <c r="R15" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3045,49 +3123,49 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F16" s="2">
         <v>44215</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I16" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="J16" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="M16" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="N16" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="O16" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P16" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="R16" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3095,49 +3173,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F17" s="2">
         <v>44215</v>
       </c>
       <c r="G17" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="J17" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="M17" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="N17" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="O17" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="P17" t="s">
-        <v>559</v>
+        <v>597</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>622</v>
       </c>
       <c r="R17" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3145,52 +3226,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F18" s="2">
         <v>44215</v>
       </c>
       <c r="G18" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H18" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="J18" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="M18" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="N18" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="O18" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="P18" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="Q18" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="R18" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3198,49 +3279,52 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F19" s="2">
         <v>44216</v>
       </c>
       <c r="G19" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H19" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I19" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="J19" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="M19" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="N19" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="O19" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="P19" t="s">
-        <v>571</v>
+        <v>589</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>624</v>
       </c>
       <c r="R19" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3248,52 +3332,49 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F20" s="2">
         <v>44216</v>
       </c>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H20" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="J20" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="M20" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="N20" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="O20" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="P20" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="R20" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3301,52 +3382,49 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F21" s="2">
         <v>44216</v>
       </c>
       <c r="G21" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H21" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="J21" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="M21" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="N21" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="O21" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="P21" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R21" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3354,52 +3432,52 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F22" s="2">
         <v>44216</v>
       </c>
       <c r="G22" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H22" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="M22" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="N22" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="O22" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="P22" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="Q22" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="R22" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3407,52 +3485,52 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F23" s="2">
         <v>44216</v>
       </c>
       <c r="G23" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="J23" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="M23" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="N23" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="O23" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="P23" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="Q23" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="R23" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3460,49 +3538,52 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F24" s="2">
         <v>44216</v>
       </c>
       <c r="G24" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H24" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I24" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="J24" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="M24" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="N24" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="O24" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="P24" t="s">
-        <v>572</v>
+        <v>589</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>626</v>
       </c>
       <c r="R24" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3510,49 +3591,52 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F25" s="2">
         <v>44216</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H25" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="J25" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="M25" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N25" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="O25" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="P25" t="s">
-        <v>570</v>
+        <v>588</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>627</v>
       </c>
       <c r="R25" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3560,52 +3644,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F26" s="2">
         <v>44216</v>
       </c>
       <c r="G26" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H26" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I26" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="J26" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="M26" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="N26" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="O26" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="P26" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="Q26" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="R26" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3613,49 +3697,49 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F27" s="2">
         <v>44216</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H27" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="M27" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="N27" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="O27" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P27" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="R27" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3663,52 +3747,49 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F28" s="2">
         <v>44216</v>
       </c>
       <c r="G28" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H28" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="J28" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="M28" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="N28" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="O28" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="P28" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="R28" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3716,52 +3797,52 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F29" s="2">
         <v>44217</v>
       </c>
       <c r="G29" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I29" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J29" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="M29" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="N29" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="O29" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="P29" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="Q29" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="R29" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3769,49 +3850,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F30" s="2">
         <v>44217</v>
       </c>
       <c r="G30" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="J30" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="M30" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="N30" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="O30" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="P30" t="s">
-        <v>575</v>
+        <v>591</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>629</v>
       </c>
       <c r="R30" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3819,49 +3900,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F31" s="2">
         <v>44217</v>
       </c>
       <c r="G31" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H31" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="M31" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="N31" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="O31" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="P31" t="s">
-        <v>576</v>
+        <v>602</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>627</v>
       </c>
       <c r="R31" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3869,52 +3953,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F32" s="2">
         <v>44217</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H32" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I32" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="M32" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N32" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O32" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P32" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q32" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="R32" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3922,52 +4006,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F33" s="2">
         <v>44217</v>
       </c>
       <c r="G33" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H33" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="J33" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="M33" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N33" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O33" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P33" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q33" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="R33" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3975,52 +4059,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E34" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F34" s="2">
         <v>44217</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H34" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I34" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="J34" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="M34" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N34" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O34" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P34" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q34" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="R34" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4028,52 +4112,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E35" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F35" s="2">
         <v>44217</v>
       </c>
       <c r="G35" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I35" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="J35" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="M35" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N35" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="O35" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="P35" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="Q35" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="R35" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4081,52 +4165,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F36" s="2">
         <v>44217</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="M36" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N36" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O36" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P36" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q36" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="R36" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4134,49 +4218,49 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E37" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F37" s="2">
         <v>44217</v>
       </c>
       <c r="G37" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H37" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="J37" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="M37" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="N37" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="O37" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P37" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="R37" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4184,52 +4268,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F38" s="2">
         <v>44217</v>
       </c>
       <c r="G38" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H38" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="M38" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="N38" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="O38" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="P38" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R38" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4237,49 +4318,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F39" s="2">
         <v>44217</v>
       </c>
       <c r="G39" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H39" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="M39" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="N39" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="O39" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P39" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="R39" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4287,49 +4368,52 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F40" s="2">
         <v>44217</v>
       </c>
       <c r="G40" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H40" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I40" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="J40" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="M40" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="N40" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="O40" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="P40" t="s">
-        <v>575</v>
+        <v>603</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>634</v>
       </c>
       <c r="R40" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4337,49 +4421,49 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F41" s="2">
         <v>44217</v>
       </c>
       <c r="G41" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H41" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="J41" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="M41" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="N41" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="O41" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P41" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="R41" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4387,52 +4471,49 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E42" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F42" s="2">
         <v>44217</v>
       </c>
       <c r="G42" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H42" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="M42" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="N42" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="O42" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="P42" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R42" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4440,49 +4521,49 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E43" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F43" s="2">
         <v>44217</v>
       </c>
       <c r="G43" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H43" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>446</v>
+        <v>466</v>
+      </c>
+      <c r="M43" t="s">
+        <v>525</v>
       </c>
       <c r="N43" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="O43" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="P43" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="R43" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4490,52 +4571,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F44" s="2">
         <v>44218</v>
       </c>
       <c r="G44" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H44" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="J44" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="M44" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N44" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O44" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P44" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q44" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="R44" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4543,52 +4624,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F45" s="2">
         <v>44218</v>
       </c>
       <c r="G45" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H45" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="M45" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N45" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O45" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P45" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q45" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="R45" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4596,52 +4677,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F46" s="2">
         <v>44218</v>
       </c>
       <c r="G46" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H46" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="M46" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="N46" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="O46" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P46" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="R46" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4649,52 +4727,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E47" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F47" s="2">
         <v>44218</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="M47" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N47" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O47" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P47" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q47" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="R47" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4702,49 +4780,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F48" s="2">
         <v>44218</v>
       </c>
       <c r="G48" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="M48" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="N48" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="O48" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="P48" t="s">
-        <v>573</v>
+        <v>603</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>637</v>
       </c>
       <c r="R48" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4752,52 +4833,52 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F49" s="2">
         <v>44218</v>
       </c>
       <c r="G49" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H49" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="M49" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N49" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O49" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P49" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q49" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="R49" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4805,52 +4886,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F50" s="2">
         <v>44218</v>
       </c>
       <c r="G50" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H50" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="M50" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N50" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O50" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P50" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q50" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="R50" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4858,49 +4939,52 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F51" s="2">
         <v>44218</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I51" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="J51" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="M51" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="N51" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="O51" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="P51" t="s">
-        <v>576</v>
+        <v>607</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>624</v>
       </c>
       <c r="R51" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4908,49 +4992,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F52" s="2">
         <v>44218</v>
       </c>
       <c r="G52" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I52" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="M52" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="N52" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="O52" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P52" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="R52" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4958,49 +5042,52 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F53" s="2">
         <v>44218</v>
       </c>
       <c r="G53" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="M53" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="N53" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="O53" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="P53" t="s">
-        <v>576</v>
+        <v>603</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>626</v>
       </c>
       <c r="R53" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5008,49 +5095,49 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F54" s="2">
         <v>44218</v>
       </c>
       <c r="G54" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H54" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I54" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="N54" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="O54" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P54" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="R54" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5058,52 +5145,49 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F55" s="2">
         <v>44218</v>
       </c>
       <c r="G55" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I55" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="J55" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="M55" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="N55" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="O55" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P55" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="R55" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5111,52 +5195,49 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F56" s="2">
         <v>44218</v>
       </c>
       <c r="G56" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H56" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="M56" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="N56" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="O56" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="P56" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="R56" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5164,52 +5245,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E57" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F57" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G57" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H57" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I57" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="N57" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="O57" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P57" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="R57" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5217,49 +5295,49 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F58" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G58" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I58" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="N58" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="O58" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P58" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="R58" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5267,52 +5345,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F59" s="2">
         <v>44219</v>
       </c>
       <c r="G59" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I59" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="N59" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="O59" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="P59" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="Q59" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="R59" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5320,52 +5398,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F60" s="2">
         <v>44219</v>
       </c>
       <c r="G60" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I60" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="J60" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="M60" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N60" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="O60" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P60" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="Q60" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="R60" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5373,52 +5451,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F61" s="2">
         <v>44219</v>
       </c>
       <c r="G61" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H61" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I61" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J61" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="M61" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="N61" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="O61" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="P61" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="Q61" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="R61" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5426,49 +5504,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F62" s="2">
         <v>44219</v>
       </c>
       <c r="G62" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H62" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="J62" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="N62" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="O62" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="P62" t="s">
-        <v>581</v>
+        <v>607</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>624</v>
       </c>
       <c r="R62" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5476,49 +5557,49 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F63" s="2">
         <v>44219</v>
       </c>
       <c r="G63" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H63" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="J63" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="M63" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="N63" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="O63" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P63" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="R63" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5526,49 +5607,49 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F64" s="2">
         <v>44219</v>
       </c>
       <c r="G64" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H64" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="J64" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="N64" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="O64" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P64" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="R64" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5576,52 +5657,49 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F65" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G65" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H65" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I65" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="J65" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="N65" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="O65" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P65" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="R65" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5629,49 +5707,49 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F66" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G66" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I66" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J66" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="M66" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="N66" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="P66" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="R66" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5679,49 +5757,49 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F67" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G67" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H67" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I67" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="J67" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="M67" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="N67" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="O67" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="P67" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="R67" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5729,52 +5807,49 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F68" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I68" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="J68" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M68" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="N68" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="O68" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P68" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="R68" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5782,52 +5857,49 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F69" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G69" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H69" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="I69" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="J69" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="N69" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O69" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="P69" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R69" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5835,52 +5907,49 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E70" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F70" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G70" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H70" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I70" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="J70" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="M70" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="N70" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="O70" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="P70" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="R70" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5888,52 +5957,52 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F71" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H71" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I71" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="J71" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="M71" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="N71" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="O71" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="P71" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="Q71" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="R71" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5941,52 +6010,52 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F72" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="G72" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H72" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I72" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="J72" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="M72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="O72" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="P72" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="Q72" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="R72" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5994,52 +6063,52 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F73" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I73" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="J73" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="M73" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N73" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="O73" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="P73" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="Q73" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="R73" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6047,52 +6116,52 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F74" s="2">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="G74" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H74" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="J74" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M74" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="N74" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="O74" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="P74" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="Q74" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="R74" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6100,49 +6169,261 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F75" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G75" t="s">
+        <v>332</v>
+      </c>
+      <c r="H75" t="s">
+        <v>334</v>
+      </c>
+      <c r="I75" t="s">
+        <v>408</v>
+      </c>
+      <c r="J75" t="s">
+        <v>420</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="M75" t="s">
+        <v>539</v>
+      </c>
+      <c r="N75" t="s">
+        <v>570</v>
+      </c>
+      <c r="O75" t="s">
+        <v>582</v>
+      </c>
+      <c r="P75" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>637</v>
+      </c>
+      <c r="R75" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="s">
+        <v>330</v>
+      </c>
+      <c r="F76" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G76" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" t="s">
+        <v>334</v>
+      </c>
+      <c r="I76" t="s">
+        <v>409</v>
+      </c>
+      <c r="J76" t="s">
+        <v>415</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="M76" t="s">
+        <v>540</v>
+      </c>
+      <c r="N76" t="s">
+        <v>571</v>
+      </c>
+      <c r="O76" t="s">
+        <v>576</v>
+      </c>
+      <c r="P76" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>643</v>
+      </c>
+      <c r="R76" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F77" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" t="s">
+        <v>334</v>
+      </c>
+      <c r="I77" t="s">
+        <v>410</v>
+      </c>
+      <c r="J77" t="s">
+        <v>423</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M77" t="s">
+        <v>541</v>
+      </c>
+      <c r="N77" t="s">
+        <v>572</v>
+      </c>
+      <c r="O77" t="s">
+        <v>573</v>
+      </c>
+      <c r="P77" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>635</v>
+      </c>
+      <c r="R77" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" t="s">
+        <v>330</v>
+      </c>
+      <c r="F78" s="2">
         <v>44224</v>
       </c>
-      <c r="G75" t="s">
-        <v>316</v>
-      </c>
-      <c r="H75" t="s">
-        <v>318</v>
-      </c>
-      <c r="I75" t="s">
-        <v>392</v>
-      </c>
-      <c r="J75" t="s">
-        <v>403</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="N75" t="s">
-        <v>546</v>
-      </c>
-      <c r="O75" t="s">
-        <v>546</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+      <c r="H78" t="s">
+        <v>334</v>
+      </c>
+      <c r="I78" t="s">
+        <v>411</v>
+      </c>
+      <c r="J78" t="s">
+        <v>423</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N78" t="s">
+        <v>573</v>
+      </c>
+      <c r="O78" t="s">
+        <v>573</v>
+      </c>
+      <c r="P78" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>644</v>
+      </c>
+      <c r="R78" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F79" s="2">
+        <v>44224</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" t="s">
+        <v>334</v>
+      </c>
+      <c r="I79" t="s">
+        <v>412</v>
+      </c>
+      <c r="J79" t="s">
+        <v>415</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="M79" t="s">
+        <v>504</v>
+      </c>
+      <c r="N79" t="s">
+        <v>543</v>
+      </c>
+      <c r="O79" t="s">
+        <v>576</v>
+      </c>
+      <c r="P79" t="s">
         <v>588</v>
       </c>
-      <c r="Q75" t="s">
-        <v>618</v>
-      </c>
-      <c r="R75" t="s">
-        <v>620</v>
+      <c r="Q79" t="s">
+        <v>645</v>
+      </c>
+      <c r="R79" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6221,6 +6502,10 @@
     <hyperlink ref="K73" r:id="rId72"/>
     <hyperlink ref="K74" r:id="rId73"/>
     <hyperlink ref="K75" r:id="rId74"/>
+    <hyperlink ref="K76" r:id="rId75"/>
+    <hyperlink ref="K77" r:id="rId76"/>
+    <hyperlink ref="K78" r:id="rId77"/>
+    <hyperlink ref="K79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="511">
   <si>
     <t>gid</t>
   </si>
@@ -70,130 +70,85 @@
     <t>gender</t>
   </si>
   <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>734</t>
+    <t>794</t>
   </si>
   <si>
     <t>747</t>
   </si>
   <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
     <t>761</t>
   </si>
   <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>805</t>
+    <t>760</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>746</t>
   </si>
   <si>
     <t>748</t>
   </si>
   <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>760</t>
+    <t>782</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>781</t>
   </si>
   <si>
     <t>745</t>
   </si>
   <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>782</t>
+    <t>799</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>795</t>
   </si>
   <si>
     <t>784</t>
   </si>
   <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>795</t>
+    <t>774</t>
+  </si>
+  <si>
+    <t>801</t>
   </si>
   <si>
     <t>777</t>
@@ -208,39 +163,33 @@
     <t>775</t>
   </si>
   <si>
-    <t>774</t>
-  </si>
-  <si>
     <t>773</t>
   </si>
   <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
     <t>772</t>
   </si>
   <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
     <t>783</t>
   </si>
   <si>
@@ -304,130 +253,85 @@
     <t>816</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 623</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 115</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 24</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนครพนม</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 114</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 660</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 75</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 596</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 76-77</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 615</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 74</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเชียงราย</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดปทุมธานี รายที่ 73</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 644</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 6</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 113</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
@@ -442,39 +346,33 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
@@ -538,130 +436,85 @@
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
   </si>
   <si>
-    <t>13.61372722</t>
-  </si>
-  <si>
-    <t>13.90819848</t>
-  </si>
-  <si>
-    <t>14.58468626</t>
-  </si>
-  <si>
-    <t>13.37241071</t>
-  </si>
-  <si>
-    <t>16.93747723</t>
-  </si>
-  <si>
-    <t>14.58480753</t>
-  </si>
-  <si>
-    <t>13.85512417</t>
-  </si>
-  <si>
-    <t>14.0366129</t>
-  </si>
-  <si>
-    <t>13.68348436</t>
-  </si>
-  <si>
-    <t>14.03685952</t>
-  </si>
-  <si>
-    <t>13.6909991</t>
-  </si>
-  <si>
-    <t>13.96330727</t>
-  </si>
-  <si>
-    <t>19.90080363</t>
-  </si>
-  <si>
-    <t>14.07328955</t>
-  </si>
-  <si>
-    <t>13.73167329</t>
-  </si>
-  <si>
-    <t>6.240396923</t>
-  </si>
-  <si>
-    <t>14.58486773</t>
+    <t>13.81611195</t>
   </si>
   <si>
     <t>13.37234365</t>
   </si>
   <si>
+    <t>13.74048254</t>
+  </si>
+  <si>
+    <t>13.37240194</t>
+  </si>
+  <si>
+    <t>13.37266492</t>
+  </si>
+  <si>
     <t>13.85519716</t>
   </si>
   <si>
-    <t>13.74048254</t>
-  </si>
-  <si>
-    <t>13.37240194</t>
-  </si>
-  <si>
-    <t>13.37266492</t>
+    <t>13.74871188</t>
+  </si>
+  <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
+    <t>13.37239571</t>
   </si>
   <si>
     <t>13.37240823</t>
   </si>
   <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.37239571</t>
-  </si>
-  <si>
-    <t>13.81611195</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>13.86503444</t>
+  </si>
+  <si>
+    <t>14.39857579</t>
+  </si>
+  <si>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.40598552</t>
   </si>
   <si>
     <t>13.97565922</t>
   </si>
   <si>
-    <t>13.86503444</t>
-  </si>
-  <si>
-    <t>14.39857579</t>
-  </si>
-  <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
-    <t>13.40598552</t>
-  </si>
-  <si>
-    <t>13.40628035</t>
+    <t>13.7584487</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>13.75814784</t>
   </si>
   <si>
     <t>14.58472864</t>
   </si>
   <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
+    <t>13.40596242</t>
+  </si>
+  <si>
+    <t>13.73936751</t>
   </si>
   <si>
     <t>13.40595472</t>
@@ -676,39 +529,33 @@
     <t>13.40613236</t>
   </si>
   <si>
-    <t>13.40596242</t>
-  </si>
-  <si>
     <t>13.40583946</t>
   </si>
   <si>
+    <t>13.86278523</t>
+  </si>
+  <si>
+    <t>13.86203428</t>
+  </si>
+  <si>
+    <t>13.40650905</t>
+  </si>
+  <si>
+    <t>13.72604683</t>
+  </si>
+  <si>
+    <t>13.72666176</t>
+  </si>
+  <si>
+    <t>13.71349454</t>
+  </si>
+  <si>
+    <t>13.72037624</t>
+  </si>
+  <si>
     <t>13.40593161</t>
   </si>
   <si>
-    <t>13.73936751</t>
-  </si>
-  <si>
-    <t>13.86278523</t>
-  </si>
-  <si>
-    <t>13.40650905</t>
-  </si>
-  <si>
-    <t>13.72604683</t>
-  </si>
-  <si>
-    <t>13.72666176</t>
-  </si>
-  <si>
-    <t>13.71349454</t>
-  </si>
-  <si>
-    <t>13.72037624</t>
-  </si>
-  <si>
-    <t>13.86203428</t>
-  </si>
-  <si>
     <t>13.37258002</t>
   </si>
   <si>
@@ -772,130 +619,85 @@
     <t>14.58474281</t>
   </si>
   <si>
-    <t>100.3825015</t>
-  </si>
-  <si>
-    <t>99.76743912</t>
-  </si>
-  <si>
-    <t>100.4524316</t>
-  </si>
-  <si>
-    <t>99.84045185</t>
-  </si>
-  <si>
-    <t>104.71144</t>
-  </si>
-  <si>
-    <t>100.4519125</t>
-  </si>
-  <si>
-    <t>100.5421273</t>
-  </si>
-  <si>
-    <t>100.4156136</t>
-  </si>
-  <si>
-    <t>100.4403143</t>
-  </si>
-  <si>
-    <t>100.4157557</t>
-  </si>
-  <si>
-    <t>100.4802327</t>
-  </si>
-  <si>
-    <t>100.6218198</t>
-  </si>
-  <si>
-    <t>99.82912083</t>
-  </si>
-  <si>
-    <t>100.6151396</t>
-  </si>
-  <si>
-    <t>100.5424867</t>
-  </si>
-  <si>
-    <t>101.4988291</t>
-  </si>
-  <si>
-    <t>100.4523471</t>
+    <t>100.5611614</t>
   </si>
   <si>
     <t>99.84068885</t>
   </si>
   <si>
+    <t>100.522356</t>
+  </si>
+  <si>
+    <t>99.84054831</t>
+  </si>
+  <si>
+    <t>99.84102394</t>
+  </si>
+  <si>
     <t>100.5422268</t>
   </si>
   <si>
-    <t>100.522356</t>
-  </si>
-  <si>
-    <t>99.84054831</t>
-  </si>
-  <si>
-    <t>99.84102394</t>
+    <t>100.5832291</t>
+  </si>
+  <si>
+    <t>100.452165</t>
+  </si>
+  <si>
+    <t>99.84065417</t>
   </si>
   <si>
     <t>99.84044998</t>
   </si>
   <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>99.84065417</t>
-  </si>
-  <si>
-    <t>100.5611614</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.4814358</t>
+  </si>
+  <si>
+    <t>100.5929883</t>
+  </si>
+  <si>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>99.9981405</t>
   </si>
   <si>
     <t>99.63108216</t>
   </si>
   <si>
-    <t>100.4814358</t>
-  </si>
-  <si>
-    <t>100.5929883</t>
-  </si>
-  <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
-    <t>99.9981405</t>
-  </si>
-  <si>
-    <t>99.99793397</t>
+    <t>100.5659092</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>100.5350653</t>
   </si>
   <si>
     <t>100.4521962</t>
   </si>
   <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
+    <t>99.99806255</t>
+  </si>
+  <si>
+    <t>100.2556886</t>
   </si>
   <si>
     <t>99.99779066</t>
@@ -910,39 +712,33 @@
     <t>99.99799241</t>
   </si>
   <si>
-    <t>99.99806255</t>
-  </si>
-  <si>
     <t>99.99822947</t>
   </si>
   <si>
+    <t>100.6667972</t>
+  </si>
+  <si>
+    <t>100.6124718</t>
+  </si>
+  <si>
+    <t>99.99794955</t>
+  </si>
+  <si>
+    <t>100.5098724</t>
+  </si>
+  <si>
+    <t>100.5093037</t>
+  </si>
+  <si>
+    <t>100.4800501</t>
+  </si>
+  <si>
+    <t>100.5600709</t>
+  </si>
+  <si>
     <t>99.99826105</t>
   </si>
   <si>
-    <t>100.2556886</t>
-  </si>
-  <si>
-    <t>100.6667972</t>
-  </si>
-  <si>
-    <t>99.99794955</t>
-  </si>
-  <si>
-    <t>100.5098724</t>
-  </si>
-  <si>
-    <t>100.5093037</t>
-  </si>
-  <si>
-    <t>100.4800501</t>
-  </si>
-  <si>
-    <t>100.5600709</t>
-  </si>
-  <si>
-    <t>100.6124718</t>
-  </si>
-  <si>
     <t>99.84082331</t>
   </si>
   <si>
@@ -1021,130 +817,85 @@
     <t>กำลังรักษา</t>
   </si>
   <si>
-    <t>รายที่ 623 พนักงานโรงงาน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 6 เป็นเด็กชาย อายุ 8 ปี อาศัยอยู่กรุงเทพมหานคร วันที่ 20 ธันวาคม 2563 เดินทางกลับมาเยี่ยมญาติที่ตำบลหนองโสน อำเภอเลาขวัญ จังหวัดกาญจนบุรี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 115 เพศ : ชาย สัญชาติ : ไทย อายุ : 8 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 24 เพศหญิง อายุ 51 ปี เป็นผู้สัมผัสเสี่ยงสูงรายที่ 23 รักษาที่รพ.ปากท่อ ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว กับเพื่อนร่วมงาน รวมยอดผู้ป่วยสะสมจังหวัดราชบุรี 24 รายพักรักษาตัวในโรงพยาบาลจำนวน 3 ราย รักษาหาย 21ราย**กลุ่มผู้สัมผัสผู้ติดเชื้อที่มีความเสี่ยงสูงขณะนี้อยู่ภายใต้การควบคุมโรคของจังหวัดแล้ว**</t>
-  </si>
-  <si>
-    <t>หญิงอายุ 51 ปี ค้าขายสัมผัสผู้ป่วยยืนยัน กทม.</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 114 เพศ : ชาย สัญชาติ : ไทย อายุ : 10 ปี ต.องครักษ์ อ.โพธิ์ทอง</t>
-  </si>
-  <si>
-    <t>รายที่ 660 ชายอาชีพอิสระ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 118 (รายที่ 75 ของการระบาดรอบใหม่) ชาย อายุ 51 ปี อ.ลาดหลุมแก้ว จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 596 หญิง แม่บ้าน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 119-120 (รายที่ 76-77 ของการระบาดรอบใหม่) ชายอายุ 46 ปีและ หญิงอายุ 37 ปี (สามีภรรยา) อ.ลาดหลุมแก้วจ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 615 ชายว่างวาน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วย รายที่ 117 (รายที่ 74 ของการระบาดรอบใหม่) หญิงอายุ 41 ปี อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>เป็นเพศชายอายุ 28 ปี จากรายงานผลการสอบสวนโรคพบว่า ในช่วงปลายปีที่ผ่านมาผู้ป่วยเดินทางไปพักผ่อนและท่องเที่ยวที่จังหวัดเชียงใหม่ รวมถึงไปเที่ยวสถานบันเทิงกับเพื่อนหลายแห่ง วันที่ 5 ม.ค.64 เดินทางกลับจังหวัดเชียงราย ในวันที่ 6 ม.ค.64 ได้ไปตรวจหาเชื้อที่โรงพยาบาลเชียงรายประชานุเคราะห์ ผลตรวจไม่พบเชื้อ แต่บริษัทที่ทำงานได้แจ้งให้กักตัวก่อน จึงได้กักตัวอยู่ที่บ้านพักจนครบ 14 วัน และวันที่ 19 ม.ค.64 ได้ไปตรวจหาเชื้อ Covid-19 ที่โรงพยาบาลเอกชนอีกรอบ ผลตรวจพบว่าติดเชื้อ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 116 (รายที่ 73 ของการระบาดรอบใหม่) เพศชาย อายุ 29 ปี อ.ลำลูกกา จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>รายที่ 644 ชายพนักงานบริษัทโฆษณา</t>
-  </si>
-  <si>
-    <t>รายที่ 5 ชายไทย อายุ 50 ปี มีภูมิลำเนา อำเภอเจาะไอร้อง จังหวัดนราธิวาส ไปประกอบอาชีพเป็นผู้ช่วยผู้ประกอบอาหารร้านอาหาร ในรัฐกลันตัน ประเทศมาเลเซีย เดินทางกลับเข้าประเทศไทยแบบผิดกฎหมาย ข้ามชายแดน โดยผ่านช่องทางธรรมชาติ ในพื้นที่อำเภอตากใบ จังหวัดนราธิวาส เมื่อวันที่ 15 มกราคม 2564</t>
-  </si>
-  <si>
-    <t>รายที่ 113 หญิง อายุ 48 ปี ต.อินทประมูล อ.โพธิ์ทอง</t>
+    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
     <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
   </si>
   <si>
+    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
   </si>
   <si>
-    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
   </si>
   <si>
     <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
   </si>
   <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+  </si>
+  <si>
+    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
   </si>
   <si>
-    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
-  </si>
-  <si>
-    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
     <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
@@ -1159,39 +910,33 @@
     <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
   </si>
   <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
-  </si>
-  <si>
     <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
+  </si>
+  <si>
     <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
-  </si>
-  <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
-  </si>
-  <si>
     <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
@@ -1258,163 +1003,109 @@
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
+    <t>ข่าวเด็ดเพชรบุรี</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+  </si>
+  <si>
     <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สำนักงานสาธารณสุขจังหวัดนครพนม</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดปทุมธานี</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดเชียงราย</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
   </si>
   <si>
-    <t>ข่าวเด็ดเพชรบุรี</t>
-  </si>
-  <si>
-    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
-  </si>
-  <si>
-    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187575804675352</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666598531150/</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline115.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5667346489958235/5667232879969596/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PR.PH.NKP/</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline114.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197184973714435</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722466948407997/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3182257831873816/3182257361873863</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722468188407873/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187574061342193</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/a.264224267565603/722469521741073/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SanaknganSatharnsukhCanghwadCheiyngray/?fbclid=IwAR3Q3jZm-H5UMV8smZQKHQ5prg2JB4lbbyQcb5pbvtQsOy-suNWfaAFbrG8</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pte.moph/photos/pcb.721942258460466/721972578457434</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096370689962/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NaraPublicHealth</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline113.jpg</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
@@ -1429,39 +1120,33 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
@@ -1522,114 +1207,81 @@
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
   </si>
   <si>
-    <t>แขวง แสมดำ</t>
-  </si>
-  <si>
-    <t>ท่ามะกา</t>
+    <t>แขวง จตุจักร</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
+  </si>
+  <si>
+    <t>แขวง รองเมือง</t>
+  </si>
+  <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
+    <t>แขวง ทุ่งสองห้อง</t>
+  </si>
+  <si>
+    <t>แขวง บางกะปิ</t>
   </si>
   <si>
     <t>บางแก้ว</t>
   </si>
   <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
-    <t>ธาตุพนม</t>
-  </si>
-  <si>
-    <t>บางเขน</t>
-  </si>
-  <si>
-    <t>ระแหง</t>
-  </si>
-  <si>
-    <t>แขวง บางบอน</t>
-  </si>
-  <si>
-    <t>แขวงจอมทอง</t>
-  </si>
-  <si>
-    <t>คูคต</t>
-  </si>
-  <si>
-    <t>รอบเวียง</t>
+    <t>แม่กลอง</t>
+  </si>
+  <si>
+    <t>บ่อโพง</t>
+  </si>
+  <si>
+    <t>ท่าม่วง</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>ไร่ขิง</t>
+  </si>
+  <si>
+    <t>แขวง ลาดยาว</t>
+  </si>
+  <si>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>แขวง บุคคโล</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตย</t>
+  </si>
+  <si>
+    <t>แขวง ช่องนนทรี</t>
+  </si>
+  <si>
+    <t>แขวง บางคอแหลม</t>
+  </si>
+  <si>
+    <t>บางรักน้อย</t>
+  </si>
+  <si>
+    <t>แขวง คันนายาว</t>
   </si>
   <si>
     <t>คลองหนึ่ง</t>
   </si>
   <si>
-    <t>แขวง ลุมพินี</t>
-  </si>
-  <si>
-    <t>ซากอ</t>
-  </si>
-  <si>
-    <t>แขวง ทุ่งสองห้อง</t>
-  </si>
-  <si>
-    <t>แขวง รองเมือง</t>
-  </si>
-  <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
-    <t>แขวง จตุจักร</t>
-  </si>
-  <si>
-    <t>แขวง บางกะปิ</t>
-  </si>
-  <si>
-    <t>ท่าม่วง</t>
-  </si>
-  <si>
-    <t>บ่อโพง</t>
-  </si>
-  <si>
-    <t>แม่กลอง</t>
-  </si>
-  <si>
-    <t>แขวง ห้วยขวาง</t>
-  </si>
-  <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
-    <t>แขวง คลองต้นไทร</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตยเหนือ</t>
-  </si>
-  <si>
-    <t>แขวง ลาดยาว</t>
-  </si>
-  <si>
-    <t>ไร่ขิง</t>
-  </si>
-  <si>
-    <t>แขวง ท่าแร้ง</t>
-  </si>
-  <si>
-    <t>แขวง บุคคโล</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตย</t>
-  </si>
-  <si>
-    <t>แขวง อนุสาวรีย์</t>
-  </si>
-  <si>
-    <t>แขวง ช่องนนทรี</t>
-  </si>
-  <si>
-    <t>แขวง บางคอแหลม</t>
-  </si>
-  <si>
-    <t>บางรักน้อย</t>
-  </si>
-  <si>
-    <t>แขวง คันนายาว</t>
-  </si>
-  <si>
     <t>ขาย้อย</t>
   </si>
   <si>
@@ -1642,87 +1294,66 @@
     <t>หัวไผ่</t>
   </si>
   <si>
-    <t>เขตบางขุนเทียน</t>
+    <t>เขตจตุจักร</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
+  </si>
+  <si>
+    <t>เขต หลักสี่</t>
+  </si>
+  <si>
+    <t>เขตห้วยขวาง</t>
   </si>
   <si>
     <t>เมืองอ่างทอง</t>
   </si>
   <si>
+    <t>เมืองสมุทรสงคราม</t>
+  </si>
+  <si>
     <t>เมืองนนทบุรี</t>
   </si>
   <si>
-    <t>ลาดหลุมแก้ว</t>
-  </si>
-  <si>
-    <t>เขตบางบอน</t>
-  </si>
-  <si>
-    <t>เขตจอมทอง</t>
-  </si>
-  <si>
-    <t>ลำลูกกา</t>
-  </si>
-  <si>
-    <t>เมืองเชียงราย</t>
+    <t>นครหลวง</t>
+  </si>
+  <si>
+    <t>เขตดินแดง</t>
+  </si>
+  <si>
+    <t>เขตราชเทวี</t>
+  </si>
+  <si>
+    <t>เขตคลองสาน</t>
+  </si>
+  <si>
+    <t>เขตวัฒนา</t>
+  </si>
+  <si>
+    <t>สามพราน</t>
+  </si>
+  <si>
+    <t>เขตบางเขน</t>
+  </si>
+  <si>
+    <t>เขตธนบุรี</t>
+  </si>
+  <si>
+    <t>เขตคลองเตย</t>
+  </si>
+  <si>
+    <t>เขต ยานนาวา</t>
+  </si>
+  <si>
+    <t>เขตบางคอแหลม</t>
+  </si>
+  <si>
+    <t>เขตคันนายาว</t>
   </si>
   <si>
     <t>คลองหลวง</t>
   </si>
   <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
-    <t>ศรีสาคร</t>
-  </si>
-  <si>
-    <t>เขต หลักสี่</t>
-  </si>
-  <si>
-    <t>เขตจตุจักร</t>
-  </si>
-  <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
-    <t>นครหลวง</t>
-  </si>
-  <si>
-    <t>เมืองสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>เขตดินแดง</t>
-  </si>
-  <si>
-    <t>เขตราชเทวี</t>
-  </si>
-  <si>
-    <t>เขตคลองสาน</t>
-  </si>
-  <si>
-    <t>เขตวัฒนา</t>
-  </si>
-  <si>
-    <t>สามพราน</t>
-  </si>
-  <si>
-    <t>เขตบางเขน</t>
-  </si>
-  <si>
-    <t>เขตธนบุรี</t>
-  </si>
-  <si>
-    <t>เขตคลองเตย</t>
-  </si>
-  <si>
-    <t>เขต ยานนาวา</t>
-  </si>
-  <si>
-    <t>เขตบางคอแหลม</t>
-  </si>
-  <si>
-    <t>เขตคันนายาว</t>
-  </si>
-  <si>
     <t>เขาย้อย</t>
   </si>
   <si>
@@ -1741,114 +1372,87 @@
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
     <t>กาญจนบุรี</t>
   </si>
   <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
-    <t>นครพนม</t>
-  </si>
-  <si>
-    <t>นนทบุรี</t>
+    <t>นครปฐม</t>
   </si>
   <si>
     <t>ปทุมธานี</t>
   </si>
   <si>
-    <t>เชียงราย</t>
+    <t>เพชรบุรี</t>
   </si>
   <si>
     <t>นราธิวาส</t>
   </si>
   <si>
-    <t>สมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>นครปฐม</t>
-  </si>
-  <si>
-    <t>เพชรบุรี</t>
-  </si>
-  <si>
-    <t>10150</t>
-  </si>
-  <si>
-    <t>71120</t>
+    <t>10900</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
+    <t>10310</t>
   </si>
   <si>
     <t>14000</t>
   </si>
   <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>48110</t>
+    <t>75000</t>
   </si>
   <si>
     <t>11000</t>
   </si>
   <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>12130</t>
-  </si>
-  <si>
-    <t>57000</t>
+    <t>13260</t>
+  </si>
+  <si>
+    <t>71110</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>73210</t>
+  </si>
+  <si>
+    <t>10220</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>10230</t>
   </si>
   <si>
     <t>12120</t>
   </si>
   <si>
-    <t>10330</t>
-  </si>
-  <si>
-    <t>96210</t>
-  </si>
-  <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>10900</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
-    <t>71110</t>
-  </si>
-  <si>
-    <t>13260</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
-    <t>73210</t>
-  </si>
-  <si>
-    <t>10220</t>
-  </si>
-  <si>
-    <t>10120</t>
-  </si>
-  <si>
-    <t>10230</t>
-  </si>
-  <si>
     <t>76140</t>
   </si>
   <si>
@@ -1864,87 +1468,72 @@
     <t>13000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>10</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -1954,10 +1543,10 @@
     <t>25</t>
   </si>
   <si>
+    <t>ชาย</t>
+  </si>
+  <si>
     <t>หญิง</t>
-  </si>
-  <si>
-    <t>ชาย</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2399,49 +1988,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F2" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="M2" t="s">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="N2" t="s">
-        <v>542</v>
+        <v>426</v>
       </c>
       <c r="O2" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P2" t="s">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="R2" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2449,52 +2038,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="M3" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="N3" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="O3" t="s">
-        <v>575</v>
+        <v>452</v>
       </c>
       <c r="P3" t="s">
-        <v>587</v>
+        <v>462</v>
       </c>
       <c r="Q3" t="s">
-        <v>616</v>
+        <v>484</v>
       </c>
       <c r="R3" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2502,52 +2091,49 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F4" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N4" t="s">
         <v>427</v>
       </c>
-      <c r="M4" t="s">
-        <v>504</v>
-      </c>
-      <c r="N4" t="s">
-        <v>543</v>
-      </c>
       <c r="O4" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="P4" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>616</v>
+        <v>463</v>
       </c>
       <c r="R4" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2555,52 +2141,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I5" t="s">
-        <v>338</v>
-      </c>
-      <c r="J5" t="s">
-        <v>416</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="M5" t="s">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="N5" t="s">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="O5" t="s">
-        <v>577</v>
+        <v>452</v>
       </c>
       <c r="P5" t="s">
-        <v>589</v>
+        <v>462</v>
       </c>
       <c r="Q5" t="s">
-        <v>617</v>
+        <v>485</v>
       </c>
       <c r="R5" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2608,52 +2194,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" t="s">
-        <v>417</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="M6" t="s">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="N6" t="s">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="O6" t="s">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="P6" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
       <c r="Q6" t="s">
-        <v>617</v>
+        <v>486</v>
       </c>
       <c r="R6" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2661,52 +2247,49 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="M7" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="N7" t="s">
-        <v>543</v>
+        <v>428</v>
       </c>
       <c r="O7" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="P7" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>618</v>
+        <v>464</v>
       </c>
       <c r="R7" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2714,49 +2297,49 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F8" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G8" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I8" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="M8" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="N8" t="s">
-        <v>544</v>
+        <v>429</v>
       </c>
       <c r="O8" t="s">
-        <v>579</v>
+        <v>451</v>
       </c>
       <c r="P8" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="R8" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2764,52 +2347,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G9" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="J9" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="M9" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="N9" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="O9" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="P9" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="Q9" t="s">
-        <v>617</v>
+        <v>487</v>
       </c>
       <c r="R9" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2817,49 +2400,52 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F10" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="J10" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="M10" t="s">
-        <v>509</v>
+        <v>398</v>
       </c>
       <c r="N10" t="s">
-        <v>546</v>
+        <v>400</v>
       </c>
       <c r="O10" t="s">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="P10" t="s">
-        <v>586</v>
+        <v>462</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>485</v>
       </c>
       <c r="R10" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2867,46 +2453,52 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F11" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J11" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="M11" t="s">
-        <v>508</v>
+        <v>398</v>
       </c>
       <c r="N11" t="s">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="O11" t="s">
-        <v>580</v>
+        <v>452</v>
       </c>
       <c r="P11" t="s">
-        <v>592</v>
+        <v>462</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>488</v>
+      </c>
+      <c r="R11" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2914,49 +2506,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F12" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="G12" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="M12" t="s">
+        <v>404</v>
+      </c>
+      <c r="N12" t="s">
+        <v>431</v>
+      </c>
+      <c r="O12" t="s">
+        <v>454</v>
+      </c>
+      <c r="P12" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>489</v>
+      </c>
+      <c r="R12" t="s">
         <v>510</v>
-      </c>
-      <c r="N12" t="s">
-        <v>547</v>
-      </c>
-      <c r="O12" t="s">
-        <v>574</v>
-      </c>
-      <c r="P12" t="s">
-        <v>586</v>
-      </c>
-      <c r="R12" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2964,52 +2559,49 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44217</v>
+      </c>
+      <c r="G13" t="s">
         <v>263</v>
       </c>
-      <c r="E13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G13" t="s">
-        <v>332</v>
-      </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="M13" t="s">
-        <v>511</v>
+        <v>348</v>
       </c>
       <c r="N13" t="s">
-        <v>548</v>
+        <v>432</v>
       </c>
       <c r="O13" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
       <c r="P13" t="s">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="Q13" t="s">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="R13" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3017,52 +2609,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44217</v>
+      </c>
+      <c r="G14" t="s">
         <v>264</v>
       </c>
-      <c r="E14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G14" t="s">
-        <v>332</v>
-      </c>
       <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" t="s">
         <v>334</v>
       </c>
-      <c r="I14" t="s">
-        <v>347</v>
-      </c>
-      <c r="J14" t="s">
-        <v>419</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="M14" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="N14" t="s">
-        <v>549</v>
+        <v>433</v>
       </c>
       <c r="O14" t="s">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="P14" t="s">
-        <v>594</v>
+        <v>469</v>
       </c>
       <c r="Q14" t="s">
-        <v>620</v>
+        <v>487</v>
       </c>
       <c r="R14" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3070,52 +2662,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F15" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="G15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" t="s">
         <v>332</v>
       </c>
-      <c r="H15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I15" t="s">
-        <v>348</v>
-      </c>
-      <c r="J15" t="s">
-        <v>418</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="M15" t="s">
-        <v>513</v>
+        <v>404</v>
       </c>
       <c r="N15" t="s">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="O15" t="s">
-        <v>580</v>
+        <v>454</v>
       </c>
       <c r="P15" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
       <c r="Q15" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
       <c r="R15" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3123,49 +2715,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="E16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G16" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" t="s">
-        <v>333</v>
-      </c>
       <c r="I16" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="M16" t="s">
-        <v>514</v>
+        <v>404</v>
       </c>
       <c r="N16" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="O16" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P16" t="s">
-        <v>596</v>
+        <v>467</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>492</v>
       </c>
       <c r="R16" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3173,52 +2768,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F17" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="G17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" t="s">
         <v>332</v>
       </c>
-      <c r="H17" t="s">
-        <v>334</v>
-      </c>
-      <c r="I17" t="s">
-        <v>350</v>
-      </c>
-      <c r="J17" t="s">
-        <v>420</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="M17" t="s">
-        <v>515</v>
+        <v>404</v>
       </c>
       <c r="N17" t="s">
-        <v>552</v>
+        <v>431</v>
       </c>
       <c r="O17" t="s">
-        <v>582</v>
+        <v>454</v>
       </c>
       <c r="P17" t="s">
-        <v>597</v>
+        <v>467</v>
       </c>
       <c r="Q17" t="s">
-        <v>622</v>
+        <v>489</v>
       </c>
       <c r="R17" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3226,52 +2821,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F18" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="G18" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I18" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="M18" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
       <c r="N18" t="s">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="O18" t="s">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="P18" t="s">
-        <v>588</v>
+        <v>470</v>
       </c>
       <c r="Q18" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="R18" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3279,52 +2874,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F19" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I19" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="J19" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="M19" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="N19" t="s">
-        <v>518</v>
+        <v>434</v>
       </c>
       <c r="O19" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
       <c r="P19" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>624</v>
+        <v>471</v>
       </c>
       <c r="R19" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3332,49 +2924,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F20" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I20" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="J20" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="M20" t="s">
-        <v>516</v>
+        <v>404</v>
       </c>
       <c r="N20" t="s">
-        <v>553</v>
+        <v>431</v>
       </c>
       <c r="O20" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P20" t="s">
-        <v>598</v>
+        <v>467</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>494</v>
       </c>
       <c r="R20" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3382,49 +2977,49 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F21" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G21" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="J21" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="M21" t="s">
-        <v>517</v>
+        <v>408</v>
       </c>
       <c r="N21" t="s">
-        <v>551</v>
+        <v>435</v>
       </c>
       <c r="O21" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P21" t="s">
-        <v>596</v>
+        <v>471</v>
       </c>
       <c r="R21" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3432,52 +3027,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F22" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H22" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="J22" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="M22" t="s">
-        <v>518</v>
+        <v>409</v>
       </c>
       <c r="N22" t="s">
-        <v>518</v>
+        <v>436</v>
       </c>
       <c r="O22" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
       <c r="P22" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>622</v>
+        <v>472</v>
       </c>
       <c r="R22" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3485,52 +3077,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F23" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G23" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H23" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="J23" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="M23" t="s">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="N23" t="s">
-        <v>518</v>
+        <v>437</v>
       </c>
       <c r="O23" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
       <c r="P23" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>625</v>
+        <v>473</v>
       </c>
       <c r="R23" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3538,52 +3127,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F24" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="J24" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="M24" t="s">
-        <v>505</v>
+        <v>409</v>
       </c>
       <c r="N24" t="s">
-        <v>518</v>
+        <v>436</v>
       </c>
       <c r="O24" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
       <c r="P24" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>626</v>
+        <v>472</v>
       </c>
       <c r="R24" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3591,52 +3177,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F25" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G25" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="J25" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="M25" t="s">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="N25" t="s">
-        <v>543</v>
+        <v>435</v>
       </c>
       <c r="O25" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="P25" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>627</v>
+        <v>471</v>
       </c>
       <c r="R25" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3644,52 +3227,52 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F26" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H26" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I26" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="J26" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="M26" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
       <c r="N26" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
       <c r="O26" t="s">
-        <v>577</v>
+        <v>453</v>
       </c>
       <c r="P26" t="s">
-        <v>589</v>
+        <v>466</v>
       </c>
       <c r="Q26" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="R26" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3697,49 +3280,52 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F27" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="G27" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="M27" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="N27" t="s">
-        <v>554</v>
+        <v>431</v>
       </c>
       <c r="O27" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P27" t="s">
-        <v>599</v>
+        <v>467</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>496</v>
       </c>
       <c r="R27" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3747,49 +3333,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F28" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="M28" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
       <c r="N28" t="s">
-        <v>555</v>
+        <v>438</v>
       </c>
       <c r="O28" t="s">
-        <v>574</v>
+        <v>457</v>
       </c>
       <c r="P28" t="s">
-        <v>600</v>
+        <v>474</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>484</v>
       </c>
       <c r="R28" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3797,52 +3386,52 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F29" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" t="s">
+        <v>294</v>
+      </c>
+      <c r="J29" t="s">
         <v>332</v>
       </c>
-      <c r="H29" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" t="s">
-        <v>362</v>
-      </c>
-      <c r="J29" t="s">
-        <v>414</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="M29" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="N29" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="O29" t="s">
-        <v>575</v>
+        <v>454</v>
       </c>
       <c r="P29" t="s">
-        <v>601</v>
+        <v>467</v>
       </c>
       <c r="Q29" t="s">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="R29" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3850,49 +3439,52 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F30" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I30" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>453</v>
+        <v>365</v>
+      </c>
+      <c r="M30" t="s">
+        <v>404</v>
       </c>
       <c r="N30" t="s">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="O30" t="s">
-        <v>579</v>
+        <v>454</v>
       </c>
       <c r="P30" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="Q30" t="s">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="R30" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3900,52 +3492,49 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F31" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H31" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="M31" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="N31" t="s">
-        <v>556</v>
+        <v>426</v>
       </c>
       <c r="O31" t="s">
-        <v>573</v>
+        <v>451</v>
       </c>
       <c r="P31" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>627</v>
+        <v>461</v>
       </c>
       <c r="R31" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3953,52 +3542,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F32" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G32" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
         <v>332</v>
       </c>
-      <c r="H32" t="s">
-        <v>334</v>
-      </c>
-      <c r="I32" t="s">
-        <v>365</v>
-      </c>
-      <c r="J32" t="s">
-        <v>424</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="M32" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="N32" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="O32" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="P32" t="s">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="Q32" t="s">
-        <v>630</v>
+        <v>498</v>
       </c>
       <c r="R32" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4006,52 +3595,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F33" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
         <v>332</v>
       </c>
-      <c r="H33" t="s">
-        <v>334</v>
-      </c>
-      <c r="I33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J33" t="s">
-        <v>424</v>
-      </c>
       <c r="K33" s="3" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="M33" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="N33" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="O33" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="P33" t="s">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="Q33" t="s">
-        <v>631</v>
+        <v>499</v>
       </c>
       <c r="R33" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4059,52 +3648,49 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F34" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I34" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="N34" t="s">
-        <v>557</v>
+        <v>439</v>
       </c>
       <c r="O34" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P34" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>631</v>
+        <v>475</v>
       </c>
       <c r="R34" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4112,52 +3698,49 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F35" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I35" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="N35" t="s">
-        <v>543</v>
+        <v>439</v>
       </c>
       <c r="O35" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="P35" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>632</v>
+        <v>475</v>
       </c>
       <c r="R35" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4165,52 +3748,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F36" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
         <v>332</v>
       </c>
-      <c r="H36" t="s">
-        <v>334</v>
-      </c>
-      <c r="I36" t="s">
-        <v>369</v>
-      </c>
-      <c r="J36" t="s">
-        <v>424</v>
-      </c>
       <c r="K36" s="3" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="M36" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="N36" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="O36" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="P36" t="s">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="Q36" t="s">
-        <v>633</v>
+        <v>488</v>
       </c>
       <c r="R36" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4218,49 +3801,49 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F37" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G37" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H37" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s">
-        <v>524</v>
+        <v>409</v>
       </c>
       <c r="N37" t="s">
-        <v>558</v>
+        <v>436</v>
       </c>
       <c r="O37" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P37" t="s">
-        <v>604</v>
+        <v>472</v>
       </c>
       <c r="R37" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4268,49 +3851,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F38" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G38" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H38" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I38" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s">
-        <v>525</v>
+        <v>409</v>
       </c>
       <c r="N38" t="s">
-        <v>559</v>
+        <v>436</v>
       </c>
       <c r="O38" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P38" t="s">
-        <v>604</v>
+        <v>472</v>
       </c>
       <c r="R38" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4318,49 +3901,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F39" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G39" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="J39" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>462</v>
+        <v>374</v>
       </c>
       <c r="M39" t="s">
-        <v>526</v>
+        <v>415</v>
       </c>
       <c r="N39" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="O39" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P39" t="s">
-        <v>605</v>
+        <v>472</v>
       </c>
       <c r="R39" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4368,52 +3951,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F40" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G40" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="J40" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="M40" t="s">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="N40" t="s">
-        <v>557</v>
+        <v>441</v>
       </c>
       <c r="O40" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P40" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>634</v>
+        <v>473</v>
       </c>
       <c r="R40" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4421,49 +4001,52 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F41" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="G41" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H41" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s">
-        <v>527</v>
+        <v>404</v>
       </c>
       <c r="N41" t="s">
-        <v>561</v>
+        <v>431</v>
       </c>
       <c r="O41" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P41" t="s">
-        <v>606</v>
+        <v>467</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>500</v>
       </c>
       <c r="R41" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4471,49 +4054,52 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F42" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="G42" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="J42" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="N42" t="s">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="O42" t="s">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="P42" t="s">
-        <v>605</v>
+        <v>462</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>486</v>
       </c>
       <c r="R42" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4521,49 +4107,52 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F43" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="G43" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H43" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I43" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="J43" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>466</v>
+        <v>378</v>
       </c>
       <c r="M43" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="N43" t="s">
-        <v>559</v>
+        <v>431</v>
       </c>
       <c r="O43" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P43" t="s">
-        <v>604</v>
+        <v>467</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>501</v>
       </c>
       <c r="R43" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4571,52 +4160,52 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F44" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G44" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
         <v>332</v>
       </c>
-      <c r="H44" t="s">
-        <v>334</v>
-      </c>
-      <c r="I44" t="s">
-        <v>377</v>
-      </c>
-      <c r="J44" t="s">
-        <v>424</v>
-      </c>
       <c r="K44" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="s">
+        <v>404</v>
+      </c>
+      <c r="N44" t="s">
+        <v>431</v>
+      </c>
+      <c r="O44" t="s">
+        <v>454</v>
+      </c>
+      <c r="P44" t="s">
         <v>467</v>
       </c>
-      <c r="M44" t="s">
-        <v>523</v>
-      </c>
-      <c r="N44" t="s">
-        <v>557</v>
-      </c>
-      <c r="O44" t="s">
-        <v>583</v>
-      </c>
-      <c r="P44" t="s">
-        <v>603</v>
-      </c>
       <c r="Q44" t="s">
-        <v>624</v>
+        <v>502</v>
       </c>
       <c r="R44" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4624,52 +4213,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F45" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H45" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="J45" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>468</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s">
-        <v>523</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s">
-        <v>557</v>
+        <v>438</v>
       </c>
       <c r="O45" t="s">
-        <v>583</v>
+        <v>457</v>
       </c>
       <c r="P45" t="s">
-        <v>603</v>
+        <v>474</v>
       </c>
       <c r="Q45" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="R45" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4677,49 +4266,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F46" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G46" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>469</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="N46" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="O46" t="s">
-        <v>574</v>
+        <v>451</v>
       </c>
       <c r="P46" t="s">
-        <v>599</v>
+        <v>476</v>
       </c>
       <c r="R46" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4727,52 +4316,49 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F47" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H47" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I47" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="J47" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>470</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s">
-        <v>523</v>
+        <v>418</v>
       </c>
       <c r="N47" t="s">
-        <v>557</v>
+        <v>443</v>
       </c>
       <c r="O47" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P47" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>636</v>
+        <v>476</v>
       </c>
       <c r="R47" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4780,52 +4366,49 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F48" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G48" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s">
-        <v>557</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P48" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>637</v>
+        <v>475</v>
       </c>
       <c r="R48" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4833,52 +4416,49 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="J49" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K49" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" t="s">
+        <v>409</v>
+      </c>
+      <c r="N49" t="s">
+        <v>436</v>
+      </c>
+      <c r="O49" t="s">
+        <v>451</v>
+      </c>
+      <c r="P49" t="s">
         <v>472</v>
       </c>
-      <c r="M49" t="s">
-        <v>523</v>
-      </c>
-      <c r="N49" t="s">
-        <v>557</v>
-      </c>
-      <c r="O49" t="s">
-        <v>583</v>
-      </c>
-      <c r="P49" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>638</v>
-      </c>
       <c r="R49" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4886,52 +4466,49 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F50" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I50" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s">
-        <v>523</v>
+        <v>409</v>
       </c>
       <c r="N50" t="s">
-        <v>557</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P50" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="R50" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4939,52 +4516,49 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F51" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="G51" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s">
-        <v>562</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>624</v>
+        <v>475</v>
       </c>
       <c r="R51" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4992,49 +4566,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F52" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H52" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="I52" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
       <c r="N52" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="O52" t="s">
-        <v>574</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s">
-        <v>608</v>
+        <v>468</v>
       </c>
       <c r="R52" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5042,52 +4616,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F53" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="J53" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s">
-        <v>523</v>
+        <v>420</v>
       </c>
       <c r="N53" t="s">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="O53" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="P53" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="R53" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5095,49 +4666,52 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="E54" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F54" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="G54" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I54" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="J54" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>477</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s">
-        <v>526</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P54" t="s">
-        <v>605</v>
+        <v>467</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>503</v>
       </c>
       <c r="R54" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5145,49 +4719,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F55" s="2">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="G55" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H55" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I55" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="K55" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="s">
+        <v>421</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>458</v>
+      </c>
+      <c r="P55" t="s">
         <v>478</v>
       </c>
-      <c r="M55" t="s">
-        <v>526</v>
-      </c>
-      <c r="N55" t="s">
-        <v>560</v>
-      </c>
-      <c r="O55" t="s">
-        <v>574</v>
-      </c>
-      <c r="P55" t="s">
-        <v>605</v>
+      <c r="Q55" t="s">
+        <v>504</v>
       </c>
       <c r="R55" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5195,49 +4772,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F56" s="2">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="G56" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H56" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="J56" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>479</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="N56" t="s">
-        <v>564</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
-        <v>574</v>
+        <v>454</v>
       </c>
       <c r="P56" t="s">
-        <v>605</v>
+        <v>467</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>492</v>
       </c>
       <c r="R56" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5245,49 +4825,52 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="E57" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" t="s">
+        <v>265</v>
+      </c>
+      <c r="I57" t="s">
+        <v>322</v>
+      </c>
+      <c r="J57" t="s">
         <v>330</v>
       </c>
-      <c r="F57" s="2">
-        <v>44218</v>
-      </c>
-      <c r="G57" t="s">
-        <v>331</v>
-      </c>
-      <c r="H57" t="s">
-        <v>333</v>
-      </c>
-      <c r="I57" t="s">
-        <v>390</v>
-      </c>
-      <c r="J57" t="s">
-        <v>413</v>
-      </c>
       <c r="K57" s="3" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s">
-        <v>532</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s">
-        <v>565</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>574</v>
+        <v>459</v>
       </c>
       <c r="P57" t="s">
-        <v>606</v>
+        <v>479</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>505</v>
       </c>
       <c r="R57" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5295,49 +4878,52 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F58" s="2">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="G58" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="H58" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="J58" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s">
-        <v>533</v>
+        <v>423</v>
       </c>
       <c r="N58" t="s">
-        <v>563</v>
+        <v>447</v>
       </c>
       <c r="O58" t="s">
-        <v>574</v>
+        <v>460</v>
       </c>
       <c r="P58" t="s">
-        <v>608</v>
+        <v>480</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>496</v>
       </c>
       <c r="R58" t="s">
-        <v>647</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5345,52 +4931,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2">
-        <v>44219</v>
+        <v>44222</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H59" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="I59" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="J59" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="N59" t="s">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="O59" t="s">
-        <v>577</v>
+        <v>453</v>
       </c>
       <c r="P59" t="s">
-        <v>589</v>
+        <v>481</v>
       </c>
       <c r="Q59" t="s">
-        <v>625</v>
+        <v>506</v>
       </c>
       <c r="R59" t="s">
-        <v>646</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5398,52 +4984,52 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F60" s="2">
-        <v>44219</v>
+        <v>44222</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H60" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" t="s">
         <v>334</v>
       </c>
-      <c r="I60" t="s">
-        <v>393</v>
-      </c>
-      <c r="J60" t="s">
-        <v>424</v>
-      </c>
       <c r="K60" s="3" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="N60" t="s">
-        <v>557</v>
+        <v>449</v>
       </c>
       <c r="O60" t="s">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="P60" t="s">
-        <v>603</v>
+        <v>482</v>
       </c>
       <c r="Q60" t="s">
-        <v>640</v>
+        <v>497</v>
       </c>
       <c r="R60" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5451,52 +5037,49 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F61" s="2">
-        <v>44219</v>
+        <v>44224</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="H61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" t="s">
         <v>334</v>
       </c>
-      <c r="I61" t="s">
-        <v>394</v>
-      </c>
-      <c r="J61" t="s">
-        <v>424</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M61" t="s">
-        <v>523</v>
+        <v>395</v>
       </c>
       <c r="N61" t="s">
-        <v>557</v>
+        <v>450</v>
       </c>
       <c r="O61" t="s">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="P61" t="s">
-        <v>603</v>
+        <v>483</v>
       </c>
       <c r="Q61" t="s">
-        <v>617</v>
+        <v>507</v>
       </c>
       <c r="R61" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5504,926 +5087,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="F62" s="2">
-        <v>44219</v>
+        <v>44224</v>
       </c>
       <c r="G62" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" t="s">
         <v>331</v>
       </c>
-      <c r="H62" t="s">
-        <v>333</v>
-      </c>
-      <c r="I62" t="s">
-        <v>395</v>
-      </c>
-      <c r="J62" t="s">
-        <v>422</v>
-      </c>
       <c r="K62" s="3" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s">
-        <v>584</v>
+        <v>453</v>
       </c>
       <c r="P62" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
       <c r="Q62" t="s">
-        <v>624</v>
+        <v>508</v>
       </c>
       <c r="R62" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" t="s">
-        <v>330</v>
-      </c>
-      <c r="F63" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G63" t="s">
-        <v>331</v>
-      </c>
-      <c r="H63" t="s">
-        <v>333</v>
-      </c>
-      <c r="I63" t="s">
-        <v>396</v>
-      </c>
-      <c r="J63" t="s">
-        <v>413</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="M63" t="s">
-        <v>534</v>
-      </c>
-      <c r="N63" t="s">
-        <v>566</v>
-      </c>
-      <c r="O63" t="s">
-        <v>574</v>
-      </c>
-      <c r="P63" t="s">
-        <v>609</v>
-      </c>
-      <c r="R63" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" t="s">
-        <v>314</v>
-      </c>
-      <c r="E64" t="s">
-        <v>330</v>
-      </c>
-      <c r="F64" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G64" t="s">
-        <v>331</v>
-      </c>
-      <c r="H64" t="s">
-        <v>333</v>
-      </c>
-      <c r="I64" t="s">
-        <v>397</v>
-      </c>
-      <c r="J64" t="s">
-        <v>413</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="M64" t="s">
-        <v>535</v>
-      </c>
-      <c r="N64" t="s">
-        <v>567</v>
-      </c>
-      <c r="O64" t="s">
-        <v>574</v>
-      </c>
-      <c r="P64" t="s">
-        <v>609</v>
-      </c>
-      <c r="R64" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" t="s">
-        <v>315</v>
-      </c>
-      <c r="E65" t="s">
-        <v>330</v>
-      </c>
-      <c r="F65" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G65" t="s">
-        <v>331</v>
-      </c>
-      <c r="H65" t="s">
-        <v>333</v>
-      </c>
-      <c r="I65" t="s">
-        <v>398</v>
-      </c>
-      <c r="J65" t="s">
-        <v>413</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M65" t="s">
-        <v>530</v>
-      </c>
-      <c r="N65" t="s">
-        <v>563</v>
-      </c>
-      <c r="O65" t="s">
-        <v>574</v>
-      </c>
-      <c r="P65" t="s">
-        <v>608</v>
-      </c>
-      <c r="R65" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" t="s">
-        <v>316</v>
-      </c>
-      <c r="E66" t="s">
-        <v>330</v>
-      </c>
-      <c r="F66" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G66" t="s">
-        <v>331</v>
-      </c>
-      <c r="H66" t="s">
-        <v>333</v>
-      </c>
-      <c r="I66" t="s">
-        <v>399</v>
-      </c>
-      <c r="J66" t="s">
-        <v>413</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M66" t="s">
-        <v>526</v>
-      </c>
-      <c r="N66" t="s">
-        <v>560</v>
-      </c>
-      <c r="O66" t="s">
-        <v>574</v>
-      </c>
-      <c r="P66" t="s">
-        <v>605</v>
-      </c>
-      <c r="R66" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" t="s">
-        <v>330</v>
-      </c>
-      <c r="F67" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G67" t="s">
-        <v>331</v>
-      </c>
-      <c r="H67" t="s">
-        <v>333</v>
-      </c>
-      <c r="I67" t="s">
-        <v>400</v>
-      </c>
-      <c r="J67" t="s">
-        <v>413</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="M67" t="s">
-        <v>526</v>
-      </c>
-      <c r="N67" t="s">
-        <v>560</v>
-      </c>
-      <c r="O67" t="s">
-        <v>574</v>
-      </c>
-      <c r="P67" t="s">
-        <v>605</v>
-      </c>
-      <c r="R67" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" t="s">
-        <v>318</v>
-      </c>
-      <c r="E68" t="s">
-        <v>330</v>
-      </c>
-      <c r="F68" s="2">
-        <v>44219</v>
-      </c>
-      <c r="G68" t="s">
-        <v>331</v>
-      </c>
-      <c r="H68" t="s">
-        <v>333</v>
-      </c>
-      <c r="I68" t="s">
-        <v>401</v>
-      </c>
-      <c r="J68" t="s">
-        <v>413</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="M68" t="s">
-        <v>530</v>
-      </c>
-      <c r="N68" t="s">
-        <v>563</v>
-      </c>
-      <c r="O68" t="s">
-        <v>574</v>
-      </c>
-      <c r="P68" t="s">
-        <v>608</v>
-      </c>
-      <c r="R68" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" t="s">
-        <v>319</v>
-      </c>
-      <c r="E69" t="s">
-        <v>330</v>
-      </c>
-      <c r="F69" s="2">
-        <v>44220</v>
-      </c>
-      <c r="G69" t="s">
-        <v>331</v>
-      </c>
-      <c r="H69" t="s">
-        <v>333</v>
-      </c>
-      <c r="I69" t="s">
-        <v>402</v>
-      </c>
-      <c r="J69" t="s">
-        <v>413</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="M69" t="s">
-        <v>536</v>
-      </c>
-      <c r="N69" t="s">
-        <v>544</v>
-      </c>
-      <c r="O69" t="s">
-        <v>579</v>
-      </c>
-      <c r="P69" t="s">
-        <v>591</v>
-      </c>
-      <c r="R69" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>320</v>
-      </c>
-      <c r="E70" t="s">
-        <v>330</v>
-      </c>
-      <c r="F70" s="2">
-        <v>44220</v>
-      </c>
-      <c r="G70" t="s">
-        <v>331</v>
-      </c>
-      <c r="H70" t="s">
-        <v>333</v>
-      </c>
-      <c r="I70" t="s">
-        <v>403</v>
-      </c>
-      <c r="J70" t="s">
-        <v>413</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="M70" t="s">
-        <v>537</v>
-      </c>
-      <c r="N70" t="s">
-        <v>568</v>
-      </c>
-      <c r="O70" t="s">
-        <v>574</v>
-      </c>
-      <c r="P70" t="s">
-        <v>610</v>
-      </c>
-      <c r="R70" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" t="s">
-        <v>321</v>
-      </c>
-      <c r="E71" t="s">
-        <v>330</v>
-      </c>
-      <c r="F71" s="2">
-        <v>44220</v>
-      </c>
-      <c r="G71" t="s">
-        <v>332</v>
-      </c>
-      <c r="H71" t="s">
-        <v>334</v>
-      </c>
-      <c r="I71" t="s">
-        <v>404</v>
-      </c>
-      <c r="J71" t="s">
-        <v>424</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="M71" t="s">
-        <v>523</v>
-      </c>
-      <c r="N71" t="s">
-        <v>557</v>
-      </c>
-      <c r="O71" t="s">
-        <v>583</v>
-      </c>
-      <c r="P71" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>641</v>
-      </c>
-      <c r="R71" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" t="s">
-        <v>330</v>
-      </c>
-      <c r="F72" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G72" t="s">
-        <v>332</v>
-      </c>
-      <c r="H72" t="s">
-        <v>334</v>
-      </c>
-      <c r="I72" t="s">
-        <v>405</v>
-      </c>
-      <c r="J72" t="s">
-        <v>423</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="M72" t="s">
-        <v>513</v>
-      </c>
-      <c r="N72" t="s">
-        <v>550</v>
-      </c>
-      <c r="O72" t="s">
-        <v>580</v>
-      </c>
-      <c r="P72" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>642</v>
-      </c>
-      <c r="R72" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" t="s">
-        <v>323</v>
-      </c>
-      <c r="E73" t="s">
-        <v>330</v>
-      </c>
-      <c r="F73" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G73" t="s">
-        <v>332</v>
-      </c>
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="I73" t="s">
-        <v>406</v>
-      </c>
-      <c r="J73" t="s">
-        <v>424</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="M73" t="s">
-        <v>523</v>
-      </c>
-      <c r="N73" t="s">
-        <v>557</v>
-      </c>
-      <c r="O73" t="s">
-        <v>583</v>
-      </c>
-      <c r="P73" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>633</v>
-      </c>
-      <c r="R73" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" t="s">
-        <v>324</v>
-      </c>
-      <c r="E74" t="s">
-        <v>330</v>
-      </c>
-      <c r="F74" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G74" t="s">
-        <v>331</v>
-      </c>
-      <c r="H74" t="s">
-        <v>333</v>
-      </c>
-      <c r="I74" t="s">
-        <v>407</v>
-      </c>
-      <c r="J74" t="s">
-        <v>421</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="M74" t="s">
-        <v>538</v>
-      </c>
-      <c r="N74" t="s">
-        <v>569</v>
-      </c>
-      <c r="O74" t="s">
-        <v>585</v>
-      </c>
-      <c r="P74" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>619</v>
-      </c>
-      <c r="R74" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" t="s">
-        <v>325</v>
-      </c>
-      <c r="E75" t="s">
-        <v>330</v>
-      </c>
-      <c r="F75" s="2">
-        <v>44221</v>
-      </c>
-      <c r="G75" t="s">
-        <v>332</v>
-      </c>
-      <c r="H75" t="s">
-        <v>334</v>
-      </c>
-      <c r="I75" t="s">
-        <v>408</v>
-      </c>
-      <c r="J75" t="s">
-        <v>420</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="M75" t="s">
-        <v>539</v>
-      </c>
-      <c r="N75" t="s">
-        <v>570</v>
-      </c>
-      <c r="O75" t="s">
-        <v>582</v>
-      </c>
-      <c r="P75" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>637</v>
-      </c>
-      <c r="R75" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" t="s">
-        <v>330</v>
-      </c>
-      <c r="F76" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G76" t="s">
-        <v>332</v>
-      </c>
-      <c r="H76" t="s">
-        <v>334</v>
-      </c>
-      <c r="I76" t="s">
-        <v>409</v>
-      </c>
-      <c r="J76" t="s">
-        <v>415</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="M76" t="s">
-        <v>540</v>
-      </c>
-      <c r="N76" t="s">
-        <v>571</v>
-      </c>
-      <c r="O76" t="s">
-        <v>576</v>
-      </c>
-      <c r="P76" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>643</v>
-      </c>
-      <c r="R76" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" t="s">
-        <v>171</v>
-      </c>
-      <c r="C77" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" t="s">
-        <v>327</v>
-      </c>
-      <c r="E77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F77" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G77" t="s">
-        <v>332</v>
-      </c>
-      <c r="H77" t="s">
-        <v>334</v>
-      </c>
-      <c r="I77" t="s">
-        <v>410</v>
-      </c>
-      <c r="J77" t="s">
-        <v>423</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="M77" t="s">
-        <v>541</v>
-      </c>
-      <c r="N77" t="s">
-        <v>572</v>
-      </c>
-      <c r="O77" t="s">
-        <v>573</v>
-      </c>
-      <c r="P77" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>635</v>
-      </c>
-      <c r="R77" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
-      <c r="A78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" t="s">
-        <v>328</v>
-      </c>
-      <c r="E78" t="s">
-        <v>330</v>
-      </c>
-      <c r="F78" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G78" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" t="s">
-        <v>334</v>
-      </c>
-      <c r="I78" t="s">
-        <v>411</v>
-      </c>
-      <c r="J78" t="s">
-        <v>423</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N78" t="s">
-        <v>573</v>
-      </c>
-      <c r="O78" t="s">
-        <v>573</v>
-      </c>
-      <c r="P78" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>644</v>
-      </c>
-      <c r="R78" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="A79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" t="s">
-        <v>329</v>
-      </c>
-      <c r="E79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F79" s="2">
-        <v>44224</v>
-      </c>
-      <c r="G79" t="s">
-        <v>332</v>
-      </c>
-      <c r="H79" t="s">
-        <v>334</v>
-      </c>
-      <c r="I79" t="s">
-        <v>412</v>
-      </c>
-      <c r="J79" t="s">
-        <v>415</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="M79" t="s">
-        <v>504</v>
-      </c>
-      <c r="N79" t="s">
-        <v>543</v>
-      </c>
-      <c r="O79" t="s">
-        <v>576</v>
-      </c>
-      <c r="P79" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>645</v>
-      </c>
-      <c r="R79" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6489,23 +5198,6 @@
     <hyperlink ref="K60" r:id="rId59"/>
     <hyperlink ref="K61" r:id="rId60"/>
     <hyperlink ref="K62" r:id="rId61"/>
-    <hyperlink ref="K63" r:id="rId62"/>
-    <hyperlink ref="K64" r:id="rId63"/>
-    <hyperlink ref="K65" r:id="rId64"/>
-    <hyperlink ref="K66" r:id="rId65"/>
-    <hyperlink ref="K67" r:id="rId66"/>
-    <hyperlink ref="K68" r:id="rId67"/>
-    <hyperlink ref="K69" r:id="rId68"/>
-    <hyperlink ref="K70" r:id="rId69"/>
-    <hyperlink ref="K71" r:id="rId70"/>
-    <hyperlink ref="K72" r:id="rId71"/>
-    <hyperlink ref="K73" r:id="rId72"/>
-    <hyperlink ref="K74" r:id="rId73"/>
-    <hyperlink ref="K75" r:id="rId74"/>
-    <hyperlink ref="K76" r:id="rId75"/>
-    <hyperlink ref="K77" r:id="rId76"/>
-    <hyperlink ref="K78" r:id="rId77"/>
-    <hyperlink ref="K79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="552">
   <si>
     <t>gid</t>
   </si>
@@ -73,162 +73,180 @@
     <t>794</t>
   </si>
   <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
     <t>747</t>
   </si>
   <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
     <t>787</t>
   </si>
   <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
     <t>748</t>
   </si>
   <si>
+    <t>768</t>
+  </si>
+  <si>
     <t>782</t>
   </si>
   <si>
-    <t>768</t>
+    <t>780</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>745</t>
   </si>
   <si>
     <t>753</t>
   </si>
   <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>745</t>
+    <t>815</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>811</t>
   </si>
   <si>
     <t>799</t>
   </si>
   <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
     <t>784</t>
   </si>
   <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
     <t>774</t>
   </si>
   <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>776</t>
+    <t>772</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>825</t>
   </si>
   <si>
     <t>796</t>
   </si>
   <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
     <t>830</t>
   </si>
   <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>772</t>
+    <t>770</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>820</t>
   </si>
   <si>
     <t>783</t>
   </si>
   <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>817</t>
+    <t>829</t>
+  </si>
+  <si>
+    <t>823</t>
   </si>
   <si>
     <t>831</t>
   </si>
   <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
     <t>827</t>
   </si>
   <si>
-    <t>829</t>
+    <t>836</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>834</t>
   </si>
   <si>
     <t>819</t>
   </si>
   <si>
+    <t>785</t>
+  </si>
+  <si>
     <t>821</t>
   </si>
   <si>
-    <t>785</t>
-  </si>
-  <si>
     <t>810</t>
   </si>
   <si>
@@ -241,177 +259,195 @@
     <t>802</t>
   </si>
   <si>
+    <t>809</t>
+  </si>
+  <si>
     <t>808</t>
   </si>
   <si>
-    <t>809</t>
+    <t>816</t>
   </si>
   <si>
     <t>818</t>
   </si>
   <si>
-    <t>816</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 699</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 709</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 708</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 688</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 694</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 687</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 688</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 703</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 702</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 701</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 680</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
@@ -424,177 +460,195 @@
     <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 117</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
-  </si>
-  <si>
     <t>13.81611195</t>
   </si>
   <si>
+    <t>13.37266492</t>
+  </si>
+  <si>
+    <t>13.37239571</t>
+  </si>
+  <si>
+    <t>13.74871188</t>
+  </si>
+  <si>
+    <t>13.85519716</t>
+  </si>
+  <si>
     <t>13.37234365</t>
   </si>
   <si>
+    <t>13.37240194</t>
+  </si>
+  <si>
+    <t>13.74048824</t>
+  </si>
+  <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
     <t>13.74048254</t>
   </si>
   <si>
-    <t>13.37240194</t>
-  </si>
-  <si>
-    <t>13.37266492</t>
-  </si>
-  <si>
-    <t>13.85519716</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.37239571</t>
-  </si>
-  <si>
     <t>13.37240823</t>
   </si>
   <si>
+    <t>13.86503444</t>
+  </si>
+  <si>
     <t>13.40628035</t>
   </si>
   <si>
-    <t>13.86503444</t>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.40598552</t>
+  </si>
+  <si>
+    <t>13.70982294</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.97565922</t>
   </si>
   <si>
     <t>14.39857579</t>
   </si>
   <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>13.40598552</t>
-  </si>
-  <si>
-    <t>13.97565922</t>
+    <t>13.72649737</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>13.75814784</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
   </si>
   <si>
     <t>13.7584487</t>
   </si>
   <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72649737</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
-  </si>
-  <si>
     <t>14.58472864</t>
   </si>
   <si>
+    <t>13.72651523</t>
+  </si>
+  <si>
+    <t>13.71349454</t>
+  </si>
+  <si>
+    <t>13.40583946</t>
+  </si>
+  <si>
+    <t>13.40595472</t>
+  </si>
+  <si>
+    <t>13.40597333</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.73936751</t>
+  </si>
+  <si>
     <t>13.40596242</t>
   </si>
   <si>
-    <t>13.73936751</t>
-  </si>
-  <si>
-    <t>13.40595472</t>
-  </si>
-  <si>
-    <t>13.40597333</t>
+    <t>13.40593161</t>
+  </si>
+  <si>
+    <t>13.86203428</t>
+  </si>
+  <si>
+    <t>13.40650905</t>
+  </si>
+  <si>
+    <t>13.72037624</t>
+  </si>
+  <si>
+    <t>13.72604683</t>
+  </si>
+  <si>
+    <t>13.72666176</t>
   </si>
   <si>
     <t>13.82875611</t>
   </si>
   <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
     <t>13.86278523</t>
   </si>
   <si>
-    <t>13.86203428</t>
-  </si>
-  <si>
-    <t>13.40650905</t>
-  </si>
-  <si>
-    <t>13.72604683</t>
-  </si>
-  <si>
-    <t>13.72666176</t>
-  </si>
-  <si>
-    <t>13.71349454</t>
-  </si>
-  <si>
-    <t>13.72037624</t>
-  </si>
-  <si>
-    <t>13.40593161</t>
+    <t>13.40639916</t>
+  </si>
+  <si>
+    <t>13.40621925</t>
+  </si>
+  <si>
+    <t>13.73937398</t>
+  </si>
+  <si>
+    <t>13.72650241</t>
+  </si>
+  <si>
+    <t>13.6940188</t>
   </si>
   <si>
     <t>13.37258002</t>
   </si>
   <si>
-    <t>13.40639916</t>
-  </si>
-  <si>
-    <t>13.40621925</t>
-  </si>
-  <si>
-    <t>13.73937398</t>
+    <t>13.86278896</t>
+  </si>
+  <si>
+    <t>13.87076462</t>
   </si>
   <si>
     <t>13.69777073</t>
   </si>
   <si>
-    <t>13.6940188</t>
-  </si>
-  <si>
-    <t>13.87076462</t>
-  </si>
-  <si>
-    <t>13.72650241</t>
-  </si>
-  <si>
     <t>13.72667218</t>
   </si>
   <si>
-    <t>13.86278896</t>
+    <t>13.86731361</t>
+  </si>
+  <si>
+    <t>13.86746725</t>
+  </si>
+  <si>
+    <t>13.76544688</t>
   </si>
   <si>
     <t>13.86745361</t>
   </si>
   <si>
+    <t>13.40627124</t>
+  </si>
+  <si>
     <t>13.82627701</t>
   </si>
   <si>
-    <t>13.40627124</t>
-  </si>
-  <si>
     <t>14.07331044</t>
   </si>
   <si>
@@ -607,177 +661,195 @@
     <t>6.414712255</t>
   </si>
   <si>
+    <t>14.53781454</t>
+  </si>
+  <si>
     <t>14.5932932</t>
   </si>
   <si>
-    <t>14.53781454</t>
+    <t>14.58474281</t>
   </si>
   <si>
     <t>14.34377313</t>
   </si>
   <si>
-    <t>14.58474281</t>
-  </si>
-  <si>
     <t>100.5611614</t>
   </si>
   <si>
+    <t>99.84102394</t>
+  </si>
+  <si>
+    <t>99.84065417</t>
+  </si>
+  <si>
+    <t>100.5832291</t>
+  </si>
+  <si>
+    <t>100.5422268</t>
+  </si>
+  <si>
     <t>99.84068885</t>
   </si>
   <si>
+    <t>99.84054831</t>
+  </si>
+  <si>
+    <t>100.5223528</t>
+  </si>
+  <si>
+    <t>100.452165</t>
+  </si>
+  <si>
     <t>100.522356</t>
   </si>
   <si>
-    <t>99.84054831</t>
-  </si>
-  <si>
-    <t>99.84102394</t>
-  </si>
-  <si>
-    <t>100.5422268</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>99.84065417</t>
-  </si>
-  <si>
     <t>99.84044998</t>
   </si>
   <si>
+    <t>100.4814358</t>
+  </si>
+  <si>
     <t>99.99793397</t>
   </si>
   <si>
-    <t>100.4814358</t>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>99.9981405</t>
+  </si>
+  <si>
+    <t>100.6008927</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.63108216</t>
   </si>
   <si>
     <t>100.5929883</t>
   </si>
   <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>99.9981405</t>
-  </si>
-  <si>
-    <t>99.63108216</t>
+    <t>100.5098294</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>100.5350653</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
   </si>
   <si>
     <t>100.5659092</t>
   </si>
   <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098294</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
-  </si>
-  <si>
     <t>100.4521962</t>
   </si>
   <si>
+    <t>100.5098025</t>
+  </si>
+  <si>
+    <t>100.4800501</t>
+  </si>
+  <si>
+    <t>99.99822947</t>
+  </si>
+  <si>
+    <t>99.99779066</t>
+  </si>
+  <si>
+    <t>99.99799763</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>100.2556886</t>
+  </si>
+  <si>
     <t>99.99806255</t>
   </si>
   <si>
-    <t>100.2556886</t>
-  </si>
-  <si>
-    <t>99.99779066</t>
-  </si>
-  <si>
-    <t>99.99799763</t>
+    <t>99.99826105</t>
+  </si>
+  <si>
+    <t>100.6124718</t>
+  </si>
+  <si>
+    <t>99.99794955</t>
+  </si>
+  <si>
+    <t>100.5600709</t>
+  </si>
+  <si>
+    <t>100.5098724</t>
+  </si>
+  <si>
+    <t>100.5093037</t>
   </si>
   <si>
     <t>100.5687203</t>
   </si>
   <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
     <t>100.6667972</t>
   </si>
   <si>
-    <t>100.6124718</t>
-  </si>
-  <si>
-    <t>99.99794955</t>
-  </si>
-  <si>
-    <t>100.5098724</t>
-  </si>
-  <si>
-    <t>100.5093037</t>
-  </si>
-  <si>
-    <t>100.4800501</t>
-  </si>
-  <si>
-    <t>100.5600709</t>
-  </si>
-  <si>
-    <t>99.99826105</t>
+    <t>99.99785987</t>
+  </si>
+  <si>
+    <t>99.99800648</t>
+  </si>
+  <si>
+    <t>100.2556031</t>
+  </si>
+  <si>
+    <t>100.5096835</t>
+  </si>
+  <si>
+    <t>100.4952169</t>
   </si>
   <si>
     <t>99.84082331</t>
   </si>
   <si>
-    <t>99.99785987</t>
-  </si>
-  <si>
-    <t>99.99800648</t>
-  </si>
-  <si>
-    <t>100.2556031</t>
+    <t>100.6667595</t>
+  </si>
+  <si>
+    <t>100.6678623</t>
   </si>
   <si>
     <t>100.5376964</t>
   </si>
   <si>
-    <t>100.4952169</t>
-  </si>
-  <si>
-    <t>100.6678623</t>
-  </si>
-  <si>
-    <t>100.5096835</t>
-  </si>
-  <si>
     <t>100.5096041</t>
   </si>
   <si>
-    <t>100.6667595</t>
+    <t>100.4525367</t>
+  </si>
+  <si>
+    <t>100.4526896</t>
+  </si>
+  <si>
+    <t>100.7250703</t>
   </si>
   <si>
     <t>100.4526926</t>
   </si>
   <si>
+    <t>99.99796867</t>
+  </si>
+  <si>
     <t>100.6790148</t>
   </si>
   <si>
-    <t>99.99796867</t>
-  </si>
-  <si>
     <t>100.6149782</t>
   </si>
   <si>
@@ -790,18 +862,18 @@
     <t>101.8237514</t>
   </si>
   <si>
+    <t>100.5283131</t>
+  </si>
+  <si>
     <t>100.3463765</t>
   </si>
   <si>
-    <t>100.5283131</t>
+    <t>100.4522083</t>
   </si>
   <si>
     <t>100.5601081</t>
   </si>
   <si>
-    <t>100.4522083</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -820,162 +892,180 @@
     <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
+    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
+    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
+  </si>
+  <si>
     <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
   </si>
   <si>
+    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 699 ชายธุรกิจออนไลน์</t>
+  </si>
+  <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
     <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
   </si>
   <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
-  </si>
-  <si>
     <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
   </si>
   <si>
+    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+  </si>
+  <si>
     <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
   </si>
   <si>
-    <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 709 ชาย อาชีพอิสระ</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
   </si>
   <si>
     <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
   </si>
   <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
   </si>
   <si>
     <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
   </si>
   <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 708 หญิงพนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
     <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
   </si>
   <si>
-    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
     <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
   </si>
   <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
-  </si>
-  <si>
-    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
+    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
+    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
   </si>
   <si>
     <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
-    <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+    <t>ผู้ป่วยรายที่ 688 ชาย ค้าขาย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 694 ชาย พนักงานบริษัท</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 687 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 688 ชาย ค้าขาย</t>
+    <t>ผู้ป่วยรายที่ 703 ชาย นักเรียน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 702 หญิง อายุ 63 ปี ไม่ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 701 หญิงพนักงานบริษัท</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
   </si>
   <si>
+    <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ 680 ชาย อาชีพทนาย</t>
   </si>
   <si>
-    <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
     <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
   </si>
   <si>
@@ -988,201 +1078,219 @@
     <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
   </si>
   <si>
+    <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ : 117 เพศ : ชาย สัญชาติ : ไทย อายุ : 45 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
+    <t>ผู้ป่วยรายที่ : 118 เพศ : หญิง สัญชาติ : ไทย อายุ : 25 ปี ต.ไผ่ดำพัฒนา อ.วิเศษชัยชาญ</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ : 118 เพศ : หญิง สัญชาติ : ไทย อายุ : 25 ปี ต.ไผ่ดำพัฒนา อ.วิเศษชัยชาญ</t>
-  </si>
-  <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
+    <t>ข่าวเด็ดเพชรบุรี</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
   </si>
   <si>
-    <t>ข่าวเด็ดเพชรบุรี</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
   </si>
   <si>
+    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+  </si>
+  <si>
     <t>Covid-19 จังหวัดสมุทรสงคราม</t>
   </si>
   <si>
-    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
   </si>
   <si>
     <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
   </si>
   <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
   </si>
   <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915672741365</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
   </si>
   <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
   </si>
   <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915916074674</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
   </si>
   <si>
     <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
-  </si>
-  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915742741358</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
   </si>
   <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619343270998</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619876604278</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619293271003</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619343270998</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915286074737</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915276074738</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206916042741328</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618683271064</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
   </si>
   <si>
@@ -1195,87 +1303,93 @@
     <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
   </si>
   <si>
+    <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
+  </si>
+  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20117.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
   </si>
   <si>
     <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
   </si>
   <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
-  </si>
-  <si>
     <t>แขวง จตุจักร</t>
   </si>
   <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
     <t>ยางหัก</t>
   </si>
   <si>
+    <t>แขวง บางกะปิ</t>
+  </si>
+  <si>
+    <t>แขวง ทุ่งสองห้อง</t>
+  </si>
+  <si>
     <t>แขวง รองเมือง</t>
   </si>
   <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
-    <t>แขวง ทุ่งสองห้อง</t>
-  </si>
-  <si>
-    <t>แขวง บางกะปิ</t>
-  </si>
-  <si>
     <t>บางแก้ว</t>
   </si>
   <si>
     <t>แม่กลอง</t>
   </si>
   <si>
+    <t>แขวง พระโขนงเหนือ</t>
+  </si>
+  <si>
+    <t>ท่าม่วง</t>
+  </si>
+  <si>
     <t>บ่อโพง</t>
   </si>
   <si>
-    <t>ท่าม่วง</t>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตยเหนือ</t>
   </si>
   <si>
     <t>แขวง ห้วยขวาง</t>
   </si>
   <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
-    <t>แขวง คลองต้นไทร</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตยเหนือ</t>
+    <t>แขวง บุคคโล</t>
   </si>
   <si>
     <t>ไร่ขิง</t>
   </si>
   <si>
+    <t>แขวง อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตย</t>
+  </si>
+  <si>
     <t>แขวง ลาดยาว</t>
   </si>
   <si>
     <t>แขวง ท่าแร้ง</t>
   </si>
   <si>
-    <t>แขวง อนุสาวรีย์</t>
-  </si>
-  <si>
-    <t>แขวง บุคคโล</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตย</t>
+    <t>แขวง บางคอแหลม</t>
   </si>
   <si>
     <t>แขวง ช่องนนทรี</t>
   </si>
   <si>
-    <t>แขวง บางคอแหลม</t>
-  </si>
-  <si>
     <t>บางรักน้อย</t>
   </si>
   <si>
+    <t>แขวง คลองสองต้นนุ่น</t>
+  </si>
+  <si>
     <t>แขวง คันนายาว</t>
   </si>
   <si>
@@ -1288,46 +1402,49 @@
     <t>บางนาค</t>
   </si>
   <si>
+    <t>หัวไผ่</t>
+  </si>
+  <si>
     <t>ศาลเจ้าโรงทอง</t>
   </si>
   <si>
-    <t>หัวไผ่</t>
-  </si>
-  <si>
     <t>เขตจตุจักร</t>
   </si>
   <si>
+    <t>เขตห้วยขวาง</t>
+  </si>
+  <si>
+    <t>เขต หลักสี่</t>
+  </si>
+  <si>
     <t>เขตปทุมวัน</t>
   </si>
   <si>
-    <t>เขต หลักสี่</t>
-  </si>
-  <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
     <t>เมืองอ่างทอง</t>
   </si>
   <si>
+    <t>เมืองนนทบุรี</t>
+  </si>
+  <si>
     <t>เมืองสมุทรสงคราม</t>
   </si>
   <si>
-    <t>เมืองนนทบุรี</t>
+    <t>เขตวัฒนา</t>
   </si>
   <si>
     <t>นครหลวง</t>
   </si>
   <si>
+    <t>เขตคลองสาน</t>
+  </si>
+  <si>
+    <t>เขตราชเทวี</t>
+  </si>
+  <si>
     <t>เขตดินแดง</t>
   </si>
   <si>
-    <t>เขตราชเทวี</t>
-  </si>
-  <si>
-    <t>เขตคลองสาน</t>
-  </si>
-  <si>
-    <t>เขตวัฒนา</t>
+    <t>เขตธนบุรี</t>
   </si>
   <si>
     <t>สามพราน</t>
@@ -1336,16 +1453,16 @@
     <t>เขตบางเขน</t>
   </si>
   <si>
-    <t>เขตธนบุรี</t>
-  </si>
-  <si>
     <t>เขตคลองเตย</t>
   </si>
   <si>
+    <t>เขตบางคอแหลม</t>
+  </si>
+  <si>
     <t>เขต ยานนาวา</t>
   </si>
   <si>
-    <t>เขตบางคอแหลม</t>
+    <t>เขตลาดกระบัง</t>
   </si>
   <si>
     <t>เขตคันนายาว</t>
@@ -1360,12 +1477,12 @@
     <t>เมืองนราธิวาส</t>
   </si>
   <si>
+    <t>มหาราช จังหวัด</t>
+  </si>
+  <si>
     <t>วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>มหาราช จังหวัด</t>
-  </si>
-  <si>
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
@@ -1378,12 +1495,12 @@
     <t>อ่างทอง</t>
   </si>
   <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
     <t>สมุทรสงคราม</t>
   </si>
   <si>
-    <t>นนทบุรี</t>
-  </si>
-  <si>
     <t>กาญจนบุรี</t>
   </si>
   <si>
@@ -1405,39 +1522,39 @@
     <t>70140</t>
   </si>
   <si>
+    <t>10310</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
     <t>10330</t>
   </si>
   <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
     <t>14000</t>
   </si>
   <si>
+    <t>11000</t>
+  </si>
+  <si>
     <t>75000</t>
   </si>
   <si>
-    <t>11000</t>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>71110</t>
   </si>
   <si>
     <t>13260</t>
   </si>
   <si>
-    <t>71110</t>
+    <t>10600</t>
   </si>
   <si>
     <t>10400</t>
   </si>
   <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>10110</t>
-  </si>
-  <si>
     <t>73210</t>
   </si>
   <si>
@@ -1447,6 +1564,9 @@
     <t>10120</t>
   </si>
   <si>
+    <t>10520</t>
+  </si>
+  <si>
     <t>10230</t>
   </si>
   <si>
@@ -1459,63 +1579,63 @@
     <t>96000</t>
   </si>
   <si>
+    <t>13150</t>
+  </si>
+  <si>
     <t>14110</t>
   </si>
   <si>
-    <t>13150</t>
-  </si>
-  <si>
     <t>13000</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
-    <t>30</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -1525,6 +1645,9 @@
     <t>51</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
@@ -1537,10 +1660,10 @@
     <t>45</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>86</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>ชาย</t>
@@ -1921,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1988,49 +2111,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F2" s="2">
         <v>44216</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="J2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="M2" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="N2" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="O2" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P2" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="R2" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2038,52 +2161,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2">
         <v>44216</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="M3" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="N3" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="O3" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="P3" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="Q3" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="R3" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2091,49 +2214,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F4" s="2">
         <v>44216</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="M4" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="N4" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="O4" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P4" t="s">
-        <v>463</v>
+        <v>501</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>525</v>
       </c>
       <c r="R4" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2141,52 +2267,49 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F5" s="2">
         <v>44216</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="M5" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="N5" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="O5" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="P5" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="R5" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2194,52 +2317,49 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F6" s="2">
         <v>44216</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="J6" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="M6" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="N6" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="O6" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="P6" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="R6" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2247,49 +2367,52 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2">
         <v>44216</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="M7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="N7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O7" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P7" t="s">
-        <v>464</v>
+        <v>501</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>526</v>
       </c>
       <c r="R7" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2297,49 +2420,52 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2">
         <v>44216</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="M8" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="N8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="O8" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P8" t="s">
-        <v>465</v>
+        <v>501</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>525</v>
       </c>
       <c r="R8" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2347,52 +2473,49 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F9" s="2">
         <v>44216</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I9" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="M9" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="N9" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="O9" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="P9" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="R9" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2400,52 +2523,52 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2">
         <v>44216</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="M10" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="N10" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="O10" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="P10" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="Q10" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="R10" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2453,52 +2576,49 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F11" s="2">
         <v>44216</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="M11" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="N11" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="O11" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="P11" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="R11" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2506,52 +2626,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F12" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="M12" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="N12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O12" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="P12" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="Q12" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="R12" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2559,49 +2679,49 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F13" s="2">
         <v>44217</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="N13" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="O13" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="P13" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="Q13" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="R13" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2609,52 +2729,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F14" s="2">
         <v>44217</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="M14" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="N14" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="O14" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="P14" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="Q14" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="R14" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2662,52 +2782,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F15" s="2">
         <v>44217</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M15" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N15" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O15" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="P15" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="Q15" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="R15" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2715,52 +2835,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F16" s="2">
         <v>44217</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="J16" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="M16" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N16" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O16" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="P16" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="Q16" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="R16" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2768,52 +2888,49 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F17" s="2">
         <v>44217</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="J17" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="M17" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="N17" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="O17" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P17" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="R17" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2821,52 +2938,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F18" s="2">
         <v>44217</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="J18" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="M18" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="N18" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="O18" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="P18" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="Q18" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="R18" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2874,49 +2991,52 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F19" s="2">
         <v>44217</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="M19" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="N19" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="O19" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P19" t="s">
-        <v>471</v>
+        <v>507</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>533</v>
       </c>
       <c r="R19" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2924,52 +3044,52 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2">
         <v>44217</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="J20" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="M20" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="N20" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="O20" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="P20" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="Q20" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="R20" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2977,49 +3097,52 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F21" s="2">
         <v>44217</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I21" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="M21" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="N21" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="O21" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="P21" t="s">
-        <v>471</v>
+        <v>510</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>527</v>
       </c>
       <c r="R21" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3027,49 +3150,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F22" s="2">
         <v>44217</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H22" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I22" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="M22" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="N22" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="O22" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P22" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="R22" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3077,49 +3200,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F23" s="2">
         <v>44217</v>
       </c>
       <c r="G23" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I23" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="J23" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="M23" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="N23" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="O23" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P23" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="R23" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3127,49 +3250,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F24" s="2">
         <v>44217</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I24" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="M24" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="N24" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="O24" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P24" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="R24" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3177,49 +3300,49 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F25" s="2">
         <v>44217</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="M25" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="N25" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="O25" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P25" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="R25" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3227,52 +3350,49 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F26" s="2">
         <v>44217</v>
       </c>
       <c r="G26" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="M26" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="N26" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="O26" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="P26" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="R26" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3280,52 +3400,49 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F27" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I27" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="J27" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="M27" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="N27" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="O27" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P27" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="R27" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3333,52 +3450,52 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F28" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="J28" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="M28" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="N28" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="O28" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="P28" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="Q28" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="R28" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3386,52 +3503,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F29" s="2">
         <v>44218</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="M29" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="N29" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="O29" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P29" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="R29" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3439,52 +3553,49 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F30" s="2">
         <v>44218</v>
       </c>
       <c r="G30" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="J30" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="M30" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="N30" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="O30" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P30" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="R30" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3492,49 +3603,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F31" s="2">
         <v>44218</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="M31" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="N31" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="O31" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P31" t="s">
-        <v>461</v>
+        <v>507</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>536</v>
       </c>
       <c r="R31" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3542,52 +3656,52 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F32" s="2">
         <v>44218</v>
       </c>
       <c r="G32" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="J32" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="M32" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N32" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O32" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="P32" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="Q32" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="R32" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3595,52 +3709,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F33" s="2">
         <v>44218</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="J33" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="M33" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N33" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O33" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="P33" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="Q33" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="R33" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3648,49 +3762,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F34" s="2">
         <v>44218</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="M34" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="N34" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="O34" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P34" t="s">
-        <v>475</v>
+        <v>507</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>538</v>
       </c>
       <c r="R34" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3698,49 +3815,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F35" s="2">
         <v>44218</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M35" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="N35" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="O35" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="P35" t="s">
-        <v>475</v>
+        <v>513</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>526</v>
       </c>
       <c r="R35" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3748,52 +3868,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F36" s="2">
         <v>44218</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H36" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="M36" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N36" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O36" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="P36" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="Q36" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="R36" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3801,49 +3921,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F37" s="2">
         <v>44218</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="M37" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="N37" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="O37" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P37" t="s">
-        <v>472</v>
+        <v>507</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>540</v>
       </c>
       <c r="R37" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3851,49 +3974,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F38" s="2">
         <v>44218</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="M38" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="N38" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="O38" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P38" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="R38" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3901,49 +4024,52 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F39" s="2">
         <v>44218</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="M39" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="N39" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="O39" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P39" t="s">
-        <v>472</v>
+        <v>507</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>528</v>
       </c>
       <c r="R39" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3951,49 +4077,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F40" s="2">
         <v>44218</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="N40" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="O40" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P40" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="R40" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4001,52 +4127,49 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F41" s="2">
         <v>44218</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="N41" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="O41" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P41" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="R41" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4054,52 +4177,49 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F42" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H42" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="M42" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="N42" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="O42" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="P42" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="R42" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4107,52 +4227,49 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F43" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G43" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="M43" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="N43" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="O43" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P43" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R43" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4160,52 +4277,49 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F44" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="G44" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="M44" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="N44" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O44" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P44" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="R44" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4213,52 +4327,52 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F45" s="2">
         <v>44219</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I45" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="J45" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="N45" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="O45" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="P45" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="Q45" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="R45" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4266,49 +4380,52 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F46" s="2">
         <v>44219</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="M46" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="N46" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="O46" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P46" t="s">
-        <v>476</v>
+        <v>507</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>542</v>
       </c>
       <c r="R46" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4316,49 +4433,52 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F47" s="2">
         <v>44219</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="N47" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="O47" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="P47" t="s">
-        <v>476</v>
+        <v>513</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>526</v>
       </c>
       <c r="R47" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4366,49 +4486,49 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F48" s="2">
         <v>44219</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="N48" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="O48" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P48" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="R48" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4416,49 +4536,49 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F49" s="2">
         <v>44219</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="N49" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="O49" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P49" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="R49" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4466,49 +4586,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F50" s="2">
         <v>44219</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I50" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="N50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O50" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P50" t="s">
-        <v>472</v>
+        <v>501</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>524</v>
       </c>
       <c r="R50" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4516,49 +4639,49 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F51" s="2">
         <v>44219</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H51" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="J51" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="N51" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="O51" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P51" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="R51" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4566,49 +4689,49 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F52" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G52" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="J52" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="M52" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="O52" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="P52" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="R52" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4616,49 +4739,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F53" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G53" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="J53" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="N53" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="O53" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P53" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="R53" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4666,52 +4789,49 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F54" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I54" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="J54" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="O54" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="P54" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="R54" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4719,52 +4839,49 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F55" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="J55" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="N55" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="O55" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="P55" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R55" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4772,52 +4889,52 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F56" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="J56" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="N56" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="O56" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="P56" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="Q56" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="R56" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4825,52 +4942,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F57" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H57" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="J57" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="P57" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="R57" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4878,52 +4992,49 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F58" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="J58" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="N58" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="O58" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="P58" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="R58" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4931,52 +5042,52 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F59" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="J59" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="N59" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="P59" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="Q59" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="R59" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4984,52 +5095,49 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F60" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="O60" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="P60" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="R60" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5037,49 +5145,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F61" s="2">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="J61" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>395</v>
+        <v>425</v>
+      </c>
+      <c r="M61" t="s">
+        <v>459</v>
       </c>
       <c r="N61" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="O61" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="P61" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="Q61" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="R61" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5087,52 +5198,367 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F62" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G62" t="s">
+        <v>288</v>
+      </c>
+      <c r="H62" t="s">
+        <v>290</v>
+      </c>
+      <c r="I62" t="s">
+        <v>351</v>
+      </c>
+      <c r="J62" t="s">
+        <v>363</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M62" t="s">
+        <v>440</v>
+      </c>
+      <c r="N62" t="s">
+        <v>470</v>
+      </c>
+      <c r="O62" t="s">
+        <v>494</v>
+      </c>
+      <c r="P62" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>531</v>
+      </c>
+      <c r="R62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" t="s">
+        <v>352</v>
+      </c>
+      <c r="J63" t="s">
+        <v>359</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" t="s">
+        <v>460</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>498</v>
+      </c>
+      <c r="P63" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>546</v>
+      </c>
+      <c r="R63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64" s="2">
+        <v>44221</v>
+      </c>
+      <c r="G64" t="s">
+        <v>288</v>
+      </c>
+      <c r="H64" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" t="s">
+        <v>353</v>
+      </c>
+      <c r="J64" t="s">
+        <v>366</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s">
+        <v>461</v>
+      </c>
+      <c r="N64" t="s">
+        <v>486</v>
+      </c>
+      <c r="O64" t="s">
+        <v>499</v>
+      </c>
+      <c r="P64" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>539</v>
+      </c>
+      <c r="R64" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65" t="s">
+        <v>286</v>
+      </c>
+      <c r="F65" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G65" t="s">
+        <v>288</v>
+      </c>
+      <c r="H65" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" t="s">
+        <v>354</v>
+      </c>
+      <c r="J65" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" t="s">
+        <v>462</v>
+      </c>
+      <c r="N65" t="s">
+        <v>487</v>
+      </c>
+      <c r="O65" t="s">
+        <v>489</v>
+      </c>
+      <c r="P65" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>537</v>
+      </c>
+      <c r="R65" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" s="2">
+        <v>44222</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" t="s">
+        <v>290</v>
+      </c>
+      <c r="I66" t="s">
+        <v>355</v>
+      </c>
+      <c r="J66" t="s">
+        <v>361</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s">
+        <v>463</v>
+      </c>
+      <c r="N66" t="s">
+        <v>488</v>
+      </c>
+      <c r="O66" t="s">
+        <v>492</v>
+      </c>
+      <c r="P66" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>547</v>
+      </c>
+      <c r="R66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" s="2">
         <v>44224</v>
       </c>
-      <c r="G62" t="s">
-        <v>264</v>
-      </c>
-      <c r="H62" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" t="s">
-        <v>327</v>
-      </c>
-      <c r="J62" t="s">
-        <v>331</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="M62" t="s">
-        <v>403</v>
-      </c>
-      <c r="N62" t="s">
-        <v>430</v>
-      </c>
-      <c r="O62" t="s">
-        <v>453</v>
-      </c>
-      <c r="P62" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>508</v>
-      </c>
-      <c r="R62" t="s">
-        <v>510</v>
+      <c r="G67" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" t="s">
+        <v>290</v>
+      </c>
+      <c r="I67" t="s">
+        <v>356</v>
+      </c>
+      <c r="J67" t="s">
+        <v>361</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M67" t="s">
+        <v>439</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>492</v>
+      </c>
+      <c r="P67" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>548</v>
+      </c>
+      <c r="R67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="2">
+        <v>44224</v>
+      </c>
+      <c r="G68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+      <c r="I68" t="s">
+        <v>357</v>
+      </c>
+      <c r="J68" t="s">
+        <v>365</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N68" t="s">
+        <v>489</v>
+      </c>
+      <c r="O68" t="s">
+        <v>489</v>
+      </c>
+      <c r="P68" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>549</v>
+      </c>
+      <c r="R68" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5198,6 +5624,12 @@
     <hyperlink ref="K60" r:id="rId59"/>
     <hyperlink ref="K61" r:id="rId60"/>
     <hyperlink ref="K62" r:id="rId61"/>
+    <hyperlink ref="K63" r:id="rId62"/>
+    <hyperlink ref="K64" r:id="rId63"/>
+    <hyperlink ref="K65" r:id="rId64"/>
+    <hyperlink ref="K66" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="K68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="578">
   <si>
     <t>gid</t>
   </si>
@@ -70,808 +70,838 @@
     <t>gender</t>
   </si>
   <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
     <t>794</t>
   </si>
   <si>
+    <t>733</t>
+  </si>
+  <si>
     <t>805</t>
   </si>
   <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>748</t>
+    <t>745</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>795</t>
   </si>
   <si>
     <t>768</t>
   </si>
   <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>781</t>
+    <t>799</t>
   </si>
   <si>
     <t>838</t>
   </si>
   <si>
-    <t>779</t>
+    <t>753</t>
+  </si>
+  <si>
+    <t>811</t>
   </si>
   <si>
     <t>778</t>
   </si>
   <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
     <t>815</t>
   </si>
   <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>784</t>
+    <t>773</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>825</t>
   </si>
   <si>
     <t>837</t>
   </si>
   <si>
+    <t>826</t>
+  </si>
+  <si>
     <t>822</t>
   </si>
   <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>830</t>
+    <t>823</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>817</t>
   </si>
   <si>
     <t>770</t>
   </si>
   <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>817</t>
+    <t>783</t>
   </si>
   <si>
     <t>824</t>
   </si>
   <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
     <t>829</t>
   </si>
   <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>827</t>
+    <t>835</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>785</t>
   </si>
   <si>
     <t>836</t>
   </si>
   <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
     <t>821</t>
   </si>
   <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
     <t>810</t>
   </si>
   <si>
-    <t>807</t>
-  </si>
-  <si>
     <t>804</t>
   </si>
   <si>
-    <t>802</t>
-  </si>
-  <si>
     <t>809</t>
   </si>
   <si>
     <t>808</t>
   </si>
   <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
     <t>816</t>
   </si>
   <si>
-    <t>818</t>
+    <t>839</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 699</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 699</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 160</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 709</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 41</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 657</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 708</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 681</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 37</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 687</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 694</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 44</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 43</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดนนทบุรี รายที่ 162</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 683</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 677</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 28</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 688</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 682</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 694</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 687</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 702</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 701</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
   </si>
   <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 703</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 702</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 701</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 674</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 45</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 680</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดนราธิวาส รายที่ 7</t>
-  </si>
-  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 117</t>
   </si>
   <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดมหาสารคาม รายที่ 16</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
+  </si>
+  <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 118</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดนครปฐม รายที่ 78</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดมหาสารคาม รายที่ 17</t>
+  </si>
+  <si>
+    <t>13.85519716</t>
+  </si>
+  <si>
+    <t>13.37234365</t>
+  </si>
+  <si>
+    <t>13.37240823</t>
+  </si>
+  <si>
+    <t>13.37239571</t>
+  </si>
+  <si>
+    <t>13.37240194</t>
+  </si>
+  <si>
+    <t>13.74048824</t>
+  </si>
+  <si>
+    <t>13.74871188</t>
+  </si>
+  <si>
+    <t>13.74048254</t>
   </si>
   <si>
     <t>13.81611195</t>
   </si>
   <si>
+    <t>14.58473062</t>
+  </si>
+  <si>
     <t>13.37266492</t>
   </si>
   <si>
-    <t>13.37239571</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>13.85519716</t>
-  </si>
-  <si>
-    <t>13.37234365</t>
-  </si>
-  <si>
-    <t>13.37240194</t>
-  </si>
-  <si>
-    <t>13.74048824</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.74048254</t>
-  </si>
-  <si>
-    <t>13.37240823</t>
+    <t>13.97565922</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.40598552</t>
+  </si>
+  <si>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>14.58472864</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
+  </si>
+  <si>
+    <t>13.76042483</t>
+  </si>
+  <si>
+    <t>13.75814784</t>
   </si>
   <si>
     <t>13.86503444</t>
   </si>
   <si>
-    <t>13.40628035</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>13.40598552</t>
+    <t>13.7584487</t>
   </si>
   <si>
     <t>13.70982294</t>
   </si>
   <si>
-    <t>13.40588499</t>
+    <t>14.39857579</t>
+  </si>
+  <si>
+    <t>13.73793165</t>
   </si>
   <si>
     <t>13.4057825</t>
   </si>
   <si>
-    <t>13.97565922</t>
-  </si>
-  <si>
-    <t>14.39857579</t>
-  </si>
-  <si>
     <t>13.72649737</t>
   </si>
   <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.75814784</t>
-  </si>
-  <si>
-    <t>13.73793165</t>
-  </si>
-  <si>
-    <t>13.7584487</t>
-  </si>
-  <si>
-    <t>14.58472864</t>
+    <t>13.40583946</t>
+  </si>
+  <si>
+    <t>13.73936751</t>
+  </si>
+  <si>
+    <t>13.40593161</t>
+  </si>
+  <si>
+    <t>13.82875611</t>
+  </si>
+  <si>
+    <t>13.40595472</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.40596242</t>
+  </si>
+  <si>
+    <t>13.40650905</t>
+  </si>
+  <si>
+    <t>13.40597333</t>
+  </si>
+  <si>
+    <t>13.86278523</t>
+  </si>
+  <si>
+    <t>13.86203428</t>
+  </si>
+  <si>
+    <t>13.72037624</t>
+  </si>
+  <si>
+    <t>13.72666176</t>
   </si>
   <si>
     <t>13.72651523</t>
   </si>
   <si>
+    <t>13.72604683</t>
+  </si>
+  <si>
     <t>13.71349454</t>
   </si>
   <si>
-    <t>13.40583946</t>
-  </si>
-  <si>
-    <t>13.40595472</t>
-  </si>
-  <si>
-    <t>13.40597333</t>
-  </si>
-  <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.73936751</t>
-  </si>
-  <si>
-    <t>13.40596242</t>
-  </si>
-  <si>
-    <t>13.40593161</t>
-  </si>
-  <si>
-    <t>13.86203428</t>
-  </si>
-  <si>
-    <t>13.40650905</t>
-  </si>
-  <si>
-    <t>13.72037624</t>
-  </si>
-  <si>
-    <t>13.72604683</t>
-  </si>
-  <si>
-    <t>13.72666176</t>
-  </si>
-  <si>
-    <t>13.82875611</t>
-  </si>
-  <si>
-    <t>13.86278523</t>
+    <t>13.87076462</t>
+  </si>
+  <si>
+    <t>13.72667218</t>
+  </si>
+  <si>
+    <t>13.6940188</t>
+  </si>
+  <si>
+    <t>13.40621925</t>
+  </si>
+  <si>
+    <t>13.69777073</t>
+  </si>
+  <si>
+    <t>13.73937398</t>
   </si>
   <si>
     <t>13.40639916</t>
   </si>
   <si>
-    <t>13.40621925</t>
-  </si>
-  <si>
-    <t>13.73937398</t>
+    <t>13.37258002</t>
   </si>
   <si>
     <t>13.72650241</t>
   </si>
   <si>
-    <t>13.6940188</t>
-  </si>
-  <si>
-    <t>13.37258002</t>
-  </si>
-  <si>
     <t>13.86278896</t>
   </si>
   <si>
-    <t>13.87076462</t>
-  </si>
-  <si>
-    <t>13.69777073</t>
-  </si>
-  <si>
-    <t>13.72667218</t>
+    <t>13.86746725</t>
+  </si>
+  <si>
+    <t>13.86745361</t>
+  </si>
+  <si>
+    <t>13.76544688</t>
+  </si>
+  <si>
+    <t>13.40627124</t>
   </si>
   <si>
     <t>13.86731361</t>
   </si>
   <si>
-    <t>13.86746725</t>
-  </si>
-  <si>
-    <t>13.76544688</t>
-  </si>
-  <si>
-    <t>13.86745361</t>
-  </si>
-  <si>
-    <t>13.40627124</t>
-  </si>
-  <si>
     <t>13.82627701</t>
   </si>
   <si>
+    <t>13.40609899</t>
+  </si>
+  <si>
+    <t>6.414712255</t>
+  </si>
+  <si>
     <t>14.07331044</t>
   </si>
   <si>
-    <t>13.40609899</t>
-  </si>
-  <si>
     <t>13.23939231</t>
   </si>
   <si>
-    <t>6.414712255</t>
-  </si>
-  <si>
     <t>14.53781454</t>
   </si>
   <si>
     <t>14.5932932</t>
   </si>
   <si>
+    <t>14.34377313</t>
+  </si>
+  <si>
     <t>14.58474281</t>
   </si>
   <si>
-    <t>14.34377313</t>
+    <t>13.81912177</t>
+  </si>
+  <si>
+    <t>16.18141284</t>
+  </si>
+  <si>
+    <t>100.5422268</t>
+  </si>
+  <si>
+    <t>99.84068885</t>
+  </si>
+  <si>
+    <t>99.84044998</t>
+  </si>
+  <si>
+    <t>99.84065417</t>
+  </si>
+  <si>
+    <t>99.84054831</t>
+  </si>
+  <si>
+    <t>100.5223528</t>
+  </si>
+  <si>
+    <t>100.5832291</t>
+  </si>
+  <si>
+    <t>100.522356</t>
   </si>
   <si>
     <t>100.5611614</t>
   </si>
   <si>
+    <t>100.452165</t>
+  </si>
+  <si>
     <t>99.84102394</t>
   </si>
   <si>
-    <t>99.84065417</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.5422268</t>
-  </si>
-  <si>
-    <t>99.84068885</t>
-  </si>
-  <si>
-    <t>99.84054831</t>
-  </si>
-  <si>
-    <t>100.5223528</t>
-  </si>
-  <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>100.522356</t>
-  </si>
-  <si>
-    <t>99.84044998</t>
+    <t>99.63108216</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>99.9981405</t>
+  </si>
+  <si>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.4521962</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
+  </si>
+  <si>
+    <t>100.5381908</t>
+  </si>
+  <si>
+    <t>100.5350653</t>
   </si>
   <si>
     <t>100.4814358</t>
   </si>
   <si>
-    <t>99.99793397</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>99.9981405</t>
+    <t>100.5659092</t>
   </si>
   <si>
     <t>100.6008927</t>
   </si>
   <si>
-    <t>99.99792781</t>
+    <t>100.5929883</t>
+  </si>
+  <si>
+    <t>100.5595182</t>
   </si>
   <si>
     <t>99.9982253</t>
   </si>
   <si>
-    <t>99.63108216</t>
-  </si>
-  <si>
-    <t>100.5929883</t>
-  </si>
-  <si>
     <t>100.5098294</t>
   </si>
   <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5350653</t>
-  </si>
-  <si>
-    <t>100.5595182</t>
-  </si>
-  <si>
-    <t>100.5659092</t>
-  </si>
-  <si>
-    <t>100.4521962</t>
+    <t>99.99822947</t>
+  </si>
+  <si>
+    <t>100.2556886</t>
+  </si>
+  <si>
+    <t>99.99826105</t>
+  </si>
+  <si>
+    <t>100.5687203</t>
+  </si>
+  <si>
+    <t>99.99779066</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>99.99806255</t>
+  </si>
+  <si>
+    <t>99.99794955</t>
+  </si>
+  <si>
+    <t>99.99799763</t>
+  </si>
+  <si>
+    <t>100.6667972</t>
+  </si>
+  <si>
+    <t>100.6124718</t>
+  </si>
+  <si>
+    <t>100.5600709</t>
+  </si>
+  <si>
+    <t>100.5093037</t>
   </si>
   <si>
     <t>100.5098025</t>
   </si>
   <si>
+    <t>100.5098724</t>
+  </si>
+  <si>
     <t>100.4800501</t>
   </si>
   <si>
-    <t>99.99822947</t>
-  </si>
-  <si>
-    <t>99.99779066</t>
-  </si>
-  <si>
-    <t>99.99799763</t>
-  </si>
-  <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>100.2556886</t>
-  </si>
-  <si>
-    <t>99.99806255</t>
-  </si>
-  <si>
-    <t>99.99826105</t>
-  </si>
-  <si>
-    <t>100.6124718</t>
-  </si>
-  <si>
-    <t>99.99794955</t>
-  </si>
-  <si>
-    <t>100.5600709</t>
-  </si>
-  <si>
-    <t>100.5098724</t>
-  </si>
-  <si>
-    <t>100.5093037</t>
-  </si>
-  <si>
-    <t>100.5687203</t>
-  </si>
-  <si>
-    <t>100.6667972</t>
+    <t>100.6678623</t>
+  </si>
+  <si>
+    <t>100.5096041</t>
+  </si>
+  <si>
+    <t>100.4952169</t>
+  </si>
+  <si>
+    <t>99.99800648</t>
+  </si>
+  <si>
+    <t>100.5376964</t>
+  </si>
+  <si>
+    <t>100.2556031</t>
   </si>
   <si>
     <t>99.99785987</t>
   </si>
   <si>
-    <t>99.99800648</t>
-  </si>
-  <si>
-    <t>100.2556031</t>
+    <t>99.84082331</t>
   </si>
   <si>
     <t>100.5096835</t>
   </si>
   <si>
-    <t>100.4952169</t>
-  </si>
-  <si>
-    <t>99.84082331</t>
-  </si>
-  <si>
     <t>100.6667595</t>
   </si>
   <si>
-    <t>100.6678623</t>
-  </si>
-  <si>
-    <t>100.5376964</t>
-  </si>
-  <si>
-    <t>100.5096041</t>
+    <t>100.4526896</t>
+  </si>
+  <si>
+    <t>100.4526926</t>
+  </si>
+  <si>
+    <t>100.7250703</t>
+  </si>
+  <si>
+    <t>99.99796867</t>
   </si>
   <si>
     <t>100.4525367</t>
   </si>
   <si>
-    <t>100.4526896</t>
-  </si>
-  <si>
-    <t>100.7250703</t>
-  </si>
-  <si>
-    <t>100.4526926</t>
-  </si>
-  <si>
-    <t>99.99796867</t>
-  </si>
-  <si>
     <t>100.6790148</t>
   </si>
   <si>
+    <t>99.99810731</t>
+  </si>
+  <si>
+    <t>101.8237514</t>
+  </si>
+  <si>
     <t>100.6149782</t>
   </si>
   <si>
-    <t>99.99810731</t>
-  </si>
-  <si>
     <t>99.8256538</t>
   </si>
   <si>
-    <t>101.8237514</t>
-  </si>
-  <si>
     <t>100.5283131</t>
   </si>
   <si>
     <t>100.3463765</t>
   </si>
   <si>
+    <t>100.5601081</t>
+  </si>
+  <si>
     <t>100.4522083</t>
   </si>
   <si>
-    <t>100.5601081</t>
+    <t>100.0751893</t>
+  </si>
+  <si>
+    <t>103.2992555</t>
   </si>
   <si>
     <t>1</t>
@@ -889,495 +919,519 @@
     <t>กำลังรักษา</t>
   </si>
   <si>
+    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
+  </si>
+  <si>
+    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+  </si>
+  <si>
+    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 699 ชายธุรกิจออนไลน์</t>
+  </si>
+  <si>
+    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
+  </si>
+  <si>
+    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
+  </si>
+  <si>
     <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
   </si>
   <si>
+    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
+  </si>
+  <si>
     <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
-  </si>
-  <si>
-    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 699 ชายธุรกิจออนไลน์</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
-  </si>
-  <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
+    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
   </si>
   <si>
     <t>รายที่ 160 ชาย อายุ 30 ปี อ.เมืองนนทบุรี จ.นนทบุรี อาชีพผู้แทนเครื่องมือแพทย์ บริษัทเอกชน</t>
   </si>
   <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
+    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 709 ชาย อาชีพอิสระ</t>
   </si>
   <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
+  </si>
+  <si>
+    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
   </si>
   <si>
     <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
-  </si>
-  <si>
-    <t>รายที่ 41 หญิง อายุ 39 ปี หมู่ 5 ต.พยอม อ.วังน้อย</t>
-  </si>
-  <si>
     <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
   </si>
   <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
-  </si>
-  <si>
-    <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
-  </si>
-  <si>
-    <t>รายที่ 657 ชาย ผู้จัดการฝ่ายประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
+    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
+  </si>
+  <si>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 708 หญิงพนักงานร้านอาหาร</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ 681 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
-    <t>รายที่ 37 ผู้ป่วยเพศหญิง อายุ 38 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ หมู่ 3 ต.บางแค อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 162 หญิง อายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
+    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 687 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
+  </si>
+  <si>
+    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 694 ชาย พนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
   </si>
   <si>
     <t>รายที่ 44 หญิงอายุ 19 ปี อยู่ต.แหลมใหญ่ อ.เมือง จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
   </si>
   <si>
-    <t>รายที่ 43 หญิงอายุ 51 ปี อยู่หมู่ 4 ต.ยี่สาร อ.อัมพวา จ.สมุทรสงคราม อาชีพพนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 162 หญิงอายุ 53 ปี อ.บางใหญ่ จ.นนทบุรี</t>
+    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 683 หญิง พนักงานร้านอาหาร</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 677 หญิง แม่บ้าน</t>
-  </si>
-  <si>
-    <t>รายที่ 28 เพศหญิง อายุ 43 ปี บ้านอยู่ตำบลดอนทราย อำเภอปากท่อ ประวัติทำงานที่จังหวัดสมุทรสงคราม เดินทางไป-กลับ บ้านและที่ทำงาน ด้วยรถยนต์ส่วนตัวพร้อมสามีทุกวัน</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 688 ชาย ค้าขาย</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 682 ชาย เด็กเล็ก 3 ปี</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 694 ชาย พนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 687 ชาย พนักงานร้านอาหาร</t>
+    <t>ผู้ป่วยรายที่ 702 หญิง อายุ 63 ปี ไม่ประกอบอาชีพ</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 701 หญิงพนักงานบริษัท</t>
+  </si>
+  <si>
+    <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 703 ชาย นักเรียน</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 702 หญิง อายุ 63 ปี ไม่ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 701 หญิงพนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 674 หญิง พนักงานบริษัท</t>
-  </si>
-  <si>
-    <t>รายที่ 45 ผู้ป่วยเพศชาย อายุ 56 ปี อาชีพ รับจ้างดูแลบ่อปลา และเลี้ยงปลา ที่อยู่ หมู่ 5 ต.แพรกหนามแดง อ.อัมพวา</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 680 ชาย อาชีพทนาย</t>
   </si>
   <si>
+    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
+  </si>
+  <si>
     <t>ระลอกใหม่รายที่ 42 ชายไทยอายุ 59 ปี หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพขับรถส่งผักขาย</t>
   </si>
   <si>
-    <t>รายที่ 46 ผู้ป่วยเพศชาย อายุ 27 ปี (มีอาการ) สามีผู้ป่วยรายที่ 44 อาชีพ ขายปลาทูนึ่ง ที่อยู่ หมู่ 3 ต.แหลมใหญ่ อ.เมือง</t>
-  </si>
-  <si>
     <t>รายที่ 32 เป็นหญิงชาวพม่าอายุ 41 ปีอยู่ตำบลสระพัง อำเภอเขาย้อย</t>
   </si>
   <si>
-    <t>รายที่ 7 เพศหญิง 23 ปี เดินทางกลับจากจังหวัดสมุทรสาคร ด้วยรถไฟ /รักษาตัวที่ รพ.นราธิวาสราชนครินทร์</t>
-  </si>
-  <si>
     <t>ระลอกใหม่รายที่ 43 หญิง อายุ 58 ปี อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา อาชีพค้าขาย เป็นภรรยาของผู้ติดเชื้อระลอกใหม่ รายที่ 42</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 117 เพศ : ชาย สัญชาติ : ไทย อายุ : 45 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
+    <t>ผู้ป่วยรายที่ 17 หญิงอายุ 47 ปี</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
+  </si>
+  <si>
     <t>ผู้ป่วยรายที่ : 118 เพศ : หญิง สัญชาติ : ไทย อายุ : 25 ปี ต.ไผ่ดำพัฒนา อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 44 หญิง อายุ 86 อยู่หมู่ 5 ต.บ้านนา อ.มหาราช จ.อยุธยา</t>
+    <t>​ผู้ป่วยยืนยันในจังหวัดนครปฐม รายที่​ 78 ชาย อายุ 36 ปี ต.อ้อมใหญ่ อ.สามพราน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 17 ชาย อายุ 51 ปี</t>
   </si>
   <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
+    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
+  </si>
+  <si>
     <t>ข่าวเด็ดเพชรบุรี</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
-  </si>
-  <si>
     <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
   </si>
   <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
+    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
+  </si>
+  <si>
     <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
   </si>
   <si>
-    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
     <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
   </si>
   <si>
     <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
   </si>
   <si>
+    <t>สนง.สาธารณสุข จังหวัด มหาสารคาม</t>
+  </si>
+  <si>
+    <t>PRCovid-19นครปฐม</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915672741365</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
   </si>
   <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915672741365</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
   </si>
   <si>
     <t>https://www.facebook.com/COVID19Nonthaburi/photos/pcb.241138800857701/241486544156260</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915916074674</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=1983619135114057&amp;set=pcb.1983613901781247</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3195399767226289/3195399500559649</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915742741358</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618759937723</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526890516747</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/COVID19Nonthaburi/photos/a.103225997982316/243598827278365/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619293271003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619876604278</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744787161624</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244746813828088/244744793828290/</t>
+    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618993271033</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618473271085</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5686151781411039/5686151034744447/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619343270998</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618909937708</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619876604278</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619293271003</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915276074738</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206916042741328</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
   </si>
   <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915286074737</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915276074738</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206916042741328</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618286604437/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245419433760826/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201618683271064</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/photo?fbid=1987597854716185&amp;set=pcb.1987597874716183</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/a.114343656868405/245995930369843/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1080314962487516/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/NaraPublicHealth/photos/pcb.3835809216441743/3835809149775083</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/photo?fbid=1988471384628832&amp;set=pcb.1988471407962163</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20117.jpg</t>
   </si>
   <si>
+    <t>https://www.facebook.com/photo?fbid=1432440417098933&amp;set=a.202640316745622</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
+  </si>
+  <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20118.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo?fbid=1989347681207869&amp;set=pcb.1989347704541200</t>
+    <t>https://www.facebook.com/103309634646876/photos/a.104494081195098/253996039578234/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=1432789357064039&amp;set=a.159392111070443</t>
+  </si>
+  <si>
+    <t>แขวง ทุ่งสองห้อง</t>
+  </si>
+  <si>
+    <t>ยางหัก</t>
+  </si>
+  <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
+    <t>แขวง รองเมือง</t>
+  </si>
+  <si>
+    <t>แขวง บางกะปิ</t>
   </si>
   <si>
     <t>แขวง จตุจักร</t>
   </si>
   <si>
-    <t>ปากท่อ</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
-  </si>
-  <si>
-    <t>แขวง บางกะปิ</t>
-  </si>
-  <si>
-    <t>แขวง ทุ่งสองห้อง</t>
-  </si>
-  <si>
-    <t>แขวง รองเมือง</t>
-  </si>
-  <si>
     <t>บางแก้ว</t>
   </si>
   <si>
+    <t>ท่าม่วง</t>
+  </si>
+  <si>
     <t>แม่กลอง</t>
   </si>
   <si>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
     <t>แขวง พระโขนงเหนือ</t>
   </si>
   <si>
-    <t>ท่าม่วง</t>
-  </si>
-  <si>
     <t>บ่อโพง</t>
   </si>
   <si>
-    <t>แขวง คลองต้นไทร</t>
-  </si>
-  <si>
-    <t>แขวง ถนนพญาไท</t>
-  </si>
-  <si>
     <t>แขวง คลองเตยเหนือ</t>
   </si>
   <si>
-    <t>แขวง ห้วยขวาง</t>
+    <t>ไร่ขิง</t>
+  </si>
+  <si>
+    <t>แขวง ลาดยาว</t>
+  </si>
+  <si>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตย</t>
   </si>
   <si>
     <t>แขวง บุคคโล</t>
   </si>
   <si>
-    <t>ไร่ขิง</t>
-  </si>
-  <si>
-    <t>แขวง อนุสาวรีย์</t>
-  </si>
-  <si>
-    <t>แขวง คลองเตย</t>
-  </si>
-  <si>
-    <t>แขวง ลาดยาว</t>
-  </si>
-  <si>
-    <t>แขวง ท่าแร้ง</t>
-  </si>
-  <si>
     <t>แขวง บางคอแหลม</t>
   </si>
   <si>
@@ -1393,40 +1447,55 @@
     <t>แขวง คันนายาว</t>
   </si>
   <si>
+    <t>บางนาค</t>
+  </si>
+  <si>
     <t>คลองหนึ่ง</t>
   </si>
   <si>
     <t>ขาย้อย</t>
   </si>
   <si>
-    <t>บางนาค</t>
-  </si>
-  <si>
     <t>หัวไผ่</t>
   </si>
   <si>
     <t>ศาลเจ้าโรงทอง</t>
   </si>
   <si>
+    <t>พระปฐมเจดีย์</t>
+  </si>
+  <si>
+    <t>ตลาด</t>
+  </si>
+  <si>
+    <t>เขต หลักสี่</t>
+  </si>
+  <si>
+    <t>เขตปทุมวัน</t>
+  </si>
+  <si>
+    <t>เขตห้วยขวาง</t>
+  </si>
+  <si>
     <t>เขตจตุจักร</t>
   </si>
   <si>
-    <t>เขตห้วยขวาง</t>
-  </si>
-  <si>
-    <t>เขต หลักสี่</t>
-  </si>
-  <si>
-    <t>เขตปทุมวัน</t>
-  </si>
-  <si>
     <t>เมืองอ่างทอง</t>
   </si>
   <si>
+    <t>เมืองสมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>เขตคลองสาน</t>
+  </si>
+  <si>
+    <t>เขตราชเทวี</t>
+  </si>
+  <si>
     <t>เมืองนนทบุรี</t>
   </si>
   <si>
-    <t>เมืองสมุทรสงคราม</t>
+    <t>เขตดินแดง</t>
   </si>
   <si>
     <t>เขตวัฒนา</t>
@@ -1435,27 +1504,18 @@
     <t>นครหลวง</t>
   </si>
   <si>
-    <t>เขตคลองสาน</t>
-  </si>
-  <si>
-    <t>เขตราชเทวี</t>
-  </si>
-  <si>
-    <t>เขตดินแดง</t>
+    <t>สามพราน</t>
+  </si>
+  <si>
+    <t>เขตบางเขน</t>
+  </si>
+  <si>
+    <t>เขตคลองเตย</t>
   </si>
   <si>
     <t>เขตธนบุรี</t>
   </si>
   <si>
-    <t>สามพราน</t>
-  </si>
-  <si>
-    <t>เขตบางเขน</t>
-  </si>
-  <si>
-    <t>เขตคลองเตย</t>
-  </si>
-  <si>
     <t>เขตบางคอแหลม</t>
   </si>
   <si>
@@ -1468,15 +1528,15 @@
     <t>เขตคันนายาว</t>
   </si>
   <si>
+    <t>เมืองนราธิวาส</t>
+  </si>
+  <si>
     <t>คลองหลวง</t>
   </si>
   <si>
     <t>เขาย้อย</t>
   </si>
   <si>
-    <t>เมืองนราธิวาส</t>
-  </si>
-  <si>
     <t>มหาราช จังหวัด</t>
   </si>
   <si>
@@ -1486,6 +1546,12 @@
     <t>พระนครศรีอยุธยา</t>
   </si>
   <si>
+    <t>เมืองนครปฐม</t>
+  </si>
+  <si>
+    <t>เมืองมหาสารคาม</t>
+  </si>
+  <si>
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
@@ -1495,66 +1561,69 @@
     <t>อ่างทอง</t>
   </si>
   <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>สมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
     <t>นครปฐม</t>
   </si>
   <si>
+    <t>นราธิวาส</t>
+  </si>
+  <si>
     <t>ปทุมธานี</t>
   </si>
   <si>
     <t>เพชรบุรี</t>
   </si>
   <si>
-    <t>นราธิวาส</t>
+    <t>มหาสารคาม</t>
+  </si>
+  <si>
+    <t>10210</t>
+  </si>
+  <si>
+    <t>70140</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
+    <t>10310</t>
   </si>
   <si>
     <t>10900</t>
   </si>
   <si>
-    <t>70140</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
-    <t>10210</t>
-  </si>
-  <si>
-    <t>10330</t>
-  </si>
-  <si>
     <t>14000</t>
   </si>
   <si>
+    <t>71110</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
     <t>11000</t>
   </si>
   <si>
-    <t>75000</t>
-  </si>
-  <si>
     <t>10110</t>
   </si>
   <si>
-    <t>71110</t>
-  </si>
-  <si>
     <t>13260</t>
   </si>
   <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
     <t>73210</t>
   </si>
   <si>
@@ -1570,15 +1639,15 @@
     <t>10230</t>
   </si>
   <si>
+    <t>96000</t>
+  </si>
+  <si>
     <t>12120</t>
   </si>
   <si>
     <t>76140</t>
   </si>
   <si>
-    <t>96000</t>
-  </si>
-  <si>
     <t>13150</t>
   </si>
   <si>
@@ -1588,63 +1657,69 @@
     <t>13000</t>
   </si>
   <si>
+    <t>73000</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>52</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>51</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -1660,10 +1735,13 @@
     <t>45</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>86</t>
   </si>
   <si>
     <t>ชาย</t>
@@ -2044,7 +2122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2111,49 +2189,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F2" s="2">
         <v>44216</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="M2" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="N2" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="O2" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P2" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="R2" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2161,52 +2239,52 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F3" s="2">
         <v>44216</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M3" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="N3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O3" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="P3" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="Q3" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="R3" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2214,52 +2292,52 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F4" s="2">
         <v>44216</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="J4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M4" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="N4" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O4" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="P4" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="Q4" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="R4" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2267,49 +2345,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2">
         <v>44216</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M5" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="N5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="O5" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="P5" t="s">
-        <v>502</v>
+        <v>524</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>551</v>
       </c>
       <c r="R5" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2317,49 +2398,52 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2">
         <v>44216</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="M6" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="N6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="O6" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="P6" t="s">
-        <v>503</v>
+        <v>524</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>551</v>
       </c>
       <c r="R6" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2367,52 +2451,49 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F7" s="2">
         <v>44216</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="N7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="O7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="P7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R7" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2420,52 +2501,49 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F8" s="2">
         <v>44216</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J8" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M8" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="N8" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="O8" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="P8" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R8" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2473,49 +2551,49 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F9" s="2">
         <v>44216</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M9" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="N9" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="O9" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P9" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="R9" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2523,52 +2601,49 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2">
         <v>44216</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J10" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M10" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="N10" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="O10" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="P10" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q10" t="s">
         <v>527</v>
       </c>
       <c r="R10" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2576,49 +2651,52 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2">
         <v>44216</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J11" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M11" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="N11" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="O11" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="P11" t="s">
-        <v>504</v>
+        <v>528</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>552</v>
       </c>
       <c r="R11" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2626,52 +2704,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F12" s="2">
         <v>44216</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I12" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J12" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="N12" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O12" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="P12" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="Q12" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="R12" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2679,49 +2757,52 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F13" s="2">
         <v>44217</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>378</v>
+        <v>393</v>
+      </c>
+      <c r="M13" t="s">
+        <v>458</v>
       </c>
       <c r="N13" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="O13" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="P13" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="Q13" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="R13" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2729,52 +2810,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F14" s="2">
         <v>44217</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I14" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="J14" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M14" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N14" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O14" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P14" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q14" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="R14" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2782,52 +2863,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F15" s="2">
         <v>44217</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="J15" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M15" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N15" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O15" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P15" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q15" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="R15" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2835,52 +2916,52 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F16" s="2">
         <v>44217</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="J16" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M16" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N16" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O16" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P16" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q16" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="R16" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2888,49 +2969,52 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F17" s="2">
         <v>44217</v>
       </c>
       <c r="G17" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J17" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M17" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="N17" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="O17" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="P17" t="s">
-        <v>508</v>
+        <v>530</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>557</v>
       </c>
       <c r="R17" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2938,52 +3022,52 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F18" s="2">
         <v>44217</v>
       </c>
       <c r="G18" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J18" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M18" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="N18" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="O18" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="P18" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="Q18" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="R18" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2991,52 +3075,49 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F19" s="2">
         <v>44217</v>
       </c>
       <c r="G19" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I19" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="J19" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M19" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="N19" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="O19" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P19" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R19" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3044,52 +3125,49 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F20" s="2">
         <v>44217</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="J20" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="N20" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="O20" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="P20" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="R20" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3097,52 +3175,49 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F21" s="2">
         <v>44217</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H21" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J21" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M21" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="N21" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="O21" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="P21" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="R21" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3150,49 +3225,49 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F22" s="2">
         <v>44217</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="J22" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="M22" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="N22" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="O22" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="P22" t="s">
-        <v>511</v>
+        <v>533</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>559</v>
       </c>
       <c r="R22" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3200,49 +3275,49 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F23" s="2">
         <v>44217</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I23" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J23" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="M23" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="N23" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="O23" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P23" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="R23" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3250,49 +3325,49 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F24" s="2">
         <v>44217</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="J24" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M24" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="N24" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="O24" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P24" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="R24" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3300,49 +3375,52 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F25" s="2">
         <v>44217</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="J25" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="M25" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="N25" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="O25" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="P25" t="s">
-        <v>512</v>
+        <v>535</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>552</v>
       </c>
       <c r="R25" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3350,49 +3428,49 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F26" s="2">
         <v>44217</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H26" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I26" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J26" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M26" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="N26" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="O26" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P26" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="R26" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3400,49 +3478,52 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F27" s="2">
         <v>44217</v>
       </c>
       <c r="G27" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="J27" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="M27" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="N27" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="O27" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="P27" t="s">
-        <v>512</v>
+        <v>530</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>560</v>
       </c>
       <c r="R27" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3450,52 +3531,49 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F28" s="2">
         <v>44217</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="J28" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="M28" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="N28" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="O28" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="P28" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="R28" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3503,49 +3581,52 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F29" s="2">
         <v>44218</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="J29" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="M29" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="N29" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="O29" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="P29" t="s">
-        <v>511</v>
+        <v>530</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>561</v>
       </c>
       <c r="R29" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3553,49 +3634,52 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E30" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F30" s="2">
         <v>44218</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H30" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J30" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M30" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="N30" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="O30" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="P30" t="s">
-        <v>511</v>
+        <v>536</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>549</v>
       </c>
       <c r="R30" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3603,52 +3687,52 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F31" s="2">
         <v>44218</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="J31" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M31" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N31" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O31" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P31" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q31" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="R31" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3656,52 +3740,49 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F32" s="2">
         <v>44218</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H32" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="J32" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="M32" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="N32" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="O32" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P32" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R32" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3709,52 +3790,52 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F33" s="2">
         <v>44218</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I33" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M33" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N33" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O33" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P33" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q33" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="R33" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3762,52 +3843,52 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E34" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F34" s="2">
         <v>44218</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H34" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="M34" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N34" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O34" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P34" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q34" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="R34" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3815,52 +3896,52 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F35" s="2">
         <v>44218</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H35" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M35" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="N35" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="O35" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="P35" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="Q35" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="R35" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3868,52 +3949,52 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F36" s="2">
         <v>44218</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H36" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="M36" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N36" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O36" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P36" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q36" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="R36" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3921,52 +4002,52 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F37" s="2">
         <v>44218</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H37" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="M37" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="N37" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="O37" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="P37" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q37" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="R37" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3974,49 +4055,49 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F38" s="2">
         <v>44218</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M38" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="N38" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="O38" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P38" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="R38" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4024,52 +4105,49 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F39" s="2">
         <v>44218</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M39" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="N39" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="O39" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P39" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="R39" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4077,49 +4155,49 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F40" s="2">
         <v>44218</v>
       </c>
       <c r="G40" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H40" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="M40" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="N40" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="O40" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P40" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="R40" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4127,49 +4205,49 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F41" s="2">
         <v>44218</v>
       </c>
       <c r="G41" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="M41" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="N41" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="O41" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P41" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="R41" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4177,49 +4255,49 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E42" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F42" s="2">
         <v>44218</v>
       </c>
       <c r="G42" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M42" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="N42" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="O42" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P42" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="R42" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4227,49 +4305,49 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F43" s="2">
         <v>44218</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H43" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="N43" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="O43" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P43" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="R43" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4277,49 +4355,49 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F44" s="2">
         <v>44218</v>
       </c>
       <c r="G44" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H44" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="N44" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="O44" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P44" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="R44" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4327,52 +4405,49 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F45" s="2">
         <v>44219</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H45" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I45" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M45" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="N45" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="O45" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P45" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="R45" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4380,52 +4455,49 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F46" s="2">
         <v>44219</v>
       </c>
       <c r="G46" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H46" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="N46" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="O46" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="P46" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="R46" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4433,52 +4505,49 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F47" s="2">
         <v>44219</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H47" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I47" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="N47" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="O47" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="P47" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="R47" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4486,49 +4555,52 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F48" s="2">
         <v>44219</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H48" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="J48" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="N48" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="O48" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="P48" t="s">
-        <v>511</v>
+        <v>530</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>566</v>
       </c>
       <c r="R48" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4536,49 +4608,49 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F49" s="2">
         <v>44219</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J49" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="N49" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="O49" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P49" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="R49" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4586,52 +4658,52 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F50" s="2">
         <v>44219</v>
       </c>
       <c r="G50" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H50" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J50" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="N50" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="O50" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="P50" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="Q50" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="R50" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4639,49 +4711,52 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F51" s="2">
         <v>44219</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H51" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J51" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="M51" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="N51" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="O51" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="P51" t="s">
-        <v>514</v>
+        <v>530</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>567</v>
       </c>
       <c r="R51" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4689,49 +4764,52 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F52" s="2">
         <v>44219</v>
       </c>
       <c r="G52" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s">
         <v>453</v>
       </c>
       <c r="N52" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="O52" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="P52" t="s">
-        <v>514</v>
+        <v>524</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>553</v>
       </c>
       <c r="R52" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4739,49 +4817,49 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F53" s="2">
         <v>44219</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="J53" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="N53" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="O53" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P53" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="R53" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4789,49 +4867,49 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F54" s="2">
         <v>44219</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H54" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I54" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="J54" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M54" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="N54" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="O54" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P54" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="R54" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4839,49 +4917,52 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F55" s="2">
         <v>44220</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I55" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="N55" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="O55" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="P55" t="s">
-        <v>506</v>
+        <v>533</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>568</v>
       </c>
       <c r="R55" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4889,52 +4970,49 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E56" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F56" s="2">
         <v>44220</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H56" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I56" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="J56" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="P56" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="R56" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4942,49 +5020,49 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E57" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F57" s="2">
         <v>44220</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="J57" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="N57" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O57" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P57" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="R57" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4992,49 +5070,52 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F58" s="2">
         <v>44220</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I58" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="J58" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N58" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="O58" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="P58" t="s">
-        <v>506</v>
+        <v>530</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>569</v>
       </c>
       <c r="R58" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5042,52 +5123,49 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E59" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F59" s="2">
         <v>44220</v>
       </c>
       <c r="G59" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H59" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="J59" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="O59" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="P59" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R59" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5095,49 +5173,49 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F60" s="2">
         <v>44220</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I60" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="J60" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="N60" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O60" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="P60" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="R60" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5145,52 +5223,52 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E61" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F61" s="2">
         <v>44221</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H61" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I61" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J61" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s">
         <v>459</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="O61" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="P61" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="Q61" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="R61" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5198,52 +5276,52 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F62" s="2">
         <v>44221</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H62" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="J62" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="N62" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="O62" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="P62" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="Q62" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="R62" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5251,52 +5329,52 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F63" s="2">
         <v>44221</v>
       </c>
       <c r="G63" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I63" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="J63" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="N63" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="P63" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="Q63" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="R63" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5304,52 +5382,52 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F64" s="2">
         <v>44221</v>
       </c>
       <c r="G64" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H64" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I64" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J64" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="N64" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="O64" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="P64" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="Q64" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="R64" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5357,52 +5435,52 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F65" s="2">
         <v>44222</v>
       </c>
       <c r="G65" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="J65" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="N65" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="O65" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="P65" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="Q65" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="R65" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5410,52 +5488,52 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F66" s="2">
         <v>44222</v>
       </c>
       <c r="G66" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H66" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I66" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J66" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="M66" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N66" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="O66" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="P66" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="Q66" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="R66" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5463,52 +5541,31 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F67" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="G67" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I67" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="J67" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="M67" t="s">
-        <v>439</v>
-      </c>
-      <c r="N67" t="s">
-        <v>468</v>
-      </c>
-      <c r="O67" t="s">
-        <v>492</v>
-      </c>
-      <c r="P67" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="Q67" t="s">
-        <v>548</v>
-      </c>
-      <c r="R67" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5516,49 +5573,208 @@
         <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F68" s="2">
         <v>44224</v>
       </c>
       <c r="G68" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H68" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="J68" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="N68" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="O68" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="P68" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="Q68" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="R68" t="s">
-        <v>551</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" s="2">
+        <v>44224</v>
+      </c>
+      <c r="G69" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>368</v>
+      </c>
+      <c r="J69" t="s">
+        <v>374</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="M69" t="s">
+        <v>457</v>
+      </c>
+      <c r="N69" t="s">
+        <v>488</v>
+      </c>
+      <c r="O69" t="s">
+        <v>514</v>
+      </c>
+      <c r="P69" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>575</v>
+      </c>
+      <c r="R69" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" t="s">
+        <v>296</v>
+      </c>
+      <c r="F70" s="2">
+        <v>44226</v>
+      </c>
+      <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
+        <v>300</v>
+      </c>
+      <c r="I70" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" t="s">
+        <v>381</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M70" t="s">
+        <v>482</v>
+      </c>
+      <c r="N70" t="s">
+        <v>510</v>
+      </c>
+      <c r="O70" t="s">
+        <v>518</v>
+      </c>
+      <c r="P70" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>562</v>
+      </c>
+      <c r="R70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" s="2">
+        <v>44227</v>
+      </c>
+      <c r="G71" t="s">
+        <v>298</v>
+      </c>
+      <c r="H71" t="s">
+        <v>300</v>
+      </c>
+      <c r="I71" t="s">
+        <v>370</v>
+      </c>
+      <c r="J71" t="s">
+        <v>380</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M71" t="s">
+        <v>483</v>
+      </c>
+      <c r="N71" t="s">
+        <v>511</v>
+      </c>
+      <c r="O71" t="s">
+        <v>522</v>
+      </c>
+      <c r="P71" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>566</v>
+      </c>
+      <c r="R71" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5630,6 +5846,9 @@
     <hyperlink ref="K66" r:id="rId65"/>
     <hyperlink ref="K67" r:id="rId66"/>
     <hyperlink ref="K68" r:id="rId67"/>
+    <hyperlink ref="K69" r:id="rId68"/>
+    <hyperlink ref="K70" r:id="rId69"/>
+    <hyperlink ref="K71" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/away-covid-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="500">
   <si>
     <t>gid</t>
   </si>
@@ -70,63 +70,33 @@
     <t>gender</t>
   </si>
   <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>805</t>
+    <t>778</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>814</t>
   </si>
   <si>
     <t>745</t>
   </si>
   <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>782</t>
+    <t>789</t>
   </si>
   <si>
     <t>784</t>
   </si>
   <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
     <t>795</t>
   </si>
   <si>
@@ -145,9 +115,6 @@
     <t>811</t>
   </si>
   <si>
-    <t>778</t>
-  </si>
-  <si>
     <t>815</t>
   </si>
   <si>
@@ -160,39 +127,39 @@
     <t>772</t>
   </si>
   <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
     <t>796</t>
   </si>
   <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>771</t>
+    <t>830</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>837</t>
   </si>
   <si>
     <t>776</t>
   </si>
   <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
     <t>826</t>
   </si>
   <si>
@@ -280,63 +247,33 @@
     <t>840</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 611</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 26</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 27</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดราชบุรี รายที่ 25</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 31</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 699</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 610</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 631</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 646</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 112</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 30</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดกาญจนบุรี รายที่ 7</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 31</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 32</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 33</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 34</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอ่างทอง รายที่ 116</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 665</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 635</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 648</t>
   </si>
   <si>
@@ -355,9 +292,6 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 659</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 30</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 666</t>
   </si>
   <si>
@@ -370,39 +304,39 @@
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 36</t>
   </si>
   <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+  </si>
+  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 650</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 41</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 39</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 38</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 35</t>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
+  </si>
+  <si>
+    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 708</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดสมุทรสงคราม รายที่ 40</t>
   </si>
   <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 693</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 689</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 661</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 684</t>
-  </si>
-  <si>
-    <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 708</t>
-  </si>
-  <si>
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดกรุงเทพ รายที่ 686</t>
   </si>
   <si>
@@ -490,63 +424,33 @@
     <t>ผู้ป่วยติดเชื้อ โควิดมหาสารคาม รายที่ 17</t>
   </si>
   <si>
-    <t>13.85519716</t>
-  </si>
-  <si>
-    <t>13.37234365</t>
-  </si>
-  <si>
-    <t>13.37240823</t>
-  </si>
-  <si>
-    <t>13.37239571</t>
-  </si>
-  <si>
-    <t>13.37240194</t>
-  </si>
-  <si>
-    <t>13.74048824</t>
-  </si>
-  <si>
-    <t>13.74871188</t>
-  </si>
-  <si>
-    <t>13.74048254</t>
-  </si>
-  <si>
-    <t>13.81611195</t>
-  </si>
-  <si>
-    <t>14.58473062</t>
-  </si>
-  <si>
-    <t>13.37266492</t>
+    <t>13.4057825</t>
+  </si>
+  <si>
+    <t>13.40588499</t>
+  </si>
+  <si>
+    <t>13.40612011</t>
+  </si>
+  <si>
+    <t>13.40598552</t>
+  </si>
+  <si>
+    <t>13.40628035</t>
+  </si>
+  <si>
+    <t>13.72653746</t>
   </si>
   <si>
     <t>13.97565922</t>
   </si>
   <si>
-    <t>13.40588499</t>
-  </si>
-  <si>
-    <t>13.40612011</t>
-  </si>
-  <si>
-    <t>13.40598552</t>
-  </si>
-  <si>
-    <t>13.40628035</t>
+    <t>13.76042483</t>
   </si>
   <si>
     <t>14.58472864</t>
   </si>
   <si>
-    <t>13.72653746</t>
-  </si>
-  <si>
-    <t>13.76042483</t>
-  </si>
-  <si>
     <t>13.75814784</t>
   </si>
   <si>
@@ -565,9 +469,6 @@
     <t>13.73793165</t>
   </si>
   <si>
-    <t>13.4057825</t>
-  </si>
-  <si>
     <t>13.72649737</t>
   </si>
   <si>
@@ -580,39 +481,39 @@
     <t>13.40593161</t>
   </si>
   <si>
+    <t>13.40595472</t>
+  </si>
+  <si>
+    <t>13.40613236</t>
+  </si>
+  <si>
+    <t>13.40596242</t>
+  </si>
+  <si>
+    <t>13.40650905</t>
+  </si>
+  <si>
     <t>13.82875611</t>
   </si>
   <si>
-    <t>13.40595472</t>
-  </si>
-  <si>
-    <t>13.40613236</t>
-  </si>
-  <si>
-    <t>13.40596242</t>
-  </si>
-  <si>
-    <t>13.40650905</t>
+    <t>13.86278523</t>
+  </si>
+  <si>
+    <t>13.86203428</t>
+  </si>
+  <si>
+    <t>13.72037624</t>
+  </si>
+  <si>
+    <t>13.72666176</t>
+  </si>
+  <si>
+    <t>13.72651523</t>
   </si>
   <si>
     <t>13.40597333</t>
   </si>
   <si>
-    <t>13.86278523</t>
-  </si>
-  <si>
-    <t>13.86203428</t>
-  </si>
-  <si>
-    <t>13.72037624</t>
-  </si>
-  <si>
-    <t>13.72666176</t>
-  </si>
-  <si>
-    <t>13.72651523</t>
-  </si>
-  <si>
     <t>13.72604683</t>
   </si>
   <si>
@@ -697,63 +598,33 @@
     <t>16.18141284</t>
   </si>
   <si>
-    <t>100.5422268</t>
-  </si>
-  <si>
-    <t>99.84068885</t>
-  </si>
-  <si>
-    <t>99.84044998</t>
-  </si>
-  <si>
-    <t>99.84065417</t>
-  </si>
-  <si>
-    <t>99.84054831</t>
-  </si>
-  <si>
-    <t>100.5223528</t>
-  </si>
-  <si>
-    <t>100.5832291</t>
-  </si>
-  <si>
-    <t>100.522356</t>
-  </si>
-  <si>
-    <t>100.5611614</t>
-  </si>
-  <si>
-    <t>100.452165</t>
-  </si>
-  <si>
-    <t>99.84102394</t>
+    <t>99.9982253</t>
+  </si>
+  <si>
+    <t>99.99792781</t>
+  </si>
+  <si>
+    <t>99.99819431</t>
+  </si>
+  <si>
+    <t>99.9981405</t>
+  </si>
+  <si>
+    <t>99.99793397</t>
+  </si>
+  <si>
+    <t>100.5098666</t>
   </si>
   <si>
     <t>99.63108216</t>
   </si>
   <si>
-    <t>99.99792781</t>
-  </si>
-  <si>
-    <t>99.99819431</t>
-  </si>
-  <si>
-    <t>99.9981405</t>
-  </si>
-  <si>
-    <t>99.99793397</t>
+    <t>100.5381908</t>
   </si>
   <si>
     <t>100.4521962</t>
   </si>
   <si>
-    <t>100.5098666</t>
-  </si>
-  <si>
-    <t>100.5381908</t>
-  </si>
-  <si>
     <t>100.5350653</t>
   </si>
   <si>
@@ -772,9 +643,6 @@
     <t>100.5595182</t>
   </si>
   <si>
-    <t>99.9982253</t>
-  </si>
-  <si>
     <t>100.5098294</t>
   </si>
   <si>
@@ -787,39 +655,39 @@
     <t>99.99826105</t>
   </si>
   <si>
+    <t>99.99779066</t>
+  </si>
+  <si>
+    <t>99.99799241</t>
+  </si>
+  <si>
+    <t>99.99806255</t>
+  </si>
+  <si>
+    <t>99.99794955</t>
+  </si>
+  <si>
     <t>100.5687203</t>
   </si>
   <si>
-    <t>99.99779066</t>
-  </si>
-  <si>
-    <t>99.99799241</t>
-  </si>
-  <si>
-    <t>99.99806255</t>
-  </si>
-  <si>
-    <t>99.99794955</t>
+    <t>100.6667972</t>
+  </si>
+  <si>
+    <t>100.6124718</t>
+  </si>
+  <si>
+    <t>100.5600709</t>
+  </si>
+  <si>
+    <t>100.5093037</t>
+  </si>
+  <si>
+    <t>100.5098025</t>
   </si>
   <si>
     <t>99.99799763</t>
   </si>
   <si>
-    <t>100.6667972</t>
-  </si>
-  <si>
-    <t>100.6124718</t>
-  </si>
-  <si>
-    <t>100.5600709</t>
-  </si>
-  <si>
-    <t>100.5093037</t>
-  </si>
-  <si>
-    <t>100.5098025</t>
-  </si>
-  <si>
     <t>100.5098724</t>
   </si>
   <si>
@@ -907,75 +775,45 @@
     <t>1</t>
   </si>
   <si>
+    <t>ข่าวสาร</t>
+  </si>
+  <si>
     <t>ไม่ระบุพิกัด</t>
   </si>
   <si>
-    <t>ข่าวสาร</t>
+    <t>กำลังรักษา</t>
   </si>
   <si>
     <t>Timeline ที่ผู้ป่วยเคยมา</t>
   </si>
   <si>
-    <t>กำลังรักษา</t>
-  </si>
-  <si>
-    <t>รายที่ 611 ชาย ตัวแทนขายประกันชีวิต</t>
-  </si>
-  <si>
-    <t>รายที่ 26 เพศหญิง อายุ 53 ปี ไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 ที่รพ. ปากท่อ และรับการรักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์...ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 27 เพศหญิง อายุ 52 ปี เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรีเริ่มป่วย วันที่ 17 มค.2564 มีอาการไข้ ปวดเมื่อยตามตัวและเจ็บคอ ท้องเสีย ซื้อยามากินเอง ในวันที่ 20 มค. 64 เข้ารับการตรวจทางห้องปฏิบัติการ พบเชื้อ COVID – 19 ที่รพ. ปากท่อ</t>
-  </si>
-  <si>
-    <t>รายที่ 25 เพศหญิง อายุ 50 ปีไม่มีอาการเจ็บป่วย เป็นกลุ่มเสี่ยงเสี่ยงกับผู้ป่วยยืนยันรายที่ 23 และ 24 ของจังหวัดราชบุรี เข้ารับการตรวจทางห้องปฏิบัติการพบเชื้อ COVID – 19 รักษาที่รพ. ปากท่อ เมื่อวันที่ 20 ม.ค. 63 ประวัติทำงานที่จังหวัดสมุทรสาครเดินทางไป-กลับทุกวัน ด้วยรถยนต์ส่วนตัว</t>
-  </si>
-  <si>
-    <t>รายที่ 31 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 50 ปี ที่อยู่ ม.4 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 699 ชายธุรกิจออนไลน์</t>
-  </si>
-  <si>
-    <t>รายที่ 610 ชาย นักแสดง ดีเจ พิธีกร</t>
-  </si>
-  <si>
-    <t>รายที่ 631 ชาย ลูกเรือสายการบิน</t>
-  </si>
-  <si>
-    <t>รายที่ 646 ชาย นักศึกษา ม.อัสสัมชัญ (ABAC)</t>
-  </si>
-  <si>
-    <t>รายที่ 112 หญิง อายุ 39 ปี ต.หลักแก้ว อ.วิเศษชัญชาญ</t>
-  </si>
-  <si>
-    <t>รายที่ 30 ของจังหวัดเพชรบุรี เป็นหญิงไทย อายุ 43 ปี ที่อยู่ ม.5 ต.หนองชุมพลเหนือ อ.เขาย้อย อาชีพรับจ้างโรงงานตัดเย็บเสื้อผ้า จ.สมุทรสาคร</t>
+    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+  </si>
+  <si>
+    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ 7 เป็นชาย อายุ 33 ปี เป็นเจ้าหน้าที่ไปปฏิบัติงานในพื้นที่จังหวัดสมุทรสาคร วันที่ 11-14 มกราคม 2564 ปฏิบัติงานสอบสวนโรคในพื้นที่จังหวัดสมุทรสาคร วันที่ 15 มกราคม 2564 เจ้าหน้าที่แจ้งว่าทีมปฏิบัติงานทีมเดียวกัน มีผลตรวจพบเชื้อไวรัสโควิด-19 จำนวน 1 ราย วันที่ 15-19 มกราคม 2564 กลับจังหวัดกาญจนบุรี กักตัวดูอาการที่บ้านพักในอำเภอท่าม่วง</t>
   </si>
   <si>
-    <t>รายที่ 31 ผู้ป่วยเพศหญิง อายุ 54 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 32 ผู้ป่วยเพศหญิง อายุ 27 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 33 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 9 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 34 ผู้ป่วยเพศหญิง อายุ 42 ปี อาชีพ พนักงานบริษัท ในนิคมอุสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 8 ต.บางพรม อ.บางคนที</t>
+    <t>รายที่ 635 ชายพนักงานบริษัท</t>
   </si>
   <si>
     <t>ผู้ป่วยรายที่ : 116 เพศ : ชาย สัญชาติ : ไทย อายุ : 65 ปี ต.บางจัก อ.วิเศษชัยชาญ</t>
   </si>
   <si>
-    <t>รายที่ 665 ชาย ไม่ได้ประกอบอาชีพ</t>
-  </si>
-  <si>
-    <t>รายที่ 635 ชายพนักงานบริษัท</t>
-  </si>
-  <si>
     <t>รายที่ 648 ชายผู้จัดการสถาบันกวดวิชา</t>
   </si>
   <si>
@@ -994,9 +832,6 @@
     <t>รายที่ 659 หญิง พนักงานร้านสตาร์บัค</t>
   </si>
   <si>
-    <t>รายที่ 30 ผู้ป่วยเพศหญิง อายุ 57 ปี อาชีพ พนักงานบริษัท ในนิคมอุตสาหกรรมสมุทรสาคร ต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 3 ต.ท่าคา อ.อัมพวา</t>
-  </si>
-  <si>
     <t>รายที่ 666 หญิง พนักงานร้านขายเสื้อผ้า</t>
   </si>
   <si>
@@ -1009,39 +844,39 @@
     <t>รายที่ 36 ผู้ป่วยเพศชาย อายุ 36 ปี อาชีพ อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หอพัก ต.ท่าทราย อ.เมือง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
+  </si>
+  <si>
+    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
+  </si>
+  <si>
+    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
+  </si>
+  <si>
+    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+  </si>
+  <si>
     <t>รายที่ 650 ชาย อาชีพรับจ้าง</t>
   </si>
   <si>
-    <t>รายที่ 41 ผู้ป่วยเพศหญิง อายุ 53 ปี อาชีพ พนักงานบริษัทผลิตภัณฑ์อาหารทะเลแปรรูป ต.บางขันแตก อ.เมือง ฯ ที่อยู่ ตำบลแม่กลอง อำเภอเมืองฯ</t>
-  </si>
-  <si>
-    <t>รายที่ 39ผู้ป่วยเพศหญิง อายุ 44 ปี (ไม่มีอาการ) อาชีพ รับจ้าง (สัมผัสใกล้ชิดผู้ป่วยรายที่ 32) ที่อยู่ หมู่ 1 ต.นางตะเคียน อ.เมือง</t>
-  </si>
-  <si>
-    <t>รายที่ 38 ผู้ป่วยเพศชาย อายุ 23 ปี (สัมผัสใกล้ชิดผู้ป่วยรายที่29) อาชีพ ทำสวน ที่อยู่ หมู่ 4 ต.บางนางลี่ อ.อัมพวา</t>
-  </si>
-  <si>
-    <t>รายที่ 35 ผู้ป่วยเพศหญิง อายุ 52 ปี อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯจ.สมุทรสาคร ที่อยู่ หมู่ 1 ต.แพรกหนามแดง อ.อัมพวา</t>
+    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
+  </si>
+  <si>
+    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 708 หญิงพนักงานร้านอาหาร</t>
   </si>
   <si>
     <t>รายที่ 40 ผู้ป่วยเพศหญิง อายุ 58 ปี (ไม่มีอาการ) อาชีพ พนักงานบริษัทตัดเย็บเสื้อผ้าแห่งหนึ่งต.บางกระเจ้า อ.เมืองฯ จ.สมุทรสาคร ที่อยู่ หมู่ 4 ต.ท่าคา อ.อัมพวา</t>
   </si>
   <si>
-    <t>ผู้ป่วยรายที่ 693 หญิง ค้าขาย</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 689 ชาย ว่างงาน</t>
-  </si>
-  <si>
-    <t>รายที่ 661 ชายอาชีพอิสระ(นายหน้าขายอสังหาริมทรัพย์)</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 684 ชาย พนักงานร้านอาหาร</t>
-  </si>
-  <si>
-    <t>ผู้ป่วยรายที่ 708 หญิงพนักงานร้านอาหาร</t>
-  </si>
-  <si>
     <t>ผู้ป่วยรายที่ 686 ชาย พนักงานร้านอาหาร</t>
   </si>
   <si>
@@ -1129,96 +964,66 @@
     <t>ผู้ป่วยรายที่ 17 ชาย อายุ 51 ปี</t>
   </si>
   <si>
+    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
+  </si>
+  <si>
     <t>กรุงเทพมหานคร โดยสำนักงานประชาสัมพันธ์</t>
   </si>
   <si>
+    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
+  </si>
+  <si>
+    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
+  </si>
+  <si>
+    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
+  </si>
+  <si>
+    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
+  </si>
+  <si>
     <t>สำนักงานสาธารณสุขจังหวัดราชบุรี</t>
   </si>
   <si>
+    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
+  </si>
+  <si>
     <t>ข่าวเด็ดเพชรบุรี</t>
   </si>
   <si>
-    <t>สำนักงานสาธารณสุขจังหวัดอ่างทอง</t>
-  </si>
-  <si>
-    <t>สำนักงานประชาสัมพันธ์จังหวัดกาญจนบุรี (PRD_KAN)</t>
-  </si>
-  <si>
-    <t>Covid-19 จังหวัดสมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>ศูนย์ข้อมูล COVID-19 นนทบุรี</t>
-  </si>
-  <si>
-    <t>งานประชาสัมพันธ์ สสจ.อยุธยา</t>
-  </si>
-  <si>
-    <t>สำนักงานสาธารณสุขจังหวัดนราธิวาส</t>
-  </si>
-  <si>
     <t>สนง.สาธารณสุข จังหวัด มหาสารคาม</t>
   </si>
   <si>
     <t>PRCovid-19นครปฐม</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187573201342279</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464262779791</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464352779782//</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%A3%E0%B8%93%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-222389184454020/photos/pcb.5672491349443749/5672464302779787/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077111769474502/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915672741365</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3187576928008573/3187572808008985</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191782624254670</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096347356631</t>
-  </si>
-  <si>
-    <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/timeline112_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kaodedphetburi/photos/a.568468567005494/1077112422807770/</t>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B2%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%99%E0%B8%98%E0%B9%8C%E0%B8%88%E0%B8%B1%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%8D%E0%B8%88%E0%B8%99%E0%B8%9A%E0%B8%B8%E0%B8%A3%E0%B8%B5-PRD_KAN-148478098550037/photos/pcb.3848666808531129/3848666605197816</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354440633992</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354330634003</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354377300665</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354417300661</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
   </si>
   <si>
     <t>https://www.ato.moph.go.th/aeed/sites/default/files/2021-01/%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%97%E0%B8%B5%E0%B9%88%20116.jpg</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185207047745</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3191783664254566/3191783057587960</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194335513999381</t>
   </si>
   <si>
@@ -1237,9 +1042,6 @@
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185110381088</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.243354820633954/243354293967340/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185127047753</t>
   </si>
   <si>
@@ -1252,39 +1054,39 @@
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051280564308</t>
   </si>
   <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3194102854022647/3194096737356592</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244530680516368</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526963850073</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526930516743</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244051227230980/</t>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915742741358</t>
   </si>
   <si>
     <t>https://www.facebook.com/sskofficialcovid19/photos/pcb.244051567230946/244526897183413</t>
   </si>
   <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619799937619</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619446604321</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3197187133714219/3197185420381057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619096604356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/prbangkok/photos/pcb.3206916606074605/3206915742741358</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/prbangkok/photos/pcb.3201620069937592/3201619199937679</t>
   </si>
   <si>
@@ -1369,75 +1171,60 @@
     <t>https://www.facebook.com/photo?fbid=1432789357064039&amp;set=a.159392111070443</t>
   </si>
   <si>
-    <t>แขวง ทุ่งสองห้อง</t>
-  </si>
-  <si>
-    <t>ยางหัก</t>
+    <t>แม่กลอง</t>
+  </si>
+  <si>
+    <t>แขวง คลองต้นไทร</t>
+  </si>
+  <si>
+    <t>ท่าม่วง</t>
+  </si>
+  <si>
+    <t>แขวง ถนนพญาไท</t>
+  </si>
+  <si>
+    <t>บางแก้ว</t>
+  </si>
+  <si>
+    <t>แขวง ห้วยขวาง</t>
+  </si>
+  <si>
+    <t>แขวง พระโขนงเหนือ</t>
+  </si>
+  <si>
+    <t>บ่อโพง</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตยเหนือ</t>
+  </si>
+  <si>
+    <t>ไร่ขิง</t>
+  </si>
+  <si>
+    <t>แขวง ลาดยาว</t>
+  </si>
+  <si>
+    <t>แขวง ท่าแร้ง</t>
+  </si>
+  <si>
+    <t>แขวง อนุสาวรีย์</t>
+  </si>
+  <si>
+    <t>แขวง คลองเตย</t>
+  </si>
+  <si>
+   